--- a/Participants_log.xlsx
+++ b/Participants_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a66c9eafe7ca5b97/Documents/GitHub/affixproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CB2E96E-5061-416B-A167-3F2A18B17397}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A605B3CD-3A4A-4BE5-B18F-29608F55BE73}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A64A2D64-A729-45BB-94DF-402620060AB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Next week (Tue-Wed-Thu)?</t>
   </si>
   <si>
-    <t>Fran?</t>
-  </si>
-  <si>
     <t>Patrick?</t>
   </si>
   <si>
@@ -90,6 +87,12 @@
   </si>
   <si>
     <t>Friday after lunch</t>
+  </si>
+  <si>
+    <t>Francesco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ran word_generation Ran experiment            </t>
   </si>
 </sst>
 </file>
@@ -800,7 +803,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5:D7"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -862,15 +865,17 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5"/>
+      <c r="C5" s="4">
+        <v>45014</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -943,12 +948,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="10"/>
     </row>
@@ -968,13 +975,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3">
         <v>6</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="10"/>
@@ -995,13 +1002,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="3">
         <v>7</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="10"/>
@@ -3790,11 +3797,11 @@
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
@@ -3815,11 +3822,11 @@
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Participants_log.xlsx
+++ b/Participants_log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a66c9eafe7ca5b97/Documents/GitHub/affixproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="204" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BBA4B0D-6D4B-49F4-B3BB-7400973C525E}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37F030E1-300E-4175-944E-D4493E803328}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A64A2D64-A729-45BB-94DF-402620060AB1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -74,18 +74,6 @@
     <t>Next week (Tue-Wed-Thu)?</t>
   </si>
   <si>
-    <t>Patrick?</t>
-  </si>
-  <si>
-    <t>Saturday?</t>
-  </si>
-  <si>
-    <t>Ilaria?</t>
-  </si>
-  <si>
-    <t>Friday after lunch</t>
-  </si>
-  <si>
     <t>Next week?</t>
   </si>
   <si>
@@ -93,9 +81,6 @@
   </si>
   <si>
     <t>Francesco Rinaldi</t>
-  </si>
-  <si>
-    <t>Ran word_generation Ran experiment</t>
   </si>
   <si>
     <t>Alex (BioPhys)</t>
@@ -106,12 +91,27 @@
   <si>
     <t>Andrea (StatPhys)</t>
   </si>
+  <si>
+    <t>Patrick (da Elena)</t>
+  </si>
+  <si>
+    <t>Failed attention check                 Very long RTs at the beginning</t>
+  </si>
+  <si>
+    <t>Ilaria</t>
+  </si>
+  <si>
+    <t>Amico d'Elena</t>
+  </si>
+  <si>
+    <t>Thought maybe to track letters</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +127,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -136,7 +143,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -184,19 +191,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -256,45 +250,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -395,34 +350,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -430,36 +399,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -468,22 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -494,6 +439,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -510,6 +494,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -813,7 +801,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A16"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -874,19 +862,19 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="13">
+      <c r="A5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="15">
         <v>2</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="20">
         <v>45014</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
@@ -903,75 +891,79 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="13">
+      <c r="A8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="15">
         <v>3</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <v>45015</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="18"/>
+      <c r="D8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="20"/>
+      <c r="C9" s="18"/>
       <c r="D9" s="6"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="21"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="19"/>
       <c r="D10" s="6"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="13">
+      <c r="A11" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="32">
         <v>4</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="33">
+        <v>45016</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="18"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="A14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="15">
         <v>5</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="18"/>
+      <c r="C14" s="20">
+        <v>45017</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
@@ -981,51 +973,57 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="12"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="6"/>
       <c r="E16" s="7"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="13">
+    <row r="17" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="15">
         <v>6</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18"/>
+      <c r="C17" s="20">
+        <v>45017</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="20"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="6"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="12"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="21"/>
       <c r="D19" s="6"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="13">
+      <c r="A20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="15">
         <v>7</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
+      <c r="C20" s="20">
+        <v>45017</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
@@ -1035,51 +1033,51 @@
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="12"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="6"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="13">
+      <c r="A23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="15">
         <v>8</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+      <c r="C23" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="18"/>
       <c r="D24" s="6"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="12"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="16"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="19"/>
       <c r="D25" s="6"/>
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="13">
+      <c r="A26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="15">
         <v>9</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="18"/>
+      <c r="C26" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
@@ -1089,20 +1087,24 @@
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="12"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="16"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="6"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="11"/>
-      <c r="B29" s="13">
+      <c r="A29" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="15">
         <v>10</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="18"/>
+      <c r="C29" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
@@ -1111,21 +1113,21 @@
       <c r="D30" s="6"/>
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="12"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="16"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="14"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="6"/>
       <c r="E31" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="25"/>
-      <c r="B32" s="28">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="13"/>
+      <c r="B32" s="15">
         <v>11</v>
       </c>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="22"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
@@ -1134,20 +1136,20 @@
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="23"/>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="11"/>
+      <c r="A35" s="10"/>
       <c r="B35" s="9">
         <v>12</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="17"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1158,20 +1160,20 @@
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="12"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="24"/>
+      <c r="A37" s="14"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="11"/>
-      <c r="B38" s="13">
+      <c r="A38" s="13"/>
+      <c r="B38" s="15">
         <v>13</v>
       </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
@@ -1188,13 +1190,13 @@
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="11"/>
-      <c r="B41" s="13">
+      <c r="A41" s="13"/>
+      <c r="B41" s="15">
         <v>14</v>
       </c>
-      <c r="C41" s="15"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="18"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
@@ -1204,20 +1206,20 @@
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="12"/>
-      <c r="B43" s="14"/>
-      <c r="C43" s="16"/>
+      <c r="A43" s="14"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="6"/>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="11"/>
-      <c r="B44" s="13">
+      <c r="A44" s="13"/>
+      <c r="B44" s="15">
         <v>15</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
@@ -1234,13 +1236,13 @@
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="11"/>
-      <c r="B47" s="13">
+      <c r="A47" s="13"/>
+      <c r="B47" s="15">
         <v>16</v>
       </c>
-      <c r="C47" s="15"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
@@ -1257,13 +1259,13 @@
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A50" s="11"/>
-      <c r="B50" s="13">
+      <c r="A50" s="13"/>
+      <c r="B50" s="15">
         <v>17</v>
       </c>
-      <c r="C50" s="15"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="18"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
@@ -1280,13 +1282,13 @@
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A53" s="11"/>
-      <c r="B53" s="13">
+      <c r="A53" s="13"/>
+      <c r="B53" s="15">
         <v>18</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="18"/>
+      <c r="C53" s="20"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
@@ -1303,13 +1305,13 @@
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A56" s="11"/>
-      <c r="B56" s="13">
+      <c r="A56" s="13"/>
+      <c r="B56" s="15">
         <v>19</v>
       </c>
-      <c r="C56" s="15"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="18"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
@@ -1326,13 +1328,13 @@
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A59" s="11"/>
-      <c r="B59" s="13">
+      <c r="A59" s="13"/>
+      <c r="B59" s="15">
         <v>20</v>
       </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="18"/>
+      <c r="C59" s="20"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="10"/>
@@ -1349,13 +1351,13 @@
       <c r="E61" s="7"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A62" s="11"/>
-      <c r="B62" s="13">
+      <c r="A62" s="13"/>
+      <c r="B62" s="15">
         <v>21</v>
       </c>
-      <c r="C62" s="15"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="18"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="10"/>
@@ -1372,13 +1374,13 @@
       <c r="E64" s="7"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A65" s="11"/>
-      <c r="B65" s="13">
+      <c r="A65" s="13"/>
+      <c r="B65" s="15">
         <v>22</v>
       </c>
-      <c r="C65" s="15"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="18"/>
+      <c r="C65" s="20"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="10"/>
@@ -1395,13 +1397,13 @@
       <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A68" s="11"/>
-      <c r="B68" s="13">
+      <c r="A68" s="13"/>
+      <c r="B68" s="15">
         <v>23</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="18"/>
+      <c r="C68" s="20"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="10"/>
@@ -1418,13 +1420,13 @@
       <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A71" s="11"/>
-      <c r="B71" s="13">
+      <c r="A71" s="13"/>
+      <c r="B71" s="15">
         <v>24</v>
       </c>
-      <c r="C71" s="15"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="18"/>
+      <c r="C71" s="20"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="12"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="10"/>
@@ -1441,13 +1443,13 @@
       <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="11"/>
-      <c r="B74" s="13">
+      <c r="A74" s="13"/>
+      <c r="B74" s="15">
         <v>25</v>
       </c>
-      <c r="C74" s="15"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="18"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="12"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="10"/>
@@ -1464,13 +1466,13 @@
       <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="11"/>
-      <c r="B77" s="13">
+      <c r="A77" s="13"/>
+      <c r="B77" s="15">
         <v>26</v>
       </c>
-      <c r="C77" s="15"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="18"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="10"/>
@@ -1487,13 +1489,13 @@
       <c r="E79" s="7"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A80" s="11"/>
-      <c r="B80" s="13">
+      <c r="A80" s="13"/>
+      <c r="B80" s="15">
         <v>27</v>
       </c>
-      <c r="C80" s="15"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="18"/>
+      <c r="C80" s="20"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="12"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="10"/>
@@ -1510,13 +1512,13 @@
       <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A83" s="11"/>
-      <c r="B83" s="13">
+      <c r="A83" s="13"/>
+      <c r="B83" s="15">
         <v>28</v>
       </c>
-      <c r="C83" s="15"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="18"/>
+      <c r="C83" s="20"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="12"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="10"/>
@@ -1533,13 +1535,13 @@
       <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A86" s="11"/>
-      <c r="B86" s="13">
+      <c r="A86" s="13"/>
+      <c r="B86" s="15">
         <v>29</v>
       </c>
-      <c r="C86" s="15"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="18"/>
+      <c r="C86" s="20"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="10"/>
@@ -1556,13 +1558,13 @@
       <c r="E88" s="7"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A89" s="11"/>
-      <c r="B89" s="13">
+      <c r="A89" s="13"/>
+      <c r="B89" s="15">
         <v>30</v>
       </c>
-      <c r="C89" s="15"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="18"/>
+      <c r="C89" s="20"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="12"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="10"/>
@@ -1579,13 +1581,13 @@
       <c r="E91" s="7"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A92" s="11"/>
-      <c r="B92" s="13">
+      <c r="A92" s="13"/>
+      <c r="B92" s="15">
         <v>31</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="18"/>
+      <c r="C92" s="20"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="12"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="10"/>
@@ -1602,13 +1604,13 @@
       <c r="E94" s="7"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A95" s="11"/>
-      <c r="B95" s="13">
+      <c r="A95" s="13"/>
+      <c r="B95" s="15">
         <v>32</v>
       </c>
-      <c r="C95" s="15"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="18"/>
+      <c r="C95" s="20"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="12"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="10"/>
@@ -1625,13 +1627,13 @@
       <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="11"/>
-      <c r="B98" s="13">
+      <c r="A98" s="13"/>
+      <c r="B98" s="15">
         <v>33</v>
       </c>
-      <c r="C98" s="15"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="18"/>
+      <c r="C98" s="20"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="12"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="10"/>
@@ -1648,13 +1650,13 @@
       <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="11"/>
-      <c r="B101" s="13">
+      <c r="A101" s="13"/>
+      <c r="B101" s="15">
         <v>34</v>
       </c>
-      <c r="C101" s="15"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="18"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="12"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="10"/>
@@ -1671,13 +1673,13 @@
       <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="11"/>
-      <c r="B104" s="13">
+      <c r="A104" s="13"/>
+      <c r="B104" s="15">
         <v>35</v>
       </c>
-      <c r="C104" s="15"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="18"/>
+      <c r="C104" s="20"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="12"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="10"/>
@@ -1694,13 +1696,13 @@
       <c r="E106" s="7"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="11"/>
-      <c r="B107" s="13">
+      <c r="A107" s="13"/>
+      <c r="B107" s="15">
         <v>36</v>
       </c>
-      <c r="C107" s="15"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="18"/>
+      <c r="C107" s="20"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="12"/>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="10"/>
@@ -1717,13 +1719,13 @@
       <c r="E109" s="7"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="11"/>
-      <c r="B110" s="13">
+      <c r="A110" s="13"/>
+      <c r="B110" s="15">
         <v>37</v>
       </c>
-      <c r="C110" s="15"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="18"/>
+      <c r="C110" s="20"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="12"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="10"/>
@@ -1740,13 +1742,13 @@
       <c r="E112" s="7"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="11"/>
-      <c r="B113" s="13">
+      <c r="A113" s="13"/>
+      <c r="B113" s="15">
         <v>38</v>
       </c>
-      <c r="C113" s="15"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="18"/>
+      <c r="C113" s="20"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="12"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="10"/>
@@ -1763,13 +1765,13 @@
       <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="11"/>
-      <c r="B116" s="13">
+      <c r="A116" s="13"/>
+      <c r="B116" s="15">
         <v>39</v>
       </c>
-      <c r="C116" s="15"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="18"/>
+      <c r="C116" s="20"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="12"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="10"/>
@@ -1786,13 +1788,13 @@
       <c r="E118" s="7"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A119" s="11"/>
-      <c r="B119" s="13">
+      <c r="A119" s="13"/>
+      <c r="B119" s="15">
         <v>40</v>
       </c>
-      <c r="C119" s="15"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="18"/>
+      <c r="C119" s="20"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="12"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="10"/>
@@ -1809,13 +1811,13 @@
       <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A122" s="11"/>
-      <c r="B122" s="13">
+      <c r="A122" s="13"/>
+      <c r="B122" s="15">
         <v>41</v>
       </c>
-      <c r="C122" s="15"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="18"/>
+      <c r="C122" s="20"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="12"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="10"/>
@@ -1832,13 +1834,13 @@
       <c r="E124" s="7"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="11"/>
-      <c r="B125" s="13">
+      <c r="A125" s="13"/>
+      <c r="B125" s="15">
         <v>42</v>
       </c>
-      <c r="C125" s="15"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="18"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="12"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
@@ -1855,13 +1857,13 @@
       <c r="E127" s="7"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A128" s="11"/>
-      <c r="B128" s="13">
+      <c r="A128" s="13"/>
+      <c r="B128" s="15">
         <v>43</v>
       </c>
-      <c r="C128" s="15"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="18"/>
+      <c r="C128" s="20"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="12"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="10"/>
@@ -1878,13 +1880,13 @@
       <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A131" s="11"/>
-      <c r="B131" s="13">
+      <c r="A131" s="13"/>
+      <c r="B131" s="15">
         <v>44</v>
       </c>
-      <c r="C131" s="15"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="18"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="11"/>
+      <c r="E131" s="12"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="10"/>
@@ -1901,13 +1903,13 @@
       <c r="E133" s="7"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A134" s="11"/>
-      <c r="B134" s="13">
+      <c r="A134" s="13"/>
+      <c r="B134" s="15">
         <v>45</v>
       </c>
-      <c r="C134" s="15"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="18"/>
+      <c r="C134" s="20"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="12"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="10"/>
@@ -1924,13 +1926,13 @@
       <c r="E136" s="7"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A137" s="11"/>
-      <c r="B137" s="13">
+      <c r="A137" s="13"/>
+      <c r="B137" s="15">
         <v>46</v>
       </c>
-      <c r="C137" s="15"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="18"/>
+      <c r="C137" s="20"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="12"/>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="10"/>
@@ -1947,13 +1949,13 @@
       <c r="E139" s="7"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A140" s="11"/>
-      <c r="B140" s="13">
+      <c r="A140" s="13"/>
+      <c r="B140" s="15">
         <v>47</v>
       </c>
-      <c r="C140" s="15"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="18"/>
+      <c r="C140" s="20"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="12"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="10"/>
@@ -1970,13 +1972,13 @@
       <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A143" s="11"/>
-      <c r="B143" s="13">
+      <c r="A143" s="13"/>
+      <c r="B143" s="15">
         <v>48</v>
       </c>
-      <c r="C143" s="15"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="18"/>
+      <c r="C143" s="20"/>
+      <c r="D143" s="11"/>
+      <c r="E143" s="12"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="10"/>
@@ -1993,13 +1995,13 @@
       <c r="E145" s="7"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A146" s="11"/>
-      <c r="B146" s="13">
+      <c r="A146" s="13"/>
+      <c r="B146" s="15">
         <v>49</v>
       </c>
-      <c r="C146" s="15"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="18"/>
+      <c r="C146" s="20"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="12"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="10"/>
@@ -2016,13 +2018,13 @@
       <c r="E148" s="7"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A149" s="11"/>
-      <c r="B149" s="13">
+      <c r="A149" s="13"/>
+      <c r="B149" s="15">
         <v>50</v>
       </c>
-      <c r="C149" s="15"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="18"/>
+      <c r="C149" s="20"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="12"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="10"/>
@@ -2039,13 +2041,13 @@
       <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A152" s="11"/>
-      <c r="B152" s="13">
+      <c r="A152" s="13"/>
+      <c r="B152" s="15">
         <v>51</v>
       </c>
-      <c r="C152" s="15"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="18"/>
+      <c r="C152" s="20"/>
+      <c r="D152" s="11"/>
+      <c r="E152" s="12"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="10"/>
@@ -2062,13 +2064,13 @@
       <c r="E154" s="7"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="11"/>
-      <c r="B155" s="13">
+      <c r="A155" s="13"/>
+      <c r="B155" s="15">
         <v>52</v>
       </c>
-      <c r="C155" s="15"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="18"/>
+      <c r="C155" s="20"/>
+      <c r="D155" s="11"/>
+      <c r="E155" s="12"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="10"/>
@@ -2085,13 +2087,13 @@
       <c r="E157" s="7"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A158" s="11"/>
-      <c r="B158" s="13">
+      <c r="A158" s="13"/>
+      <c r="B158" s="15">
         <v>53</v>
       </c>
-      <c r="C158" s="15"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="18"/>
+      <c r="C158" s="20"/>
+      <c r="D158" s="11"/>
+      <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="10"/>
@@ -2108,13 +2110,13 @@
       <c r="E160" s="7"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A161" s="11"/>
-      <c r="B161" s="13">
+      <c r="A161" s="13"/>
+      <c r="B161" s="15">
         <v>54</v>
       </c>
-      <c r="C161" s="15"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="18"/>
+      <c r="C161" s="20"/>
+      <c r="D161" s="11"/>
+      <c r="E161" s="12"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="10"/>
@@ -2131,13 +2133,13 @@
       <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A164" s="11"/>
-      <c r="B164" s="13">
+      <c r="A164" s="13"/>
+      <c r="B164" s="15">
         <v>55</v>
       </c>
-      <c r="C164" s="15"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="18"/>
+      <c r="C164" s="20"/>
+      <c r="D164" s="11"/>
+      <c r="E164" s="12"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="10"/>
@@ -2154,13 +2156,13 @@
       <c r="E166" s="7"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A167" s="11"/>
-      <c r="B167" s="13">
+      <c r="A167" s="13"/>
+      <c r="B167" s="15">
         <v>56</v>
       </c>
-      <c r="C167" s="15"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="18"/>
+      <c r="C167" s="20"/>
+      <c r="D167" s="11"/>
+      <c r="E167" s="12"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="10"/>
@@ -2177,13 +2179,13 @@
       <c r="E169" s="7"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A170" s="11"/>
-      <c r="B170" s="13">
+      <c r="A170" s="13"/>
+      <c r="B170" s="15">
         <v>57</v>
       </c>
-      <c r="C170" s="15"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="18"/>
+      <c r="C170" s="20"/>
+      <c r="D170" s="11"/>
+      <c r="E170" s="12"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="10"/>
@@ -2200,13 +2202,13 @@
       <c r="E172" s="7"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A173" s="11"/>
-      <c r="B173" s="13">
+      <c r="A173" s="13"/>
+      <c r="B173" s="15">
         <v>58</v>
       </c>
-      <c r="C173" s="15"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="18"/>
+      <c r="C173" s="20"/>
+      <c r="D173" s="11"/>
+      <c r="E173" s="12"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="10"/>
@@ -2223,13 +2225,13 @@
       <c r="E175" s="7"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A176" s="11"/>
-      <c r="B176" s="13">
+      <c r="A176" s="13"/>
+      <c r="B176" s="15">
         <v>59</v>
       </c>
-      <c r="C176" s="15"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="18"/>
+      <c r="C176" s="20"/>
+      <c r="D176" s="11"/>
+      <c r="E176" s="12"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="10"/>
@@ -2246,13 +2248,13 @@
       <c r="E178" s="7"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A179" s="11"/>
-      <c r="B179" s="13">
+      <c r="A179" s="13"/>
+      <c r="B179" s="15">
         <v>60</v>
       </c>
-      <c r="C179" s="15"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="18"/>
+      <c r="C179" s="20"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="12"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="10"/>
@@ -2269,13 +2271,13 @@
       <c r="E181" s="7"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A182" s="11"/>
-      <c r="B182" s="13">
+      <c r="A182" s="13"/>
+      <c r="B182" s="15">
         <v>61</v>
       </c>
-      <c r="C182" s="15"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="18"/>
+      <c r="C182" s="20"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="12"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="10"/>
@@ -2292,13 +2294,13 @@
       <c r="E184" s="7"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A185" s="11"/>
-      <c r="B185" s="13">
+      <c r="A185" s="13"/>
+      <c r="B185" s="15">
         <v>62</v>
       </c>
-      <c r="C185" s="15"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="18"/>
+      <c r="C185" s="20"/>
+      <c r="D185" s="11"/>
+      <c r="E185" s="12"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="10"/>
@@ -2315,13 +2317,13 @@
       <c r="E187" s="7"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A188" s="11"/>
-      <c r="B188" s="13">
+      <c r="A188" s="13"/>
+      <c r="B188" s="15">
         <v>63</v>
       </c>
-      <c r="C188" s="15"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="18"/>
+      <c r="C188" s="20"/>
+      <c r="D188" s="11"/>
+      <c r="E188" s="12"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="10"/>
@@ -2338,13 +2340,13 @@
       <c r="E190" s="7"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A191" s="11"/>
-      <c r="B191" s="13">
+      <c r="A191" s="13"/>
+      <c r="B191" s="15">
         <v>64</v>
       </c>
-      <c r="C191" s="15"/>
-      <c r="D191" s="17"/>
-      <c r="E191" s="18"/>
+      <c r="C191" s="20"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="12"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="10"/>
@@ -2361,13 +2363,13 @@
       <c r="E193" s="7"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A194" s="11"/>
-      <c r="B194" s="13">
+      <c r="A194" s="13"/>
+      <c r="B194" s="15">
         <v>65</v>
       </c>
-      <c r="C194" s="15"/>
-      <c r="D194" s="17"/>
-      <c r="E194" s="18"/>
+      <c r="C194" s="20"/>
+      <c r="D194" s="11"/>
+      <c r="E194" s="12"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="10"/>
@@ -2384,13 +2386,13 @@
       <c r="E196" s="7"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A197" s="11"/>
-      <c r="B197" s="13">
+      <c r="A197" s="13"/>
+      <c r="B197" s="15">
         <v>66</v>
       </c>
-      <c r="C197" s="15"/>
-      <c r="D197" s="17"/>
-      <c r="E197" s="18"/>
+      <c r="C197" s="20"/>
+      <c r="D197" s="11"/>
+      <c r="E197" s="12"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="10"/>
@@ -2407,13 +2409,13 @@
       <c r="E199" s="7"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A200" s="11"/>
-      <c r="B200" s="13">
+      <c r="A200" s="13"/>
+      <c r="B200" s="15">
         <v>67</v>
       </c>
-      <c r="C200" s="15"/>
-      <c r="D200" s="17"/>
-      <c r="E200" s="18"/>
+      <c r="C200" s="20"/>
+      <c r="D200" s="11"/>
+      <c r="E200" s="12"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="10"/>
@@ -2430,13 +2432,13 @@
       <c r="E202" s="7"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A203" s="11"/>
-      <c r="B203" s="13">
+      <c r="A203" s="13"/>
+      <c r="B203" s="15">
         <v>68</v>
       </c>
-      <c r="C203" s="15"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="18"/>
+      <c r="C203" s="20"/>
+      <c r="D203" s="11"/>
+      <c r="E203" s="12"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="10"/>
@@ -2453,13 +2455,13 @@
       <c r="E205" s="7"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A206" s="11"/>
-      <c r="B206" s="13">
+      <c r="A206" s="13"/>
+      <c r="B206" s="15">
         <v>69</v>
       </c>
-      <c r="C206" s="15"/>
-      <c r="D206" s="17"/>
-      <c r="E206" s="18"/>
+      <c r="C206" s="20"/>
+      <c r="D206" s="11"/>
+      <c r="E206" s="12"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="10"/>
@@ -2476,13 +2478,13 @@
       <c r="E208" s="7"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A209" s="11"/>
-      <c r="B209" s="13">
+      <c r="A209" s="13"/>
+      <c r="B209" s="15">
         <v>70</v>
       </c>
-      <c r="C209" s="15"/>
-      <c r="D209" s="17"/>
-      <c r="E209" s="18"/>
+      <c r="C209" s="20"/>
+      <c r="D209" s="11"/>
+      <c r="E209" s="12"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="10"/>
@@ -2499,13 +2501,13 @@
       <c r="E211" s="7"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A212" s="11"/>
-      <c r="B212" s="13">
+      <c r="A212" s="13"/>
+      <c r="B212" s="15">
         <v>71</v>
       </c>
-      <c r="C212" s="15"/>
-      <c r="D212" s="17"/>
-      <c r="E212" s="18"/>
+      <c r="C212" s="20"/>
+      <c r="D212" s="11"/>
+      <c r="E212" s="12"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="10"/>
@@ -2522,13 +2524,13 @@
       <c r="E214" s="7"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A215" s="11"/>
-      <c r="B215" s="13">
+      <c r="A215" s="13"/>
+      <c r="B215" s="15">
         <v>72</v>
       </c>
-      <c r="C215" s="15"/>
-      <c r="D215" s="17"/>
-      <c r="E215" s="18"/>
+      <c r="C215" s="20"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="12"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="10"/>
@@ -2545,13 +2547,13 @@
       <c r="E217" s="7"/>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A218" s="11"/>
-      <c r="B218" s="13">
+      <c r="A218" s="13"/>
+      <c r="B218" s="15">
         <v>73</v>
       </c>
-      <c r="C218" s="15"/>
-      <c r="D218" s="17"/>
-      <c r="E218" s="18"/>
+      <c r="C218" s="20"/>
+      <c r="D218" s="11"/>
+      <c r="E218" s="12"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="10"/>
@@ -2568,13 +2570,13 @@
       <c r="E220" s="7"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A221" s="11"/>
-      <c r="B221" s="13">
+      <c r="A221" s="13"/>
+      <c r="B221" s="15">
         <v>74</v>
       </c>
-      <c r="C221" s="15"/>
-      <c r="D221" s="17"/>
-      <c r="E221" s="18"/>
+      <c r="C221" s="20"/>
+      <c r="D221" s="11"/>
+      <c r="E221" s="12"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="10"/>
@@ -2591,13 +2593,13 @@
       <c r="E223" s="7"/>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A224" s="11"/>
-      <c r="B224" s="13">
+      <c r="A224" s="13"/>
+      <c r="B224" s="15">
         <v>75</v>
       </c>
-      <c r="C224" s="15"/>
-      <c r="D224" s="17"/>
-      <c r="E224" s="18"/>
+      <c r="C224" s="20"/>
+      <c r="D224" s="11"/>
+      <c r="E224" s="12"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="10"/>
@@ -2614,13 +2616,13 @@
       <c r="E226" s="7"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A227" s="11"/>
-      <c r="B227" s="13">
+      <c r="A227" s="13"/>
+      <c r="B227" s="15">
         <v>76</v>
       </c>
-      <c r="C227" s="15"/>
-      <c r="D227" s="17"/>
-      <c r="E227" s="18"/>
+      <c r="C227" s="20"/>
+      <c r="D227" s="11"/>
+      <c r="E227" s="12"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="10"/>
@@ -2637,13 +2639,13 @@
       <c r="E229" s="7"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A230" s="11"/>
-      <c r="B230" s="13">
+      <c r="A230" s="13"/>
+      <c r="B230" s="15">
         <v>77</v>
       </c>
-      <c r="C230" s="15"/>
-      <c r="D230" s="17"/>
-      <c r="E230" s="18"/>
+      <c r="C230" s="20"/>
+      <c r="D230" s="11"/>
+      <c r="E230" s="12"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="10"/>
@@ -2660,13 +2662,13 @@
       <c r="E232" s="7"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A233" s="11"/>
-      <c r="B233" s="13">
+      <c r="A233" s="13"/>
+      <c r="B233" s="15">
         <v>78</v>
       </c>
-      <c r="C233" s="15"/>
-      <c r="D233" s="17"/>
-      <c r="E233" s="18"/>
+      <c r="C233" s="20"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="12"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="10"/>
@@ -2683,13 +2685,13 @@
       <c r="E235" s="7"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A236" s="11"/>
-      <c r="B236" s="13">
+      <c r="A236" s="13"/>
+      <c r="B236" s="15">
         <v>79</v>
       </c>
-      <c r="C236" s="15"/>
-      <c r="D236" s="17"/>
-      <c r="E236" s="18"/>
+      <c r="C236" s="20"/>
+      <c r="D236" s="11"/>
+      <c r="E236" s="12"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="10"/>
@@ -2706,13 +2708,13 @@
       <c r="E238" s="7"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A239" s="11"/>
-      <c r="B239" s="13">
+      <c r="A239" s="13"/>
+      <c r="B239" s="15">
         <v>80</v>
       </c>
-      <c r="C239" s="15"/>
-      <c r="D239" s="17"/>
-      <c r="E239" s="18"/>
+      <c r="C239" s="20"/>
+      <c r="D239" s="11"/>
+      <c r="E239" s="12"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="10"/>
@@ -2729,13 +2731,13 @@
       <c r="E241" s="7"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A242" s="11"/>
-      <c r="B242" s="13">
+      <c r="A242" s="13"/>
+      <c r="B242" s="15">
         <v>81</v>
       </c>
-      <c r="C242" s="15"/>
-      <c r="D242" s="17"/>
-      <c r="E242" s="18"/>
+      <c r="C242" s="20"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="12"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="10"/>
@@ -2752,13 +2754,13 @@
       <c r="E244" s="7"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A245" s="11"/>
-      <c r="B245" s="13">
+      <c r="A245" s="13"/>
+      <c r="B245" s="15">
         <v>82</v>
       </c>
-      <c r="C245" s="15"/>
-      <c r="D245" s="17"/>
-      <c r="E245" s="18"/>
+      <c r="C245" s="20"/>
+      <c r="D245" s="11"/>
+      <c r="E245" s="12"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="10"/>
@@ -2775,13 +2777,13 @@
       <c r="E247" s="7"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A248" s="11"/>
-      <c r="B248" s="13">
+      <c r="A248" s="13"/>
+      <c r="B248" s="15">
         <v>83</v>
       </c>
-      <c r="C248" s="15"/>
-      <c r="D248" s="17"/>
-      <c r="E248" s="18"/>
+      <c r="C248" s="20"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="12"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="10"/>
@@ -2798,13 +2800,13 @@
       <c r="E250" s="7"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A251" s="11"/>
-      <c r="B251" s="13">
+      <c r="A251" s="13"/>
+      <c r="B251" s="15">
         <v>84</v>
       </c>
-      <c r="C251" s="15"/>
-      <c r="D251" s="17"/>
-      <c r="E251" s="18"/>
+      <c r="C251" s="20"/>
+      <c r="D251" s="11"/>
+      <c r="E251" s="12"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="10"/>
@@ -2821,13 +2823,13 @@
       <c r="E253" s="7"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A254" s="11"/>
-      <c r="B254" s="13">
+      <c r="A254" s="13"/>
+      <c r="B254" s="15">
         <v>85</v>
       </c>
-      <c r="C254" s="15"/>
-      <c r="D254" s="17"/>
-      <c r="E254" s="18"/>
+      <c r="C254" s="20"/>
+      <c r="D254" s="11"/>
+      <c r="E254" s="12"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="10"/>
@@ -2844,13 +2846,13 @@
       <c r="E256" s="7"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A257" s="11"/>
-      <c r="B257" s="13">
+      <c r="A257" s="13"/>
+      <c r="B257" s="15">
         <v>86</v>
       </c>
-      <c r="C257" s="15"/>
-      <c r="D257" s="17"/>
-      <c r="E257" s="18"/>
+      <c r="C257" s="20"/>
+      <c r="D257" s="11"/>
+      <c r="E257" s="12"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="10"/>
@@ -2867,13 +2869,13 @@
       <c r="E259" s="7"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A260" s="11"/>
-      <c r="B260" s="13">
+      <c r="A260" s="13"/>
+      <c r="B260" s="15">
         <v>87</v>
       </c>
-      <c r="C260" s="15"/>
-      <c r="D260" s="17"/>
-      <c r="E260" s="18"/>
+      <c r="C260" s="20"/>
+      <c r="D260" s="11"/>
+      <c r="E260" s="12"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="10"/>
@@ -2890,13 +2892,13 @@
       <c r="E262" s="7"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A263" s="11"/>
-      <c r="B263" s="13">
+      <c r="A263" s="13"/>
+      <c r="B263" s="15">
         <v>88</v>
       </c>
-      <c r="C263" s="15"/>
-      <c r="D263" s="17"/>
-      <c r="E263" s="18"/>
+      <c r="C263" s="20"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="12"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="10"/>
@@ -2913,13 +2915,13 @@
       <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A266" s="11"/>
-      <c r="B266" s="13">
+      <c r="A266" s="13"/>
+      <c r="B266" s="15">
         <v>89</v>
       </c>
-      <c r="C266" s="15"/>
-      <c r="D266" s="17"/>
-      <c r="E266" s="18"/>
+      <c r="C266" s="20"/>
+      <c r="D266" s="11"/>
+      <c r="E266" s="12"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="10"/>
@@ -2936,13 +2938,13 @@
       <c r="E268" s="7"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A269" s="11"/>
-      <c r="B269" s="13">
+      <c r="A269" s="13"/>
+      <c r="B269" s="15">
         <v>90</v>
       </c>
-      <c r="C269" s="15"/>
-      <c r="D269" s="17"/>
-      <c r="E269" s="18"/>
+      <c r="C269" s="20"/>
+      <c r="D269" s="11"/>
+      <c r="E269" s="12"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="10"/>
@@ -2959,13 +2961,13 @@
       <c r="E271" s="7"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A272" s="11"/>
-      <c r="B272" s="13">
+      <c r="A272" s="13"/>
+      <c r="B272" s="15">
         <v>91</v>
       </c>
-      <c r="C272" s="15"/>
-      <c r="D272" s="17"/>
-      <c r="E272" s="18"/>
+      <c r="C272" s="20"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="12"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="10"/>
@@ -2982,13 +2984,13 @@
       <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A275" s="11"/>
-      <c r="B275" s="13">
+      <c r="A275" s="13"/>
+      <c r="B275" s="15">
         <v>92</v>
       </c>
-      <c r="C275" s="15"/>
-      <c r="D275" s="17"/>
-      <c r="E275" s="18"/>
+      <c r="C275" s="20"/>
+      <c r="D275" s="11"/>
+      <c r="E275" s="12"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="10"/>
@@ -3005,13 +3007,13 @@
       <c r="E277" s="7"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A278" s="11"/>
-      <c r="B278" s="13">
+      <c r="A278" s="13"/>
+      <c r="B278" s="15">
         <v>93</v>
       </c>
-      <c r="C278" s="15"/>
-      <c r="D278" s="17"/>
-      <c r="E278" s="18"/>
+      <c r="C278" s="20"/>
+      <c r="D278" s="11"/>
+      <c r="E278" s="12"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="10"/>
@@ -3028,13 +3030,13 @@
       <c r="E280" s="7"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A281" s="11"/>
-      <c r="B281" s="13">
+      <c r="A281" s="13"/>
+      <c r="B281" s="15">
         <v>94</v>
       </c>
-      <c r="C281" s="15"/>
-      <c r="D281" s="17"/>
-      <c r="E281" s="18"/>
+      <c r="C281" s="20"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="12"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="10"/>
@@ -3051,13 +3053,13 @@
       <c r="E283" s="7"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A284" s="11"/>
-      <c r="B284" s="13">
+      <c r="A284" s="13"/>
+      <c r="B284" s="15">
         <v>95</v>
       </c>
-      <c r="C284" s="15"/>
-      <c r="D284" s="17"/>
-      <c r="E284" s="18"/>
+      <c r="C284" s="20"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="12"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="10"/>
@@ -3074,13 +3076,13 @@
       <c r="E286" s="7"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A287" s="11"/>
-      <c r="B287" s="13">
+      <c r="A287" s="13"/>
+      <c r="B287" s="15">
         <v>96</v>
       </c>
-      <c r="C287" s="15"/>
-      <c r="D287" s="17"/>
-      <c r="E287" s="18"/>
+      <c r="C287" s="20"/>
+      <c r="D287" s="11"/>
+      <c r="E287" s="12"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="10"/>
@@ -3097,13 +3099,13 @@
       <c r="E289" s="7"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A290" s="11"/>
-      <c r="B290" s="13">
+      <c r="A290" s="13"/>
+      <c r="B290" s="15">
         <v>97</v>
       </c>
-      <c r="C290" s="15"/>
-      <c r="D290" s="17"/>
-      <c r="E290" s="18"/>
+      <c r="C290" s="20"/>
+      <c r="D290" s="11"/>
+      <c r="E290" s="12"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="10"/>
@@ -3120,13 +3122,13 @@
       <c r="E292" s="7"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A293" s="11"/>
-      <c r="B293" s="13">
+      <c r="A293" s="13"/>
+      <c r="B293" s="15">
         <v>98</v>
       </c>
-      <c r="C293" s="15"/>
-      <c r="D293" s="17"/>
-      <c r="E293" s="18"/>
+      <c r="C293" s="20"/>
+      <c r="D293" s="11"/>
+      <c r="E293" s="12"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="10"/>
@@ -3143,13 +3145,13 @@
       <c r="E295" s="7"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A296" s="11"/>
-      <c r="B296" s="13">
+      <c r="A296" s="13"/>
+      <c r="B296" s="15">
         <v>99</v>
       </c>
-      <c r="C296" s="15"/>
-      <c r="D296" s="17"/>
-      <c r="E296" s="18"/>
+      <c r="C296" s="20"/>
+      <c r="D296" s="11"/>
+      <c r="E296" s="12"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="10"/>
@@ -3166,13 +3168,13 @@
       <c r="E298" s="7"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A299" s="11"/>
-      <c r="B299" s="13">
+      <c r="A299" s="13"/>
+      <c r="B299" s="15">
         <v>100</v>
       </c>
-      <c r="C299" s="15"/>
-      <c r="D299" s="17"/>
-      <c r="E299" s="18"/>
+      <c r="C299" s="20"/>
+      <c r="D299" s="11"/>
+      <c r="E299" s="12"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="10"/>
@@ -3182,137 +3184,137 @@
       <c r="E300" s="7"/>
     </row>
     <row r="301" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A301" s="29"/>
-      <c r="B301" s="30"/>
-      <c r="C301" s="31"/>
-      <c r="D301" s="32"/>
-      <c r="E301" s="33"/>
+      <c r="A301" s="23"/>
+      <c r="B301" s="24"/>
+      <c r="C301" s="25"/>
+      <c r="D301" s="26"/>
+      <c r="E301" s="27"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A302" s="34"/>
-      <c r="B302" s="34"/>
-      <c r="C302" s="35"/>
-      <c r="D302" s="36"/>
-      <c r="E302" s="36"/>
+      <c r="A302" s="28"/>
+      <c r="B302" s="28"/>
+      <c r="C302" s="29"/>
+      <c r="D302" s="30"/>
+      <c r="E302" s="30"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A303" s="34"/>
-      <c r="B303" s="34"/>
-      <c r="C303" s="35"/>
-      <c r="D303" s="36"/>
-      <c r="E303" s="36"/>
+      <c r="A303" s="28"/>
+      <c r="B303" s="28"/>
+      <c r="C303" s="29"/>
+      <c r="D303" s="30"/>
+      <c r="E303" s="30"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A304" s="34"/>
-      <c r="B304" s="34"/>
-      <c r="C304" s="35"/>
-      <c r="D304" s="36"/>
-      <c r="E304" s="36"/>
+      <c r="A304" s="28"/>
+      <c r="B304" s="28"/>
+      <c r="C304" s="29"/>
+      <c r="D304" s="30"/>
+      <c r="E304" s="30"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A305" s="34"/>
-      <c r="B305" s="34"/>
-      <c r="C305" s="35"/>
-      <c r="D305" s="36"/>
-      <c r="E305" s="36"/>
+      <c r="A305" s="28"/>
+      <c r="B305" s="28"/>
+      <c r="C305" s="29"/>
+      <c r="D305" s="30"/>
+      <c r="E305" s="30"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A306" s="34"/>
-      <c r="B306" s="34"/>
-      <c r="C306" s="35"/>
-      <c r="D306" s="36"/>
-      <c r="E306" s="36"/>
+      <c r="A306" s="28"/>
+      <c r="B306" s="28"/>
+      <c r="C306" s="29"/>
+      <c r="D306" s="30"/>
+      <c r="E306" s="30"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A307" s="34"/>
-      <c r="B307" s="34"/>
-      <c r="C307" s="35"/>
-      <c r="D307" s="36"/>
-      <c r="E307" s="36"/>
+      <c r="A307" s="28"/>
+      <c r="B307" s="28"/>
+      <c r="C307" s="29"/>
+      <c r="D307" s="30"/>
+      <c r="E307" s="30"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A308" s="34"/>
-      <c r="B308" s="34"/>
-      <c r="C308" s="35"/>
-      <c r="D308" s="36"/>
-      <c r="E308" s="36"/>
+      <c r="A308" s="28"/>
+      <c r="B308" s="28"/>
+      <c r="C308" s="29"/>
+      <c r="D308" s="30"/>
+      <c r="E308" s="30"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A309" s="34"/>
-      <c r="B309" s="34"/>
-      <c r="C309" s="35"/>
-      <c r="D309" s="36"/>
-      <c r="E309" s="36"/>
+      <c r="A309" s="28"/>
+      <c r="B309" s="28"/>
+      <c r="C309" s="29"/>
+      <c r="D309" s="30"/>
+      <c r="E309" s="30"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A310" s="34"/>
-      <c r="B310" s="34"/>
-      <c r="C310" s="35"/>
-      <c r="D310" s="36"/>
-      <c r="E310" s="36"/>
+      <c r="A310" s="28"/>
+      <c r="B310" s="28"/>
+      <c r="C310" s="29"/>
+      <c r="D310" s="30"/>
+      <c r="E310" s="30"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A311" s="34"/>
-      <c r="B311" s="34"/>
-      <c r="C311" s="35"/>
-      <c r="D311" s="36"/>
-      <c r="E311" s="36"/>
+      <c r="A311" s="28"/>
+      <c r="B311" s="28"/>
+      <c r="C311" s="29"/>
+      <c r="D311" s="30"/>
+      <c r="E311" s="30"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A312" s="34"/>
-      <c r="B312" s="34"/>
-      <c r="C312" s="35"/>
-      <c r="D312" s="36"/>
-      <c r="E312" s="36"/>
+      <c r="A312" s="28"/>
+      <c r="B312" s="28"/>
+      <c r="C312" s="29"/>
+      <c r="D312" s="30"/>
+      <c r="E312" s="30"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A313" s="34"/>
-      <c r="B313" s="34"/>
-      <c r="C313" s="35"/>
-      <c r="D313" s="36"/>
-      <c r="E313" s="36"/>
+      <c r="A313" s="28"/>
+      <c r="B313" s="28"/>
+      <c r="C313" s="29"/>
+      <c r="D313" s="30"/>
+      <c r="E313" s="30"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A314" s="34"/>
-      <c r="B314" s="34"/>
-      <c r="C314" s="35"/>
-      <c r="D314" s="36"/>
-      <c r="E314" s="36"/>
+      <c r="A314" s="28"/>
+      <c r="B314" s="28"/>
+      <c r="C314" s="29"/>
+      <c r="D314" s="30"/>
+      <c r="E314" s="30"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A315" s="34"/>
-      <c r="B315" s="34"/>
-      <c r="C315" s="35"/>
-      <c r="D315" s="36"/>
-      <c r="E315" s="36"/>
+      <c r="A315" s="28"/>
+      <c r="B315" s="28"/>
+      <c r="C315" s="29"/>
+      <c r="D315" s="30"/>
+      <c r="E315" s="30"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A316" s="34"/>
-      <c r="B316" s="34"/>
-      <c r="C316" s="35"/>
-      <c r="D316" s="36"/>
-      <c r="E316" s="36"/>
+      <c r="A316" s="28"/>
+      <c r="B316" s="28"/>
+      <c r="C316" s="29"/>
+      <c r="D316" s="30"/>
+      <c r="E316" s="30"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A317" s="34"/>
-      <c r="B317" s="34"/>
-      <c r="C317" s="35"/>
-      <c r="D317" s="36"/>
-      <c r="E317" s="36"/>
+      <c r="A317" s="28"/>
+      <c r="B317" s="28"/>
+      <c r="C317" s="29"/>
+      <c r="D317" s="30"/>
+      <c r="E317" s="30"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A318" s="34"/>
-      <c r="B318" s="34"/>
-      <c r="C318" s="35"/>
-      <c r="D318" s="36"/>
-      <c r="E318" s="36"/>
+      <c r="A318" s="28"/>
+      <c r="B318" s="28"/>
+      <c r="C318" s="29"/>
+      <c r="D318" s="30"/>
+      <c r="E318" s="30"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A319" s="34"/>
-      <c r="B319" s="34"/>
-      <c r="C319" s="35"/>
-      <c r="D319" s="36"/>
-      <c r="E319" s="36"/>
+      <c r="A319" s="28"/>
+      <c r="B319" s="28"/>
+      <c r="C319" s="29"/>
+      <c r="D319" s="30"/>
+      <c r="E319" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="530">
@@ -3781,36 +3783,36 @@
     <mergeCell ref="B41:B43"/>
     <mergeCell ref="B44:B46"/>
     <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="C38:C40"/>
     <mergeCell ref="D38:D40"/>
     <mergeCell ref="E38:E40"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="C32:C34"/>
     <mergeCell ref="D32:D34"/>
     <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="B35:B37"/>
-    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="A29:A31"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="B20:B22"/>
     <mergeCell ref="C20:C22"/>

--- a/Participants_log.xlsx
+++ b/Participants_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a66c9eafe7ca5b97/Documents/GitHub/affixproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="545" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1FDE012-6C5E-4B67-B05B-6B995DAA539A}"/>
+  <xr:revisionPtr revIDLastSave="549" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13869C09-20D9-4E33-B678-53BA36ED8CC5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3200" yWindow="340" windowWidth="16000" windowHeight="9000" xr2:uid="{A64A2D64-A729-45BB-94DF-402620060AB1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A64A2D64-A729-45BB-94DF-402620060AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Participants" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Looked for morphemes. Forgot to add timeout screen, but had fast RTs. Familiarity at 50%</t>
+  </si>
+  <si>
+    <t>Looked at morphemes</t>
   </si>
 </sst>
 </file>
@@ -851,6 +854,270 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -858,270 +1125,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1446,7 +1449,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E50" sqref="E50:E52"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1480,19 +1483,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="124">
+      <c r="B2" s="50">
         <v>1</v>
       </c>
-      <c r="C2" s="105">
+      <c r="C2" s="49">
         <v>45014</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="110" t="s">
+      <c r="E2" s="48" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="31"/>
@@ -1501,11 +1504,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="121"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="110"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="32">
         <v>42.5</v>
       </c>
@@ -1514,2886 +1517,3398 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="121"/>
-      <c r="B4" s="124"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="108"/>
-      <c r="E4" s="110"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="35"/>
       <c r="H4" s="28" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="120" t="s">
+      <c r="A5" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="123">
+      <c r="B5" s="56">
         <v>2</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="61">
         <v>45014</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="109"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="121"/>
-      <c r="B6" s="124"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="110"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="32">
         <v>57.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="121"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="110"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="35"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="120" t="s">
+      <c r="A8" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="123">
+      <c r="B8" s="56">
         <v>3</v>
       </c>
-      <c r="C8" s="131">
+      <c r="C8" s="58">
         <v>45015</v>
       </c>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="109"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="36"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="121"/>
-      <c r="B9" s="124"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="108"/>
-      <c r="E9" s="110"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="32">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="129"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="110"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
       <c r="F10" s="35"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="70">
         <v>4</v>
       </c>
-      <c r="C11" s="117">
+      <c r="C11" s="73">
         <v>45016</v>
       </c>
-      <c r="D11" s="134" t="s">
+      <c r="D11" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="136" t="s">
+      <c r="E11" s="65" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="112"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="137"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="38">
         <v>42.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="113"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="135"/>
-      <c r="E13" s="137"/>
+      <c r="A13" s="69"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="123">
+      <c r="B14" s="56">
         <v>5</v>
       </c>
-      <c r="C14" s="104">
+      <c r="C14" s="61">
         <v>45017</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="109"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="36"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="121"/>
-      <c r="B15" s="124"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="110"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="32">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="129"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="106"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="110"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="48"/>
       <c r="F16" s="35"/>
     </row>
     <row r="17" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="123">
+      <c r="B17" s="56">
         <v>6</v>
       </c>
-      <c r="C17" s="104">
+      <c r="C17" s="61">
         <v>45017</v>
       </c>
-      <c r="D17" s="107" t="s">
+      <c r="D17" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="109"/>
+      <c r="E17" s="53"/>
       <c r="F17" s="36"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="121"/>
-      <c r="B18" s="124"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="110"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="48"/>
       <c r="F18" s="32">
         <v>37.5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="129"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="110"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="48"/>
       <c r="F19" s="35"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="120" t="s">
+      <c r="A20" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="123">
+      <c r="B20" s="56">
         <v>7</v>
       </c>
-      <c r="C20" s="104">
+      <c r="C20" s="61">
         <v>45017</v>
       </c>
-      <c r="D20" s="107" t="s">
+      <c r="D20" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="109" t="s">
+      <c r="E20" s="53" t="s">
         <v>16</v>
       </c>
       <c r="F20" s="36"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="121"/>
-      <c r="B21" s="124"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="110"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
       <c r="F21" s="32">
         <v>52.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="122"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="126"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="128"/>
+      <c r="A22" s="86"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="33"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="83" t="s">
+      <c r="A23" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="97">
+      <c r="B23" s="77">
         <v>8</v>
       </c>
-      <c r="C23" s="102">
+      <c r="C23" s="96">
         <v>45036</v>
       </c>
-      <c r="D23" s="89" t="s">
+      <c r="D23" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="85" t="s">
         <v>21</v>
       </c>
       <c r="F23" s="29"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="83"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="81"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="85"/>
       <c r="F24" s="29">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="94"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="81"/>
+      <c r="A25" s="93"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="40"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="96">
+      <c r="B26" s="76">
         <v>9</v>
       </c>
-      <c r="C26" s="85">
+      <c r="C26" s="79">
         <v>45042</v>
       </c>
-      <c r="D26" s="88" t="s">
+      <c r="D26" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="80" t="s">
+      <c r="E26" s="84" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="41"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="83"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="81"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="85"/>
       <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="94"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="81"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="42">
         <v>52.5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="82" t="s">
+      <c r="A29" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="96">
+      <c r="B29" s="76">
         <v>10</v>
       </c>
-      <c r="C29" s="85">
+      <c r="C29" s="79">
         <v>45043</v>
       </c>
-      <c r="D29" s="88" t="s">
+      <c r="D29" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="80" t="s">
+      <c r="E29" s="84" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="41"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="83"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="81"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="85"/>
       <c r="F30" s="29">
         <v>52.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="94"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="81"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="85"/>
       <c r="F31" s="40"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="82" t="s">
+      <c r="A32" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B32" s="96">
+      <c r="B32" s="76">
         <v>11</v>
       </c>
-      <c r="C32" s="85">
+      <c r="C32" s="79">
         <v>45049</v>
       </c>
-      <c r="D32" s="88" t="s">
+      <c r="D32" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="80" t="s">
+      <c r="E32" s="84" t="s">
         <v>43</v>
       </c>
       <c r="F32" s="41"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="83"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="81"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="83"/>
+      <c r="E33" s="85"/>
       <c r="F33" s="29">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="94"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="101"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="95"/>
       <c r="F34" s="40"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="97">
+      <c r="B35" s="77">
         <v>12</v>
       </c>
-      <c r="C35" s="85">
+      <c r="C35" s="79">
         <v>45049</v>
       </c>
-      <c r="D35" s="89" t="s">
+      <c r="D35" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="81" t="s">
+      <c r="E35" s="85" t="s">
         <v>48</v>
       </c>
       <c r="F35" s="41"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="83"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="81"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="85"/>
       <c r="F36" s="29">
         <v>52.5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="94"/>
-      <c r="B37" s="98"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="81"/>
+      <c r="A37" s="93"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="94"/>
+      <c r="E37" s="85"/>
       <c r="F37" s="40"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="82" t="s">
+      <c r="A38" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="96">
+      <c r="B38" s="76">
         <v>13</v>
       </c>
-      <c r="C38" s="85">
+      <c r="C38" s="79">
         <v>45050</v>
       </c>
-      <c r="D38" s="88" t="s">
+      <c r="D38" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="80" t="s">
+      <c r="E38" s="84" t="s">
         <v>49</v>
       </c>
       <c r="F38" s="41"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="83"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="81"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="83"/>
+      <c r="E39" s="85"/>
       <c r="F39" s="29">
         <v>47.5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="83"/>
-      <c r="B40" s="97"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="81"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="83"/>
+      <c r="E40" s="85"/>
       <c r="F40" s="40"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="82" t="s">
+      <c r="A41" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B41" s="96">
+      <c r="B41" s="76">
         <v>14</v>
       </c>
-      <c r="C41" s="85">
+      <c r="C41" s="79">
         <v>45050</v>
       </c>
-      <c r="D41" s="88" t="s">
+      <c r="D41" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E41" s="80" t="s">
+      <c r="E41" s="84" t="s">
         <v>51</v>
       </c>
       <c r="F41" s="41"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="83"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="86"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="81"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="85"/>
       <c r="F42" s="29">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="94"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="81"/>
+      <c r="A43" s="93"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="85"/>
       <c r="F43" s="40"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="82" t="s">
+      <c r="A44" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="96">
+      <c r="B44" s="76">
         <v>15</v>
       </c>
-      <c r="C44" s="85">
+      <c r="C44" s="79">
         <v>45050</v>
       </c>
-      <c r="D44" s="88" t="s">
+      <c r="D44" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="80" t="s">
+      <c r="E44" s="84" t="s">
         <v>52</v>
       </c>
       <c r="F44" s="41"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="83"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="86"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="81"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="85"/>
       <c r="F45" s="29">
         <v>57.5</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="84"/>
-      <c r="B46" s="99"/>
-      <c r="C46" s="87"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="91"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="100"/>
+      <c r="E46" s="101"/>
       <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="66" t="s">
+      <c r="A47" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="B47" s="78">
+      <c r="B47" s="109">
         <v>16</v>
       </c>
-      <c r="C47" s="92">
+      <c r="C47" s="103">
         <v>45061</v>
       </c>
-      <c r="D47" s="72" t="s">
+      <c r="D47" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="75" t="s">
+      <c r="E47" s="107" t="s">
         <v>57</v>
       </c>
       <c r="F47" s="43"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="66"/>
-      <c r="B48" s="78"/>
-      <c r="C48" s="69"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="75"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="107"/>
       <c r="F48" s="43">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="66"/>
-      <c r="B49" s="78"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="75"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="105"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="107"/>
       <c r="F49" s="44"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="65" t="s">
+      <c r="A50" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="B50" s="77">
+      <c r="B50" s="114">
         <v>17</v>
       </c>
-      <c r="C50" s="69">
+      <c r="C50" s="104">
         <v>45061</v>
       </c>
-      <c r="D50" s="71"/>
-      <c r="E50" s="74"/>
+      <c r="D50" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" s="113" t="s">
+        <v>58</v>
+      </c>
       <c r="F50" s="45"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="66"/>
-      <c r="B51" s="78"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="43"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="109"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="43">
+        <v>57.5</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="66"/>
-      <c r="B52" s="78"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="75"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="109"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="107"/>
       <c r="F52" s="44"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="65" t="s">
+      <c r="A53" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="77">
+      <c r="B53" s="114">
         <v>18</v>
       </c>
-      <c r="C53" s="68"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="74"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="112"/>
+      <c r="E53" s="113"/>
       <c r="F53" s="45"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="66"/>
-      <c r="B54" s="78"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="75"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="109"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="107"/>
       <c r="F54" s="43"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="66"/>
-      <c r="B55" s="78"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="75"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="109"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="107"/>
       <c r="F55" s="44"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="65" t="s">
+      <c r="A56" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="77">
+      <c r="B56" s="114">
         <v>19</v>
       </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="71"/>
-      <c r="E56" s="74"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="112"/>
+      <c r="E56" s="113"/>
       <c r="F56" s="45"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="66"/>
-      <c r="B57" s="78"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="75"/>
+      <c r="A57" s="102"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="107"/>
       <c r="F57" s="43"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="66"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="69"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="75"/>
+      <c r="A58" s="102"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="107"/>
       <c r="F58" s="44"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="65"/>
-      <c r="B59" s="77">
+      <c r="A59" s="110"/>
+      <c r="B59" s="114">
         <v>20</v>
       </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="71"/>
-      <c r="E59" s="74"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="113"/>
       <c r="F59" s="45"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="66"/>
-      <c r="B60" s="78"/>
-      <c r="C60" s="69"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="75"/>
+      <c r="A60" s="102"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="107"/>
       <c r="F60" s="43"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="66"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="69"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="75"/>
+      <c r="A61" s="102"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="107"/>
       <c r="F61" s="44"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="65"/>
-      <c r="B62" s="77">
+      <c r="A62" s="110"/>
+      <c r="B62" s="114">
         <v>21</v>
       </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="71"/>
-      <c r="E62" s="74"/>
+      <c r="C62" s="111"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="113"/>
       <c r="F62" s="45"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="66"/>
-      <c r="B63" s="78"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="75"/>
+      <c r="A63" s="102"/>
+      <c r="B63" s="109"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="107"/>
       <c r="F63" s="43"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="66"/>
-      <c r="B64" s="78"/>
-      <c r="C64" s="69"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="75"/>
+      <c r="A64" s="102"/>
+      <c r="B64" s="109"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="107"/>
       <c r="F64" s="44"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="65"/>
-      <c r="B65" s="77">
+      <c r="A65" s="110"/>
+      <c r="B65" s="114">
         <v>22</v>
       </c>
-      <c r="C65" s="68"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="74"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="113"/>
       <c r="F65" s="45"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="66"/>
-      <c r="B66" s="78"/>
-      <c r="C66" s="69"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="75"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="107"/>
       <c r="F66" s="43"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="66"/>
-      <c r="B67" s="78"/>
-      <c r="C67" s="69"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="75"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="109"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="107"/>
       <c r="F67" s="44"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="65"/>
-      <c r="B68" s="77">
+      <c r="A68" s="110"/>
+      <c r="B68" s="114">
         <v>23</v>
       </c>
-      <c r="C68" s="68"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="74"/>
+      <c r="C68" s="111"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="113"/>
       <c r="F68" s="45"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="66"/>
-      <c r="B69" s="78"/>
-      <c r="C69" s="69"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="75"/>
+      <c r="A69" s="102"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="107"/>
       <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="66"/>
-      <c r="B70" s="78"/>
-      <c r="C70" s="69"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="75"/>
+      <c r="A70" s="102"/>
+      <c r="B70" s="109"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="107"/>
       <c r="F70" s="44"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="65"/>
-      <c r="B71" s="77">
+      <c r="A71" s="110"/>
+      <c r="B71" s="114">
         <v>24</v>
       </c>
-      <c r="C71" s="68"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="74"/>
+      <c r="C71" s="111"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="113"/>
       <c r="F71" s="45"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="66"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="69"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="75"/>
+      <c r="A72" s="102"/>
+      <c r="B72" s="109"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="107"/>
       <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="66"/>
-      <c r="B73" s="78"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="75"/>
+      <c r="A73" s="102"/>
+      <c r="B73" s="109"/>
+      <c r="C73" s="104"/>
+      <c r="D73" s="106"/>
+      <c r="E73" s="107"/>
       <c r="F73" s="44"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="65"/>
-      <c r="B74" s="77">
+      <c r="A74" s="110"/>
+      <c r="B74" s="114">
         <v>25</v>
       </c>
-      <c r="C74" s="68"/>
-      <c r="D74" s="71"/>
-      <c r="E74" s="74"/>
+      <c r="C74" s="111"/>
+      <c r="D74" s="112"/>
+      <c r="E74" s="113"/>
       <c r="F74" s="45"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="66"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="69"/>
-      <c r="D75" s="72"/>
-      <c r="E75" s="75"/>
+      <c r="A75" s="102"/>
+      <c r="B75" s="109"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="107"/>
       <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="67"/>
-      <c r="B76" s="79"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="73"/>
-      <c r="E76" s="76"/>
+      <c r="A76" s="123"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="124"/>
+      <c r="D76" s="125"/>
+      <c r="E76" s="126"/>
       <c r="F76" s="46"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="51"/>
-      <c r="B77" s="53">
+      <c r="A77" s="116"/>
+      <c r="B77" s="128">
         <v>26</v>
       </c>
-      <c r="C77" s="55"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="59"/>
+      <c r="C77" s="118"/>
+      <c r="D77" s="120"/>
+      <c r="E77" s="122"/>
       <c r="F77" s="27"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="51"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="57"/>
-      <c r="E78" s="59"/>
+      <c r="A78" s="116"/>
+      <c r="B78" s="128"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="120"/>
+      <c r="E78" s="122"/>
       <c r="F78" s="27"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="51"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="55"/>
-      <c r="D79" s="57"/>
-      <c r="E79" s="59"/>
+      <c r="A79" s="116"/>
+      <c r="B79" s="128"/>
+      <c r="C79" s="118"/>
+      <c r="D79" s="120"/>
+      <c r="E79" s="122"/>
       <c r="F79" s="27"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="50"/>
-      <c r="B80" s="52">
+      <c r="A80" s="115"/>
+      <c r="B80" s="129">
         <v>27</v>
       </c>
-      <c r="C80" s="54"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="58"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="119"/>
+      <c r="E80" s="121"/>
       <c r="F80" s="27"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="51"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="55"/>
-      <c r="D81" s="57"/>
-      <c r="E81" s="59"/>
+      <c r="A81" s="116"/>
+      <c r="B81" s="128"/>
+      <c r="C81" s="118"/>
+      <c r="D81" s="120"/>
+      <c r="E81" s="122"/>
       <c r="F81" s="27"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="51"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="55"/>
-      <c r="D82" s="57"/>
-      <c r="E82" s="59"/>
+      <c r="A82" s="116"/>
+      <c r="B82" s="128"/>
+      <c r="C82" s="118"/>
+      <c r="D82" s="120"/>
+      <c r="E82" s="122"/>
       <c r="F82" s="27"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="50"/>
-      <c r="B83" s="52">
+      <c r="A83" s="115"/>
+      <c r="B83" s="129">
         <v>28</v>
       </c>
-      <c r="C83" s="54"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="58"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="119"/>
+      <c r="E83" s="121"/>
       <c r="F83" s="27"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="51"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="55"/>
-      <c r="D84" s="57"/>
-      <c r="E84" s="59"/>
+      <c r="A84" s="116"/>
+      <c r="B84" s="128"/>
+      <c r="C84" s="118"/>
+      <c r="D84" s="120"/>
+      <c r="E84" s="122"/>
       <c r="F84" s="27"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="51"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="55"/>
-      <c r="D85" s="57"/>
-      <c r="E85" s="59"/>
+      <c r="A85" s="116"/>
+      <c r="B85" s="128"/>
+      <c r="C85" s="118"/>
+      <c r="D85" s="120"/>
+      <c r="E85" s="122"/>
       <c r="F85" s="27"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="50"/>
-      <c r="B86" s="52">
+      <c r="A86" s="115"/>
+      <c r="B86" s="129">
         <v>29</v>
       </c>
-      <c r="C86" s="54"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="58"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="119"/>
+      <c r="E86" s="121"/>
       <c r="F86" s="27"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="51"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="55"/>
-      <c r="D87" s="57"/>
-      <c r="E87" s="59"/>
+      <c r="A87" s="116"/>
+      <c r="B87" s="128"/>
+      <c r="C87" s="118"/>
+      <c r="D87" s="120"/>
+      <c r="E87" s="122"/>
       <c r="F87" s="27"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="51"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="55"/>
-      <c r="D88" s="57"/>
-      <c r="E88" s="59"/>
+      <c r="A88" s="116"/>
+      <c r="B88" s="128"/>
+      <c r="C88" s="118"/>
+      <c r="D88" s="120"/>
+      <c r="E88" s="122"/>
       <c r="F88" s="27"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="50"/>
-      <c r="B89" s="52">
+      <c r="A89" s="115"/>
+      <c r="B89" s="129">
         <v>30</v>
       </c>
-      <c r="C89" s="54"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="58"/>
+      <c r="C89" s="117"/>
+      <c r="D89" s="119"/>
+      <c r="E89" s="121"/>
       <c r="F89" s="27"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="51"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="57"/>
-      <c r="E90" s="59"/>
+      <c r="A90" s="116"/>
+      <c r="B90" s="128"/>
+      <c r="C90" s="118"/>
+      <c r="D90" s="120"/>
+      <c r="E90" s="122"/>
       <c r="F90" s="27"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="51"/>
-      <c r="B91" s="53"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="59"/>
+      <c r="A91" s="116"/>
+      <c r="B91" s="128"/>
+      <c r="C91" s="118"/>
+      <c r="D91" s="120"/>
+      <c r="E91" s="122"/>
       <c r="F91" s="27"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="50"/>
-      <c r="B92" s="52">
+      <c r="A92" s="115"/>
+      <c r="B92" s="129">
         <v>31</v>
       </c>
-      <c r="C92" s="54"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="58"/>
+      <c r="C92" s="117"/>
+      <c r="D92" s="119"/>
+      <c r="E92" s="121"/>
       <c r="F92" s="27"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="51"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="55"/>
-      <c r="D93" s="57"/>
-      <c r="E93" s="59"/>
+      <c r="A93" s="116"/>
+      <c r="B93" s="128"/>
+      <c r="C93" s="118"/>
+      <c r="D93" s="120"/>
+      <c r="E93" s="122"/>
       <c r="F93" s="27"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="51"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="57"/>
-      <c r="E94" s="59"/>
+      <c r="A94" s="116"/>
+      <c r="B94" s="128"/>
+      <c r="C94" s="118"/>
+      <c r="D94" s="120"/>
+      <c r="E94" s="122"/>
       <c r="F94" s="27"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="50"/>
-      <c r="B95" s="52">
+      <c r="A95" s="115"/>
+      <c r="B95" s="129">
         <v>32</v>
       </c>
-      <c r="C95" s="54"/>
-      <c r="D95" s="56"/>
-      <c r="E95" s="58"/>
+      <c r="C95" s="117"/>
+      <c r="D95" s="119"/>
+      <c r="E95" s="121"/>
       <c r="F95" s="27"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="51"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="57"/>
-      <c r="E96" s="59"/>
+      <c r="A96" s="116"/>
+      <c r="B96" s="128"/>
+      <c r="C96" s="118"/>
+      <c r="D96" s="120"/>
+      <c r="E96" s="122"/>
       <c r="F96" s="27"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="51"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="55"/>
-      <c r="D97" s="57"/>
-      <c r="E97" s="59"/>
+      <c r="A97" s="116"/>
+      <c r="B97" s="128"/>
+      <c r="C97" s="118"/>
+      <c r="D97" s="120"/>
+      <c r="E97" s="122"/>
       <c r="F97" s="27"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="50"/>
-      <c r="B98" s="52">
+      <c r="A98" s="115"/>
+      <c r="B98" s="129">
         <v>33</v>
       </c>
-      <c r="C98" s="54"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="58"/>
+      <c r="C98" s="117"/>
+      <c r="D98" s="119"/>
+      <c r="E98" s="121"/>
       <c r="F98" s="27"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="51"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="55"/>
-      <c r="D99" s="57"/>
-      <c r="E99" s="59"/>
+      <c r="A99" s="116"/>
+      <c r="B99" s="128"/>
+      <c r="C99" s="118"/>
+      <c r="D99" s="120"/>
+      <c r="E99" s="122"/>
       <c r="F99" s="27"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="51"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="57"/>
-      <c r="E100" s="59"/>
+      <c r="A100" s="116"/>
+      <c r="B100" s="128"/>
+      <c r="C100" s="118"/>
+      <c r="D100" s="120"/>
+      <c r="E100" s="122"/>
       <c r="F100" s="27"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="50"/>
-      <c r="B101" s="52">
+      <c r="A101" s="115"/>
+      <c r="B101" s="129">
         <v>34</v>
       </c>
-      <c r="C101" s="54"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="58"/>
+      <c r="C101" s="117"/>
+      <c r="D101" s="119"/>
+      <c r="E101" s="121"/>
       <c r="F101" s="27"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="51"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="55"/>
-      <c r="D102" s="57"/>
-      <c r="E102" s="59"/>
+      <c r="A102" s="116"/>
+      <c r="B102" s="128"/>
+      <c r="C102" s="118"/>
+      <c r="D102" s="120"/>
+      <c r="E102" s="122"/>
       <c r="F102" s="27"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="51"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="55"/>
-      <c r="D103" s="57"/>
-      <c r="E103" s="59"/>
+      <c r="A103" s="116"/>
+      <c r="B103" s="128"/>
+      <c r="C103" s="118"/>
+      <c r="D103" s="120"/>
+      <c r="E103" s="122"/>
       <c r="F103" s="27"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="50"/>
-      <c r="B104" s="52">
+      <c r="A104" s="115"/>
+      <c r="B104" s="129">
         <v>35</v>
       </c>
-      <c r="C104" s="54"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="58"/>
+      <c r="C104" s="117"/>
+      <c r="D104" s="119"/>
+      <c r="E104" s="121"/>
       <c r="F104" s="27"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="51"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="55"/>
-      <c r="D105" s="57"/>
-      <c r="E105" s="59"/>
+      <c r="A105" s="116"/>
+      <c r="B105" s="128"/>
+      <c r="C105" s="118"/>
+      <c r="D105" s="120"/>
+      <c r="E105" s="122"/>
       <c r="F105" s="27"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="51"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="55"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="59"/>
+      <c r="A106" s="116"/>
+      <c r="B106" s="128"/>
+      <c r="C106" s="118"/>
+      <c r="D106" s="120"/>
+      <c r="E106" s="122"/>
       <c r="F106" s="27"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="50"/>
-      <c r="B107" s="52">
+      <c r="A107" s="115"/>
+      <c r="B107" s="129">
         <v>36</v>
       </c>
-      <c r="C107" s="54"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="58"/>
+      <c r="C107" s="117"/>
+      <c r="D107" s="119"/>
+      <c r="E107" s="121"/>
       <c r="F107" s="27"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="51"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="59"/>
+      <c r="A108" s="116"/>
+      <c r="B108" s="128"/>
+      <c r="C108" s="118"/>
+      <c r="D108" s="120"/>
+      <c r="E108" s="122"/>
       <c r="F108" s="27"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="51"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="55"/>
-      <c r="D109" s="57"/>
-      <c r="E109" s="59"/>
+      <c r="A109" s="116"/>
+      <c r="B109" s="128"/>
+      <c r="C109" s="118"/>
+      <c r="D109" s="120"/>
+      <c r="E109" s="122"/>
       <c r="F109" s="27"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="50"/>
-      <c r="B110" s="52">
+      <c r="A110" s="115"/>
+      <c r="B110" s="129">
         <v>37</v>
       </c>
-      <c r="C110" s="54"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="58"/>
+      <c r="C110" s="117"/>
+      <c r="D110" s="119"/>
+      <c r="E110" s="121"/>
       <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="51"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="55"/>
-      <c r="D111" s="57"/>
-      <c r="E111" s="59"/>
+      <c r="A111" s="116"/>
+      <c r="B111" s="128"/>
+      <c r="C111" s="118"/>
+      <c r="D111" s="120"/>
+      <c r="E111" s="122"/>
       <c r="F111" s="27"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="51"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="55"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="59"/>
+      <c r="A112" s="116"/>
+      <c r="B112" s="128"/>
+      <c r="C112" s="118"/>
+      <c r="D112" s="120"/>
+      <c r="E112" s="122"/>
       <c r="F112" s="27"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="50"/>
-      <c r="B113" s="52">
+      <c r="A113" s="115"/>
+      <c r="B113" s="129">
         <v>38</v>
       </c>
-      <c r="C113" s="54"/>
-      <c r="D113" s="56"/>
-      <c r="E113" s="58"/>
+      <c r="C113" s="117"/>
+      <c r="D113" s="119"/>
+      <c r="E113" s="121"/>
       <c r="F113" s="27"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="51"/>
-      <c r="B114" s="53"/>
-      <c r="C114" s="55"/>
-      <c r="D114" s="57"/>
-      <c r="E114" s="59"/>
+      <c r="A114" s="116"/>
+      <c r="B114" s="128"/>
+      <c r="C114" s="118"/>
+      <c r="D114" s="120"/>
+      <c r="E114" s="122"/>
       <c r="F114" s="27"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="51"/>
-      <c r="B115" s="53"/>
-      <c r="C115" s="55"/>
-      <c r="D115" s="57"/>
-      <c r="E115" s="59"/>
+      <c r="A115" s="116"/>
+      <c r="B115" s="128"/>
+      <c r="C115" s="118"/>
+      <c r="D115" s="120"/>
+      <c r="E115" s="122"/>
       <c r="F115" s="27"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="50"/>
-      <c r="B116" s="52">
+      <c r="A116" s="115"/>
+      <c r="B116" s="129">
         <v>39</v>
       </c>
-      <c r="C116" s="54"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="58"/>
+      <c r="C116" s="117"/>
+      <c r="D116" s="119"/>
+      <c r="E116" s="121"/>
       <c r="F116" s="27"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="51"/>
-      <c r="B117" s="53"/>
-      <c r="C117" s="55"/>
-      <c r="D117" s="57"/>
-      <c r="E117" s="59"/>
+      <c r="A117" s="116"/>
+      <c r="B117" s="128"/>
+      <c r="C117" s="118"/>
+      <c r="D117" s="120"/>
+      <c r="E117" s="122"/>
       <c r="F117" s="27"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="51"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="55"/>
-      <c r="D118" s="57"/>
-      <c r="E118" s="59"/>
+      <c r="A118" s="116"/>
+      <c r="B118" s="128"/>
+      <c r="C118" s="118"/>
+      <c r="D118" s="120"/>
+      <c r="E118" s="122"/>
       <c r="F118" s="27"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="50"/>
-      <c r="B119" s="52">
+      <c r="A119" s="115"/>
+      <c r="B119" s="129">
         <v>40</v>
       </c>
-      <c r="C119" s="54"/>
-      <c r="D119" s="56"/>
-      <c r="E119" s="58"/>
+      <c r="C119" s="117"/>
+      <c r="D119" s="119"/>
+      <c r="E119" s="121"/>
       <c r="F119" s="27"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="51"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="55"/>
-      <c r="D120" s="57"/>
-      <c r="E120" s="59"/>
+      <c r="A120" s="116"/>
+      <c r="B120" s="128"/>
+      <c r="C120" s="118"/>
+      <c r="D120" s="120"/>
+      <c r="E120" s="122"/>
       <c r="F120" s="27"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="51"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="55"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="59"/>
+      <c r="A121" s="116"/>
+      <c r="B121" s="128"/>
+      <c r="C121" s="118"/>
+      <c r="D121" s="120"/>
+      <c r="E121" s="122"/>
       <c r="F121" s="27"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="50"/>
-      <c r="B122" s="52">
+      <c r="A122" s="115"/>
+      <c r="B122" s="129">
         <v>41</v>
       </c>
-      <c r="C122" s="54"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="58"/>
+      <c r="C122" s="117"/>
+      <c r="D122" s="119"/>
+      <c r="E122" s="121"/>
       <c r="F122" s="27"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="51"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="55"/>
-      <c r="D123" s="57"/>
-      <c r="E123" s="59"/>
+      <c r="A123" s="116"/>
+      <c r="B123" s="128"/>
+      <c r="C123" s="118"/>
+      <c r="D123" s="120"/>
+      <c r="E123" s="122"/>
       <c r="F123" s="27"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="51"/>
-      <c r="B124" s="53"/>
-      <c r="C124" s="55"/>
-      <c r="D124" s="57"/>
-      <c r="E124" s="59"/>
+      <c r="A124" s="116"/>
+      <c r="B124" s="128"/>
+      <c r="C124" s="118"/>
+      <c r="D124" s="120"/>
+      <c r="E124" s="122"/>
       <c r="F124" s="27"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="50"/>
-      <c r="B125" s="52">
+      <c r="A125" s="115"/>
+      <c r="B125" s="129">
         <v>42</v>
       </c>
-      <c r="C125" s="54"/>
-      <c r="D125" s="56"/>
-      <c r="E125" s="58"/>
+      <c r="C125" s="117"/>
+      <c r="D125" s="119"/>
+      <c r="E125" s="121"/>
       <c r="F125" s="27"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="51"/>
-      <c r="B126" s="53"/>
-      <c r="C126" s="55"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="59"/>
+      <c r="A126" s="116"/>
+      <c r="B126" s="128"/>
+      <c r="C126" s="118"/>
+      <c r="D126" s="120"/>
+      <c r="E126" s="122"/>
       <c r="F126" s="27"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="51"/>
-      <c r="B127" s="53"/>
-      <c r="C127" s="55"/>
-      <c r="D127" s="57"/>
-      <c r="E127" s="59"/>
+      <c r="A127" s="116"/>
+      <c r="B127" s="128"/>
+      <c r="C127" s="118"/>
+      <c r="D127" s="120"/>
+      <c r="E127" s="122"/>
       <c r="F127" s="27"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="50"/>
-      <c r="B128" s="52">
+      <c r="A128" s="115"/>
+      <c r="B128" s="129">
         <v>43</v>
       </c>
-      <c r="C128" s="54"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="58"/>
+      <c r="C128" s="117"/>
+      <c r="D128" s="119"/>
+      <c r="E128" s="121"/>
       <c r="F128" s="27"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="51"/>
-      <c r="B129" s="53"/>
-      <c r="C129" s="55"/>
-      <c r="D129" s="57"/>
-      <c r="E129" s="59"/>
+      <c r="A129" s="116"/>
+      <c r="B129" s="128"/>
+      <c r="C129" s="118"/>
+      <c r="D129" s="120"/>
+      <c r="E129" s="122"/>
       <c r="F129" s="27"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="51"/>
-      <c r="B130" s="53"/>
-      <c r="C130" s="55"/>
-      <c r="D130" s="57"/>
-      <c r="E130" s="59"/>
+      <c r="A130" s="116"/>
+      <c r="B130" s="128"/>
+      <c r="C130" s="118"/>
+      <c r="D130" s="120"/>
+      <c r="E130" s="122"/>
       <c r="F130" s="27"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="50"/>
-      <c r="B131" s="52">
+      <c r="A131" s="115"/>
+      <c r="B131" s="129">
         <v>44</v>
       </c>
-      <c r="C131" s="54"/>
-      <c r="D131" s="56"/>
-      <c r="E131" s="58"/>
+      <c r="C131" s="117"/>
+      <c r="D131" s="119"/>
+      <c r="E131" s="121"/>
       <c r="F131" s="27"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="51"/>
-      <c r="B132" s="53"/>
-      <c r="C132" s="55"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="59"/>
+      <c r="A132" s="116"/>
+      <c r="B132" s="128"/>
+      <c r="C132" s="118"/>
+      <c r="D132" s="120"/>
+      <c r="E132" s="122"/>
       <c r="F132" s="27"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="51"/>
-      <c r="B133" s="53"/>
-      <c r="C133" s="55"/>
-      <c r="D133" s="57"/>
-      <c r="E133" s="59"/>
+      <c r="A133" s="116"/>
+      <c r="B133" s="128"/>
+      <c r="C133" s="118"/>
+      <c r="D133" s="120"/>
+      <c r="E133" s="122"/>
       <c r="F133" s="27"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="50"/>
-      <c r="B134" s="52">
+      <c r="A134" s="115"/>
+      <c r="B134" s="129">
         <v>45</v>
       </c>
-      <c r="C134" s="54"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="58"/>
+      <c r="C134" s="117"/>
+      <c r="D134" s="119"/>
+      <c r="E134" s="121"/>
       <c r="F134" s="27"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="51"/>
-      <c r="B135" s="53"/>
-      <c r="C135" s="55"/>
-      <c r="D135" s="57"/>
-      <c r="E135" s="59"/>
+      <c r="A135" s="116"/>
+      <c r="B135" s="128"/>
+      <c r="C135" s="118"/>
+      <c r="D135" s="120"/>
+      <c r="E135" s="122"/>
       <c r="F135" s="27"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="51"/>
-      <c r="B136" s="53"/>
-      <c r="C136" s="55"/>
-      <c r="D136" s="57"/>
-      <c r="E136" s="59"/>
+      <c r="A136" s="116"/>
+      <c r="B136" s="128"/>
+      <c r="C136" s="118"/>
+      <c r="D136" s="120"/>
+      <c r="E136" s="122"/>
       <c r="F136" s="27"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="50"/>
-      <c r="B137" s="52">
+      <c r="A137" s="115"/>
+      <c r="B137" s="129">
         <v>46</v>
       </c>
-      <c r="C137" s="54"/>
-      <c r="D137" s="56"/>
-      <c r="E137" s="58"/>
+      <c r="C137" s="117"/>
+      <c r="D137" s="119"/>
+      <c r="E137" s="121"/>
       <c r="F137" s="27"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" s="51"/>
-      <c r="B138" s="53"/>
-      <c r="C138" s="55"/>
-      <c r="D138" s="57"/>
-      <c r="E138" s="59"/>
+      <c r="A138" s="116"/>
+      <c r="B138" s="128"/>
+      <c r="C138" s="118"/>
+      <c r="D138" s="120"/>
+      <c r="E138" s="122"/>
       <c r="F138" s="27"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="51"/>
-      <c r="B139" s="53"/>
-      <c r="C139" s="55"/>
-      <c r="D139" s="57"/>
-      <c r="E139" s="59"/>
+      <c r="A139" s="116"/>
+      <c r="B139" s="128"/>
+      <c r="C139" s="118"/>
+      <c r="D139" s="120"/>
+      <c r="E139" s="122"/>
       <c r="F139" s="27"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="50"/>
-      <c r="B140" s="52">
+      <c r="A140" s="115"/>
+      <c r="B140" s="129">
         <v>47</v>
       </c>
-      <c r="C140" s="54"/>
-      <c r="D140" s="56"/>
-      <c r="E140" s="58"/>
+      <c r="C140" s="117"/>
+      <c r="D140" s="119"/>
+      <c r="E140" s="121"/>
       <c r="F140" s="27"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="51"/>
-      <c r="B141" s="53"/>
-      <c r="C141" s="55"/>
-      <c r="D141" s="57"/>
-      <c r="E141" s="59"/>
+      <c r="A141" s="116"/>
+      <c r="B141" s="128"/>
+      <c r="C141" s="118"/>
+      <c r="D141" s="120"/>
+      <c r="E141" s="122"/>
       <c r="F141" s="27"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="51"/>
-      <c r="B142" s="53"/>
-      <c r="C142" s="55"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="59"/>
+      <c r="A142" s="116"/>
+      <c r="B142" s="128"/>
+      <c r="C142" s="118"/>
+      <c r="D142" s="120"/>
+      <c r="E142" s="122"/>
       <c r="F142" s="27"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" s="50"/>
-      <c r="B143" s="52">
+      <c r="A143" s="115"/>
+      <c r="B143" s="129">
         <v>48</v>
       </c>
-      <c r="C143" s="54"/>
-      <c r="D143" s="56"/>
-      <c r="E143" s="58"/>
+      <c r="C143" s="117"/>
+      <c r="D143" s="119"/>
+      <c r="E143" s="121"/>
       <c r="F143" s="27"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" s="51"/>
-      <c r="B144" s="53"/>
-      <c r="C144" s="55"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="59"/>
+      <c r="A144" s="116"/>
+      <c r="B144" s="128"/>
+      <c r="C144" s="118"/>
+      <c r="D144" s="120"/>
+      <c r="E144" s="122"/>
       <c r="F144" s="27"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" s="51"/>
-      <c r="B145" s="53"/>
-      <c r="C145" s="55"/>
-      <c r="D145" s="57"/>
-      <c r="E145" s="59"/>
+      <c r="A145" s="116"/>
+      <c r="B145" s="128"/>
+      <c r="C145" s="118"/>
+      <c r="D145" s="120"/>
+      <c r="E145" s="122"/>
       <c r="F145" s="27"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" s="50"/>
-      <c r="B146" s="52">
+      <c r="A146" s="115"/>
+      <c r="B146" s="129">
         <v>49</v>
       </c>
-      <c r="C146" s="54"/>
-      <c r="D146" s="56"/>
-      <c r="E146" s="58"/>
+      <c r="C146" s="117"/>
+      <c r="D146" s="119"/>
+      <c r="E146" s="121"/>
       <c r="F146" s="27"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" s="51"/>
-      <c r="B147" s="53"/>
-      <c r="C147" s="55"/>
-      <c r="D147" s="57"/>
-      <c r="E147" s="59"/>
+      <c r="A147" s="116"/>
+      <c r="B147" s="128"/>
+      <c r="C147" s="118"/>
+      <c r="D147" s="120"/>
+      <c r="E147" s="122"/>
       <c r="F147" s="27"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" s="51"/>
-      <c r="B148" s="53"/>
-      <c r="C148" s="55"/>
-      <c r="D148" s="57"/>
-      <c r="E148" s="59"/>
+      <c r="A148" s="116"/>
+      <c r="B148" s="128"/>
+      <c r="C148" s="118"/>
+      <c r="D148" s="120"/>
+      <c r="E148" s="122"/>
       <c r="F148" s="27"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" s="50"/>
-      <c r="B149" s="52">
+      <c r="A149" s="115"/>
+      <c r="B149" s="129">
         <v>50</v>
       </c>
-      <c r="C149" s="54"/>
-      <c r="D149" s="56"/>
-      <c r="E149" s="58"/>
+      <c r="C149" s="117"/>
+      <c r="D149" s="119"/>
+      <c r="E149" s="121"/>
       <c r="F149" s="27"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="51"/>
-      <c r="B150" s="53"/>
-      <c r="C150" s="55"/>
-      <c r="D150" s="57"/>
-      <c r="E150" s="59"/>
+      <c r="A150" s="116"/>
+      <c r="B150" s="128"/>
+      <c r="C150" s="118"/>
+      <c r="D150" s="120"/>
+      <c r="E150" s="122"/>
       <c r="F150" s="27"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="51"/>
-      <c r="B151" s="53"/>
-      <c r="C151" s="55"/>
-      <c r="D151" s="57"/>
-      <c r="E151" s="59"/>
+      <c r="A151" s="116"/>
+      <c r="B151" s="128"/>
+      <c r="C151" s="118"/>
+      <c r="D151" s="120"/>
+      <c r="E151" s="122"/>
       <c r="F151" s="27"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" s="50"/>
-      <c r="B152" s="52">
+      <c r="A152" s="115"/>
+      <c r="B152" s="129">
         <v>51</v>
       </c>
-      <c r="C152" s="54"/>
-      <c r="D152" s="56"/>
-      <c r="E152" s="58"/>
+      <c r="C152" s="117"/>
+      <c r="D152" s="119"/>
+      <c r="E152" s="121"/>
       <c r="F152" s="27"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" s="51"/>
-      <c r="B153" s="53"/>
-      <c r="C153" s="55"/>
-      <c r="D153" s="57"/>
-      <c r="E153" s="59"/>
+      <c r="A153" s="116"/>
+      <c r="B153" s="128"/>
+      <c r="C153" s="118"/>
+      <c r="D153" s="120"/>
+      <c r="E153" s="122"/>
       <c r="F153" s="27"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="51"/>
-      <c r="B154" s="53"/>
-      <c r="C154" s="55"/>
-      <c r="D154" s="57"/>
-      <c r="E154" s="59"/>
+      <c r="A154" s="116"/>
+      <c r="B154" s="128"/>
+      <c r="C154" s="118"/>
+      <c r="D154" s="120"/>
+      <c r="E154" s="122"/>
       <c r="F154" s="27"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="50"/>
-      <c r="B155" s="52">
+      <c r="A155" s="115"/>
+      <c r="B155" s="129">
         <v>52</v>
       </c>
-      <c r="C155" s="54"/>
-      <c r="D155" s="56"/>
-      <c r="E155" s="58"/>
+      <c r="C155" s="117"/>
+      <c r="D155" s="119"/>
+      <c r="E155" s="121"/>
       <c r="F155" s="27"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="51"/>
-      <c r="B156" s="53"/>
-      <c r="C156" s="55"/>
-      <c r="D156" s="57"/>
-      <c r="E156" s="59"/>
+      <c r="A156" s="116"/>
+      <c r="B156" s="128"/>
+      <c r="C156" s="118"/>
+      <c r="D156" s="120"/>
+      <c r="E156" s="122"/>
       <c r="F156" s="27"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="51"/>
-      <c r="B157" s="53"/>
-      <c r="C157" s="55"/>
-      <c r="D157" s="57"/>
-      <c r="E157" s="59"/>
+      <c r="A157" s="116"/>
+      <c r="B157" s="128"/>
+      <c r="C157" s="118"/>
+      <c r="D157" s="120"/>
+      <c r="E157" s="122"/>
       <c r="F157" s="27"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="50"/>
-      <c r="B158" s="52">
+      <c r="A158" s="115"/>
+      <c r="B158" s="129">
         <v>53</v>
       </c>
-      <c r="C158" s="54"/>
-      <c r="D158" s="56"/>
-      <c r="E158" s="58"/>
+      <c r="C158" s="117"/>
+      <c r="D158" s="119"/>
+      <c r="E158" s="121"/>
       <c r="F158" s="27"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="51"/>
-      <c r="B159" s="53"/>
-      <c r="C159" s="55"/>
-      <c r="D159" s="57"/>
-      <c r="E159" s="59"/>
+      <c r="A159" s="116"/>
+      <c r="B159" s="128"/>
+      <c r="C159" s="118"/>
+      <c r="D159" s="120"/>
+      <c r="E159" s="122"/>
       <c r="F159" s="27"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="51"/>
-      <c r="B160" s="53"/>
-      <c r="C160" s="55"/>
-      <c r="D160" s="57"/>
-      <c r="E160" s="59"/>
+      <c r="A160" s="116"/>
+      <c r="B160" s="128"/>
+      <c r="C160" s="118"/>
+      <c r="D160" s="120"/>
+      <c r="E160" s="122"/>
       <c r="F160" s="27"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" s="50"/>
-      <c r="B161" s="52">
+      <c r="A161" s="115"/>
+      <c r="B161" s="129">
         <v>54</v>
       </c>
-      <c r="C161" s="54"/>
-      <c r="D161" s="56"/>
-      <c r="E161" s="58"/>
+      <c r="C161" s="117"/>
+      <c r="D161" s="119"/>
+      <c r="E161" s="121"/>
       <c r="F161" s="27"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" s="51"/>
-      <c r="B162" s="53"/>
-      <c r="C162" s="55"/>
-      <c r="D162" s="57"/>
-      <c r="E162" s="59"/>
+      <c r="A162" s="116"/>
+      <c r="B162" s="128"/>
+      <c r="C162" s="118"/>
+      <c r="D162" s="120"/>
+      <c r="E162" s="122"/>
       <c r="F162" s="27"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" s="51"/>
-      <c r="B163" s="53"/>
-      <c r="C163" s="55"/>
-      <c r="D163" s="57"/>
-      <c r="E163" s="59"/>
+      <c r="A163" s="116"/>
+      <c r="B163" s="128"/>
+      <c r="C163" s="118"/>
+      <c r="D163" s="120"/>
+      <c r="E163" s="122"/>
       <c r="F163" s="27"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" s="50"/>
-      <c r="B164" s="52">
+      <c r="A164" s="115"/>
+      <c r="B164" s="129">
         <v>55</v>
       </c>
-      <c r="C164" s="54"/>
-      <c r="D164" s="56"/>
-      <c r="E164" s="58"/>
+      <c r="C164" s="117"/>
+      <c r="D164" s="119"/>
+      <c r="E164" s="121"/>
       <c r="F164" s="27"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" s="51"/>
-      <c r="B165" s="53"/>
-      <c r="C165" s="55"/>
-      <c r="D165" s="57"/>
-      <c r="E165" s="59"/>
+      <c r="A165" s="116"/>
+      <c r="B165" s="128"/>
+      <c r="C165" s="118"/>
+      <c r="D165" s="120"/>
+      <c r="E165" s="122"/>
       <c r="F165" s="27"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" s="51"/>
-      <c r="B166" s="53"/>
-      <c r="C166" s="55"/>
-      <c r="D166" s="57"/>
-      <c r="E166" s="59"/>
+      <c r="A166" s="116"/>
+      <c r="B166" s="128"/>
+      <c r="C166" s="118"/>
+      <c r="D166" s="120"/>
+      <c r="E166" s="122"/>
       <c r="F166" s="27"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" s="50"/>
-      <c r="B167" s="52">
+      <c r="A167" s="115"/>
+      <c r="B167" s="129">
         <v>56</v>
       </c>
-      <c r="C167" s="54"/>
-      <c r="D167" s="56"/>
-      <c r="E167" s="58"/>
+      <c r="C167" s="117"/>
+      <c r="D167" s="119"/>
+      <c r="E167" s="121"/>
       <c r="F167" s="27"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" s="51"/>
-      <c r="B168" s="53"/>
-      <c r="C168" s="55"/>
-      <c r="D168" s="57"/>
-      <c r="E168" s="59"/>
+      <c r="A168" s="116"/>
+      <c r="B168" s="128"/>
+      <c r="C168" s="118"/>
+      <c r="D168" s="120"/>
+      <c r="E168" s="122"/>
       <c r="F168" s="27"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" s="51"/>
-      <c r="B169" s="53"/>
-      <c r="C169" s="55"/>
-      <c r="D169" s="57"/>
-      <c r="E169" s="59"/>
+      <c r="A169" s="116"/>
+      <c r="B169" s="128"/>
+      <c r="C169" s="118"/>
+      <c r="D169" s="120"/>
+      <c r="E169" s="122"/>
       <c r="F169" s="27"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A170" s="50"/>
-      <c r="B170" s="52">
+      <c r="A170" s="115"/>
+      <c r="B170" s="129">
         <v>57</v>
       </c>
-      <c r="C170" s="54"/>
-      <c r="D170" s="56"/>
-      <c r="E170" s="58"/>
+      <c r="C170" s="117"/>
+      <c r="D170" s="119"/>
+      <c r="E170" s="121"/>
       <c r="F170" s="27"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" s="51"/>
-      <c r="B171" s="53"/>
-      <c r="C171" s="55"/>
-      <c r="D171" s="57"/>
-      <c r="E171" s="59"/>
+      <c r="A171" s="116"/>
+      <c r="B171" s="128"/>
+      <c r="C171" s="118"/>
+      <c r="D171" s="120"/>
+      <c r="E171" s="122"/>
       <c r="F171" s="27"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="51"/>
-      <c r="B172" s="53"/>
-      <c r="C172" s="55"/>
-      <c r="D172" s="57"/>
-      <c r="E172" s="59"/>
+      <c r="A172" s="116"/>
+      <c r="B172" s="128"/>
+      <c r="C172" s="118"/>
+      <c r="D172" s="120"/>
+      <c r="E172" s="122"/>
       <c r="F172" s="27"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" s="50"/>
-      <c r="B173" s="52">
+      <c r="A173" s="115"/>
+      <c r="B173" s="129">
         <v>58</v>
       </c>
-      <c r="C173" s="54"/>
-      <c r="D173" s="56"/>
-      <c r="E173" s="58"/>
+      <c r="C173" s="117"/>
+      <c r="D173" s="119"/>
+      <c r="E173" s="121"/>
       <c r="F173" s="27"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" s="51"/>
-      <c r="B174" s="53"/>
-      <c r="C174" s="55"/>
-      <c r="D174" s="57"/>
-      <c r="E174" s="59"/>
+      <c r="A174" s="116"/>
+      <c r="B174" s="128"/>
+      <c r="C174" s="118"/>
+      <c r="D174" s="120"/>
+      <c r="E174" s="122"/>
       <c r="F174" s="27"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" s="51"/>
-      <c r="B175" s="53"/>
-      <c r="C175" s="55"/>
-      <c r="D175" s="57"/>
-      <c r="E175" s="59"/>
+      <c r="A175" s="116"/>
+      <c r="B175" s="128"/>
+      <c r="C175" s="118"/>
+      <c r="D175" s="120"/>
+      <c r="E175" s="122"/>
       <c r="F175" s="27"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176" s="50"/>
-      <c r="B176" s="52">
+      <c r="A176" s="115"/>
+      <c r="B176" s="129">
         <v>59</v>
       </c>
-      <c r="C176" s="54"/>
-      <c r="D176" s="56"/>
-      <c r="E176" s="58"/>
+      <c r="C176" s="117"/>
+      <c r="D176" s="119"/>
+      <c r="E176" s="121"/>
       <c r="F176" s="27"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="51"/>
-      <c r="B177" s="53"/>
-      <c r="C177" s="55"/>
-      <c r="D177" s="57"/>
-      <c r="E177" s="59"/>
+      <c r="A177" s="116"/>
+      <c r="B177" s="128"/>
+      <c r="C177" s="118"/>
+      <c r="D177" s="120"/>
+      <c r="E177" s="122"/>
       <c r="F177" s="27"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="51"/>
-      <c r="B178" s="53"/>
-      <c r="C178" s="55"/>
-      <c r="D178" s="57"/>
-      <c r="E178" s="59"/>
+      <c r="A178" s="116"/>
+      <c r="B178" s="128"/>
+      <c r="C178" s="118"/>
+      <c r="D178" s="120"/>
+      <c r="E178" s="122"/>
       <c r="F178" s="27"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="50"/>
-      <c r="B179" s="52">
+      <c r="A179" s="115"/>
+      <c r="B179" s="129">
         <v>60</v>
       </c>
-      <c r="C179" s="54"/>
-      <c r="D179" s="56"/>
-      <c r="E179" s="58"/>
+      <c r="C179" s="117"/>
+      <c r="D179" s="119"/>
+      <c r="E179" s="121"/>
       <c r="F179" s="27"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" s="51"/>
-      <c r="B180" s="53"/>
-      <c r="C180" s="55"/>
-      <c r="D180" s="57"/>
-      <c r="E180" s="59"/>
+      <c r="A180" s="116"/>
+      <c r="B180" s="128"/>
+      <c r="C180" s="118"/>
+      <c r="D180" s="120"/>
+      <c r="E180" s="122"/>
       <c r="F180" s="27"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" s="51"/>
-      <c r="B181" s="53"/>
-      <c r="C181" s="55"/>
-      <c r="D181" s="57"/>
-      <c r="E181" s="59"/>
+      <c r="A181" s="116"/>
+      <c r="B181" s="128"/>
+      <c r="C181" s="118"/>
+      <c r="D181" s="120"/>
+      <c r="E181" s="122"/>
       <c r="F181" s="27"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="50"/>
-      <c r="B182" s="52">
+      <c r="A182" s="115"/>
+      <c r="B182" s="129">
         <v>61</v>
       </c>
-      <c r="C182" s="54"/>
-      <c r="D182" s="56"/>
-      <c r="E182" s="58"/>
+      <c r="C182" s="117"/>
+      <c r="D182" s="119"/>
+      <c r="E182" s="121"/>
       <c r="F182" s="27"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="51"/>
-      <c r="B183" s="53"/>
-      <c r="C183" s="55"/>
-      <c r="D183" s="57"/>
-      <c r="E183" s="59"/>
+      <c r="A183" s="116"/>
+      <c r="B183" s="128"/>
+      <c r="C183" s="118"/>
+      <c r="D183" s="120"/>
+      <c r="E183" s="122"/>
       <c r="F183" s="27"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="51"/>
-      <c r="B184" s="53"/>
-      <c r="C184" s="55"/>
-      <c r="D184" s="57"/>
-      <c r="E184" s="59"/>
+      <c r="A184" s="116"/>
+      <c r="B184" s="128"/>
+      <c r="C184" s="118"/>
+      <c r="D184" s="120"/>
+      <c r="E184" s="122"/>
       <c r="F184" s="27"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="50"/>
-      <c r="B185" s="52">
+      <c r="A185" s="115"/>
+      <c r="B185" s="129">
         <v>62</v>
       </c>
-      <c r="C185" s="54"/>
-      <c r="D185" s="56"/>
-      <c r="E185" s="58"/>
+      <c r="C185" s="117"/>
+      <c r="D185" s="119"/>
+      <c r="E185" s="121"/>
       <c r="F185" s="27"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" s="51"/>
-      <c r="B186" s="53"/>
-      <c r="C186" s="55"/>
-      <c r="D186" s="57"/>
-      <c r="E186" s="59"/>
+      <c r="A186" s="116"/>
+      <c r="B186" s="128"/>
+      <c r="C186" s="118"/>
+      <c r="D186" s="120"/>
+      <c r="E186" s="122"/>
       <c r="F186" s="27"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" s="51"/>
-      <c r="B187" s="53"/>
-      <c r="C187" s="55"/>
-      <c r="D187" s="57"/>
-      <c r="E187" s="59"/>
+      <c r="A187" s="116"/>
+      <c r="B187" s="128"/>
+      <c r="C187" s="118"/>
+      <c r="D187" s="120"/>
+      <c r="E187" s="122"/>
       <c r="F187" s="27"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="50"/>
-      <c r="B188" s="52">
+      <c r="A188" s="115"/>
+      <c r="B188" s="129">
         <v>63</v>
       </c>
-      <c r="C188" s="54"/>
-      <c r="D188" s="56"/>
-      <c r="E188" s="58"/>
+      <c r="C188" s="117"/>
+      <c r="D188" s="119"/>
+      <c r="E188" s="121"/>
       <c r="F188" s="27"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" s="51"/>
-      <c r="B189" s="53"/>
-      <c r="C189" s="55"/>
-      <c r="D189" s="57"/>
-      <c r="E189" s="59"/>
+      <c r="A189" s="116"/>
+      <c r="B189" s="128"/>
+      <c r="C189" s="118"/>
+      <c r="D189" s="120"/>
+      <c r="E189" s="122"/>
       <c r="F189" s="27"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="51"/>
-      <c r="B190" s="53"/>
-      <c r="C190" s="55"/>
-      <c r="D190" s="57"/>
-      <c r="E190" s="59"/>
+      <c r="A190" s="116"/>
+      <c r="B190" s="128"/>
+      <c r="C190" s="118"/>
+      <c r="D190" s="120"/>
+      <c r="E190" s="122"/>
       <c r="F190" s="27"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" s="50"/>
-      <c r="B191" s="52">
+      <c r="A191" s="115"/>
+      <c r="B191" s="129">
         <v>64</v>
       </c>
-      <c r="C191" s="54"/>
-      <c r="D191" s="56"/>
-      <c r="E191" s="58"/>
+      <c r="C191" s="117"/>
+      <c r="D191" s="119"/>
+      <c r="E191" s="121"/>
       <c r="F191" s="27"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" s="51"/>
-      <c r="B192" s="53"/>
-      <c r="C192" s="55"/>
-      <c r="D192" s="57"/>
-      <c r="E192" s="59"/>
+      <c r="A192" s="116"/>
+      <c r="B192" s="128"/>
+      <c r="C192" s="118"/>
+      <c r="D192" s="120"/>
+      <c r="E192" s="122"/>
       <c r="F192" s="27"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="51"/>
-      <c r="B193" s="53"/>
-      <c r="C193" s="55"/>
-      <c r="D193" s="57"/>
-      <c r="E193" s="59"/>
+      <c r="A193" s="116"/>
+      <c r="B193" s="128"/>
+      <c r="C193" s="118"/>
+      <c r="D193" s="120"/>
+      <c r="E193" s="122"/>
       <c r="F193" s="27"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="50"/>
-      <c r="B194" s="52">
+      <c r="A194" s="115"/>
+      <c r="B194" s="129">
         <v>65</v>
       </c>
-      <c r="C194" s="54"/>
-      <c r="D194" s="56"/>
-      <c r="E194" s="58"/>
+      <c r="C194" s="117"/>
+      <c r="D194" s="119"/>
+      <c r="E194" s="121"/>
       <c r="F194" s="27"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="51"/>
-      <c r="B195" s="53"/>
-      <c r="C195" s="55"/>
-      <c r="D195" s="57"/>
-      <c r="E195" s="59"/>
+      <c r="A195" s="116"/>
+      <c r="B195" s="128"/>
+      <c r="C195" s="118"/>
+      <c r="D195" s="120"/>
+      <c r="E195" s="122"/>
       <c r="F195" s="27"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="51"/>
-      <c r="B196" s="53"/>
-      <c r="C196" s="55"/>
-      <c r="D196" s="57"/>
-      <c r="E196" s="59"/>
+      <c r="A196" s="116"/>
+      <c r="B196" s="128"/>
+      <c r="C196" s="118"/>
+      <c r="D196" s="120"/>
+      <c r="E196" s="122"/>
       <c r="F196" s="27"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" s="50"/>
-      <c r="B197" s="52">
+      <c r="A197" s="115"/>
+      <c r="B197" s="129">
         <v>66</v>
       </c>
-      <c r="C197" s="54"/>
-      <c r="D197" s="56"/>
-      <c r="E197" s="58"/>
+      <c r="C197" s="117"/>
+      <c r="D197" s="119"/>
+      <c r="E197" s="121"/>
       <c r="F197" s="27"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="51"/>
-      <c r="B198" s="53"/>
-      <c r="C198" s="55"/>
-      <c r="D198" s="57"/>
-      <c r="E198" s="59"/>
+      <c r="A198" s="116"/>
+      <c r="B198" s="128"/>
+      <c r="C198" s="118"/>
+      <c r="D198" s="120"/>
+      <c r="E198" s="122"/>
       <c r="F198" s="27"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" s="51"/>
-      <c r="B199" s="53"/>
-      <c r="C199" s="55"/>
-      <c r="D199" s="57"/>
-      <c r="E199" s="59"/>
+      <c r="A199" s="116"/>
+      <c r="B199" s="128"/>
+      <c r="C199" s="118"/>
+      <c r="D199" s="120"/>
+      <c r="E199" s="122"/>
       <c r="F199" s="27"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" s="50"/>
-      <c r="B200" s="52">
+      <c r="A200" s="115"/>
+      <c r="B200" s="129">
         <v>67</v>
       </c>
-      <c r="C200" s="54"/>
-      <c r="D200" s="56"/>
-      <c r="E200" s="58"/>
+      <c r="C200" s="117"/>
+      <c r="D200" s="119"/>
+      <c r="E200" s="121"/>
       <c r="F200" s="27"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" s="51"/>
-      <c r="B201" s="53"/>
-      <c r="C201" s="55"/>
-      <c r="D201" s="57"/>
-      <c r="E201" s="59"/>
+      <c r="A201" s="116"/>
+      <c r="B201" s="128"/>
+      <c r="C201" s="118"/>
+      <c r="D201" s="120"/>
+      <c r="E201" s="122"/>
       <c r="F201" s="27"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A202" s="51"/>
-      <c r="B202" s="53"/>
-      <c r="C202" s="55"/>
-      <c r="D202" s="57"/>
-      <c r="E202" s="59"/>
+      <c r="A202" s="116"/>
+      <c r="B202" s="128"/>
+      <c r="C202" s="118"/>
+      <c r="D202" s="120"/>
+      <c r="E202" s="122"/>
       <c r="F202" s="27"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="50"/>
-      <c r="B203" s="52">
+      <c r="A203" s="115"/>
+      <c r="B203" s="129">
         <v>68</v>
       </c>
-      <c r="C203" s="54"/>
-      <c r="D203" s="56"/>
-      <c r="E203" s="58"/>
+      <c r="C203" s="117"/>
+      <c r="D203" s="119"/>
+      <c r="E203" s="121"/>
       <c r="F203" s="27"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="51"/>
-      <c r="B204" s="53"/>
-      <c r="C204" s="55"/>
-      <c r="D204" s="57"/>
-      <c r="E204" s="59"/>
+      <c r="A204" s="116"/>
+      <c r="B204" s="128"/>
+      <c r="C204" s="118"/>
+      <c r="D204" s="120"/>
+      <c r="E204" s="122"/>
       <c r="F204" s="27"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A205" s="51"/>
-      <c r="B205" s="53"/>
-      <c r="C205" s="55"/>
-      <c r="D205" s="57"/>
-      <c r="E205" s="59"/>
+      <c r="A205" s="116"/>
+      <c r="B205" s="128"/>
+      <c r="C205" s="118"/>
+      <c r="D205" s="120"/>
+      <c r="E205" s="122"/>
       <c r="F205" s="27"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="50"/>
-      <c r="B206" s="52">
+      <c r="A206" s="115"/>
+      <c r="B206" s="129">
         <v>69</v>
       </c>
-      <c r="C206" s="54"/>
-      <c r="D206" s="56"/>
-      <c r="E206" s="58"/>
+      <c r="C206" s="117"/>
+      <c r="D206" s="119"/>
+      <c r="E206" s="121"/>
       <c r="F206" s="27"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" s="51"/>
-      <c r="B207" s="53"/>
-      <c r="C207" s="55"/>
-      <c r="D207" s="57"/>
-      <c r="E207" s="59"/>
+      <c r="A207" s="116"/>
+      <c r="B207" s="128"/>
+      <c r="C207" s="118"/>
+      <c r="D207" s="120"/>
+      <c r="E207" s="122"/>
       <c r="F207" s="27"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" s="51"/>
-      <c r="B208" s="53"/>
-      <c r="C208" s="55"/>
-      <c r="D208" s="57"/>
-      <c r="E208" s="59"/>
+      <c r="A208" s="116"/>
+      <c r="B208" s="128"/>
+      <c r="C208" s="118"/>
+      <c r="D208" s="120"/>
+      <c r="E208" s="122"/>
       <c r="F208" s="27"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A209" s="50"/>
-      <c r="B209" s="52">
+      <c r="A209" s="115"/>
+      <c r="B209" s="129">
         <v>70</v>
       </c>
-      <c r="C209" s="54"/>
-      <c r="D209" s="56"/>
-      <c r="E209" s="58"/>
+      <c r="C209" s="117"/>
+      <c r="D209" s="119"/>
+      <c r="E209" s="121"/>
       <c r="F209" s="27"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" s="51"/>
-      <c r="B210" s="53"/>
-      <c r="C210" s="55"/>
-      <c r="D210" s="57"/>
-      <c r="E210" s="59"/>
+      <c r="A210" s="116"/>
+      <c r="B210" s="128"/>
+      <c r="C210" s="118"/>
+      <c r="D210" s="120"/>
+      <c r="E210" s="122"/>
       <c r="F210" s="27"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" s="51"/>
-      <c r="B211" s="53"/>
-      <c r="C211" s="55"/>
-      <c r="D211" s="57"/>
-      <c r="E211" s="59"/>
+      <c r="A211" s="116"/>
+      <c r="B211" s="128"/>
+      <c r="C211" s="118"/>
+      <c r="D211" s="120"/>
+      <c r="E211" s="122"/>
       <c r="F211" s="27"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A212" s="50"/>
-      <c r="B212" s="52">
+      <c r="A212" s="115"/>
+      <c r="B212" s="129">
         <v>71</v>
       </c>
-      <c r="C212" s="54"/>
-      <c r="D212" s="56"/>
-      <c r="E212" s="58"/>
+      <c r="C212" s="117"/>
+      <c r="D212" s="119"/>
+      <c r="E212" s="121"/>
       <c r="F212" s="27"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A213" s="51"/>
-      <c r="B213" s="53"/>
-      <c r="C213" s="55"/>
-      <c r="D213" s="57"/>
-      <c r="E213" s="59"/>
+      <c r="A213" s="116"/>
+      <c r="B213" s="128"/>
+      <c r="C213" s="118"/>
+      <c r="D213" s="120"/>
+      <c r="E213" s="122"/>
       <c r="F213" s="27"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214" s="51"/>
-      <c r="B214" s="53"/>
-      <c r="C214" s="55"/>
-      <c r="D214" s="57"/>
-      <c r="E214" s="59"/>
+      <c r="A214" s="116"/>
+      <c r="B214" s="128"/>
+      <c r="C214" s="118"/>
+      <c r="D214" s="120"/>
+      <c r="E214" s="122"/>
       <c r="F214" s="27"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A215" s="50"/>
-      <c r="B215" s="52">
+      <c r="A215" s="115"/>
+      <c r="B215" s="129">
         <v>72</v>
       </c>
-      <c r="C215" s="54"/>
-      <c r="D215" s="56"/>
-      <c r="E215" s="58"/>
+      <c r="C215" s="117"/>
+      <c r="D215" s="119"/>
+      <c r="E215" s="121"/>
       <c r="F215" s="27"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A216" s="51"/>
-      <c r="B216" s="53"/>
-      <c r="C216" s="55"/>
-      <c r="D216" s="57"/>
-      <c r="E216" s="59"/>
+      <c r="A216" s="116"/>
+      <c r="B216" s="128"/>
+      <c r="C216" s="118"/>
+      <c r="D216" s="120"/>
+      <c r="E216" s="122"/>
       <c r="F216" s="27"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A217" s="51"/>
-      <c r="B217" s="53"/>
-      <c r="C217" s="55"/>
-      <c r="D217" s="57"/>
-      <c r="E217" s="59"/>
+      <c r="A217" s="116"/>
+      <c r="B217" s="128"/>
+      <c r="C217" s="118"/>
+      <c r="D217" s="120"/>
+      <c r="E217" s="122"/>
       <c r="F217" s="27"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" s="50"/>
-      <c r="B218" s="52">
+      <c r="A218" s="115"/>
+      <c r="B218" s="129">
         <v>73</v>
       </c>
-      <c r="C218" s="54"/>
-      <c r="D218" s="56"/>
-      <c r="E218" s="58"/>
+      <c r="C218" s="117"/>
+      <c r="D218" s="119"/>
+      <c r="E218" s="121"/>
       <c r="F218" s="27"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A219" s="51"/>
-      <c r="B219" s="53"/>
-      <c r="C219" s="55"/>
-      <c r="D219" s="57"/>
-      <c r="E219" s="59"/>
+      <c r="A219" s="116"/>
+      <c r="B219" s="128"/>
+      <c r="C219" s="118"/>
+      <c r="D219" s="120"/>
+      <c r="E219" s="122"/>
       <c r="F219" s="27"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A220" s="51"/>
-      <c r="B220" s="53"/>
-      <c r="C220" s="55"/>
-      <c r="D220" s="57"/>
-      <c r="E220" s="59"/>
+      <c r="A220" s="116"/>
+      <c r="B220" s="128"/>
+      <c r="C220" s="118"/>
+      <c r="D220" s="120"/>
+      <c r="E220" s="122"/>
       <c r="F220" s="27"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A221" s="50"/>
-      <c r="B221" s="52">
+      <c r="A221" s="115"/>
+      <c r="B221" s="129">
         <v>74</v>
       </c>
-      <c r="C221" s="54"/>
-      <c r="D221" s="56"/>
-      <c r="E221" s="58"/>
+      <c r="C221" s="117"/>
+      <c r="D221" s="119"/>
+      <c r="E221" s="121"/>
       <c r="F221" s="27"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A222" s="51"/>
-      <c r="B222" s="53"/>
-      <c r="C222" s="55"/>
-      <c r="D222" s="57"/>
-      <c r="E222" s="59"/>
+      <c r="A222" s="116"/>
+      <c r="B222" s="128"/>
+      <c r="C222" s="118"/>
+      <c r="D222" s="120"/>
+      <c r="E222" s="122"/>
       <c r="F222" s="27"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A223" s="51"/>
-      <c r="B223" s="53"/>
-      <c r="C223" s="55"/>
-      <c r="D223" s="57"/>
-      <c r="E223" s="59"/>
+      <c r="A223" s="116"/>
+      <c r="B223" s="128"/>
+      <c r="C223" s="118"/>
+      <c r="D223" s="120"/>
+      <c r="E223" s="122"/>
       <c r="F223" s="27"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A224" s="50"/>
-      <c r="B224" s="52">
+      <c r="A224" s="115"/>
+      <c r="B224" s="129">
         <v>75</v>
       </c>
-      <c r="C224" s="54"/>
-      <c r="D224" s="56"/>
-      <c r="E224" s="58"/>
+      <c r="C224" s="117"/>
+      <c r="D224" s="119"/>
+      <c r="E224" s="121"/>
       <c r="F224" s="27"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A225" s="51"/>
-      <c r="B225" s="53"/>
-      <c r="C225" s="55"/>
-      <c r="D225" s="57"/>
-      <c r="E225" s="59"/>
+      <c r="A225" s="116"/>
+      <c r="B225" s="128"/>
+      <c r="C225" s="118"/>
+      <c r="D225" s="120"/>
+      <c r="E225" s="122"/>
       <c r="F225" s="27"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A226" s="51"/>
-      <c r="B226" s="53"/>
-      <c r="C226" s="55"/>
-      <c r="D226" s="57"/>
-      <c r="E226" s="59"/>
+      <c r="A226" s="116"/>
+      <c r="B226" s="128"/>
+      <c r="C226" s="118"/>
+      <c r="D226" s="120"/>
+      <c r="E226" s="122"/>
       <c r="F226" s="27"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A227" s="50"/>
-      <c r="B227" s="52">
+      <c r="A227" s="115"/>
+      <c r="B227" s="129">
         <v>76</v>
       </c>
-      <c r="C227" s="54"/>
-      <c r="D227" s="56"/>
-      <c r="E227" s="58"/>
+      <c r="C227" s="117"/>
+      <c r="D227" s="119"/>
+      <c r="E227" s="121"/>
       <c r="F227" s="27"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A228" s="51"/>
-      <c r="B228" s="53"/>
-      <c r="C228" s="55"/>
-      <c r="D228" s="57"/>
-      <c r="E228" s="59"/>
+      <c r="A228" s="116"/>
+      <c r="B228" s="128"/>
+      <c r="C228" s="118"/>
+      <c r="D228" s="120"/>
+      <c r="E228" s="122"/>
       <c r="F228" s="27"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A229" s="51"/>
-      <c r="B229" s="53"/>
-      <c r="C229" s="55"/>
-      <c r="D229" s="57"/>
-      <c r="E229" s="59"/>
+      <c r="A229" s="116"/>
+      <c r="B229" s="128"/>
+      <c r="C229" s="118"/>
+      <c r="D229" s="120"/>
+      <c r="E229" s="122"/>
       <c r="F229" s="27"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A230" s="50"/>
-      <c r="B230" s="52">
+      <c r="A230" s="115"/>
+      <c r="B230" s="129">
         <v>77</v>
       </c>
-      <c r="C230" s="54"/>
-      <c r="D230" s="56"/>
-      <c r="E230" s="58"/>
+      <c r="C230" s="117"/>
+      <c r="D230" s="119"/>
+      <c r="E230" s="121"/>
       <c r="F230" s="27"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A231" s="51"/>
-      <c r="B231" s="53"/>
-      <c r="C231" s="55"/>
-      <c r="D231" s="57"/>
-      <c r="E231" s="59"/>
+      <c r="A231" s="116"/>
+      <c r="B231" s="128"/>
+      <c r="C231" s="118"/>
+      <c r="D231" s="120"/>
+      <c r="E231" s="122"/>
       <c r="F231" s="27"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A232" s="51"/>
-      <c r="B232" s="53"/>
-      <c r="C232" s="55"/>
-      <c r="D232" s="57"/>
-      <c r="E232" s="59"/>
+      <c r="A232" s="116"/>
+      <c r="B232" s="128"/>
+      <c r="C232" s="118"/>
+      <c r="D232" s="120"/>
+      <c r="E232" s="122"/>
       <c r="F232" s="27"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A233" s="50"/>
-      <c r="B233" s="52">
+      <c r="A233" s="115"/>
+      <c r="B233" s="129">
         <v>78</v>
       </c>
-      <c r="C233" s="54"/>
-      <c r="D233" s="56"/>
-      <c r="E233" s="58"/>
+      <c r="C233" s="117"/>
+      <c r="D233" s="119"/>
+      <c r="E233" s="121"/>
       <c r="F233" s="27"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A234" s="51"/>
-      <c r="B234" s="53"/>
-      <c r="C234" s="55"/>
-      <c r="D234" s="57"/>
-      <c r="E234" s="59"/>
+      <c r="A234" s="116"/>
+      <c r="B234" s="128"/>
+      <c r="C234" s="118"/>
+      <c r="D234" s="120"/>
+      <c r="E234" s="122"/>
       <c r="F234" s="27"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A235" s="51"/>
-      <c r="B235" s="53"/>
-      <c r="C235" s="55"/>
-      <c r="D235" s="57"/>
-      <c r="E235" s="59"/>
+      <c r="A235" s="116"/>
+      <c r="B235" s="128"/>
+      <c r="C235" s="118"/>
+      <c r="D235" s="120"/>
+      <c r="E235" s="122"/>
       <c r="F235" s="27"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A236" s="50"/>
-      <c r="B236" s="52">
+      <c r="A236" s="115"/>
+      <c r="B236" s="129">
         <v>79</v>
       </c>
-      <c r="C236" s="54"/>
-      <c r="D236" s="56"/>
-      <c r="E236" s="58"/>
+      <c r="C236" s="117"/>
+      <c r="D236" s="119"/>
+      <c r="E236" s="121"/>
       <c r="F236" s="27"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A237" s="51"/>
-      <c r="B237" s="53"/>
-      <c r="C237" s="55"/>
-      <c r="D237" s="57"/>
-      <c r="E237" s="59"/>
+      <c r="A237" s="116"/>
+      <c r="B237" s="128"/>
+      <c r="C237" s="118"/>
+      <c r="D237" s="120"/>
+      <c r="E237" s="122"/>
       <c r="F237" s="27"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A238" s="51"/>
-      <c r="B238" s="53"/>
-      <c r="C238" s="55"/>
-      <c r="D238" s="57"/>
-      <c r="E238" s="59"/>
+      <c r="A238" s="116"/>
+      <c r="B238" s="128"/>
+      <c r="C238" s="118"/>
+      <c r="D238" s="120"/>
+      <c r="E238" s="122"/>
       <c r="F238" s="27"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A239" s="50"/>
-      <c r="B239" s="52">
+      <c r="A239" s="115"/>
+      <c r="B239" s="129">
         <v>80</v>
       </c>
-      <c r="C239" s="54"/>
-      <c r="D239" s="56"/>
-      <c r="E239" s="58"/>
+      <c r="C239" s="117"/>
+      <c r="D239" s="119"/>
+      <c r="E239" s="121"/>
       <c r="F239" s="27"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A240" s="51"/>
-      <c r="B240" s="53"/>
-      <c r="C240" s="55"/>
-      <c r="D240" s="57"/>
-      <c r="E240" s="59"/>
+      <c r="A240" s="116"/>
+      <c r="B240" s="128"/>
+      <c r="C240" s="118"/>
+      <c r="D240" s="120"/>
+      <c r="E240" s="122"/>
       <c r="F240" s="27"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A241" s="51"/>
-      <c r="B241" s="53"/>
-      <c r="C241" s="55"/>
-      <c r="D241" s="57"/>
-      <c r="E241" s="59"/>
+      <c r="A241" s="116"/>
+      <c r="B241" s="128"/>
+      <c r="C241" s="118"/>
+      <c r="D241" s="120"/>
+      <c r="E241" s="122"/>
       <c r="F241" s="27"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A242" s="50"/>
-      <c r="B242" s="52">
+      <c r="A242" s="115"/>
+      <c r="B242" s="129">
         <v>81</v>
       </c>
-      <c r="C242" s="54"/>
-      <c r="D242" s="56"/>
-      <c r="E242" s="58"/>
+      <c r="C242" s="117"/>
+      <c r="D242" s="119"/>
+      <c r="E242" s="121"/>
       <c r="F242" s="27"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A243" s="51"/>
-      <c r="B243" s="53"/>
-      <c r="C243" s="55"/>
-      <c r="D243" s="57"/>
-      <c r="E243" s="59"/>
+      <c r="A243" s="116"/>
+      <c r="B243" s="128"/>
+      <c r="C243" s="118"/>
+      <c r="D243" s="120"/>
+      <c r="E243" s="122"/>
       <c r="F243" s="27"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A244" s="51"/>
-      <c r="B244" s="53"/>
-      <c r="C244" s="55"/>
-      <c r="D244" s="57"/>
-      <c r="E244" s="59"/>
+      <c r="A244" s="116"/>
+      <c r="B244" s="128"/>
+      <c r="C244" s="118"/>
+      <c r="D244" s="120"/>
+      <c r="E244" s="122"/>
       <c r="F244" s="27"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A245" s="50"/>
-      <c r="B245" s="52">
+      <c r="A245" s="115"/>
+      <c r="B245" s="129">
         <v>82</v>
       </c>
-      <c r="C245" s="54"/>
-      <c r="D245" s="56"/>
-      <c r="E245" s="58"/>
+      <c r="C245" s="117"/>
+      <c r="D245" s="119"/>
+      <c r="E245" s="121"/>
       <c r="F245" s="27"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A246" s="51"/>
-      <c r="B246" s="53"/>
-      <c r="C246" s="55"/>
-      <c r="D246" s="57"/>
-      <c r="E246" s="59"/>
+      <c r="A246" s="116"/>
+      <c r="B246" s="128"/>
+      <c r="C246" s="118"/>
+      <c r="D246" s="120"/>
+      <c r="E246" s="122"/>
       <c r="F246" s="27"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A247" s="51"/>
-      <c r="B247" s="53"/>
-      <c r="C247" s="55"/>
-      <c r="D247" s="57"/>
-      <c r="E247" s="59"/>
+      <c r="A247" s="116"/>
+      <c r="B247" s="128"/>
+      <c r="C247" s="118"/>
+      <c r="D247" s="120"/>
+      <c r="E247" s="122"/>
       <c r="F247" s="27"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A248" s="50"/>
-      <c r="B248" s="52">
+      <c r="A248" s="115"/>
+      <c r="B248" s="129">
         <v>83</v>
       </c>
-      <c r="C248" s="54"/>
-      <c r="D248" s="56"/>
-      <c r="E248" s="58"/>
+      <c r="C248" s="117"/>
+      <c r="D248" s="119"/>
+      <c r="E248" s="121"/>
       <c r="F248" s="27"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A249" s="51"/>
-      <c r="B249" s="53"/>
-      <c r="C249" s="55"/>
-      <c r="D249" s="57"/>
-      <c r="E249" s="59"/>
+      <c r="A249" s="116"/>
+      <c r="B249" s="128"/>
+      <c r="C249" s="118"/>
+      <c r="D249" s="120"/>
+      <c r="E249" s="122"/>
       <c r="F249" s="27"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A250" s="51"/>
-      <c r="B250" s="53"/>
-      <c r="C250" s="55"/>
-      <c r="D250" s="57"/>
-      <c r="E250" s="59"/>
+      <c r="A250" s="116"/>
+      <c r="B250" s="128"/>
+      <c r="C250" s="118"/>
+      <c r="D250" s="120"/>
+      <c r="E250" s="122"/>
       <c r="F250" s="27"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A251" s="50"/>
-      <c r="B251" s="52">
+      <c r="A251" s="115"/>
+      <c r="B251" s="129">
         <v>84</v>
       </c>
-      <c r="C251" s="54"/>
-      <c r="D251" s="56"/>
-      <c r="E251" s="58"/>
+      <c r="C251" s="117"/>
+      <c r="D251" s="119"/>
+      <c r="E251" s="121"/>
       <c r="F251" s="27"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A252" s="51"/>
-      <c r="B252" s="53"/>
-      <c r="C252" s="55"/>
-      <c r="D252" s="57"/>
-      <c r="E252" s="59"/>
+      <c r="A252" s="116"/>
+      <c r="B252" s="128"/>
+      <c r="C252" s="118"/>
+      <c r="D252" s="120"/>
+      <c r="E252" s="122"/>
       <c r="F252" s="27"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A253" s="51"/>
-      <c r="B253" s="53"/>
-      <c r="C253" s="55"/>
-      <c r="D253" s="57"/>
-      <c r="E253" s="59"/>
+      <c r="A253" s="116"/>
+      <c r="B253" s="128"/>
+      <c r="C253" s="118"/>
+      <c r="D253" s="120"/>
+      <c r="E253" s="122"/>
       <c r="F253" s="27"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A254" s="50"/>
-      <c r="B254" s="52">
+      <c r="A254" s="115"/>
+      <c r="B254" s="129">
         <v>85</v>
       </c>
-      <c r="C254" s="54"/>
-      <c r="D254" s="56"/>
-      <c r="E254" s="58"/>
+      <c r="C254" s="117"/>
+      <c r="D254" s="119"/>
+      <c r="E254" s="121"/>
       <c r="F254" s="27"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A255" s="51"/>
-      <c r="B255" s="53"/>
-      <c r="C255" s="55"/>
-      <c r="D255" s="57"/>
-      <c r="E255" s="59"/>
+      <c r="A255" s="116"/>
+      <c r="B255" s="128"/>
+      <c r="C255" s="118"/>
+      <c r="D255" s="120"/>
+      <c r="E255" s="122"/>
       <c r="F255" s="27"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A256" s="51"/>
-      <c r="B256" s="53"/>
-      <c r="C256" s="55"/>
-      <c r="D256" s="57"/>
-      <c r="E256" s="59"/>
+      <c r="A256" s="116"/>
+      <c r="B256" s="128"/>
+      <c r="C256" s="118"/>
+      <c r="D256" s="120"/>
+      <c r="E256" s="122"/>
       <c r="F256" s="27"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A257" s="50"/>
-      <c r="B257" s="52">
+      <c r="A257" s="115"/>
+      <c r="B257" s="129">
         <v>86</v>
       </c>
-      <c r="C257" s="54"/>
-      <c r="D257" s="56"/>
-      <c r="E257" s="58"/>
+      <c r="C257" s="117"/>
+      <c r="D257" s="119"/>
+      <c r="E257" s="121"/>
       <c r="F257" s="27"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A258" s="51"/>
-      <c r="B258" s="53"/>
-      <c r="C258" s="55"/>
-      <c r="D258" s="57"/>
-      <c r="E258" s="59"/>
+      <c r="A258" s="116"/>
+      <c r="B258" s="128"/>
+      <c r="C258" s="118"/>
+      <c r="D258" s="120"/>
+      <c r="E258" s="122"/>
       <c r="F258" s="27"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A259" s="51"/>
-      <c r="B259" s="53"/>
-      <c r="C259" s="55"/>
-      <c r="D259" s="57"/>
-      <c r="E259" s="59"/>
+      <c r="A259" s="116"/>
+      <c r="B259" s="128"/>
+      <c r="C259" s="118"/>
+      <c r="D259" s="120"/>
+      <c r="E259" s="122"/>
       <c r="F259" s="27"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A260" s="50"/>
-      <c r="B260" s="52">
+      <c r="A260" s="115"/>
+      <c r="B260" s="129">
         <v>87</v>
       </c>
-      <c r="C260" s="54"/>
-      <c r="D260" s="56"/>
-      <c r="E260" s="58"/>
+      <c r="C260" s="117"/>
+      <c r="D260" s="119"/>
+      <c r="E260" s="121"/>
       <c r="F260" s="27"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A261" s="51"/>
-      <c r="B261" s="53"/>
-      <c r="C261" s="55"/>
-      <c r="D261" s="57"/>
-      <c r="E261" s="59"/>
+      <c r="A261" s="116"/>
+      <c r="B261" s="128"/>
+      <c r="C261" s="118"/>
+      <c r="D261" s="120"/>
+      <c r="E261" s="122"/>
       <c r="F261" s="27"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A262" s="51"/>
-      <c r="B262" s="53"/>
-      <c r="C262" s="55"/>
-      <c r="D262" s="57"/>
-      <c r="E262" s="59"/>
+      <c r="A262" s="116"/>
+      <c r="B262" s="128"/>
+      <c r="C262" s="118"/>
+      <c r="D262" s="120"/>
+      <c r="E262" s="122"/>
       <c r="F262" s="27"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A263" s="50"/>
-      <c r="B263" s="52">
+      <c r="A263" s="115"/>
+      <c r="B263" s="129">
         <v>88</v>
       </c>
-      <c r="C263" s="54"/>
-      <c r="D263" s="56"/>
-      <c r="E263" s="58"/>
+      <c r="C263" s="117"/>
+      <c r="D263" s="119"/>
+      <c r="E263" s="121"/>
       <c r="F263" s="27"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A264" s="51"/>
-      <c r="B264" s="53"/>
-      <c r="C264" s="55"/>
-      <c r="D264" s="57"/>
-      <c r="E264" s="59"/>
+      <c r="A264" s="116"/>
+      <c r="B264" s="128"/>
+      <c r="C264" s="118"/>
+      <c r="D264" s="120"/>
+      <c r="E264" s="122"/>
       <c r="F264" s="27"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A265" s="51"/>
-      <c r="B265" s="53"/>
-      <c r="C265" s="55"/>
-      <c r="D265" s="57"/>
-      <c r="E265" s="59"/>
+      <c r="A265" s="116"/>
+      <c r="B265" s="128"/>
+      <c r="C265" s="118"/>
+      <c r="D265" s="120"/>
+      <c r="E265" s="122"/>
       <c r="F265" s="27"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A266" s="50"/>
-      <c r="B266" s="52">
+      <c r="A266" s="115"/>
+      <c r="B266" s="129">
         <v>89</v>
       </c>
-      <c r="C266" s="54"/>
-      <c r="D266" s="56"/>
-      <c r="E266" s="58"/>
+      <c r="C266" s="117"/>
+      <c r="D266" s="119"/>
+      <c r="E266" s="121"/>
       <c r="F266" s="27"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A267" s="51"/>
-      <c r="B267" s="53"/>
-      <c r="C267" s="55"/>
-      <c r="D267" s="57"/>
-      <c r="E267" s="59"/>
+      <c r="A267" s="116"/>
+      <c r="B267" s="128"/>
+      <c r="C267" s="118"/>
+      <c r="D267" s="120"/>
+      <c r="E267" s="122"/>
       <c r="F267" s="27"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A268" s="51"/>
-      <c r="B268" s="53"/>
-      <c r="C268" s="55"/>
-      <c r="D268" s="57"/>
-      <c r="E268" s="59"/>
+      <c r="A268" s="116"/>
+      <c r="B268" s="128"/>
+      <c r="C268" s="118"/>
+      <c r="D268" s="120"/>
+      <c r="E268" s="122"/>
       <c r="F268" s="27"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A269" s="50"/>
-      <c r="B269" s="52">
+      <c r="A269" s="115"/>
+      <c r="B269" s="129">
         <v>90</v>
       </c>
-      <c r="C269" s="54"/>
-      <c r="D269" s="56"/>
-      <c r="E269" s="58"/>
+      <c r="C269" s="117"/>
+      <c r="D269" s="119"/>
+      <c r="E269" s="121"/>
       <c r="F269" s="27"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A270" s="51"/>
-      <c r="B270" s="53"/>
-      <c r="C270" s="55"/>
-      <c r="D270" s="57"/>
-      <c r="E270" s="59"/>
+      <c r="A270" s="116"/>
+      <c r="B270" s="128"/>
+      <c r="C270" s="118"/>
+      <c r="D270" s="120"/>
+      <c r="E270" s="122"/>
       <c r="F270" s="27"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A271" s="51"/>
-      <c r="B271" s="53"/>
-      <c r="C271" s="55"/>
-      <c r="D271" s="57"/>
-      <c r="E271" s="59"/>
+      <c r="A271" s="116"/>
+      <c r="B271" s="128"/>
+      <c r="C271" s="118"/>
+      <c r="D271" s="120"/>
+      <c r="E271" s="122"/>
       <c r="F271" s="27"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A272" s="50"/>
-      <c r="B272" s="52">
+      <c r="A272" s="115"/>
+      <c r="B272" s="129">
         <v>91</v>
       </c>
-      <c r="C272" s="54"/>
-      <c r="D272" s="56"/>
-      <c r="E272" s="58"/>
+      <c r="C272" s="117"/>
+      <c r="D272" s="119"/>
+      <c r="E272" s="121"/>
       <c r="F272" s="27"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A273" s="51"/>
-      <c r="B273" s="53"/>
-      <c r="C273" s="55"/>
-      <c r="D273" s="57"/>
-      <c r="E273" s="59"/>
+      <c r="A273" s="116"/>
+      <c r="B273" s="128"/>
+      <c r="C273" s="118"/>
+      <c r="D273" s="120"/>
+      <c r="E273" s="122"/>
       <c r="F273" s="27"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A274" s="51"/>
-      <c r="B274" s="53"/>
-      <c r="C274" s="55"/>
-      <c r="D274" s="57"/>
-      <c r="E274" s="59"/>
+      <c r="A274" s="116"/>
+      <c r="B274" s="128"/>
+      <c r="C274" s="118"/>
+      <c r="D274" s="120"/>
+      <c r="E274" s="122"/>
       <c r="F274" s="27"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A275" s="50"/>
-      <c r="B275" s="52">
+      <c r="A275" s="115"/>
+      <c r="B275" s="129">
         <v>92</v>
       </c>
-      <c r="C275" s="54"/>
-      <c r="D275" s="56"/>
-      <c r="E275" s="58"/>
+      <c r="C275" s="117"/>
+      <c r="D275" s="119"/>
+      <c r="E275" s="121"/>
       <c r="F275" s="27"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A276" s="51"/>
-      <c r="B276" s="53"/>
-      <c r="C276" s="55"/>
-      <c r="D276" s="57"/>
-      <c r="E276" s="59"/>
+      <c r="A276" s="116"/>
+      <c r="B276" s="128"/>
+      <c r="C276" s="118"/>
+      <c r="D276" s="120"/>
+      <c r="E276" s="122"/>
       <c r="F276" s="27"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A277" s="51"/>
-      <c r="B277" s="53"/>
-      <c r="C277" s="55"/>
-      <c r="D277" s="57"/>
-      <c r="E277" s="59"/>
+      <c r="A277" s="116"/>
+      <c r="B277" s="128"/>
+      <c r="C277" s="118"/>
+      <c r="D277" s="120"/>
+      <c r="E277" s="122"/>
       <c r="F277" s="27"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A278" s="50"/>
-      <c r="B278" s="52">
+      <c r="A278" s="115"/>
+      <c r="B278" s="129">
         <v>93</v>
       </c>
-      <c r="C278" s="54"/>
-      <c r="D278" s="56"/>
-      <c r="E278" s="58"/>
+      <c r="C278" s="117"/>
+      <c r="D278" s="119"/>
+      <c r="E278" s="121"/>
       <c r="F278" s="27"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A279" s="51"/>
-      <c r="B279" s="53"/>
-      <c r="C279" s="55"/>
-      <c r="D279" s="57"/>
-      <c r="E279" s="59"/>
+      <c r="A279" s="116"/>
+      <c r="B279" s="128"/>
+      <c r="C279" s="118"/>
+      <c r="D279" s="120"/>
+      <c r="E279" s="122"/>
       <c r="F279" s="27"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A280" s="51"/>
-      <c r="B280" s="53"/>
-      <c r="C280" s="55"/>
-      <c r="D280" s="57"/>
-      <c r="E280" s="59"/>
+      <c r="A280" s="116"/>
+      <c r="B280" s="128"/>
+      <c r="C280" s="118"/>
+      <c r="D280" s="120"/>
+      <c r="E280" s="122"/>
       <c r="F280" s="27"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A281" s="50"/>
-      <c r="B281" s="52">
+      <c r="A281" s="115"/>
+      <c r="B281" s="129">
         <v>94</v>
       </c>
-      <c r="C281" s="54"/>
-      <c r="D281" s="56"/>
-      <c r="E281" s="58"/>
+      <c r="C281" s="117"/>
+      <c r="D281" s="119"/>
+      <c r="E281" s="121"/>
       <c r="F281" s="27"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A282" s="51"/>
-      <c r="B282" s="53"/>
-      <c r="C282" s="55"/>
-      <c r="D282" s="57"/>
-      <c r="E282" s="59"/>
+      <c r="A282" s="116"/>
+      <c r="B282" s="128"/>
+      <c r="C282" s="118"/>
+      <c r="D282" s="120"/>
+      <c r="E282" s="122"/>
       <c r="F282" s="27"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A283" s="51"/>
-      <c r="B283" s="53"/>
-      <c r="C283" s="55"/>
-      <c r="D283" s="57"/>
-      <c r="E283" s="59"/>
+      <c r="A283" s="116"/>
+      <c r="B283" s="128"/>
+      <c r="C283" s="118"/>
+      <c r="D283" s="120"/>
+      <c r="E283" s="122"/>
       <c r="F283" s="27"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A284" s="50"/>
-      <c r="B284" s="52">
+      <c r="A284" s="115"/>
+      <c r="B284" s="129">
         <v>95</v>
       </c>
-      <c r="C284" s="54"/>
-      <c r="D284" s="56"/>
-      <c r="E284" s="58"/>
+      <c r="C284" s="117"/>
+      <c r="D284" s="119"/>
+      <c r="E284" s="121"/>
       <c r="F284" s="27"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A285" s="51"/>
-      <c r="B285" s="53"/>
-      <c r="C285" s="55"/>
-      <c r="D285" s="57"/>
-      <c r="E285" s="59"/>
+      <c r="A285" s="116"/>
+      <c r="B285" s="128"/>
+      <c r="C285" s="118"/>
+      <c r="D285" s="120"/>
+      <c r="E285" s="122"/>
       <c r="F285" s="27"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A286" s="51"/>
-      <c r="B286" s="53"/>
-      <c r="C286" s="55"/>
-      <c r="D286" s="57"/>
-      <c r="E286" s="59"/>
+      <c r="A286" s="116"/>
+      <c r="B286" s="128"/>
+      <c r="C286" s="118"/>
+      <c r="D286" s="120"/>
+      <c r="E286" s="122"/>
       <c r="F286" s="27"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A287" s="50"/>
-      <c r="B287" s="52">
+      <c r="A287" s="115"/>
+      <c r="B287" s="129">
         <v>96</v>
       </c>
-      <c r="C287" s="54"/>
-      <c r="D287" s="56"/>
-      <c r="E287" s="58"/>
+      <c r="C287" s="117"/>
+      <c r="D287" s="119"/>
+      <c r="E287" s="121"/>
       <c r="F287" s="27"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A288" s="51"/>
-      <c r="B288" s="53"/>
-      <c r="C288" s="55"/>
-      <c r="D288" s="57"/>
-      <c r="E288" s="59"/>
+      <c r="A288" s="116"/>
+      <c r="B288" s="128"/>
+      <c r="C288" s="118"/>
+      <c r="D288" s="120"/>
+      <c r="E288" s="122"/>
       <c r="F288" s="27"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A289" s="51"/>
-      <c r="B289" s="53"/>
-      <c r="C289" s="55"/>
-      <c r="D289" s="57"/>
-      <c r="E289" s="59"/>
+      <c r="A289" s="116"/>
+      <c r="B289" s="128"/>
+      <c r="C289" s="118"/>
+      <c r="D289" s="120"/>
+      <c r="E289" s="122"/>
       <c r="F289" s="27"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A290" s="50"/>
-      <c r="B290" s="52">
+      <c r="A290" s="115"/>
+      <c r="B290" s="129">
         <v>97</v>
       </c>
-      <c r="C290" s="54"/>
-      <c r="D290" s="56"/>
-      <c r="E290" s="58"/>
+      <c r="C290" s="117"/>
+      <c r="D290" s="119"/>
+      <c r="E290" s="121"/>
       <c r="F290" s="27"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A291" s="51"/>
-      <c r="B291" s="53"/>
-      <c r="C291" s="55"/>
-      <c r="D291" s="57"/>
-      <c r="E291" s="59"/>
+      <c r="A291" s="116"/>
+      <c r="B291" s="128"/>
+      <c r="C291" s="118"/>
+      <c r="D291" s="120"/>
+      <c r="E291" s="122"/>
       <c r="F291" s="27"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A292" s="51"/>
-      <c r="B292" s="53"/>
-      <c r="C292" s="55"/>
-      <c r="D292" s="57"/>
-      <c r="E292" s="59"/>
+      <c r="A292" s="116"/>
+      <c r="B292" s="128"/>
+      <c r="C292" s="118"/>
+      <c r="D292" s="120"/>
+      <c r="E292" s="122"/>
       <c r="F292" s="27"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A293" s="50"/>
-      <c r="B293" s="52">
+      <c r="A293" s="115"/>
+      <c r="B293" s="129">
         <v>98</v>
       </c>
-      <c r="C293" s="54"/>
-      <c r="D293" s="56"/>
-      <c r="E293" s="58"/>
+      <c r="C293" s="117"/>
+      <c r="D293" s="119"/>
+      <c r="E293" s="121"/>
       <c r="F293" s="27"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A294" s="51"/>
-      <c r="B294" s="53"/>
-      <c r="C294" s="55"/>
-      <c r="D294" s="57"/>
-      <c r="E294" s="59"/>
+      <c r="A294" s="116"/>
+      <c r="B294" s="128"/>
+      <c r="C294" s="118"/>
+      <c r="D294" s="120"/>
+      <c r="E294" s="122"/>
       <c r="F294" s="27"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A295" s="51"/>
-      <c r="B295" s="53"/>
-      <c r="C295" s="55"/>
-      <c r="D295" s="57"/>
-      <c r="E295" s="59"/>
+      <c r="A295" s="116"/>
+      <c r="B295" s="128"/>
+      <c r="C295" s="118"/>
+      <c r="D295" s="120"/>
+      <c r="E295" s="122"/>
       <c r="F295" s="27"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A296" s="50"/>
-      <c r="B296" s="52">
+      <c r="A296" s="115"/>
+      <c r="B296" s="129">
         <v>99</v>
       </c>
-      <c r="C296" s="54"/>
-      <c r="D296" s="56"/>
-      <c r="E296" s="58"/>
+      <c r="C296" s="117"/>
+      <c r="D296" s="119"/>
+      <c r="E296" s="121"/>
       <c r="F296" s="27"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A297" s="51"/>
-      <c r="B297" s="53"/>
-      <c r="C297" s="55"/>
-      <c r="D297" s="57"/>
-      <c r="E297" s="59"/>
+      <c r="A297" s="116"/>
+      <c r="B297" s="128"/>
+      <c r="C297" s="118"/>
+      <c r="D297" s="120"/>
+      <c r="E297" s="122"/>
       <c r="F297" s="27"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A298" s="51"/>
-      <c r="B298" s="53"/>
-      <c r="C298" s="55"/>
-      <c r="D298" s="57"/>
-      <c r="E298" s="59"/>
+      <c r="A298" s="116"/>
+      <c r="B298" s="128"/>
+      <c r="C298" s="118"/>
+      <c r="D298" s="120"/>
+      <c r="E298" s="122"/>
       <c r="F298" s="27"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A299" s="50"/>
-      <c r="B299" s="52">
+      <c r="A299" s="115"/>
+      <c r="B299" s="129">
         <v>100</v>
       </c>
-      <c r="C299" s="54"/>
-      <c r="D299" s="56"/>
-      <c r="E299" s="58"/>
+      <c r="C299" s="117"/>
+      <c r="D299" s="119"/>
+      <c r="E299" s="121"/>
       <c r="F299" s="27"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A300" s="51"/>
-      <c r="B300" s="53"/>
-      <c r="C300" s="55"/>
-      <c r="D300" s="57"/>
-      <c r="E300" s="59"/>
+      <c r="A300" s="116"/>
+      <c r="B300" s="128"/>
+      <c r="C300" s="118"/>
+      <c r="D300" s="120"/>
+      <c r="E300" s="122"/>
       <c r="F300" s="27"/>
     </row>
     <row r="301" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A301" s="60"/>
-      <c r="B301" s="61"/>
-      <c r="C301" s="62"/>
-      <c r="D301" s="63"/>
-      <c r="E301" s="64"/>
+      <c r="A301" s="130"/>
+      <c r="B301" s="131"/>
+      <c r="C301" s="132"/>
+      <c r="D301" s="133"/>
+      <c r="E301" s="134"/>
       <c r="F301" s="27"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A302" s="47"/>
-      <c r="B302" s="47"/>
-      <c r="C302" s="48"/>
-      <c r="D302" s="49"/>
-      <c r="E302" s="49"/>
+      <c r="A302" s="135"/>
+      <c r="B302" s="135"/>
+      <c r="C302" s="136"/>
+      <c r="D302" s="137"/>
+      <c r="E302" s="137"/>
       <c r="F302" s="27"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A303" s="47"/>
-      <c r="B303" s="47"/>
-      <c r="C303" s="48"/>
-      <c r="D303" s="49"/>
-      <c r="E303" s="49"/>
+      <c r="A303" s="135"/>
+      <c r="B303" s="135"/>
+      <c r="C303" s="136"/>
+      <c r="D303" s="137"/>
+      <c r="E303" s="137"/>
       <c r="F303" s="27"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A304" s="47"/>
-      <c r="B304" s="47"/>
-      <c r="C304" s="48"/>
-      <c r="D304" s="49"/>
-      <c r="E304" s="49"/>
+      <c r="A304" s="135"/>
+      <c r="B304" s="135"/>
+      <c r="C304" s="136"/>
+      <c r="D304" s="137"/>
+      <c r="E304" s="137"/>
       <c r="F304" s="27"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A305" s="47"/>
-      <c r="B305" s="47"/>
-      <c r="C305" s="48"/>
-      <c r="D305" s="49"/>
-      <c r="E305" s="49"/>
+      <c r="A305" s="135"/>
+      <c r="B305" s="135"/>
+      <c r="C305" s="136"/>
+      <c r="D305" s="137"/>
+      <c r="E305" s="137"/>
       <c r="F305" s="27"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A306" s="47"/>
-      <c r="B306" s="47"/>
-      <c r="C306" s="48"/>
-      <c r="D306" s="49"/>
-      <c r="E306" s="49"/>
+      <c r="A306" s="135"/>
+      <c r="B306" s="135"/>
+      <c r="C306" s="136"/>
+      <c r="D306" s="137"/>
+      <c r="E306" s="137"/>
       <c r="F306" s="27"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A307" s="47"/>
-      <c r="B307" s="47"/>
-      <c r="C307" s="48"/>
-      <c r="D307" s="49"/>
-      <c r="E307" s="49"/>
+      <c r="A307" s="135"/>
+      <c r="B307" s="135"/>
+      <c r="C307" s="136"/>
+      <c r="D307" s="137"/>
+      <c r="E307" s="137"/>
       <c r="F307" s="27"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A308" s="47"/>
-      <c r="B308" s="47"/>
-      <c r="C308" s="48"/>
-      <c r="D308" s="49"/>
-      <c r="E308" s="49"/>
+      <c r="A308" s="135"/>
+      <c r="B308" s="135"/>
+      <c r="C308" s="136"/>
+      <c r="D308" s="137"/>
+      <c r="E308" s="137"/>
       <c r="F308" s="27"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A309" s="47"/>
-      <c r="B309" s="47"/>
-      <c r="C309" s="48"/>
-      <c r="D309" s="49"/>
-      <c r="E309" s="49"/>
+      <c r="A309" s="135"/>
+      <c r="B309" s="135"/>
+      <c r="C309" s="136"/>
+      <c r="D309" s="137"/>
+      <c r="E309" s="137"/>
       <c r="F309" s="27"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A310" s="47"/>
-      <c r="B310" s="47"/>
-      <c r="C310" s="48"/>
-      <c r="D310" s="49"/>
-      <c r="E310" s="49"/>
+      <c r="A310" s="135"/>
+      <c r="B310" s="135"/>
+      <c r="C310" s="136"/>
+      <c r="D310" s="137"/>
+      <c r="E310" s="137"/>
       <c r="F310" s="27"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A311" s="47"/>
-      <c r="B311" s="47"/>
-      <c r="C311" s="48"/>
-      <c r="D311" s="49"/>
-      <c r="E311" s="49"/>
+      <c r="A311" s="135"/>
+      <c r="B311" s="135"/>
+      <c r="C311" s="136"/>
+      <c r="D311" s="137"/>
+      <c r="E311" s="137"/>
       <c r="F311" s="27"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A312" s="47"/>
-      <c r="B312" s="47"/>
-      <c r="C312" s="48"/>
-      <c r="D312" s="49"/>
-      <c r="E312" s="49"/>
+      <c r="A312" s="135"/>
+      <c r="B312" s="135"/>
+      <c r="C312" s="136"/>
+      <c r="D312" s="137"/>
+      <c r="E312" s="137"/>
       <c r="F312" s="27"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A313" s="47"/>
-      <c r="B313" s="47"/>
-      <c r="C313" s="48"/>
-      <c r="D313" s="49"/>
-      <c r="E313" s="49"/>
+      <c r="A313" s="135"/>
+      <c r="B313" s="135"/>
+      <c r="C313" s="136"/>
+      <c r="D313" s="137"/>
+      <c r="E313" s="137"/>
       <c r="F313" s="27"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A314" s="47"/>
-      <c r="B314" s="47"/>
-      <c r="C314" s="48"/>
-      <c r="D314" s="49"/>
-      <c r="E314" s="49"/>
+      <c r="A314" s="135"/>
+      <c r="B314" s="135"/>
+      <c r="C314" s="136"/>
+      <c r="D314" s="137"/>
+      <c r="E314" s="137"/>
       <c r="F314" s="27"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A315" s="47"/>
-      <c r="B315" s="47"/>
-      <c r="C315" s="48"/>
-      <c r="D315" s="49"/>
-      <c r="E315" s="49"/>
+      <c r="A315" s="135"/>
+      <c r="B315" s="135"/>
+      <c r="C315" s="136"/>
+      <c r="D315" s="137"/>
+      <c r="E315" s="137"/>
       <c r="F315" s="27"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A316" s="47"/>
-      <c r="B316" s="47"/>
-      <c r="C316" s="48"/>
-      <c r="D316" s="49"/>
-      <c r="E316" s="49"/>
+      <c r="A316" s="135"/>
+      <c r="B316" s="135"/>
+      <c r="C316" s="136"/>
+      <c r="D316" s="137"/>
+      <c r="E316" s="137"/>
       <c r="F316" s="27"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A317" s="47"/>
-      <c r="B317" s="47"/>
-      <c r="C317" s="48"/>
-      <c r="D317" s="49"/>
-      <c r="E317" s="49"/>
+      <c r="A317" s="135"/>
+      <c r="B317" s="135"/>
+      <c r="C317" s="136"/>
+      <c r="D317" s="137"/>
+      <c r="E317" s="137"/>
       <c r="F317" s="27"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A318" s="47"/>
-      <c r="B318" s="47"/>
-      <c r="C318" s="48"/>
-      <c r="D318" s="49"/>
-      <c r="E318" s="49"/>
+      <c r="A318" s="135"/>
+      <c r="B318" s="135"/>
+      <c r="C318" s="136"/>
+      <c r="D318" s="137"/>
+      <c r="E318" s="137"/>
       <c r="F318" s="27"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A319" s="47"/>
-      <c r="B319" s="47"/>
-      <c r="C319" s="48"/>
-      <c r="D319" s="49"/>
-      <c r="E319" s="49"/>
+      <c r="A319" s="135"/>
+      <c r="B319" s="135"/>
+      <c r="C319" s="136"/>
+      <c r="D319" s="137"/>
+      <c r="E319" s="137"/>
       <c r="F319" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="530">
+    <mergeCell ref="A314:A316"/>
+    <mergeCell ref="B314:B316"/>
+    <mergeCell ref="C314:C316"/>
+    <mergeCell ref="D314:D316"/>
+    <mergeCell ref="E314:E316"/>
+    <mergeCell ref="A317:A319"/>
+    <mergeCell ref="B317:B319"/>
+    <mergeCell ref="C317:C319"/>
+    <mergeCell ref="D317:D319"/>
+    <mergeCell ref="E317:E319"/>
+    <mergeCell ref="A308:A310"/>
+    <mergeCell ref="B308:B310"/>
+    <mergeCell ref="C308:C310"/>
+    <mergeCell ref="D308:D310"/>
+    <mergeCell ref="E308:E310"/>
+    <mergeCell ref="A311:A313"/>
+    <mergeCell ref="B311:B313"/>
+    <mergeCell ref="C311:C313"/>
+    <mergeCell ref="D311:D313"/>
+    <mergeCell ref="E311:E313"/>
+    <mergeCell ref="A302:A304"/>
+    <mergeCell ref="B302:B304"/>
+    <mergeCell ref="C302:C304"/>
+    <mergeCell ref="D302:D304"/>
+    <mergeCell ref="E302:E304"/>
+    <mergeCell ref="A305:A307"/>
+    <mergeCell ref="B305:B307"/>
+    <mergeCell ref="C305:C307"/>
+    <mergeCell ref="D305:D307"/>
+    <mergeCell ref="E305:E307"/>
+    <mergeCell ref="A296:A298"/>
+    <mergeCell ref="B296:B298"/>
+    <mergeCell ref="C296:C298"/>
+    <mergeCell ref="D296:D298"/>
+    <mergeCell ref="E296:E298"/>
+    <mergeCell ref="A299:A301"/>
+    <mergeCell ref="B299:B301"/>
+    <mergeCell ref="C299:C301"/>
+    <mergeCell ref="D299:D301"/>
+    <mergeCell ref="E299:E301"/>
+    <mergeCell ref="A290:A292"/>
+    <mergeCell ref="B290:B292"/>
+    <mergeCell ref="C290:C292"/>
+    <mergeCell ref="D290:D292"/>
+    <mergeCell ref="E290:E292"/>
+    <mergeCell ref="A293:A295"/>
+    <mergeCell ref="B293:B295"/>
+    <mergeCell ref="C293:C295"/>
+    <mergeCell ref="D293:D295"/>
+    <mergeCell ref="E293:E295"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="B284:B286"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="D284:D286"/>
+    <mergeCell ref="E284:E286"/>
+    <mergeCell ref="A287:A289"/>
+    <mergeCell ref="B287:B289"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="D287:D289"/>
+    <mergeCell ref="E287:E289"/>
+    <mergeCell ref="A278:A280"/>
+    <mergeCell ref="B278:B280"/>
+    <mergeCell ref="C278:C280"/>
+    <mergeCell ref="D278:D280"/>
+    <mergeCell ref="E278:E280"/>
+    <mergeCell ref="A281:A283"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="C281:C283"/>
+    <mergeCell ref="D281:D283"/>
+    <mergeCell ref="E281:E283"/>
+    <mergeCell ref="A272:A274"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="D272:D274"/>
+    <mergeCell ref="E272:E274"/>
+    <mergeCell ref="A275:A277"/>
+    <mergeCell ref="B275:B277"/>
+    <mergeCell ref="C275:C277"/>
+    <mergeCell ref="D275:D277"/>
+    <mergeCell ref="E275:E277"/>
+    <mergeCell ref="A266:A268"/>
+    <mergeCell ref="B266:B268"/>
+    <mergeCell ref="C266:C268"/>
+    <mergeCell ref="D266:D268"/>
+    <mergeCell ref="E266:E268"/>
+    <mergeCell ref="A269:A271"/>
+    <mergeCell ref="B269:B271"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="D269:D271"/>
+    <mergeCell ref="E269:E271"/>
+    <mergeCell ref="A260:A262"/>
+    <mergeCell ref="B260:B262"/>
+    <mergeCell ref="C260:C262"/>
+    <mergeCell ref="D260:D262"/>
+    <mergeCell ref="E260:E262"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="C263:C265"/>
+    <mergeCell ref="D263:D265"/>
+    <mergeCell ref="E263:E265"/>
+    <mergeCell ref="A254:A256"/>
+    <mergeCell ref="B254:B256"/>
+    <mergeCell ref="C254:C256"/>
+    <mergeCell ref="D254:D256"/>
+    <mergeCell ref="E254:E256"/>
+    <mergeCell ref="A257:A259"/>
+    <mergeCell ref="B257:B259"/>
+    <mergeCell ref="C257:C259"/>
+    <mergeCell ref="D257:D259"/>
+    <mergeCell ref="E257:E259"/>
+    <mergeCell ref="A248:A250"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="C248:C250"/>
+    <mergeCell ref="D248:D250"/>
+    <mergeCell ref="E248:E250"/>
+    <mergeCell ref="A251:A253"/>
+    <mergeCell ref="B251:B253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="D251:D253"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="A242:A244"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="C242:C244"/>
+    <mergeCell ref="D242:D244"/>
+    <mergeCell ref="E242:E244"/>
+    <mergeCell ref="A245:A247"/>
+    <mergeCell ref="B245:B247"/>
+    <mergeCell ref="C245:C247"/>
+    <mergeCell ref="D245:D247"/>
+    <mergeCell ref="E245:E247"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="C236:C238"/>
+    <mergeCell ref="D236:D238"/>
+    <mergeCell ref="E236:E238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="E239:E241"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="B230:B232"/>
+    <mergeCell ref="C230:C232"/>
+    <mergeCell ref="D230:D232"/>
+    <mergeCell ref="E230:E232"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="B233:B235"/>
+    <mergeCell ref="C233:C235"/>
+    <mergeCell ref="D233:D235"/>
+    <mergeCell ref="E233:E235"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="D224:D226"/>
+    <mergeCell ref="E224:E226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="C227:C229"/>
+    <mergeCell ref="D227:D229"/>
+    <mergeCell ref="E227:E229"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="C218:C220"/>
+    <mergeCell ref="D218:D220"/>
+    <mergeCell ref="E218:E220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="D221:D223"/>
+    <mergeCell ref="E221:E223"/>
+    <mergeCell ref="B218:B220"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="D212:D214"/>
+    <mergeCell ref="E212:E214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="D215:D217"/>
+    <mergeCell ref="E215:E217"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="C206:C208"/>
+    <mergeCell ref="D206:D208"/>
+    <mergeCell ref="E206:E208"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="D209:D211"/>
+    <mergeCell ref="E209:E211"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="B209:B211"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="D200:D202"/>
+    <mergeCell ref="E200:E202"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="D203:D205"/>
+    <mergeCell ref="E203:E205"/>
+    <mergeCell ref="A194:A196"/>
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="D194:D196"/>
+    <mergeCell ref="E194:E196"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="B203:B205"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="C188:C190"/>
+    <mergeCell ref="D188:D190"/>
+    <mergeCell ref="E188:E190"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="C191:C193"/>
+    <mergeCell ref="D191:D193"/>
+    <mergeCell ref="E191:E193"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="D182:D184"/>
+    <mergeCell ref="E182:E184"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="E185:E187"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="E176:E178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="E179:E181"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="E173:E175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="C167:C169"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="E158:E160"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="E161:E163"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="E155:E157"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="D146:D148"/>
+    <mergeCell ref="E146:E148"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="D149:D151"/>
+    <mergeCell ref="E149:E151"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="D140:D142"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="E143:E145"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="D137:D139"/>
+    <mergeCell ref="E137:E139"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="C2:C4"/>
@@ -4418,512 +4933,6 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="E122:E124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="E125:E127"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="D140:D142"/>
-    <mergeCell ref="E140:E142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="E143:E145"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="D134:D136"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="D137:D139"/>
-    <mergeCell ref="E137:E139"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="D152:D154"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="E155:E157"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="D146:D148"/>
-    <mergeCell ref="E146:E148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="D149:D151"/>
-    <mergeCell ref="E149:E151"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="C167:C169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="E158:E160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="E161:E163"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="D176:D178"/>
-    <mergeCell ref="E176:E178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="D179:D181"/>
-    <mergeCell ref="E179:E181"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="C173:C175"/>
-    <mergeCell ref="D173:D175"/>
-    <mergeCell ref="E173:E175"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="C188:C190"/>
-    <mergeCell ref="D188:D190"/>
-    <mergeCell ref="E188:E190"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="C191:C193"/>
-    <mergeCell ref="D191:D193"/>
-    <mergeCell ref="E191:E193"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="D182:D184"/>
-    <mergeCell ref="E182:E184"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="D185:D187"/>
-    <mergeCell ref="E185:E187"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="D200:D202"/>
-    <mergeCell ref="E200:E202"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="C203:C205"/>
-    <mergeCell ref="D203:D205"/>
-    <mergeCell ref="E203:E205"/>
-    <mergeCell ref="A194:A196"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="D194:D196"/>
-    <mergeCell ref="E194:E196"/>
-    <mergeCell ref="A197:A199"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="E197:E199"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="B203:B205"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="D212:D214"/>
-    <mergeCell ref="E212:E214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="D215:D217"/>
-    <mergeCell ref="E215:E217"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="C206:C208"/>
-    <mergeCell ref="D206:D208"/>
-    <mergeCell ref="E206:E208"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="D209:D211"/>
-    <mergeCell ref="E209:E211"/>
-    <mergeCell ref="B212:B214"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="B209:B211"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="D218:D220"/>
-    <mergeCell ref="E218:E220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="B221:B223"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="D221:D223"/>
-    <mergeCell ref="E221:E223"/>
-    <mergeCell ref="B218:B220"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="D224:D226"/>
-    <mergeCell ref="E224:E226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="C227:C229"/>
-    <mergeCell ref="D227:D229"/>
-    <mergeCell ref="E227:E229"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="B230:B232"/>
-    <mergeCell ref="C230:C232"/>
-    <mergeCell ref="D230:D232"/>
-    <mergeCell ref="E230:E232"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="B233:B235"/>
-    <mergeCell ref="C233:C235"/>
-    <mergeCell ref="D233:D235"/>
-    <mergeCell ref="E233:E235"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="D236:D238"/>
-    <mergeCell ref="E236:E238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="E239:E241"/>
-    <mergeCell ref="A242:A244"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="C242:C244"/>
-    <mergeCell ref="D242:D244"/>
-    <mergeCell ref="E242:E244"/>
-    <mergeCell ref="A245:A247"/>
-    <mergeCell ref="B245:B247"/>
-    <mergeCell ref="C245:C247"/>
-    <mergeCell ref="D245:D247"/>
-    <mergeCell ref="E245:E247"/>
-    <mergeCell ref="A248:A250"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="C248:C250"/>
-    <mergeCell ref="D248:D250"/>
-    <mergeCell ref="E248:E250"/>
-    <mergeCell ref="A251:A253"/>
-    <mergeCell ref="B251:B253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="D251:D253"/>
-    <mergeCell ref="E251:E253"/>
-    <mergeCell ref="A254:A256"/>
-    <mergeCell ref="B254:B256"/>
-    <mergeCell ref="C254:C256"/>
-    <mergeCell ref="D254:D256"/>
-    <mergeCell ref="E254:E256"/>
-    <mergeCell ref="A257:A259"/>
-    <mergeCell ref="B257:B259"/>
-    <mergeCell ref="C257:C259"/>
-    <mergeCell ref="D257:D259"/>
-    <mergeCell ref="E257:E259"/>
-    <mergeCell ref="A260:A262"/>
-    <mergeCell ref="B260:B262"/>
-    <mergeCell ref="C260:C262"/>
-    <mergeCell ref="D260:D262"/>
-    <mergeCell ref="E260:E262"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="C263:C265"/>
-    <mergeCell ref="D263:D265"/>
-    <mergeCell ref="E263:E265"/>
-    <mergeCell ref="A266:A268"/>
-    <mergeCell ref="B266:B268"/>
-    <mergeCell ref="C266:C268"/>
-    <mergeCell ref="D266:D268"/>
-    <mergeCell ref="E266:E268"/>
-    <mergeCell ref="A269:A271"/>
-    <mergeCell ref="B269:B271"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="D269:D271"/>
-    <mergeCell ref="E269:E271"/>
-    <mergeCell ref="A272:A274"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="D272:D274"/>
-    <mergeCell ref="E272:E274"/>
-    <mergeCell ref="A275:A277"/>
-    <mergeCell ref="B275:B277"/>
-    <mergeCell ref="C275:C277"/>
-    <mergeCell ref="D275:D277"/>
-    <mergeCell ref="E275:E277"/>
-    <mergeCell ref="A278:A280"/>
-    <mergeCell ref="B278:B280"/>
-    <mergeCell ref="C278:C280"/>
-    <mergeCell ref="D278:D280"/>
-    <mergeCell ref="E278:E280"/>
-    <mergeCell ref="A281:A283"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="C281:C283"/>
-    <mergeCell ref="D281:D283"/>
-    <mergeCell ref="E281:E283"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="B284:B286"/>
-    <mergeCell ref="C284:C286"/>
-    <mergeCell ref="D284:D286"/>
-    <mergeCell ref="E284:E286"/>
-    <mergeCell ref="A287:A289"/>
-    <mergeCell ref="B287:B289"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="D287:D289"/>
-    <mergeCell ref="E287:E289"/>
-    <mergeCell ref="A290:A292"/>
-    <mergeCell ref="B290:B292"/>
-    <mergeCell ref="C290:C292"/>
-    <mergeCell ref="D290:D292"/>
-    <mergeCell ref="E290:E292"/>
-    <mergeCell ref="A293:A295"/>
-    <mergeCell ref="B293:B295"/>
-    <mergeCell ref="C293:C295"/>
-    <mergeCell ref="D293:D295"/>
-    <mergeCell ref="E293:E295"/>
-    <mergeCell ref="A296:A298"/>
-    <mergeCell ref="B296:B298"/>
-    <mergeCell ref="C296:C298"/>
-    <mergeCell ref="D296:D298"/>
-    <mergeCell ref="E296:E298"/>
-    <mergeCell ref="A299:A301"/>
-    <mergeCell ref="B299:B301"/>
-    <mergeCell ref="C299:C301"/>
-    <mergeCell ref="D299:D301"/>
-    <mergeCell ref="E299:E301"/>
-    <mergeCell ref="A302:A304"/>
-    <mergeCell ref="B302:B304"/>
-    <mergeCell ref="C302:C304"/>
-    <mergeCell ref="D302:D304"/>
-    <mergeCell ref="E302:E304"/>
-    <mergeCell ref="A305:A307"/>
-    <mergeCell ref="B305:B307"/>
-    <mergeCell ref="C305:C307"/>
-    <mergeCell ref="D305:D307"/>
-    <mergeCell ref="E305:E307"/>
-    <mergeCell ref="A308:A310"/>
-    <mergeCell ref="B308:B310"/>
-    <mergeCell ref="C308:C310"/>
-    <mergeCell ref="D308:D310"/>
-    <mergeCell ref="E308:E310"/>
-    <mergeCell ref="A311:A313"/>
-    <mergeCell ref="B311:B313"/>
-    <mergeCell ref="C311:C313"/>
-    <mergeCell ref="D311:D313"/>
-    <mergeCell ref="E311:E313"/>
-    <mergeCell ref="A314:A316"/>
-    <mergeCell ref="B314:B316"/>
-    <mergeCell ref="C314:C316"/>
-    <mergeCell ref="D314:D316"/>
-    <mergeCell ref="E314:E316"/>
-    <mergeCell ref="A317:A319"/>
-    <mergeCell ref="B317:B319"/>
-    <mergeCell ref="C317:C319"/>
-    <mergeCell ref="D317:D319"/>
-    <mergeCell ref="E317:E319"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Participants_log.xlsx
+++ b/Participants_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a66c9eafe7ca5b97/Documents/GitHub/affixproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="549" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13869C09-20D9-4E33-B678-53BA36ED8CC5}"/>
+  <xr:revisionPtr revIDLastSave="583" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{983D20C3-80C1-4FC5-B5C0-709DEBE4C676}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A64A2D64-A729-45BB-94DF-402620060AB1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{A64A2D64-A729-45BB-94DF-402620060AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Participants" sheetId="1" r:id="rId1"/>
@@ -1447,7 +1447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA222A1-7C74-42B2-99CB-37883FEBB690}">
   <dimension ref="A1:H319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D53" sqref="D53:D55"/>
     </sheetView>
@@ -4943,7 +4943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E9912F-12C4-47EE-8ED1-BBFB7A9731C3}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>

--- a/Participants_log.xlsx
+++ b/Participants_log.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a66c9eafe7ca5b97/Documents/GitHub/affixproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="583" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{983D20C3-80C1-4FC5-B5C0-709DEBE4C676}"/>
+  <xr:revisionPtr revIDLastSave="618" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B00BB5B1-7576-4EEA-ADEE-C6364B711C63}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{A64A2D64-A729-45BB-94DF-402620060AB1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A64A2D64-A729-45BB-94DF-402620060AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Participants" sheetId="1" r:id="rId1"/>
     <sheet name="Feedback" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -48,10 +48,13 @@
     <t>Date taken experiment</t>
   </si>
   <si>
+    <t>Checklist</t>
+  </si>
+  <si>
     <t>Comments</t>
   </si>
   <si>
-    <t>Checklist</t>
+    <t>Score</t>
   </si>
   <si>
     <t>Paolo Muratore</t>
@@ -63,7 +66,13 @@
     <t>Accidentally launched with 2 instead of trainingn, so saw 2 words more</t>
   </si>
   <si>
-    <t>Nadia?</t>
+    <t>Pilot 1</t>
+  </si>
+  <si>
+    <t>Pilot 2</t>
+  </si>
+  <si>
+    <t>Pilot 3</t>
   </si>
   <si>
     <t>Francesco Rinaldi</t>
@@ -78,88 +87,136 @@
     <t>Andrea (StatPhys)</t>
   </si>
   <si>
+    <t>Failed attention check                 Very long RTs at the beginning</t>
+  </si>
+  <si>
     <t>Patrick (da Elena)</t>
   </si>
   <si>
-    <t>Failed attention check                 Very long RTs at the beginning</t>
-  </si>
-  <si>
     <t>Ilaria</t>
   </si>
   <si>
+    <t>Sabino (da Elena)</t>
+  </si>
+  <si>
     <t>Thought maybe to track letters</t>
   </si>
   <si>
-    <t>Pilot 1</t>
-  </si>
-  <si>
-    <t>Pilot 2</t>
-  </si>
-  <si>
-    <t>Sabino (da Elena)</t>
-  </si>
-  <si>
     <t>Sara</t>
   </si>
   <si>
     <t>Couldn't ID pattern. Didn't feel very engaged during training</t>
   </si>
   <si>
+    <t>Marco</t>
+  </si>
+  <si>
+    <t>Tried to look at individual characters to tell languages apart. Felt training started abruptly, didn't know to learn the words that he would then be tested on</t>
+  </si>
+  <si>
+    <t>Francesca</t>
+  </si>
+  <si>
+    <t>Tried to focus on chunks in training, tried to recognise specific characters</t>
+  </si>
+  <si>
     <t>Valeria</t>
   </si>
   <si>
-    <t>Marco</t>
-  </si>
-  <si>
-    <t>Tried to look at individual characters to tell languages apart. Felt training started abruptly, didn't know to learn the words that he would then be tested on</t>
-  </si>
-  <si>
-    <t>Francesca</t>
-  </si>
-  <si>
-    <t>Tried to focus on chunks in training, tried to recognise specific characters</t>
+    <t>No strategy, just intuition</t>
+  </si>
+  <si>
+    <t>Davide Donati</t>
+  </si>
+  <si>
+    <t>Got distracted during training Thought testing was just familiarity</t>
+  </si>
+  <si>
+    <t>Samuel Tamagnone</t>
+  </si>
+  <si>
+    <t>Looked for patterns/specific letters</t>
+  </si>
+  <si>
+    <t>Gabriele StatPhys</t>
+  </si>
+  <si>
+    <t>Intuition</t>
+  </si>
+  <si>
+    <t>Nicola Binetti</t>
+  </si>
+  <si>
+    <t>Tried to look at specific letters in training, no real strategy in testing</t>
+  </si>
+  <si>
+    <t>Giuseppe</t>
+  </si>
+  <si>
+    <t>Looked for morphemes. Forgot to add timeout screen, but had fast RTs. Familiarity at 50%</t>
+  </si>
+  <si>
+    <t>Luca</t>
+  </si>
+  <si>
+    <t>Looked at morphemes</t>
+  </si>
+  <si>
+    <t>Emma Icardi new Trentina</t>
+  </si>
+  <si>
+    <t>Martina new Trentina</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>52.5</t>
+  </si>
+  <si>
+    <t>Emma Montecchiari new Trentina</t>
+  </si>
+  <si>
+    <t>Tried to decide based on the shape of words (length, shape of letters)</t>
+  </si>
+  <si>
+    <t>Ilaria new Trentina</t>
   </si>
   <si>
     <t>Attention check</t>
   </si>
   <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Ideas</t>
+  </si>
+  <si>
     <t>2 failures</t>
   </si>
   <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Testing</t>
+    <t>3 rounds of training: don't feel very engaged</t>
   </si>
   <si>
     <t>Long RTs</t>
   </si>
   <si>
+    <t>Inter-training: say that they can take a short break if they wish</t>
+  </si>
+  <si>
+    <t>Suggested different colours or something to keep the participant engaged</t>
+  </si>
+  <si>
     <t>Lots think to track letters -&gt; use this as lang belonging cue, don't know there are 2 langs. But using inaccurate cue, which might lead to the below-average results</t>
   </si>
   <si>
-    <t>3 rounds of training: don't feel very engaged</t>
-  </si>
-  <si>
-    <t>Suggested different colours or something to keep the participant engaged</t>
+    <t>Work on testing instructions: try to make it sound like it's really impossible to find difference, that they need to just go with their gut</t>
   </si>
   <si>
     <t>Felt like training started abruptly</t>
-  </si>
-  <si>
-    <t>Didn't feel like they knew to learn the words to be tested on later</t>
-  </si>
-  <si>
-    <t>Tried to focus on chunks/specific characters</t>
-  </si>
-  <si>
-    <t>Davide Donati</t>
-  </si>
-  <si>
-    <t>Ideas</t>
-  </si>
-  <si>
-    <t>Inter-training: say that they can take a short break if they wish</t>
   </si>
   <si>
     <r>
@@ -177,62 +234,20 @@
     </r>
   </si>
   <si>
-    <t>Work on testing instructions: try to make it sound like it's really impossible to find difference, that they need to just go with their gut</t>
-  </si>
-  <si>
-    <t>No strategy, just intuition</t>
-  </si>
-  <si>
-    <t>Samuel Tamagnone</t>
-  </si>
-  <si>
-    <t>Nicola Binetti</t>
-  </si>
-  <si>
-    <t>Gian?</t>
+    <t>Didn't feel like they knew to learn the words to be tested on later</t>
   </si>
   <si>
     <t>Testing: say that they should try to respond quickly/within 2 seconds</t>
   </si>
   <si>
-    <t>Got distracted during training Thought testing was just familiarity</t>
-  </si>
-  <si>
-    <t>Looked for patterns/specific letters</t>
-  </si>
-  <si>
-    <t>Gabriele StatPhys</t>
-  </si>
-  <si>
-    <t>Intuition</t>
-  </si>
-  <si>
-    <t>Tried to look at specific letters in training, no real strategy in testing</t>
-  </si>
-  <si>
-    <t>Score</t>
-  </si>
-  <si>
-    <t>Pilot 3</t>
-  </si>
-  <si>
-    <t>Giuseppe</t>
-  </si>
-  <si>
-    <t>Luca</t>
-  </si>
-  <si>
-    <t>Looked for morphemes. Forgot to add timeout screen, but had fast RTs. Familiarity at 50%</t>
-  </si>
-  <si>
-    <t>Looked at morphemes</t>
+    <t>Tried to focus on chunks/specific characters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,9 +740,6 @@
   <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -854,6 +866,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -867,7 +882,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -876,10 +891,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -915,13 +930,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,7 +987,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -987,13 +1002,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1008,7 +1023,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1020,7 +1035,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1044,7 +1059,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1059,10 +1074,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1083,7 +1098,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1104,7 +1119,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1119,13 +1134,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1142,10 +1157,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1447,44 +1458,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA222A1-7C74-42B2-99CB-37883FEBB690}">
   <dimension ref="A1:H319"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53:D55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E65" sqref="E65:E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="21.90625" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" customWidth="1"/>
-    <col min="5" max="5" width="29.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1">
       <c r="A2" s="51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="50">
         <v>1</v>
@@ -1493,43 +1504,43 @@
         <v>45014</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="48" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="31"/>
-      <c r="H2" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1">
       <c r="A3" s="51"/>
       <c r="B3" s="50"/>
       <c r="C3" s="49"/>
       <c r="D3" s="47"/>
       <c r="E3" s="48"/>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>42.5</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickBot="1">
       <c r="A4" s="51"/>
       <c r="B4" s="50"/>
       <c r="C4" s="49"/>
       <c r="D4" s="47"/>
       <c r="E4" s="48"/>
-      <c r="F4" s="35"/>
-      <c r="H4" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F4" s="34"/>
+      <c r="H4" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="54" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5" s="56">
         <v>2</v>
@@ -1538,32 +1549,32 @@
         <v>45014</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="53"/>
-      <c r="F5" s="36"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="51"/>
       <c r="B6" s="50"/>
       <c r="C6" s="49"/>
       <c r="D6" s="47"/>
       <c r="E6" s="48"/>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>57.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8">
       <c r="A7" s="51"/>
       <c r="B7" s="50"/>
       <c r="C7" s="49"/>
       <c r="D7" s="47"/>
       <c r="E7" s="48"/>
-      <c r="F7" s="35"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="54" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="56">
         <v>3</v>
@@ -1572,32 +1583,32 @@
         <v>45015</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8" s="53"/>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="51"/>
       <c r="B9" s="50"/>
       <c r="C9" s="59"/>
       <c r="D9" s="47"/>
       <c r="E9" s="48"/>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8">
       <c r="A10" s="55"/>
       <c r="B10" s="57"/>
       <c r="C10" s="60"/>
       <c r="D10" s="47"/>
       <c r="E10" s="48"/>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="34"/>
+    </row>
+    <row r="11" spans="1:8" ht="14.45" customHeight="1">
       <c r="A11" s="67" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" s="70">
         <v>4</v>
@@ -1606,34 +1617,34 @@
         <v>45016</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="37"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="F11" s="36"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="68"/>
       <c r="B12" s="71"/>
       <c r="C12" s="74"/>
       <c r="D12" s="64"/>
       <c r="E12" s="66"/>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>42.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8">
       <c r="A13" s="69"/>
       <c r="B13" s="72"/>
       <c r="C13" s="75"/>
       <c r="D13" s="64"/>
       <c r="E13" s="66"/>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="54" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14" s="56">
         <v>5</v>
@@ -1642,32 +1653,32 @@
         <v>45017</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14" s="53"/>
-      <c r="F14" s="36"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="51"/>
       <c r="B15" s="50"/>
       <c r="C15" s="49"/>
       <c r="D15" s="47"/>
       <c r="E15" s="48"/>
-      <c r="F15" s="32">
+      <c r="F15" s="31">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8">
       <c r="A16" s="55"/>
       <c r="B16" s="57"/>
       <c r="C16" s="62"/>
       <c r="D16" s="47"/>
       <c r="E16" s="48"/>
-      <c r="F16" s="35"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="34"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.45" customHeight="1">
       <c r="A17" s="54" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B17" s="56">
         <v>6</v>
@@ -1676,30 +1687,30 @@
         <v>45017</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17" s="53"/>
-      <c r="F17" s="36"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F17" s="35"/>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="51"/>
       <c r="B18" s="50"/>
       <c r="C18" s="49"/>
       <c r="D18" s="47"/>
       <c r="E18" s="48"/>
-      <c r="F18" s="32">
+      <c r="F18" s="31">
         <v>37.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6">
       <c r="A19" s="55"/>
       <c r="B19" s="57"/>
       <c r="C19" s="62"/>
       <c r="D19" s="47"/>
       <c r="E19" s="48"/>
-      <c r="F19" s="35"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="54" t="s">
         <v>19</v>
       </c>
@@ -1710,34 +1721,34 @@
         <v>45017</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20" s="36"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="F20" s="35"/>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="51"/>
       <c r="B21" s="50"/>
       <c r="C21" s="49"/>
       <c r="D21" s="47"/>
       <c r="E21" s="48"/>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <v>52.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="15" thickBot="1">
       <c r="A22" s="86"/>
       <c r="B22" s="87"/>
       <c r="C22" s="88"/>
       <c r="D22" s="89"/>
       <c r="E22" s="90"/>
-      <c r="F22" s="33"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F22" s="32"/>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="92" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" s="77">
         <v>8</v>
@@ -1746,32 +1757,32 @@
         <v>45036</v>
       </c>
       <c r="D23" s="83" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E23" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="92"/>
       <c r="B24" s="77"/>
       <c r="C24" s="96"/>
       <c r="D24" s="83"/>
       <c r="E24" s="85"/>
-      <c r="F24" s="29">
+      <c r="F24" s="28">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6">
       <c r="A25" s="93"/>
       <c r="B25" s="78"/>
       <c r="C25" s="97"/>
       <c r="D25" s="83"/>
       <c r="E25" s="85"/>
-      <c r="F25" s="40"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="91" t="s">
         <v>23</v>
       </c>
@@ -1782,32 +1793,32 @@
         <v>45042</v>
       </c>
       <c r="D26" s="82" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E26" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="F26" s="41"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F26" s="40"/>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="92"/>
       <c r="B27" s="77"/>
       <c r="C27" s="80"/>
       <c r="D27" s="83"/>
       <c r="E27" s="85"/>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="1:6" ht="42.95" customHeight="1">
       <c r="A28" s="93"/>
       <c r="B28" s="78"/>
       <c r="C28" s="81"/>
       <c r="D28" s="83"/>
       <c r="E28" s="85"/>
-      <c r="F28" s="42">
+      <c r="F28" s="41">
         <v>52.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6">
       <c r="A29" s="91" t="s">
         <v>25</v>
       </c>
@@ -1818,34 +1829,34 @@
         <v>45043</v>
       </c>
       <c r="D29" s="82" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E29" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="41"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F29" s="40"/>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="92"/>
       <c r="B30" s="77"/>
       <c r="C30" s="80"/>
       <c r="D30" s="83"/>
       <c r="E30" s="85"/>
-      <c r="F30" s="29">
+      <c r="F30" s="28">
         <v>52.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6">
       <c r="A31" s="93"/>
       <c r="B31" s="78"/>
       <c r="C31" s="81"/>
       <c r="D31" s="83"/>
       <c r="E31" s="85"/>
-      <c r="F31" s="40"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="91" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B32" s="76">
         <v>11</v>
@@ -1854,34 +1865,34 @@
         <v>45049</v>
       </c>
       <c r="D32" s="82" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E32" s="84" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="41"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="F32" s="40"/>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="92"/>
       <c r="B33" s="77"/>
       <c r="C33" s="80"/>
       <c r="D33" s="83"/>
       <c r="E33" s="85"/>
-      <c r="F33" s="29">
+      <c r="F33" s="28">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6">
       <c r="A34" s="93"/>
       <c r="B34" s="78"/>
       <c r="C34" s="81"/>
       <c r="D34" s="94"/>
       <c r="E34" s="95"/>
-      <c r="F34" s="40"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F34" s="39"/>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="91" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B35" s="77">
         <v>12</v>
@@ -1890,34 +1901,34 @@
         <v>45049</v>
       </c>
       <c r="D35" s="83" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E35" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="F35" s="41"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="F35" s="40"/>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="92"/>
       <c r="B36" s="77"/>
       <c r="C36" s="80"/>
       <c r="D36" s="83"/>
       <c r="E36" s="85"/>
-      <c r="F36" s="29">
+      <c r="F36" s="28">
         <v>52.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6">
       <c r="A37" s="93"/>
       <c r="B37" s="78"/>
       <c r="C37" s="81"/>
       <c r="D37" s="94"/>
       <c r="E37" s="85"/>
-      <c r="F37" s="40"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="91" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B38" s="76">
         <v>13</v>
@@ -1926,34 +1937,34 @@
         <v>45050</v>
       </c>
       <c r="D38" s="82" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E38" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="41"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="F38" s="40"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="92"/>
       <c r="B39" s="77"/>
       <c r="C39" s="80"/>
       <c r="D39" s="83"/>
       <c r="E39" s="85"/>
-      <c r="F39" s="29">
+      <c r="F39" s="28">
         <v>47.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6">
       <c r="A40" s="92"/>
       <c r="B40" s="77"/>
       <c r="C40" s="80"/>
       <c r="D40" s="83"/>
       <c r="E40" s="85"/>
-      <c r="F40" s="40"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F40" s="39"/>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="91" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B41" s="76">
         <v>14</v>
@@ -1962,34 +1973,34 @@
         <v>45050</v>
       </c>
       <c r="D41" s="82" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E41" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="41"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="F41" s="40"/>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="92"/>
       <c r="B42" s="77"/>
       <c r="C42" s="80"/>
       <c r="D42" s="83"/>
       <c r="E42" s="85"/>
-      <c r="F42" s="29">
+      <c r="F42" s="28">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6">
       <c r="A43" s="93"/>
       <c r="B43" s="78"/>
       <c r="C43" s="81"/>
       <c r="D43" s="83"/>
       <c r="E43" s="85"/>
-      <c r="F43" s="40"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F43" s="39"/>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="91" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B44" s="76">
         <v>15</v>
@@ -1998,34 +2009,34 @@
         <v>45050</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E44" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="41"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+      <c r="F44" s="40"/>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="92"/>
       <c r="B45" s="77"/>
       <c r="C45" s="80"/>
       <c r="D45" s="83"/>
       <c r="E45" s="85"/>
-      <c r="F45" s="29">
+      <c r="F45" s="28">
         <v>57.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" ht="15" thickBot="1">
       <c r="A46" s="98"/>
       <c r="B46" s="108"/>
       <c r="C46" s="99"/>
       <c r="D46" s="100"/>
       <c r="E46" s="101"/>
-      <c r="F46" s="30"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="102" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="B47" s="109">
         <v>16</v>
@@ -2034,34 +2045,34 @@
         <v>45061</v>
       </c>
       <c r="D47" s="106" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E47" s="107" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="43"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="F47" s="42"/>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="102"/>
       <c r="B48" s="109"/>
       <c r="C48" s="104"/>
       <c r="D48" s="106"/>
       <c r="E48" s="107"/>
-      <c r="F48" s="43">
+      <c r="F48" s="42">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6">
       <c r="A49" s="102"/>
       <c r="B49" s="109"/>
       <c r="C49" s="105"/>
       <c r="D49" s="106"/>
       <c r="E49" s="107"/>
-      <c r="F49" s="44"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F49" s="43"/>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="110" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B50" s="114">
         <v>17</v>
@@ -2070,166 +2081,204 @@
         <v>45061</v>
       </c>
       <c r="D50" s="112" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E50" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="45"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+      <c r="F50" s="44"/>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="102"/>
       <c r="B51" s="109"/>
       <c r="C51" s="104"/>
       <c r="D51" s="106"/>
       <c r="E51" s="107"/>
-      <c r="F51" s="43">
+      <c r="F51" s="42">
         <v>57.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6">
       <c r="A52" s="102"/>
       <c r="B52" s="109"/>
       <c r="C52" s="104"/>
       <c r="D52" s="106"/>
       <c r="E52" s="107"/>
-      <c r="F52" s="44"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F52" s="43"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="110" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B53" s="114">
         <v>18</v>
       </c>
-      <c r="C53" s="111"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="45"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C53" s="111">
+        <v>45068</v>
+      </c>
+      <c r="D53" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E53" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="44"/>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="102"/>
       <c r="B54" s="109"/>
       <c r="C54" s="104"/>
       <c r="D54" s="106"/>
       <c r="E54" s="107"/>
-      <c r="F54" s="43"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F54" s="42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="102"/>
       <c r="B55" s="109"/>
       <c r="C55" s="104"/>
       <c r="D55" s="106"/>
       <c r="E55" s="107"/>
-      <c r="F55" s="44"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F55" s="43"/>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="110" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B56" s="114">
         <v>19</v>
       </c>
-      <c r="C56" s="111"/>
-      <c r="D56" s="112"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="45"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C56" s="111">
+        <v>45068</v>
+      </c>
+      <c r="D56" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56" s="44"/>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="102"/>
       <c r="B57" s="109"/>
       <c r="C57" s="104"/>
       <c r="D57" s="106"/>
       <c r="E57" s="107"/>
-      <c r="F57" s="43"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F57" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="102"/>
       <c r="B58" s="109"/>
       <c r="C58" s="104"/>
       <c r="D58" s="106"/>
       <c r="E58" s="107"/>
-      <c r="F58" s="44"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="110"/>
+      <c r="F58" s="43"/>
+    </row>
+    <row r="59" spans="1:6" ht="15">
+      <c r="A59" s="110" t="s">
+        <v>43</v>
+      </c>
       <c r="B59" s="114">
         <v>20</v>
       </c>
-      <c r="C59" s="111"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="113"/>
-      <c r="F59" s="45"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C59" s="111">
+        <v>45069</v>
+      </c>
+      <c r="D59" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="113" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59" s="44"/>
+    </row>
+    <row r="60" spans="1:6" ht="15">
       <c r="A60" s="102"/>
       <c r="B60" s="109"/>
       <c r="C60" s="104"/>
       <c r="D60" s="106"/>
       <c r="E60" s="107"/>
-      <c r="F60" s="43"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F60" s="42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15">
       <c r="A61" s="102"/>
       <c r="B61" s="109"/>
       <c r="C61" s="104"/>
       <c r="D61" s="106"/>
       <c r="E61" s="107"/>
-      <c r="F61" s="44"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="110"/>
+      <c r="F61" s="43"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.45" customHeight="1">
+      <c r="A62" s="110" t="s">
+        <v>45</v>
+      </c>
       <c r="B62" s="114">
         <v>21</v>
       </c>
-      <c r="C62" s="111"/>
-      <c r="D62" s="112"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="45"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C62" s="111">
+        <v>45069</v>
+      </c>
+      <c r="D62" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="113" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="44"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.45" customHeight="1">
       <c r="A63" s="102"/>
       <c r="B63" s="109"/>
       <c r="C63" s="104"/>
       <c r="D63" s="106"/>
       <c r="E63" s="107"/>
-      <c r="F63" s="43"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F63" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="14.45" customHeight="1">
       <c r="A64" s="102"/>
       <c r="B64" s="109"/>
       <c r="C64" s="104"/>
       <c r="D64" s="106"/>
       <c r="E64" s="107"/>
-      <c r="F64" s="44"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="110"/>
+      <c r="F64" s="43"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" customHeight="1">
+      <c r="A65" s="110" t="s">
+        <v>47</v>
+      </c>
       <c r="B65" s="114">
         <v>22</v>
       </c>
       <c r="C65" s="111"/>
       <c r="D65" s="112"/>
       <c r="E65" s="113"/>
-      <c r="F65" s="45"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F65" s="44"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.45" customHeight="1">
       <c r="A66" s="102"/>
       <c r="B66" s="109"/>
       <c r="C66" s="104"/>
       <c r="D66" s="106"/>
       <c r="E66" s="107"/>
-      <c r="F66" s="43"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F66" s="42"/>
+    </row>
+    <row r="67" spans="1:6" ht="15">
       <c r="A67" s="102"/>
       <c r="B67" s="109"/>
       <c r="C67" s="104"/>
       <c r="D67" s="106"/>
       <c r="E67" s="107"/>
-      <c r="F67" s="44"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F67" s="43"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.45" customHeight="1">
       <c r="A68" s="110"/>
       <c r="B68" s="114">
         <v>23</v>
@@ -2237,25 +2286,25 @@
       <c r="C68" s="111"/>
       <c r="D68" s="112"/>
       <c r="E68" s="113"/>
-      <c r="F68" s="45"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F68" s="44"/>
+    </row>
+    <row r="69" spans="1:6" ht="14.45" customHeight="1">
       <c r="A69" s="102"/>
       <c r="B69" s="109"/>
       <c r="C69" s="104"/>
       <c r="D69" s="106"/>
       <c r="E69" s="107"/>
-      <c r="F69" s="43"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F69" s="42"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.45" customHeight="1">
       <c r="A70" s="102"/>
       <c r="B70" s="109"/>
       <c r="C70" s="104"/>
       <c r="D70" s="106"/>
       <c r="E70" s="107"/>
-      <c r="F70" s="44"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F70" s="43"/>
+    </row>
+    <row r="71" spans="1:6" ht="15">
       <c r="A71" s="110"/>
       <c r="B71" s="114">
         <v>24</v>
@@ -2263,25 +2312,25 @@
       <c r="C71" s="111"/>
       <c r="D71" s="112"/>
       <c r="E71" s="113"/>
-      <c r="F71" s="45"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F71" s="44"/>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="102"/>
       <c r="B72" s="109"/>
       <c r="C72" s="104"/>
       <c r="D72" s="106"/>
       <c r="E72" s="107"/>
-      <c r="F72" s="43"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F72" s="42"/>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="102"/>
       <c r="B73" s="109"/>
       <c r="C73" s="104"/>
       <c r="D73" s="106"/>
       <c r="E73" s="107"/>
-      <c r="F73" s="44"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F73" s="43"/>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="110"/>
       <c r="B74" s="114">
         <v>25</v>
@@ -2289,25 +2338,25 @@
       <c r="C74" s="111"/>
       <c r="D74" s="112"/>
       <c r="E74" s="113"/>
-      <c r="F74" s="45"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F74" s="44"/>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="102"/>
       <c r="B75" s="109"/>
       <c r="C75" s="104"/>
       <c r="D75" s="106"/>
       <c r="E75" s="107"/>
-      <c r="F75" s="43"/>
-    </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F75" s="42"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" thickBot="1">
       <c r="A76" s="123"/>
       <c r="B76" s="127"/>
       <c r="C76" s="124"/>
       <c r="D76" s="125"/>
       <c r="E76" s="126"/>
-      <c r="F76" s="46"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F76" s="45"/>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="116"/>
       <c r="B77" s="128">
         <v>26</v>
@@ -2315,25 +2364,25 @@
       <c r="C77" s="118"/>
       <c r="D77" s="120"/>
       <c r="E77" s="122"/>
-      <c r="F77" s="27"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="116"/>
       <c r="B78" s="128"/>
       <c r="C78" s="118"/>
       <c r="D78" s="120"/>
       <c r="E78" s="122"/>
-      <c r="F78" s="27"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F78" s="26"/>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="116"/>
       <c r="B79" s="128"/>
       <c r="C79" s="118"/>
       <c r="D79" s="120"/>
       <c r="E79" s="122"/>
-      <c r="F79" s="27"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F79" s="26"/>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="115"/>
       <c r="B80" s="129">
         <v>27</v>
@@ -2341,25 +2390,25 @@
       <c r="C80" s="117"/>
       <c r="D80" s="119"/>
       <c r="E80" s="121"/>
-      <c r="F80" s="27"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F80" s="26"/>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="116"/>
       <c r="B81" s="128"/>
       <c r="C81" s="118"/>
       <c r="D81" s="120"/>
       <c r="E81" s="122"/>
-      <c r="F81" s="27"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F81" s="26"/>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="116"/>
       <c r="B82" s="128"/>
       <c r="C82" s="118"/>
       <c r="D82" s="120"/>
       <c r="E82" s="122"/>
-      <c r="F82" s="27"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F82" s="26"/>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="115"/>
       <c r="B83" s="129">
         <v>28</v>
@@ -2367,25 +2416,25 @@
       <c r="C83" s="117"/>
       <c r="D83" s="119"/>
       <c r="E83" s="121"/>
-      <c r="F83" s="27"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F83" s="26"/>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="116"/>
       <c r="B84" s="128"/>
       <c r="C84" s="118"/>
       <c r="D84" s="120"/>
       <c r="E84" s="122"/>
-      <c r="F84" s="27"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F84" s="26"/>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="116"/>
       <c r="B85" s="128"/>
       <c r="C85" s="118"/>
       <c r="D85" s="120"/>
       <c r="E85" s="122"/>
-      <c r="F85" s="27"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F85" s="26"/>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="115"/>
       <c r="B86" s="129">
         <v>29</v>
@@ -2393,25 +2442,25 @@
       <c r="C86" s="117"/>
       <c r="D86" s="119"/>
       <c r="E86" s="121"/>
-      <c r="F86" s="27"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F86" s="26"/>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="116"/>
       <c r="B87" s="128"/>
       <c r="C87" s="118"/>
       <c r="D87" s="120"/>
       <c r="E87" s="122"/>
-      <c r="F87" s="27"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F87" s="26"/>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="116"/>
       <c r="B88" s="128"/>
       <c r="C88" s="118"/>
       <c r="D88" s="120"/>
       <c r="E88" s="122"/>
-      <c r="F88" s="27"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F88" s="26"/>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="115"/>
       <c r="B89" s="129">
         <v>30</v>
@@ -2419,25 +2468,25 @@
       <c r="C89" s="117"/>
       <c r="D89" s="119"/>
       <c r="E89" s="121"/>
-      <c r="F89" s="27"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F89" s="26"/>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="116"/>
       <c r="B90" s="128"/>
       <c r="C90" s="118"/>
       <c r="D90" s="120"/>
       <c r="E90" s="122"/>
-      <c r="F90" s="27"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F90" s="26"/>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="116"/>
       <c r="B91" s="128"/>
       <c r="C91" s="118"/>
       <c r="D91" s="120"/>
       <c r="E91" s="122"/>
-      <c r="F91" s="27"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F91" s="26"/>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="115"/>
       <c r="B92" s="129">
         <v>31</v>
@@ -2445,25 +2494,25 @@
       <c r="C92" s="117"/>
       <c r="D92" s="119"/>
       <c r="E92" s="121"/>
-      <c r="F92" s="27"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F92" s="26"/>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="116"/>
       <c r="B93" s="128"/>
       <c r="C93" s="118"/>
       <c r="D93" s="120"/>
       <c r="E93" s="122"/>
-      <c r="F93" s="27"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F93" s="26"/>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="116"/>
       <c r="B94" s="128"/>
       <c r="C94" s="118"/>
       <c r="D94" s="120"/>
       <c r="E94" s="122"/>
-      <c r="F94" s="27"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F94" s="26"/>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="115"/>
       <c r="B95" s="129">
         <v>32</v>
@@ -2471,25 +2520,25 @@
       <c r="C95" s="117"/>
       <c r="D95" s="119"/>
       <c r="E95" s="121"/>
-      <c r="F95" s="27"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F95" s="26"/>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="116"/>
       <c r="B96" s="128"/>
       <c r="C96" s="118"/>
       <c r="D96" s="120"/>
       <c r="E96" s="122"/>
-      <c r="F96" s="27"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F96" s="26"/>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="116"/>
       <c r="B97" s="128"/>
       <c r="C97" s="118"/>
       <c r="D97" s="120"/>
       <c r="E97" s="122"/>
-      <c r="F97" s="27"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F97" s="26"/>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="115"/>
       <c r="B98" s="129">
         <v>33</v>
@@ -2497,25 +2546,25 @@
       <c r="C98" s="117"/>
       <c r="D98" s="119"/>
       <c r="E98" s="121"/>
-      <c r="F98" s="27"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F98" s="26"/>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="116"/>
       <c r="B99" s="128"/>
       <c r="C99" s="118"/>
       <c r="D99" s="120"/>
       <c r="E99" s="122"/>
-      <c r="F99" s="27"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F99" s="26"/>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="116"/>
       <c r="B100" s="128"/>
       <c r="C100" s="118"/>
       <c r="D100" s="120"/>
       <c r="E100" s="122"/>
-      <c r="F100" s="27"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F100" s="26"/>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="115"/>
       <c r="B101" s="129">
         <v>34</v>
@@ -2523,25 +2572,25 @@
       <c r="C101" s="117"/>
       <c r="D101" s="119"/>
       <c r="E101" s="121"/>
-      <c r="F101" s="27"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F101" s="26"/>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="116"/>
       <c r="B102" s="128"/>
       <c r="C102" s="118"/>
       <c r="D102" s="120"/>
       <c r="E102" s="122"/>
-      <c r="F102" s="27"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F102" s="26"/>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="116"/>
       <c r="B103" s="128"/>
       <c r="C103" s="118"/>
       <c r="D103" s="120"/>
       <c r="E103" s="122"/>
-      <c r="F103" s="27"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F103" s="26"/>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="115"/>
       <c r="B104" s="129">
         <v>35</v>
@@ -2549,25 +2598,25 @@
       <c r="C104" s="117"/>
       <c r="D104" s="119"/>
       <c r="E104" s="121"/>
-      <c r="F104" s="27"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F104" s="26"/>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="116"/>
       <c r="B105" s="128"/>
       <c r="C105" s="118"/>
       <c r="D105" s="120"/>
       <c r="E105" s="122"/>
-      <c r="F105" s="27"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F105" s="26"/>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="116"/>
       <c r="B106" s="128"/>
       <c r="C106" s="118"/>
       <c r="D106" s="120"/>
       <c r="E106" s="122"/>
-      <c r="F106" s="27"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F106" s="26"/>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="115"/>
       <c r="B107" s="129">
         <v>36</v>
@@ -2575,25 +2624,25 @@
       <c r="C107" s="117"/>
       <c r="D107" s="119"/>
       <c r="E107" s="121"/>
-      <c r="F107" s="27"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F107" s="26"/>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="116"/>
       <c r="B108" s="128"/>
       <c r="C108" s="118"/>
       <c r="D108" s="120"/>
       <c r="E108" s="122"/>
-      <c r="F108" s="27"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F108" s="26"/>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="116"/>
       <c r="B109" s="128"/>
       <c r="C109" s="118"/>
       <c r="D109" s="120"/>
       <c r="E109" s="122"/>
-      <c r="F109" s="27"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F109" s="26"/>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="115"/>
       <c r="B110" s="129">
         <v>37</v>
@@ -2601,25 +2650,25 @@
       <c r="C110" s="117"/>
       <c r="D110" s="119"/>
       <c r="E110" s="121"/>
-      <c r="F110" s="27"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F110" s="26"/>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="116"/>
       <c r="B111" s="128"/>
       <c r="C111" s="118"/>
       <c r="D111" s="120"/>
       <c r="E111" s="122"/>
-      <c r="F111" s="27"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F111" s="26"/>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="116"/>
       <c r="B112" s="128"/>
       <c r="C112" s="118"/>
       <c r="D112" s="120"/>
       <c r="E112" s="122"/>
-      <c r="F112" s="27"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F112" s="26"/>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="115"/>
       <c r="B113" s="129">
         <v>38</v>
@@ -2627,25 +2676,25 @@
       <c r="C113" s="117"/>
       <c r="D113" s="119"/>
       <c r="E113" s="121"/>
-      <c r="F113" s="27"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F113" s="26"/>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="116"/>
       <c r="B114" s="128"/>
       <c r="C114" s="118"/>
       <c r="D114" s="120"/>
       <c r="E114" s="122"/>
-      <c r="F114" s="27"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F114" s="26"/>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="116"/>
       <c r="B115" s="128"/>
       <c r="C115" s="118"/>
       <c r="D115" s="120"/>
       <c r="E115" s="122"/>
-      <c r="F115" s="27"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F115" s="26"/>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="115"/>
       <c r="B116" s="129">
         <v>39</v>
@@ -2653,25 +2702,25 @@
       <c r="C116" s="117"/>
       <c r="D116" s="119"/>
       <c r="E116" s="121"/>
-      <c r="F116" s="27"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F116" s="26"/>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="116"/>
       <c r="B117" s="128"/>
       <c r="C117" s="118"/>
       <c r="D117" s="120"/>
       <c r="E117" s="122"/>
-      <c r="F117" s="27"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F117" s="26"/>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="116"/>
       <c r="B118" s="128"/>
       <c r="C118" s="118"/>
       <c r="D118" s="120"/>
       <c r="E118" s="122"/>
-      <c r="F118" s="27"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F118" s="26"/>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="115"/>
       <c r="B119" s="129">
         <v>40</v>
@@ -2679,25 +2728,25 @@
       <c r="C119" s="117"/>
       <c r="D119" s="119"/>
       <c r="E119" s="121"/>
-      <c r="F119" s="27"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F119" s="26"/>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="116"/>
       <c r="B120" s="128"/>
       <c r="C120" s="118"/>
       <c r="D120" s="120"/>
       <c r="E120" s="122"/>
-      <c r="F120" s="27"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F120" s="26"/>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="116"/>
       <c r="B121" s="128"/>
       <c r="C121" s="118"/>
       <c r="D121" s="120"/>
       <c r="E121" s="122"/>
-      <c r="F121" s="27"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F121" s="26"/>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="115"/>
       <c r="B122" s="129">
         <v>41</v>
@@ -2705,25 +2754,25 @@
       <c r="C122" s="117"/>
       <c r="D122" s="119"/>
       <c r="E122" s="121"/>
-      <c r="F122" s="27"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F122" s="26"/>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="116"/>
       <c r="B123" s="128"/>
       <c r="C123" s="118"/>
       <c r="D123" s="120"/>
       <c r="E123" s="122"/>
-      <c r="F123" s="27"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F123" s="26"/>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="116"/>
       <c r="B124" s="128"/>
       <c r="C124" s="118"/>
       <c r="D124" s="120"/>
       <c r="E124" s="122"/>
-      <c r="F124" s="27"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F124" s="26"/>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="115"/>
       <c r="B125" s="129">
         <v>42</v>
@@ -2731,25 +2780,25 @@
       <c r="C125" s="117"/>
       <c r="D125" s="119"/>
       <c r="E125" s="121"/>
-      <c r="F125" s="27"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F125" s="26"/>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="116"/>
       <c r="B126" s="128"/>
       <c r="C126" s="118"/>
       <c r="D126" s="120"/>
       <c r="E126" s="122"/>
-      <c r="F126" s="27"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F126" s="26"/>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="116"/>
       <c r="B127" s="128"/>
       <c r="C127" s="118"/>
       <c r="D127" s="120"/>
       <c r="E127" s="122"/>
-      <c r="F127" s="27"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F127" s="26"/>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="115"/>
       <c r="B128" s="129">
         <v>43</v>
@@ -2757,25 +2806,25 @@
       <c r="C128" s="117"/>
       <c r="D128" s="119"/>
       <c r="E128" s="121"/>
-      <c r="F128" s="27"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F128" s="26"/>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="116"/>
       <c r="B129" s="128"/>
       <c r="C129" s="118"/>
       <c r="D129" s="120"/>
       <c r="E129" s="122"/>
-      <c r="F129" s="27"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F129" s="26"/>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="116"/>
       <c r="B130" s="128"/>
       <c r="C130" s="118"/>
       <c r="D130" s="120"/>
       <c r="E130" s="122"/>
-      <c r="F130" s="27"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F130" s="26"/>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="115"/>
       <c r="B131" s="129">
         <v>44</v>
@@ -2783,25 +2832,25 @@
       <c r="C131" s="117"/>
       <c r="D131" s="119"/>
       <c r="E131" s="121"/>
-      <c r="F131" s="27"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F131" s="26"/>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="116"/>
       <c r="B132" s="128"/>
       <c r="C132" s="118"/>
       <c r="D132" s="120"/>
       <c r="E132" s="122"/>
-      <c r="F132" s="27"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F132" s="26"/>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="116"/>
       <c r="B133" s="128"/>
       <c r="C133" s="118"/>
       <c r="D133" s="120"/>
       <c r="E133" s="122"/>
-      <c r="F133" s="27"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F133" s="26"/>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="115"/>
       <c r="B134" s="129">
         <v>45</v>
@@ -2809,25 +2858,25 @@
       <c r="C134" s="117"/>
       <c r="D134" s="119"/>
       <c r="E134" s="121"/>
-      <c r="F134" s="27"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F134" s="26"/>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="116"/>
       <c r="B135" s="128"/>
       <c r="C135" s="118"/>
       <c r="D135" s="120"/>
       <c r="E135" s="122"/>
-      <c r="F135" s="27"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F135" s="26"/>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="116"/>
       <c r="B136" s="128"/>
       <c r="C136" s="118"/>
       <c r="D136" s="120"/>
       <c r="E136" s="122"/>
-      <c r="F136" s="27"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F136" s="26"/>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="115"/>
       <c r="B137" s="129">
         <v>46</v>
@@ -2835,25 +2884,25 @@
       <c r="C137" s="117"/>
       <c r="D137" s="119"/>
       <c r="E137" s="121"/>
-      <c r="F137" s="27"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F137" s="26"/>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="116"/>
       <c r="B138" s="128"/>
       <c r="C138" s="118"/>
       <c r="D138" s="120"/>
       <c r="E138" s="122"/>
-      <c r="F138" s="27"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F138" s="26"/>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="116"/>
       <c r="B139" s="128"/>
       <c r="C139" s="118"/>
       <c r="D139" s="120"/>
       <c r="E139" s="122"/>
-      <c r="F139" s="27"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F139" s="26"/>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="115"/>
       <c r="B140" s="129">
         <v>47</v>
@@ -2861,25 +2910,25 @@
       <c r="C140" s="117"/>
       <c r="D140" s="119"/>
       <c r="E140" s="121"/>
-      <c r="F140" s="27"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F140" s="26"/>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="116"/>
       <c r="B141" s="128"/>
       <c r="C141" s="118"/>
       <c r="D141" s="120"/>
       <c r="E141" s="122"/>
-      <c r="F141" s="27"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F141" s="26"/>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="116"/>
       <c r="B142" s="128"/>
       <c r="C142" s="118"/>
       <c r="D142" s="120"/>
       <c r="E142" s="122"/>
-      <c r="F142" s="27"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F142" s="26"/>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="115"/>
       <c r="B143" s="129">
         <v>48</v>
@@ -2887,25 +2936,25 @@
       <c r="C143" s="117"/>
       <c r="D143" s="119"/>
       <c r="E143" s="121"/>
-      <c r="F143" s="27"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F143" s="26"/>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="116"/>
       <c r="B144" s="128"/>
       <c r="C144" s="118"/>
       <c r="D144" s="120"/>
       <c r="E144" s="122"/>
-      <c r="F144" s="27"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F144" s="26"/>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="116"/>
       <c r="B145" s="128"/>
       <c r="C145" s="118"/>
       <c r="D145" s="120"/>
       <c r="E145" s="122"/>
-      <c r="F145" s="27"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F145" s="26"/>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="115"/>
       <c r="B146" s="129">
         <v>49</v>
@@ -2913,25 +2962,25 @@
       <c r="C146" s="117"/>
       <c r="D146" s="119"/>
       <c r="E146" s="121"/>
-      <c r="F146" s="27"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F146" s="26"/>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="116"/>
       <c r="B147" s="128"/>
       <c r="C147" s="118"/>
       <c r="D147" s="120"/>
       <c r="E147" s="122"/>
-      <c r="F147" s="27"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F147" s="26"/>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="116"/>
       <c r="B148" s="128"/>
       <c r="C148" s="118"/>
       <c r="D148" s="120"/>
       <c r="E148" s="122"/>
-      <c r="F148" s="27"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F148" s="26"/>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="115"/>
       <c r="B149" s="129">
         <v>50</v>
@@ -2939,25 +2988,25 @@
       <c r="C149" s="117"/>
       <c r="D149" s="119"/>
       <c r="E149" s="121"/>
-      <c r="F149" s="27"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F149" s="26"/>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="116"/>
       <c r="B150" s="128"/>
       <c r="C150" s="118"/>
       <c r="D150" s="120"/>
       <c r="E150" s="122"/>
-      <c r="F150" s="27"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F150" s="26"/>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="116"/>
       <c r="B151" s="128"/>
       <c r="C151" s="118"/>
       <c r="D151" s="120"/>
       <c r="E151" s="122"/>
-      <c r="F151" s="27"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F151" s="26"/>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="115"/>
       <c r="B152" s="129">
         <v>51</v>
@@ -2965,25 +3014,25 @@
       <c r="C152" s="117"/>
       <c r="D152" s="119"/>
       <c r="E152" s="121"/>
-      <c r="F152" s="27"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F152" s="26"/>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="116"/>
       <c r="B153" s="128"/>
       <c r="C153" s="118"/>
       <c r="D153" s="120"/>
       <c r="E153" s="122"/>
-      <c r="F153" s="27"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F153" s="26"/>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="116"/>
       <c r="B154" s="128"/>
       <c r="C154" s="118"/>
       <c r="D154" s="120"/>
       <c r="E154" s="122"/>
-      <c r="F154" s="27"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F154" s="26"/>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="115"/>
       <c r="B155" s="129">
         <v>52</v>
@@ -2991,25 +3040,25 @@
       <c r="C155" s="117"/>
       <c r="D155" s="119"/>
       <c r="E155" s="121"/>
-      <c r="F155" s="27"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F155" s="26"/>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="116"/>
       <c r="B156" s="128"/>
       <c r="C156" s="118"/>
       <c r="D156" s="120"/>
       <c r="E156" s="122"/>
-      <c r="F156" s="27"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F156" s="26"/>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="116"/>
       <c r="B157" s="128"/>
       <c r="C157" s="118"/>
       <c r="D157" s="120"/>
       <c r="E157" s="122"/>
-      <c r="F157" s="27"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F157" s="26"/>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="115"/>
       <c r="B158" s="129">
         <v>53</v>
@@ -3017,25 +3066,25 @@
       <c r="C158" s="117"/>
       <c r="D158" s="119"/>
       <c r="E158" s="121"/>
-      <c r="F158" s="27"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F158" s="26"/>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="116"/>
       <c r="B159" s="128"/>
       <c r="C159" s="118"/>
       <c r="D159" s="120"/>
       <c r="E159" s="122"/>
-      <c r="F159" s="27"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F159" s="26"/>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="116"/>
       <c r="B160" s="128"/>
       <c r="C160" s="118"/>
       <c r="D160" s="120"/>
       <c r="E160" s="122"/>
-      <c r="F160" s="27"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F160" s="26"/>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="115"/>
       <c r="B161" s="129">
         <v>54</v>
@@ -3043,25 +3092,25 @@
       <c r="C161" s="117"/>
       <c r="D161" s="119"/>
       <c r="E161" s="121"/>
-      <c r="F161" s="27"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F161" s="26"/>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="116"/>
       <c r="B162" s="128"/>
       <c r="C162" s="118"/>
       <c r="D162" s="120"/>
       <c r="E162" s="122"/>
-      <c r="F162" s="27"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F162" s="26"/>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="116"/>
       <c r="B163" s="128"/>
       <c r="C163" s="118"/>
       <c r="D163" s="120"/>
       <c r="E163" s="122"/>
-      <c r="F163" s="27"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F163" s="26"/>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="115"/>
       <c r="B164" s="129">
         <v>55</v>
@@ -3069,25 +3118,25 @@
       <c r="C164" s="117"/>
       <c r="D164" s="119"/>
       <c r="E164" s="121"/>
-      <c r="F164" s="27"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F164" s="26"/>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="116"/>
       <c r="B165" s="128"/>
       <c r="C165" s="118"/>
       <c r="D165" s="120"/>
       <c r="E165" s="122"/>
-      <c r="F165" s="27"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F165" s="26"/>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="116"/>
       <c r="B166" s="128"/>
       <c r="C166" s="118"/>
       <c r="D166" s="120"/>
       <c r="E166" s="122"/>
-      <c r="F166" s="27"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F166" s="26"/>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="115"/>
       <c r="B167" s="129">
         <v>56</v>
@@ -3095,25 +3144,25 @@
       <c r="C167" s="117"/>
       <c r="D167" s="119"/>
       <c r="E167" s="121"/>
-      <c r="F167" s="27"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F167" s="26"/>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="116"/>
       <c r="B168" s="128"/>
       <c r="C168" s="118"/>
       <c r="D168" s="120"/>
       <c r="E168" s="122"/>
-      <c r="F168" s="27"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F168" s="26"/>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="116"/>
       <c r="B169" s="128"/>
       <c r="C169" s="118"/>
       <c r="D169" s="120"/>
       <c r="E169" s="122"/>
-      <c r="F169" s="27"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F169" s="26"/>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="115"/>
       <c r="B170" s="129">
         <v>57</v>
@@ -3121,25 +3170,25 @@
       <c r="C170" s="117"/>
       <c r="D170" s="119"/>
       <c r="E170" s="121"/>
-      <c r="F170" s="27"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F170" s="26"/>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="116"/>
       <c r="B171" s="128"/>
       <c r="C171" s="118"/>
       <c r="D171" s="120"/>
       <c r="E171" s="122"/>
-      <c r="F171" s="27"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F171" s="26"/>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="116"/>
       <c r="B172" s="128"/>
       <c r="C172" s="118"/>
       <c r="D172" s="120"/>
       <c r="E172" s="122"/>
-      <c r="F172" s="27"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F172" s="26"/>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="115"/>
       <c r="B173" s="129">
         <v>58</v>
@@ -3147,25 +3196,25 @@
       <c r="C173" s="117"/>
       <c r="D173" s="119"/>
       <c r="E173" s="121"/>
-      <c r="F173" s="27"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F173" s="26"/>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="116"/>
       <c r="B174" s="128"/>
       <c r="C174" s="118"/>
       <c r="D174" s="120"/>
       <c r="E174" s="122"/>
-      <c r="F174" s="27"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F174" s="26"/>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="116"/>
       <c r="B175" s="128"/>
       <c r="C175" s="118"/>
       <c r="D175" s="120"/>
       <c r="E175" s="122"/>
-      <c r="F175" s="27"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F175" s="26"/>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="115"/>
       <c r="B176" s="129">
         <v>59</v>
@@ -3173,25 +3222,25 @@
       <c r="C176" s="117"/>
       <c r="D176" s="119"/>
       <c r="E176" s="121"/>
-      <c r="F176" s="27"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F176" s="26"/>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="116"/>
       <c r="B177" s="128"/>
       <c r="C177" s="118"/>
       <c r="D177" s="120"/>
       <c r="E177" s="122"/>
-      <c r="F177" s="27"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F177" s="26"/>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="116"/>
       <c r="B178" s="128"/>
       <c r="C178" s="118"/>
       <c r="D178" s="120"/>
       <c r="E178" s="122"/>
-      <c r="F178" s="27"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F178" s="26"/>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="115"/>
       <c r="B179" s="129">
         <v>60</v>
@@ -3199,25 +3248,25 @@
       <c r="C179" s="117"/>
       <c r="D179" s="119"/>
       <c r="E179" s="121"/>
-      <c r="F179" s="27"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F179" s="26"/>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="116"/>
       <c r="B180" s="128"/>
       <c r="C180" s="118"/>
       <c r="D180" s="120"/>
       <c r="E180" s="122"/>
-      <c r="F180" s="27"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F180" s="26"/>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="116"/>
       <c r="B181" s="128"/>
       <c r="C181" s="118"/>
       <c r="D181" s="120"/>
       <c r="E181" s="122"/>
-      <c r="F181" s="27"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F181" s="26"/>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="115"/>
       <c r="B182" s="129">
         <v>61</v>
@@ -3225,25 +3274,25 @@
       <c r="C182" s="117"/>
       <c r="D182" s="119"/>
       <c r="E182" s="121"/>
-      <c r="F182" s="27"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F182" s="26"/>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="116"/>
       <c r="B183" s="128"/>
       <c r="C183" s="118"/>
       <c r="D183" s="120"/>
       <c r="E183" s="122"/>
-      <c r="F183" s="27"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F183" s="26"/>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="116"/>
       <c r="B184" s="128"/>
       <c r="C184" s="118"/>
       <c r="D184" s="120"/>
       <c r="E184" s="122"/>
-      <c r="F184" s="27"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F184" s="26"/>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="115"/>
       <c r="B185" s="129">
         <v>62</v>
@@ -3251,25 +3300,25 @@
       <c r="C185" s="117"/>
       <c r="D185" s="119"/>
       <c r="E185" s="121"/>
-      <c r="F185" s="27"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F185" s="26"/>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="116"/>
       <c r="B186" s="128"/>
       <c r="C186" s="118"/>
       <c r="D186" s="120"/>
       <c r="E186" s="122"/>
-      <c r="F186" s="27"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F186" s="26"/>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="116"/>
       <c r="B187" s="128"/>
       <c r="C187" s="118"/>
       <c r="D187" s="120"/>
       <c r="E187" s="122"/>
-      <c r="F187" s="27"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F187" s="26"/>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="115"/>
       <c r="B188" s="129">
         <v>63</v>
@@ -3277,25 +3326,25 @@
       <c r="C188" s="117"/>
       <c r="D188" s="119"/>
       <c r="E188" s="121"/>
-      <c r="F188" s="27"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F188" s="26"/>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="116"/>
       <c r="B189" s="128"/>
       <c r="C189" s="118"/>
       <c r="D189" s="120"/>
       <c r="E189" s="122"/>
-      <c r="F189" s="27"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F189" s="26"/>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="116"/>
       <c r="B190" s="128"/>
       <c r="C190" s="118"/>
       <c r="D190" s="120"/>
       <c r="E190" s="122"/>
-      <c r="F190" s="27"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F190" s="26"/>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="115"/>
       <c r="B191" s="129">
         <v>64</v>
@@ -3303,25 +3352,25 @@
       <c r="C191" s="117"/>
       <c r="D191" s="119"/>
       <c r="E191" s="121"/>
-      <c r="F191" s="27"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F191" s="26"/>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="116"/>
       <c r="B192" s="128"/>
       <c r="C192" s="118"/>
       <c r="D192" s="120"/>
       <c r="E192" s="122"/>
-      <c r="F192" s="27"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F192" s="26"/>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="116"/>
       <c r="B193" s="128"/>
       <c r="C193" s="118"/>
       <c r="D193" s="120"/>
       <c r="E193" s="122"/>
-      <c r="F193" s="27"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F193" s="26"/>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="115"/>
       <c r="B194" s="129">
         <v>65</v>
@@ -3329,25 +3378,25 @@
       <c r="C194" s="117"/>
       <c r="D194" s="119"/>
       <c r="E194" s="121"/>
-      <c r="F194" s="27"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F194" s="26"/>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="116"/>
       <c r="B195" s="128"/>
       <c r="C195" s="118"/>
       <c r="D195" s="120"/>
       <c r="E195" s="122"/>
-      <c r="F195" s="27"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F195" s="26"/>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="116"/>
       <c r="B196" s="128"/>
       <c r="C196" s="118"/>
       <c r="D196" s="120"/>
       <c r="E196" s="122"/>
-      <c r="F196" s="27"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F196" s="26"/>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="115"/>
       <c r="B197" s="129">
         <v>66</v>
@@ -3355,25 +3404,25 @@
       <c r="C197" s="117"/>
       <c r="D197" s="119"/>
       <c r="E197" s="121"/>
-      <c r="F197" s="27"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F197" s="26"/>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="116"/>
       <c r="B198" s="128"/>
       <c r="C198" s="118"/>
       <c r="D198" s="120"/>
       <c r="E198" s="122"/>
-      <c r="F198" s="27"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F198" s="26"/>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="116"/>
       <c r="B199" s="128"/>
       <c r="C199" s="118"/>
       <c r="D199" s="120"/>
       <c r="E199" s="122"/>
-      <c r="F199" s="27"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F199" s="26"/>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="115"/>
       <c r="B200" s="129">
         <v>67</v>
@@ -3381,25 +3430,25 @@
       <c r="C200" s="117"/>
       <c r="D200" s="119"/>
       <c r="E200" s="121"/>
-      <c r="F200" s="27"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F200" s="26"/>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="116"/>
       <c r="B201" s="128"/>
       <c r="C201" s="118"/>
       <c r="D201" s="120"/>
       <c r="E201" s="122"/>
-      <c r="F201" s="27"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F201" s="26"/>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="116"/>
       <c r="B202" s="128"/>
       <c r="C202" s="118"/>
       <c r="D202" s="120"/>
       <c r="E202" s="122"/>
-      <c r="F202" s="27"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F202" s="26"/>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="115"/>
       <c r="B203" s="129">
         <v>68</v>
@@ -3407,25 +3456,25 @@
       <c r="C203" s="117"/>
       <c r="D203" s="119"/>
       <c r="E203" s="121"/>
-      <c r="F203" s="27"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F203" s="26"/>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="116"/>
       <c r="B204" s="128"/>
       <c r="C204" s="118"/>
       <c r="D204" s="120"/>
       <c r="E204" s="122"/>
-      <c r="F204" s="27"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F204" s="26"/>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="116"/>
       <c r="B205" s="128"/>
       <c r="C205" s="118"/>
       <c r="D205" s="120"/>
       <c r="E205" s="122"/>
-      <c r="F205" s="27"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F205" s="26"/>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="115"/>
       <c r="B206" s="129">
         <v>69</v>
@@ -3433,25 +3482,25 @@
       <c r="C206" s="117"/>
       <c r="D206" s="119"/>
       <c r="E206" s="121"/>
-      <c r="F206" s="27"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F206" s="26"/>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="116"/>
       <c r="B207" s="128"/>
       <c r="C207" s="118"/>
       <c r="D207" s="120"/>
       <c r="E207" s="122"/>
-      <c r="F207" s="27"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F207" s="26"/>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="116"/>
       <c r="B208" s="128"/>
       <c r="C208" s="118"/>
       <c r="D208" s="120"/>
       <c r="E208" s="122"/>
-      <c r="F208" s="27"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F208" s="26"/>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="115"/>
       <c r="B209" s="129">
         <v>70</v>
@@ -3459,25 +3508,25 @@
       <c r="C209" s="117"/>
       <c r="D209" s="119"/>
       <c r="E209" s="121"/>
-      <c r="F209" s="27"/>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F209" s="26"/>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="116"/>
       <c r="B210" s="128"/>
       <c r="C210" s="118"/>
       <c r="D210" s="120"/>
       <c r="E210" s="122"/>
-      <c r="F210" s="27"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F210" s="26"/>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="116"/>
       <c r="B211" s="128"/>
       <c r="C211" s="118"/>
       <c r="D211" s="120"/>
       <c r="E211" s="122"/>
-      <c r="F211" s="27"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F211" s="26"/>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="115"/>
       <c r="B212" s="129">
         <v>71</v>
@@ -3485,25 +3534,25 @@
       <c r="C212" s="117"/>
       <c r="D212" s="119"/>
       <c r="E212" s="121"/>
-      <c r="F212" s="27"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F212" s="26"/>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="116"/>
       <c r="B213" s="128"/>
       <c r="C213" s="118"/>
       <c r="D213" s="120"/>
       <c r="E213" s="122"/>
-      <c r="F213" s="27"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F213" s="26"/>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="116"/>
       <c r="B214" s="128"/>
       <c r="C214" s="118"/>
       <c r="D214" s="120"/>
       <c r="E214" s="122"/>
-      <c r="F214" s="27"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F214" s="26"/>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="115"/>
       <c r="B215" s="129">
         <v>72</v>
@@ -3511,25 +3560,25 @@
       <c r="C215" s="117"/>
       <c r="D215" s="119"/>
       <c r="E215" s="121"/>
-      <c r="F215" s="27"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F215" s="26"/>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="116"/>
       <c r="B216" s="128"/>
       <c r="C216" s="118"/>
       <c r="D216" s="120"/>
       <c r="E216" s="122"/>
-      <c r="F216" s="27"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F216" s="26"/>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="116"/>
       <c r="B217" s="128"/>
       <c r="C217" s="118"/>
       <c r="D217" s="120"/>
       <c r="E217" s="122"/>
-      <c r="F217" s="27"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F217" s="26"/>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="115"/>
       <c r="B218" s="129">
         <v>73</v>
@@ -3537,25 +3586,25 @@
       <c r="C218" s="117"/>
       <c r="D218" s="119"/>
       <c r="E218" s="121"/>
-      <c r="F218" s="27"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F218" s="26"/>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="116"/>
       <c r="B219" s="128"/>
       <c r="C219" s="118"/>
       <c r="D219" s="120"/>
       <c r="E219" s="122"/>
-      <c r="F219" s="27"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F219" s="26"/>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="116"/>
       <c r="B220" s="128"/>
       <c r="C220" s="118"/>
       <c r="D220" s="120"/>
       <c r="E220" s="122"/>
-      <c r="F220" s="27"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F220" s="26"/>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="115"/>
       <c r="B221" s="129">
         <v>74</v>
@@ -3563,25 +3612,25 @@
       <c r="C221" s="117"/>
       <c r="D221" s="119"/>
       <c r="E221" s="121"/>
-      <c r="F221" s="27"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F221" s="26"/>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="116"/>
       <c r="B222" s="128"/>
       <c r="C222" s="118"/>
       <c r="D222" s="120"/>
       <c r="E222" s="122"/>
-      <c r="F222" s="27"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F222" s="26"/>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="116"/>
       <c r="B223" s="128"/>
       <c r="C223" s="118"/>
       <c r="D223" s="120"/>
       <c r="E223" s="122"/>
-      <c r="F223" s="27"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F223" s="26"/>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="115"/>
       <c r="B224" s="129">
         <v>75</v>
@@ -3589,25 +3638,25 @@
       <c r="C224" s="117"/>
       <c r="D224" s="119"/>
       <c r="E224" s="121"/>
-      <c r="F224" s="27"/>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F224" s="26"/>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="116"/>
       <c r="B225" s="128"/>
       <c r="C225" s="118"/>
       <c r="D225" s="120"/>
       <c r="E225" s="122"/>
-      <c r="F225" s="27"/>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F225" s="26"/>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="116"/>
       <c r="B226" s="128"/>
       <c r="C226" s="118"/>
       <c r="D226" s="120"/>
       <c r="E226" s="122"/>
-      <c r="F226" s="27"/>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F226" s="26"/>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="115"/>
       <c r="B227" s="129">
         <v>76</v>
@@ -3615,25 +3664,25 @@
       <c r="C227" s="117"/>
       <c r="D227" s="119"/>
       <c r="E227" s="121"/>
-      <c r="F227" s="27"/>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F227" s="26"/>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="116"/>
       <c r="B228" s="128"/>
       <c r="C228" s="118"/>
       <c r="D228" s="120"/>
       <c r="E228" s="122"/>
-      <c r="F228" s="27"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F228" s="26"/>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="116"/>
       <c r="B229" s="128"/>
       <c r="C229" s="118"/>
       <c r="D229" s="120"/>
       <c r="E229" s="122"/>
-      <c r="F229" s="27"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F229" s="26"/>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" s="115"/>
       <c r="B230" s="129">
         <v>77</v>
@@ -3641,25 +3690,25 @@
       <c r="C230" s="117"/>
       <c r="D230" s="119"/>
       <c r="E230" s="121"/>
-      <c r="F230" s="27"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F230" s="26"/>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" s="116"/>
       <c r="B231" s="128"/>
       <c r="C231" s="118"/>
       <c r="D231" s="120"/>
       <c r="E231" s="122"/>
-      <c r="F231" s="27"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F231" s="26"/>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" s="116"/>
       <c r="B232" s="128"/>
       <c r="C232" s="118"/>
       <c r="D232" s="120"/>
       <c r="E232" s="122"/>
-      <c r="F232" s="27"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F232" s="26"/>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" s="115"/>
       <c r="B233" s="129">
         <v>78</v>
@@ -3667,25 +3716,25 @@
       <c r="C233" s="117"/>
       <c r="D233" s="119"/>
       <c r="E233" s="121"/>
-      <c r="F233" s="27"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F233" s="26"/>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" s="116"/>
       <c r="B234" s="128"/>
       <c r="C234" s="118"/>
       <c r="D234" s="120"/>
       <c r="E234" s="122"/>
-      <c r="F234" s="27"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F234" s="26"/>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" s="116"/>
       <c r="B235" s="128"/>
       <c r="C235" s="118"/>
       <c r="D235" s="120"/>
       <c r="E235" s="122"/>
-      <c r="F235" s="27"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F235" s="26"/>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" s="115"/>
       <c r="B236" s="129">
         <v>79</v>
@@ -3693,25 +3742,25 @@
       <c r="C236" s="117"/>
       <c r="D236" s="119"/>
       <c r="E236" s="121"/>
-      <c r="F236" s="27"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F236" s="26"/>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" s="116"/>
       <c r="B237" s="128"/>
       <c r="C237" s="118"/>
       <c r="D237" s="120"/>
       <c r="E237" s="122"/>
-      <c r="F237" s="27"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F237" s="26"/>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" s="116"/>
       <c r="B238" s="128"/>
       <c r="C238" s="118"/>
       <c r="D238" s="120"/>
       <c r="E238" s="122"/>
-      <c r="F238" s="27"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F238" s="26"/>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" s="115"/>
       <c r="B239" s="129">
         <v>80</v>
@@ -3719,25 +3768,25 @@
       <c r="C239" s="117"/>
       <c r="D239" s="119"/>
       <c r="E239" s="121"/>
-      <c r="F239" s="27"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F239" s="26"/>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" s="116"/>
       <c r="B240" s="128"/>
       <c r="C240" s="118"/>
       <c r="D240" s="120"/>
       <c r="E240" s="122"/>
-      <c r="F240" s="27"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F240" s="26"/>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" s="116"/>
       <c r="B241" s="128"/>
       <c r="C241" s="118"/>
       <c r="D241" s="120"/>
       <c r="E241" s="122"/>
-      <c r="F241" s="27"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F241" s="26"/>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" s="115"/>
       <c r="B242" s="129">
         <v>81</v>
@@ -3745,25 +3794,25 @@
       <c r="C242" s="117"/>
       <c r="D242" s="119"/>
       <c r="E242" s="121"/>
-      <c r="F242" s="27"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F242" s="26"/>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" s="116"/>
       <c r="B243" s="128"/>
       <c r="C243" s="118"/>
       <c r="D243" s="120"/>
       <c r="E243" s="122"/>
-      <c r="F243" s="27"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F243" s="26"/>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" s="116"/>
       <c r="B244" s="128"/>
       <c r="C244" s="118"/>
       <c r="D244" s="120"/>
       <c r="E244" s="122"/>
-      <c r="F244" s="27"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F244" s="26"/>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" s="115"/>
       <c r="B245" s="129">
         <v>82</v>
@@ -3771,25 +3820,25 @@
       <c r="C245" s="117"/>
       <c r="D245" s="119"/>
       <c r="E245" s="121"/>
-      <c r="F245" s="27"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F245" s="26"/>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" s="116"/>
       <c r="B246" s="128"/>
       <c r="C246" s="118"/>
       <c r="D246" s="120"/>
       <c r="E246" s="122"/>
-      <c r="F246" s="27"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F246" s="26"/>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" s="116"/>
       <c r="B247" s="128"/>
       <c r="C247" s="118"/>
       <c r="D247" s="120"/>
       <c r="E247" s="122"/>
-      <c r="F247" s="27"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F247" s="26"/>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" s="115"/>
       <c r="B248" s="129">
         <v>83</v>
@@ -3797,25 +3846,25 @@
       <c r="C248" s="117"/>
       <c r="D248" s="119"/>
       <c r="E248" s="121"/>
-      <c r="F248" s="27"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F248" s="26"/>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" s="116"/>
       <c r="B249" s="128"/>
       <c r="C249" s="118"/>
       <c r="D249" s="120"/>
       <c r="E249" s="122"/>
-      <c r="F249" s="27"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F249" s="26"/>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" s="116"/>
       <c r="B250" s="128"/>
       <c r="C250" s="118"/>
       <c r="D250" s="120"/>
       <c r="E250" s="122"/>
-      <c r="F250" s="27"/>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F250" s="26"/>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" s="115"/>
       <c r="B251" s="129">
         <v>84</v>
@@ -3823,25 +3872,25 @@
       <c r="C251" s="117"/>
       <c r="D251" s="119"/>
       <c r="E251" s="121"/>
-      <c r="F251" s="27"/>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F251" s="26"/>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" s="116"/>
       <c r="B252" s="128"/>
       <c r="C252" s="118"/>
       <c r="D252" s="120"/>
       <c r="E252" s="122"/>
-      <c r="F252" s="27"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F252" s="26"/>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" s="116"/>
       <c r="B253" s="128"/>
       <c r="C253" s="118"/>
       <c r="D253" s="120"/>
       <c r="E253" s="122"/>
-      <c r="F253" s="27"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F253" s="26"/>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" s="115"/>
       <c r="B254" s="129">
         <v>85</v>
@@ -3849,25 +3898,25 @@
       <c r="C254" s="117"/>
       <c r="D254" s="119"/>
       <c r="E254" s="121"/>
-      <c r="F254" s="27"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F254" s="26"/>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" s="116"/>
       <c r="B255" s="128"/>
       <c r="C255" s="118"/>
       <c r="D255" s="120"/>
       <c r="E255" s="122"/>
-      <c r="F255" s="27"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F255" s="26"/>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" s="116"/>
       <c r="B256" s="128"/>
       <c r="C256" s="118"/>
       <c r="D256" s="120"/>
       <c r="E256" s="122"/>
-      <c r="F256" s="27"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F256" s="26"/>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" s="115"/>
       <c r="B257" s="129">
         <v>86</v>
@@ -3875,25 +3924,25 @@
       <c r="C257" s="117"/>
       <c r="D257" s="119"/>
       <c r="E257" s="121"/>
-      <c r="F257" s="27"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F257" s="26"/>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" s="116"/>
       <c r="B258" s="128"/>
       <c r="C258" s="118"/>
       <c r="D258" s="120"/>
       <c r="E258" s="122"/>
-      <c r="F258" s="27"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F258" s="26"/>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" s="116"/>
       <c r="B259" s="128"/>
       <c r="C259" s="118"/>
       <c r="D259" s="120"/>
       <c r="E259" s="122"/>
-      <c r="F259" s="27"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F259" s="26"/>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" s="115"/>
       <c r="B260" s="129">
         <v>87</v>
@@ -3901,25 +3950,25 @@
       <c r="C260" s="117"/>
       <c r="D260" s="119"/>
       <c r="E260" s="121"/>
-      <c r="F260" s="27"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F260" s="26"/>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" s="116"/>
       <c r="B261" s="128"/>
       <c r="C261" s="118"/>
       <c r="D261" s="120"/>
       <c r="E261" s="122"/>
-      <c r="F261" s="27"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F261" s="26"/>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" s="116"/>
       <c r="B262" s="128"/>
       <c r="C262" s="118"/>
       <c r="D262" s="120"/>
       <c r="E262" s="122"/>
-      <c r="F262" s="27"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F262" s="26"/>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" s="115"/>
       <c r="B263" s="129">
         <v>88</v>
@@ -3927,25 +3976,25 @@
       <c r="C263" s="117"/>
       <c r="D263" s="119"/>
       <c r="E263" s="121"/>
-      <c r="F263" s="27"/>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F263" s="26"/>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" s="116"/>
       <c r="B264" s="128"/>
       <c r="C264" s="118"/>
       <c r="D264" s="120"/>
       <c r="E264" s="122"/>
-      <c r="F264" s="27"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F264" s="26"/>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" s="116"/>
       <c r="B265" s="128"/>
       <c r="C265" s="118"/>
       <c r="D265" s="120"/>
       <c r="E265" s="122"/>
-      <c r="F265" s="27"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F265" s="26"/>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" s="115"/>
       <c r="B266" s="129">
         <v>89</v>
@@ -3953,25 +4002,25 @@
       <c r="C266" s="117"/>
       <c r="D266" s="119"/>
       <c r="E266" s="121"/>
-      <c r="F266" s="27"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F266" s="26"/>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" s="116"/>
       <c r="B267" s="128"/>
       <c r="C267" s="118"/>
       <c r="D267" s="120"/>
       <c r="E267" s="122"/>
-      <c r="F267" s="27"/>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F267" s="26"/>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" s="116"/>
       <c r="B268" s="128"/>
       <c r="C268" s="118"/>
       <c r="D268" s="120"/>
       <c r="E268" s="122"/>
-      <c r="F268" s="27"/>
-    </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F268" s="26"/>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" s="115"/>
       <c r="B269" s="129">
         <v>90</v>
@@ -3979,25 +4028,25 @@
       <c r="C269" s="117"/>
       <c r="D269" s="119"/>
       <c r="E269" s="121"/>
-      <c r="F269" s="27"/>
-    </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F269" s="26"/>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" s="116"/>
       <c r="B270" s="128"/>
       <c r="C270" s="118"/>
       <c r="D270" s="120"/>
       <c r="E270" s="122"/>
-      <c r="F270" s="27"/>
-    </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F270" s="26"/>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" s="116"/>
       <c r="B271" s="128"/>
       <c r="C271" s="118"/>
       <c r="D271" s="120"/>
       <c r="E271" s="122"/>
-      <c r="F271" s="27"/>
-    </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F271" s="26"/>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" s="115"/>
       <c r="B272" s="129">
         <v>91</v>
@@ -4005,25 +4054,25 @@
       <c r="C272" s="117"/>
       <c r="D272" s="119"/>
       <c r="E272" s="121"/>
-      <c r="F272" s="27"/>
-    </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F272" s="26"/>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" s="116"/>
       <c r="B273" s="128"/>
       <c r="C273" s="118"/>
       <c r="D273" s="120"/>
       <c r="E273" s="122"/>
-      <c r="F273" s="27"/>
-    </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F273" s="26"/>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" s="116"/>
       <c r="B274" s="128"/>
       <c r="C274" s="118"/>
       <c r="D274" s="120"/>
       <c r="E274" s="122"/>
-      <c r="F274" s="27"/>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F274" s="26"/>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" s="115"/>
       <c r="B275" s="129">
         <v>92</v>
@@ -4031,25 +4080,25 @@
       <c r="C275" s="117"/>
       <c r="D275" s="119"/>
       <c r="E275" s="121"/>
-      <c r="F275" s="27"/>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F275" s="26"/>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" s="116"/>
       <c r="B276" s="128"/>
       <c r="C276" s="118"/>
       <c r="D276" s="120"/>
       <c r="E276" s="122"/>
-      <c r="F276" s="27"/>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F276" s="26"/>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" s="116"/>
       <c r="B277" s="128"/>
       <c r="C277" s="118"/>
       <c r="D277" s="120"/>
       <c r="E277" s="122"/>
-      <c r="F277" s="27"/>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F277" s="26"/>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" s="115"/>
       <c r="B278" s="129">
         <v>93</v>
@@ -4057,25 +4106,25 @@
       <c r="C278" s="117"/>
       <c r="D278" s="119"/>
       <c r="E278" s="121"/>
-      <c r="F278" s="27"/>
-    </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F278" s="26"/>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" s="116"/>
       <c r="B279" s="128"/>
       <c r="C279" s="118"/>
       <c r="D279" s="120"/>
       <c r="E279" s="122"/>
-      <c r="F279" s="27"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F279" s="26"/>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" s="116"/>
       <c r="B280" s="128"/>
       <c r="C280" s="118"/>
       <c r="D280" s="120"/>
       <c r="E280" s="122"/>
-      <c r="F280" s="27"/>
-    </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F280" s="26"/>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" s="115"/>
       <c r="B281" s="129">
         <v>94</v>
@@ -4083,25 +4132,25 @@
       <c r="C281" s="117"/>
       <c r="D281" s="119"/>
       <c r="E281" s="121"/>
-      <c r="F281" s="27"/>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F281" s="26"/>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" s="116"/>
       <c r="B282" s="128"/>
       <c r="C282" s="118"/>
       <c r="D282" s="120"/>
       <c r="E282" s="122"/>
-      <c r="F282" s="27"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F282" s="26"/>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" s="116"/>
       <c r="B283" s="128"/>
       <c r="C283" s="118"/>
       <c r="D283" s="120"/>
       <c r="E283" s="122"/>
-      <c r="F283" s="27"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F283" s="26"/>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" s="115"/>
       <c r="B284" s="129">
         <v>95</v>
@@ -4109,25 +4158,25 @@
       <c r="C284" s="117"/>
       <c r="D284" s="119"/>
       <c r="E284" s="121"/>
-      <c r="F284" s="27"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F284" s="26"/>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" s="116"/>
       <c r="B285" s="128"/>
       <c r="C285" s="118"/>
       <c r="D285" s="120"/>
       <c r="E285" s="122"/>
-      <c r="F285" s="27"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F285" s="26"/>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" s="116"/>
       <c r="B286" s="128"/>
       <c r="C286" s="118"/>
       <c r="D286" s="120"/>
       <c r="E286" s="122"/>
-      <c r="F286" s="27"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F286" s="26"/>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" s="115"/>
       <c r="B287" s="129">
         <v>96</v>
@@ -4135,25 +4184,25 @@
       <c r="C287" s="117"/>
       <c r="D287" s="119"/>
       <c r="E287" s="121"/>
-      <c r="F287" s="27"/>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F287" s="26"/>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" s="116"/>
       <c r="B288" s="128"/>
       <c r="C288" s="118"/>
       <c r="D288" s="120"/>
       <c r="E288" s="122"/>
-      <c r="F288" s="27"/>
-    </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F288" s="26"/>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" s="116"/>
       <c r="B289" s="128"/>
       <c r="C289" s="118"/>
       <c r="D289" s="120"/>
       <c r="E289" s="122"/>
-      <c r="F289" s="27"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F289" s="26"/>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" s="115"/>
       <c r="B290" s="129">
         <v>97</v>
@@ -4161,25 +4210,25 @@
       <c r="C290" s="117"/>
       <c r="D290" s="119"/>
       <c r="E290" s="121"/>
-      <c r="F290" s="27"/>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F290" s="26"/>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" s="116"/>
       <c r="B291" s="128"/>
       <c r="C291" s="118"/>
       <c r="D291" s="120"/>
       <c r="E291" s="122"/>
-      <c r="F291" s="27"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F291" s="26"/>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" s="116"/>
       <c r="B292" s="128"/>
       <c r="C292" s="118"/>
       <c r="D292" s="120"/>
       <c r="E292" s="122"/>
-      <c r="F292" s="27"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F292" s="26"/>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" s="115"/>
       <c r="B293" s="129">
         <v>98</v>
@@ -4187,25 +4236,25 @@
       <c r="C293" s="117"/>
       <c r="D293" s="119"/>
       <c r="E293" s="121"/>
-      <c r="F293" s="27"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F293" s="26"/>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" s="116"/>
       <c r="B294" s="128"/>
       <c r="C294" s="118"/>
       <c r="D294" s="120"/>
       <c r="E294" s="122"/>
-      <c r="F294" s="27"/>
-    </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F294" s="26"/>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" s="116"/>
       <c r="B295" s="128"/>
       <c r="C295" s="118"/>
       <c r="D295" s="120"/>
       <c r="E295" s="122"/>
-      <c r="F295" s="27"/>
-    </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F295" s="26"/>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" s="115"/>
       <c r="B296" s="129">
         <v>99</v>
@@ -4213,25 +4262,25 @@
       <c r="C296" s="117"/>
       <c r="D296" s="119"/>
       <c r="E296" s="121"/>
-      <c r="F296" s="27"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F296" s="26"/>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" s="116"/>
       <c r="B297" s="128"/>
       <c r="C297" s="118"/>
       <c r="D297" s="120"/>
       <c r="E297" s="122"/>
-      <c r="F297" s="27"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F297" s="26"/>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" s="116"/>
       <c r="B298" s="128"/>
       <c r="C298" s="118"/>
       <c r="D298" s="120"/>
       <c r="E298" s="122"/>
-      <c r="F298" s="27"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F298" s="26"/>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" s="115"/>
       <c r="B299" s="129">
         <v>100</v>
@@ -4239,167 +4288,167 @@
       <c r="C299" s="117"/>
       <c r="D299" s="119"/>
       <c r="E299" s="121"/>
-      <c r="F299" s="27"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F299" s="26"/>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" s="116"/>
       <c r="B300" s="128"/>
       <c r="C300" s="118"/>
       <c r="D300" s="120"/>
       <c r="E300" s="122"/>
-      <c r="F300" s="27"/>
-    </row>
-    <row r="301" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F300" s="26"/>
+    </row>
+    <row r="301" spans="1:6" ht="15" thickBot="1">
       <c r="A301" s="130"/>
       <c r="B301" s="131"/>
       <c r="C301" s="132"/>
       <c r="D301" s="133"/>
       <c r="E301" s="134"/>
-      <c r="F301" s="27"/>
-    </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F301" s="26"/>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" s="135"/>
-      <c r="B302" s="135"/>
-      <c r="C302" s="136"/>
-      <c r="D302" s="137"/>
-      <c r="E302" s="137"/>
-      <c r="F302" s="27"/>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B302" s="136"/>
+      <c r="C302" s="137"/>
+      <c r="D302" s="135"/>
+      <c r="E302" s="135"/>
+      <c r="F302" s="26"/>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" s="135"/>
-      <c r="B303" s="135"/>
-      <c r="C303" s="136"/>
-      <c r="D303" s="137"/>
-      <c r="E303" s="137"/>
-      <c r="F303" s="27"/>
-    </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B303" s="136"/>
+      <c r="C303" s="137"/>
+      <c r="D303" s="135"/>
+      <c r="E303" s="135"/>
+      <c r="F303" s="26"/>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" s="135"/>
-      <c r="B304" s="135"/>
-      <c r="C304" s="136"/>
-      <c r="D304" s="137"/>
-      <c r="E304" s="137"/>
-      <c r="F304" s="27"/>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B304" s="136"/>
+      <c r="C304" s="137"/>
+      <c r="D304" s="135"/>
+      <c r="E304" s="135"/>
+      <c r="F304" s="26"/>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305" s="135"/>
-      <c r="B305" s="135"/>
-      <c r="C305" s="136"/>
-      <c r="D305" s="137"/>
-      <c r="E305" s="137"/>
-      <c r="F305" s="27"/>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B305" s="136"/>
+      <c r="C305" s="137"/>
+      <c r="D305" s="135"/>
+      <c r="E305" s="135"/>
+      <c r="F305" s="26"/>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" s="135"/>
-      <c r="B306" s="135"/>
-      <c r="C306" s="136"/>
-      <c r="D306" s="137"/>
-      <c r="E306" s="137"/>
-      <c r="F306" s="27"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B306" s="136"/>
+      <c r="C306" s="137"/>
+      <c r="D306" s="135"/>
+      <c r="E306" s="135"/>
+      <c r="F306" s="26"/>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" s="135"/>
-      <c r="B307" s="135"/>
-      <c r="C307" s="136"/>
-      <c r="D307" s="137"/>
-      <c r="E307" s="137"/>
-      <c r="F307" s="27"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B307" s="136"/>
+      <c r="C307" s="137"/>
+      <c r="D307" s="135"/>
+      <c r="E307" s="135"/>
+      <c r="F307" s="26"/>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" s="135"/>
-      <c r="B308" s="135"/>
-      <c r="C308" s="136"/>
-      <c r="D308" s="137"/>
-      <c r="E308" s="137"/>
-      <c r="F308" s="27"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B308" s="136"/>
+      <c r="C308" s="137"/>
+      <c r="D308" s="135"/>
+      <c r="E308" s="135"/>
+      <c r="F308" s="26"/>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309" s="135"/>
-      <c r="B309" s="135"/>
-      <c r="C309" s="136"/>
-      <c r="D309" s="137"/>
-      <c r="E309" s="137"/>
-      <c r="F309" s="27"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B309" s="136"/>
+      <c r="C309" s="137"/>
+      <c r="D309" s="135"/>
+      <c r="E309" s="135"/>
+      <c r="F309" s="26"/>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310" s="135"/>
-      <c r="B310" s="135"/>
-      <c r="C310" s="136"/>
-      <c r="D310" s="137"/>
-      <c r="E310" s="137"/>
-      <c r="F310" s="27"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B310" s="136"/>
+      <c r="C310" s="137"/>
+      <c r="D310" s="135"/>
+      <c r="E310" s="135"/>
+      <c r="F310" s="26"/>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311" s="135"/>
-      <c r="B311" s="135"/>
-      <c r="C311" s="136"/>
-      <c r="D311" s="137"/>
-      <c r="E311" s="137"/>
-      <c r="F311" s="27"/>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B311" s="136"/>
+      <c r="C311" s="137"/>
+      <c r="D311" s="135"/>
+      <c r="E311" s="135"/>
+      <c r="F311" s="26"/>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312" s="135"/>
-      <c r="B312" s="135"/>
-      <c r="C312" s="136"/>
-      <c r="D312" s="137"/>
-      <c r="E312" s="137"/>
-      <c r="F312" s="27"/>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B312" s="136"/>
+      <c r="C312" s="137"/>
+      <c r="D312" s="135"/>
+      <c r="E312" s="135"/>
+      <c r="F312" s="26"/>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" s="135"/>
-      <c r="B313" s="135"/>
-      <c r="C313" s="136"/>
-      <c r="D313" s="137"/>
-      <c r="E313" s="137"/>
-      <c r="F313" s="27"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B313" s="136"/>
+      <c r="C313" s="137"/>
+      <c r="D313" s="135"/>
+      <c r="E313" s="135"/>
+      <c r="F313" s="26"/>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" s="135"/>
-      <c r="B314" s="135"/>
-      <c r="C314" s="136"/>
-      <c r="D314" s="137"/>
-      <c r="E314" s="137"/>
-      <c r="F314" s="27"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B314" s="136"/>
+      <c r="C314" s="137"/>
+      <c r="D314" s="135"/>
+      <c r="E314" s="135"/>
+      <c r="F314" s="26"/>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" s="135"/>
-      <c r="B315" s="135"/>
-      <c r="C315" s="136"/>
-      <c r="D315" s="137"/>
-      <c r="E315" s="137"/>
-      <c r="F315" s="27"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B315" s="136"/>
+      <c r="C315" s="137"/>
+      <c r="D315" s="135"/>
+      <c r="E315" s="135"/>
+      <c r="F315" s="26"/>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" s="135"/>
-      <c r="B316" s="135"/>
-      <c r="C316" s="136"/>
-      <c r="D316" s="137"/>
-      <c r="E316" s="137"/>
-      <c r="F316" s="27"/>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B316" s="136"/>
+      <c r="C316" s="137"/>
+      <c r="D316" s="135"/>
+      <c r="E316" s="135"/>
+      <c r="F316" s="26"/>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" s="135"/>
-      <c r="B317" s="135"/>
-      <c r="C317" s="136"/>
-      <c r="D317" s="137"/>
-      <c r="E317" s="137"/>
-      <c r="F317" s="27"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B317" s="136"/>
+      <c r="C317" s="137"/>
+      <c r="D317" s="135"/>
+      <c r="E317" s="135"/>
+      <c r="F317" s="26"/>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318" s="135"/>
-      <c r="B318" s="135"/>
-      <c r="C318" s="136"/>
-      <c r="D318" s="137"/>
-      <c r="E318" s="137"/>
-      <c r="F318" s="27"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B318" s="136"/>
+      <c r="C318" s="137"/>
+      <c r="D318" s="135"/>
+      <c r="E318" s="135"/>
+      <c r="F318" s="26"/>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319" s="135"/>
-      <c r="B319" s="135"/>
-      <c r="C319" s="136"/>
-      <c r="D319" s="137"/>
-      <c r="E319" s="137"/>
-      <c r="F319" s="27"/>
+      <c r="B319" s="136"/>
+      <c r="C319" s="137"/>
+      <c r="D319" s="135"/>
+      <c r="E319" s="135"/>
+      <c r="F319" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="530">
@@ -4943,92 +4992,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E9912F-12C4-47EE-8ED1-BBFB7A9731C3}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="25.6328125" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="F4" s="26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="F5" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="22"/>
-    </row>
-    <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1" spans="1:10">
+      <c r="A1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="43.5">
+      <c r="A2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="87">
+      <c r="A3" s="22"/>
+      <c r="B3" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:10" ht="29.1">
+      <c r="A4" s="9"/>
+      <c r="B4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="F4" s="25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.5">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="F5" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29.1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="11" spans="1:10" ht="14.45" customHeight="1"/>
+    <row r="14" spans="1:10" ht="14.45" customHeight="1"/>
+    <row r="17" ht="14.45" customHeight="1"/>
+    <row r="20" ht="14.45" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Participants_log.xlsx
+++ b/Participants_log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a66c9eafe7ca5b97/Documents/GitHub/affixproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="618" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B00BB5B1-7576-4EEA-ADEE-C6364B711C63}"/>
+  <xr:revisionPtr revIDLastSave="622" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E4D87E-1FFC-4B43-9A14-29329330E380}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A64A2D64-A729-45BB-94DF-402620060AB1}"/>
+    <workbookView xWindow="3200" yWindow="0" windowWidth="16000" windowHeight="9000" xr2:uid="{A64A2D64-A729-45BB-94DF-402620060AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Participants" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Tried to decide based on the shape of words (length, shape of letters)</t>
-  </si>
-  <si>
-    <t>Ilaria new Trentina</t>
   </si>
   <si>
     <t>Attention check</t>
@@ -242,12 +239,18 @@
   <si>
     <t>Tried to focus on chunks/specific characters</t>
   </si>
+  <si>
+    <t>Antonio Condensed Matter</t>
+  </si>
+  <si>
+    <t>Ran word_generation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1157,6 +1160,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1459,21 +1466,21 @@
   <dimension ref="A1:H319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E65" sqref="E65:E67"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+    <col min="5" max="5" width="29.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -1493,7 +1500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="51" t="s">
         <v>6</v>
       </c>
@@ -1514,7 +1521,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="51"/>
       <c r="B3" s="50"/>
       <c r="C3" s="49"/>
@@ -1527,7 +1534,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="51"/>
       <c r="B4" s="50"/>
       <c r="C4" s="49"/>
@@ -1538,7 +1545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
@@ -1554,7 +1561,7 @@
       <c r="E5" s="53"/>
       <c r="F5" s="35"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="51"/>
       <c r="B6" s="50"/>
       <c r="C6" s="49"/>
@@ -1564,7 +1571,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="51"/>
       <c r="B7" s="50"/>
       <c r="C7" s="49"/>
@@ -1572,7 +1579,7 @@
       <c r="E7" s="48"/>
       <c r="F7" s="34"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="54" t="s">
         <v>13</v>
       </c>
@@ -1588,7 +1595,7 @@
       <c r="E8" s="53"/>
       <c r="F8" s="35"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="51"/>
       <c r="B9" s="50"/>
       <c r="C9" s="59"/>
@@ -1598,7 +1605,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="55"/>
       <c r="B10" s="57"/>
       <c r="C10" s="60"/>
@@ -1606,7 +1613,7 @@
       <c r="E10" s="48"/>
       <c r="F10" s="34"/>
     </row>
-    <row r="11" spans="1:8" ht="14.45" customHeight="1">
+    <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="67" t="s">
         <v>15</v>
       </c>
@@ -1624,7 +1631,7 @@
       </c>
       <c r="F11" s="36"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="68"/>
       <c r="B12" s="71"/>
       <c r="C12" s="74"/>
@@ -1634,7 +1641,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="69"/>
       <c r="B13" s="72"/>
       <c r="C13" s="75"/>
@@ -1642,7 +1649,7 @@
       <c r="E13" s="66"/>
       <c r="F13" s="38"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="54" t="s">
         <v>17</v>
       </c>
@@ -1658,7 +1665,7 @@
       <c r="E14" s="53"/>
       <c r="F14" s="35"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="51"/>
       <c r="B15" s="50"/>
       <c r="C15" s="49"/>
@@ -1668,7 +1675,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="55"/>
       <c r="B16" s="57"/>
       <c r="C16" s="62"/>
@@ -1676,7 +1683,7 @@
       <c r="E16" s="48"/>
       <c r="F16" s="34"/>
     </row>
-    <row r="17" spans="1:6" ht="14.45" customHeight="1">
+    <row r="17" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="54" t="s">
         <v>18</v>
       </c>
@@ -1692,7 +1699,7 @@
       <c r="E17" s="53"/>
       <c r="F17" s="35"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="51"/>
       <c r="B18" s="50"/>
       <c r="C18" s="49"/>
@@ -1702,7 +1709,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="55"/>
       <c r="B19" s="57"/>
       <c r="C19" s="62"/>
@@ -1710,7 +1717,7 @@
       <c r="E19" s="48"/>
       <c r="F19" s="34"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="54" t="s">
         <v>19</v>
       </c>
@@ -1728,7 +1735,7 @@
       </c>
       <c r="F20" s="35"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="51"/>
       <c r="B21" s="50"/>
       <c r="C21" s="49"/>
@@ -1738,7 +1745,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1">
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="86"/>
       <c r="B22" s="87"/>
       <c r="C22" s="88"/>
@@ -1746,7 +1753,7 @@
       <c r="E22" s="90"/>
       <c r="F22" s="32"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="92" t="s">
         <v>21</v>
       </c>
@@ -1764,7 +1771,7 @@
       </c>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="92"/>
       <c r="B24" s="77"/>
       <c r="C24" s="96"/>
@@ -1774,7 +1781,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="93"/>
       <c r="B25" s="78"/>
       <c r="C25" s="97"/>
@@ -1782,7 +1789,7 @@
       <c r="E25" s="85"/>
       <c r="F25" s="39"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="91" t="s">
         <v>23</v>
       </c>
@@ -1800,7 +1807,7 @@
       </c>
       <c r="F26" s="40"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="92"/>
       <c r="B27" s="77"/>
       <c r="C27" s="80"/>
@@ -1808,7 +1815,7 @@
       <c r="E27" s="85"/>
       <c r="F27" s="28"/>
     </row>
-    <row r="28" spans="1:6" ht="42.95" customHeight="1">
+    <row r="28" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="93"/>
       <c r="B28" s="78"/>
       <c r="C28" s="81"/>
@@ -1818,7 +1825,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="91" t="s">
         <v>25</v>
       </c>
@@ -1836,7 +1843,7 @@
       </c>
       <c r="F29" s="40"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="92"/>
       <c r="B30" s="77"/>
       <c r="C30" s="80"/>
@@ -1846,7 +1853,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="93"/>
       <c r="B31" s="78"/>
       <c r="C31" s="81"/>
@@ -1854,7 +1861,7 @@
       <c r="E31" s="85"/>
       <c r="F31" s="39"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="91" t="s">
         <v>27</v>
       </c>
@@ -1872,7 +1879,7 @@
       </c>
       <c r="F32" s="40"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="92"/>
       <c r="B33" s="77"/>
       <c r="C33" s="80"/>
@@ -1882,7 +1889,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="93"/>
       <c r="B34" s="78"/>
       <c r="C34" s="81"/>
@@ -1890,7 +1897,7 @@
       <c r="E34" s="95"/>
       <c r="F34" s="39"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="91" t="s">
         <v>29</v>
       </c>
@@ -1908,7 +1915,7 @@
       </c>
       <c r="F35" s="40"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="92"/>
       <c r="B36" s="77"/>
       <c r="C36" s="80"/>
@@ -1918,7 +1925,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="93"/>
       <c r="B37" s="78"/>
       <c r="C37" s="81"/>
@@ -1926,7 +1933,7 @@
       <c r="E37" s="85"/>
       <c r="F37" s="39"/>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="91" t="s">
         <v>31</v>
       </c>
@@ -1944,7 +1951,7 @@
       </c>
       <c r="F38" s="40"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="92"/>
       <c r="B39" s="77"/>
       <c r="C39" s="80"/>
@@ -1954,7 +1961,7 @@
         <v>47.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="92"/>
       <c r="B40" s="77"/>
       <c r="C40" s="80"/>
@@ -1962,7 +1969,7 @@
       <c r="E40" s="85"/>
       <c r="F40" s="39"/>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="91" t="s">
         <v>33</v>
       </c>
@@ -1980,7 +1987,7 @@
       </c>
       <c r="F41" s="40"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="92"/>
       <c r="B42" s="77"/>
       <c r="C42" s="80"/>
@@ -1990,7 +1997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="93"/>
       <c r="B43" s="78"/>
       <c r="C43" s="81"/>
@@ -1998,7 +2005,7 @@
       <c r="E43" s="85"/>
       <c r="F43" s="39"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="91" t="s">
         <v>35</v>
       </c>
@@ -2016,7 +2023,7 @@
       </c>
       <c r="F44" s="40"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="92"/>
       <c r="B45" s="77"/>
       <c r="C45" s="80"/>
@@ -2026,7 +2033,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1">
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="98"/>
       <c r="B46" s="108"/>
       <c r="C46" s="99"/>
@@ -2034,7 +2041,7 @@
       <c r="E46" s="101"/>
       <c r="F46" s="29"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="102" t="s">
         <v>37</v>
       </c>
@@ -2052,7 +2059,7 @@
       </c>
       <c r="F47" s="42"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="102"/>
       <c r="B48" s="109"/>
       <c r="C48" s="104"/>
@@ -2062,7 +2069,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="102"/>
       <c r="B49" s="109"/>
       <c r="C49" s="105"/>
@@ -2070,7 +2077,7 @@
       <c r="E49" s="107"/>
       <c r="F49" s="43"/>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="110" t="s">
         <v>39</v>
       </c>
@@ -2088,7 +2095,7 @@
       </c>
       <c r="F50" s="44"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="102"/>
       <c r="B51" s="109"/>
       <c r="C51" s="104"/>
@@ -2098,7 +2105,7 @@
         <v>57.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="102"/>
       <c r="B52" s="109"/>
       <c r="C52" s="104"/>
@@ -2106,7 +2113,7 @@
       <c r="E52" s="107"/>
       <c r="F52" s="43"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="110" t="s">
         <v>41</v>
       </c>
@@ -2124,7 +2131,7 @@
       </c>
       <c r="F53" s="44"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="102"/>
       <c r="B54" s="109"/>
       <c r="C54" s="104"/>
@@ -2134,7 +2141,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="102"/>
       <c r="B55" s="109"/>
       <c r="C55" s="104"/>
@@ -2142,7 +2149,7 @@
       <c r="E55" s="107"/>
       <c r="F55" s="43"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="110" t="s">
         <v>42</v>
       </c>
@@ -2160,7 +2167,7 @@
       </c>
       <c r="F56" s="44"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="102"/>
       <c r="B57" s="109"/>
       <c r="C57" s="104"/>
@@ -2170,7 +2177,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="102"/>
       <c r="B58" s="109"/>
       <c r="C58" s="104"/>
@@ -2178,7 +2185,7 @@
       <c r="E58" s="107"/>
       <c r="F58" s="43"/>
     </row>
-    <row r="59" spans="1:6" ht="15">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="110" t="s">
         <v>43</v>
       </c>
@@ -2196,7 +2203,7 @@
       </c>
       <c r="F59" s="44"/>
     </row>
-    <row r="60" spans="1:6" ht="15">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="102"/>
       <c r="B60" s="109"/>
       <c r="C60" s="104"/>
@@ -2206,7 +2213,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="102"/>
       <c r="B61" s="109"/>
       <c r="C61" s="104"/>
@@ -2214,7 +2221,7 @@
       <c r="E61" s="107"/>
       <c r="F61" s="43"/>
     </row>
-    <row r="62" spans="1:6" ht="14.45" customHeight="1">
+    <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="110" t="s">
         <v>45</v>
       </c>
@@ -2232,7 +2239,7 @@
       </c>
       <c r="F62" s="44"/>
     </row>
-    <row r="63" spans="1:6" ht="14.45" customHeight="1">
+    <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="102"/>
       <c r="B63" s="109"/>
       <c r="C63" s="104"/>
@@ -2242,7 +2249,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="14.45" customHeight="1">
+    <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="102"/>
       <c r="B64" s="109"/>
       <c r="C64" s="104"/>
@@ -2250,19 +2257,21 @@
       <c r="E64" s="107"/>
       <c r="F64" s="43"/>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="110" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B65" s="114">
         <v>22</v>
       </c>
       <c r="C65" s="111"/>
-      <c r="D65" s="112"/>
+      <c r="D65" s="112" t="s">
+        <v>64</v>
+      </c>
       <c r="E65" s="113"/>
       <c r="F65" s="44"/>
     </row>
-    <row r="66" spans="1:6" ht="14.45" customHeight="1">
+    <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="102"/>
       <c r="B66" s="109"/>
       <c r="C66" s="104"/>
@@ -2270,7 +2279,7 @@
       <c r="E66" s="107"/>
       <c r="F66" s="42"/>
     </row>
-    <row r="67" spans="1:6" ht="15">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="102"/>
       <c r="B67" s="109"/>
       <c r="C67" s="104"/>
@@ -2278,7 +2287,7 @@
       <c r="E67" s="107"/>
       <c r="F67" s="43"/>
     </row>
-    <row r="68" spans="1:6" ht="14.45" customHeight="1">
+    <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="110"/>
       <c r="B68" s="114">
         <v>23</v>
@@ -2288,7 +2297,7 @@
       <c r="E68" s="113"/>
       <c r="F68" s="44"/>
     </row>
-    <row r="69" spans="1:6" ht="14.45" customHeight="1">
+    <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="102"/>
       <c r="B69" s="109"/>
       <c r="C69" s="104"/>
@@ -2296,7 +2305,7 @@
       <c r="E69" s="107"/>
       <c r="F69" s="42"/>
     </row>
-    <row r="70" spans="1:6" ht="14.45" customHeight="1">
+    <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="102"/>
       <c r="B70" s="109"/>
       <c r="C70" s="104"/>
@@ -2304,7 +2313,7 @@
       <c r="E70" s="107"/>
       <c r="F70" s="43"/>
     </row>
-    <row r="71" spans="1:6" ht="15">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="110"/>
       <c r="B71" s="114">
         <v>24</v>
@@ -2314,7 +2323,7 @@
       <c r="E71" s="113"/>
       <c r="F71" s="44"/>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="102"/>
       <c r="B72" s="109"/>
       <c r="C72" s="104"/>
@@ -2322,7 +2331,7 @@
       <c r="E72" s="107"/>
       <c r="F72" s="42"/>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="102"/>
       <c r="B73" s="109"/>
       <c r="C73" s="104"/>
@@ -2330,7 +2339,7 @@
       <c r="E73" s="107"/>
       <c r="F73" s="43"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="110"/>
       <c r="B74" s="114">
         <v>25</v>
@@ -2340,7 +2349,7 @@
       <c r="E74" s="113"/>
       <c r="F74" s="44"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="102"/>
       <c r="B75" s="109"/>
       <c r="C75" s="104"/>
@@ -2348,7 +2357,7 @@
       <c r="E75" s="107"/>
       <c r="F75" s="42"/>
     </row>
-    <row r="76" spans="1:6" ht="15" thickBot="1">
+    <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="123"/>
       <c r="B76" s="127"/>
       <c r="C76" s="124"/>
@@ -2356,7 +2365,7 @@
       <c r="E76" s="126"/>
       <c r="F76" s="45"/>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="116"/>
       <c r="B77" s="128">
         <v>26</v>
@@ -2366,7 +2375,7 @@
       <c r="E77" s="122"/>
       <c r="F77" s="26"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="116"/>
       <c r="B78" s="128"/>
       <c r="C78" s="118"/>
@@ -2374,7 +2383,7 @@
       <c r="E78" s="122"/>
       <c r="F78" s="26"/>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="116"/>
       <c r="B79" s="128"/>
       <c r="C79" s="118"/>
@@ -2382,7 +2391,7 @@
       <c r="E79" s="122"/>
       <c r="F79" s="26"/>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="115"/>
       <c r="B80" s="129">
         <v>27</v>
@@ -2392,7 +2401,7 @@
       <c r="E80" s="121"/>
       <c r="F80" s="26"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="116"/>
       <c r="B81" s="128"/>
       <c r="C81" s="118"/>
@@ -2400,7 +2409,7 @@
       <c r="E81" s="122"/>
       <c r="F81" s="26"/>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="116"/>
       <c r="B82" s="128"/>
       <c r="C82" s="118"/>
@@ -2408,7 +2417,7 @@
       <c r="E82" s="122"/>
       <c r="F82" s="26"/>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="115"/>
       <c r="B83" s="129">
         <v>28</v>
@@ -2418,7 +2427,7 @@
       <c r="E83" s="121"/>
       <c r="F83" s="26"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="116"/>
       <c r="B84" s="128"/>
       <c r="C84" s="118"/>
@@ -2426,7 +2435,7 @@
       <c r="E84" s="122"/>
       <c r="F84" s="26"/>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="116"/>
       <c r="B85" s="128"/>
       <c r="C85" s="118"/>
@@ -2434,7 +2443,7 @@
       <c r="E85" s="122"/>
       <c r="F85" s="26"/>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="115"/>
       <c r="B86" s="129">
         <v>29</v>
@@ -2444,7 +2453,7 @@
       <c r="E86" s="121"/>
       <c r="F86" s="26"/>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="116"/>
       <c r="B87" s="128"/>
       <c r="C87" s="118"/>
@@ -2452,7 +2461,7 @@
       <c r="E87" s="122"/>
       <c r="F87" s="26"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="116"/>
       <c r="B88" s="128"/>
       <c r="C88" s="118"/>
@@ -2460,7 +2469,7 @@
       <c r="E88" s="122"/>
       <c r="F88" s="26"/>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="115"/>
       <c r="B89" s="129">
         <v>30</v>
@@ -2470,7 +2479,7 @@
       <c r="E89" s="121"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="116"/>
       <c r="B90" s="128"/>
       <c r="C90" s="118"/>
@@ -2478,7 +2487,7 @@
       <c r="E90" s="122"/>
       <c r="F90" s="26"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="116"/>
       <c r="B91" s="128"/>
       <c r="C91" s="118"/>
@@ -2486,7 +2495,7 @@
       <c r="E91" s="122"/>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="115"/>
       <c r="B92" s="129">
         <v>31</v>
@@ -2496,7 +2505,7 @@
       <c r="E92" s="121"/>
       <c r="F92" s="26"/>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="116"/>
       <c r="B93" s="128"/>
       <c r="C93" s="118"/>
@@ -2504,7 +2513,7 @@
       <c r="E93" s="122"/>
       <c r="F93" s="26"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="116"/>
       <c r="B94" s="128"/>
       <c r="C94" s="118"/>
@@ -2512,7 +2521,7 @@
       <c r="E94" s="122"/>
       <c r="F94" s="26"/>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="115"/>
       <c r="B95" s="129">
         <v>32</v>
@@ -2522,7 +2531,7 @@
       <c r="E95" s="121"/>
       <c r="F95" s="26"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="116"/>
       <c r="B96" s="128"/>
       <c r="C96" s="118"/>
@@ -2530,7 +2539,7 @@
       <c r="E96" s="122"/>
       <c r="F96" s="26"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="116"/>
       <c r="B97" s="128"/>
       <c r="C97" s="118"/>
@@ -2538,7 +2547,7 @@
       <c r="E97" s="122"/>
       <c r="F97" s="26"/>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="115"/>
       <c r="B98" s="129">
         <v>33</v>
@@ -2548,7 +2557,7 @@
       <c r="E98" s="121"/>
       <c r="F98" s="26"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="116"/>
       <c r="B99" s="128"/>
       <c r="C99" s="118"/>
@@ -2556,7 +2565,7 @@
       <c r="E99" s="122"/>
       <c r="F99" s="26"/>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="116"/>
       <c r="B100" s="128"/>
       <c r="C100" s="118"/>
@@ -2564,7 +2573,7 @@
       <c r="E100" s="122"/>
       <c r="F100" s="26"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="115"/>
       <c r="B101" s="129">
         <v>34</v>
@@ -2574,7 +2583,7 @@
       <c r="E101" s="121"/>
       <c r="F101" s="26"/>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="116"/>
       <c r="B102" s="128"/>
       <c r="C102" s="118"/>
@@ -2582,7 +2591,7 @@
       <c r="E102" s="122"/>
       <c r="F102" s="26"/>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A103" s="116"/>
       <c r="B103" s="128"/>
       <c r="C103" s="118"/>
@@ -2590,7 +2599,7 @@
       <c r="E103" s="122"/>
       <c r="F103" s="26"/>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="115"/>
       <c r="B104" s="129">
         <v>35</v>
@@ -2600,7 +2609,7 @@
       <c r="E104" s="121"/>
       <c r="F104" s="26"/>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="116"/>
       <c r="B105" s="128"/>
       <c r="C105" s="118"/>
@@ -2608,7 +2617,7 @@
       <c r="E105" s="122"/>
       <c r="F105" s="26"/>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="116"/>
       <c r="B106" s="128"/>
       <c r="C106" s="118"/>
@@ -2616,7 +2625,7 @@
       <c r="E106" s="122"/>
       <c r="F106" s="26"/>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="115"/>
       <c r="B107" s="129">
         <v>36</v>
@@ -2626,7 +2635,7 @@
       <c r="E107" s="121"/>
       <c r="F107" s="26"/>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" s="116"/>
       <c r="B108" s="128"/>
       <c r="C108" s="118"/>
@@ -2634,7 +2643,7 @@
       <c r="E108" s="122"/>
       <c r="F108" s="26"/>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" s="116"/>
       <c r="B109" s="128"/>
       <c r="C109" s="118"/>
@@ -2642,7 +2651,7 @@
       <c r="E109" s="122"/>
       <c r="F109" s="26"/>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="115"/>
       <c r="B110" s="129">
         <v>37</v>
@@ -2652,7 +2661,7 @@
       <c r="E110" s="121"/>
       <c r="F110" s="26"/>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="116"/>
       <c r="B111" s="128"/>
       <c r="C111" s="118"/>
@@ -2660,7 +2669,7 @@
       <c r="E111" s="122"/>
       <c r="F111" s="26"/>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="116"/>
       <c r="B112" s="128"/>
       <c r="C112" s="118"/>
@@ -2668,7 +2677,7 @@
       <c r="E112" s="122"/>
       <c r="F112" s="26"/>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="115"/>
       <c r="B113" s="129">
         <v>38</v>
@@ -2678,7 +2687,7 @@
       <c r="E113" s="121"/>
       <c r="F113" s="26"/>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="116"/>
       <c r="B114" s="128"/>
       <c r="C114" s="118"/>
@@ -2686,7 +2695,7 @@
       <c r="E114" s="122"/>
       <c r="F114" s="26"/>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="116"/>
       <c r="B115" s="128"/>
       <c r="C115" s="118"/>
@@ -2694,7 +2703,7 @@
       <c r="E115" s="122"/>
       <c r="F115" s="26"/>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="115"/>
       <c r="B116" s="129">
         <v>39</v>
@@ -2704,7 +2713,7 @@
       <c r="E116" s="121"/>
       <c r="F116" s="26"/>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="116"/>
       <c r="B117" s="128"/>
       <c r="C117" s="118"/>
@@ -2712,7 +2721,7 @@
       <c r="E117" s="122"/>
       <c r="F117" s="26"/>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="116"/>
       <c r="B118" s="128"/>
       <c r="C118" s="118"/>
@@ -2720,7 +2729,7 @@
       <c r="E118" s="122"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="115"/>
       <c r="B119" s="129">
         <v>40</v>
@@ -2730,7 +2739,7 @@
       <c r="E119" s="121"/>
       <c r="F119" s="26"/>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="116"/>
       <c r="B120" s="128"/>
       <c r="C120" s="118"/>
@@ -2738,7 +2747,7 @@
       <c r="E120" s="122"/>
       <c r="F120" s="26"/>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="116"/>
       <c r="B121" s="128"/>
       <c r="C121" s="118"/>
@@ -2746,7 +2755,7 @@
       <c r="E121" s="122"/>
       <c r="F121" s="26"/>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="115"/>
       <c r="B122" s="129">
         <v>41</v>
@@ -2756,7 +2765,7 @@
       <c r="E122" s="121"/>
       <c r="F122" s="26"/>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="116"/>
       <c r="B123" s="128"/>
       <c r="C123" s="118"/>
@@ -2764,7 +2773,7 @@
       <c r="E123" s="122"/>
       <c r="F123" s="26"/>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="116"/>
       <c r="B124" s="128"/>
       <c r="C124" s="118"/>
@@ -2772,7 +2781,7 @@
       <c r="E124" s="122"/>
       <c r="F124" s="26"/>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="115"/>
       <c r="B125" s="129">
         <v>42</v>
@@ -2782,7 +2791,7 @@
       <c r="E125" s="121"/>
       <c r="F125" s="26"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="116"/>
       <c r="B126" s="128"/>
       <c r="C126" s="118"/>
@@ -2790,7 +2799,7 @@
       <c r="E126" s="122"/>
       <c r="F126" s="26"/>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="116"/>
       <c r="B127" s="128"/>
       <c r="C127" s="118"/>
@@ -2798,7 +2807,7 @@
       <c r="E127" s="122"/>
       <c r="F127" s="26"/>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="115"/>
       <c r="B128" s="129">
         <v>43</v>
@@ -2808,7 +2817,7 @@
       <c r="E128" s="121"/>
       <c r="F128" s="26"/>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="116"/>
       <c r="B129" s="128"/>
       <c r="C129" s="118"/>
@@ -2816,7 +2825,7 @@
       <c r="E129" s="122"/>
       <c r="F129" s="26"/>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="116"/>
       <c r="B130" s="128"/>
       <c r="C130" s="118"/>
@@ -2824,7 +2833,7 @@
       <c r="E130" s="122"/>
       <c r="F130" s="26"/>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="115"/>
       <c r="B131" s="129">
         <v>44</v>
@@ -2834,7 +2843,7 @@
       <c r="E131" s="121"/>
       <c r="F131" s="26"/>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="116"/>
       <c r="B132" s="128"/>
       <c r="C132" s="118"/>
@@ -2842,7 +2851,7 @@
       <c r="E132" s="122"/>
       <c r="F132" s="26"/>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="116"/>
       <c r="B133" s="128"/>
       <c r="C133" s="118"/>
@@ -2850,7 +2859,7 @@
       <c r="E133" s="122"/>
       <c r="F133" s="26"/>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="115"/>
       <c r="B134" s="129">
         <v>45</v>
@@ -2860,7 +2869,7 @@
       <c r="E134" s="121"/>
       <c r="F134" s="26"/>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="116"/>
       <c r="B135" s="128"/>
       <c r="C135" s="118"/>
@@ -2868,7 +2877,7 @@
       <c r="E135" s="122"/>
       <c r="F135" s="26"/>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="116"/>
       <c r="B136" s="128"/>
       <c r="C136" s="118"/>
@@ -2876,7 +2885,7 @@
       <c r="E136" s="122"/>
       <c r="F136" s="26"/>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="115"/>
       <c r="B137" s="129">
         <v>46</v>
@@ -2886,7 +2895,7 @@
       <c r="E137" s="121"/>
       <c r="F137" s="26"/>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="116"/>
       <c r="B138" s="128"/>
       <c r="C138" s="118"/>
@@ -2894,7 +2903,7 @@
       <c r="E138" s="122"/>
       <c r="F138" s="26"/>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="116"/>
       <c r="B139" s="128"/>
       <c r="C139" s="118"/>
@@ -2902,7 +2911,7 @@
       <c r="E139" s="122"/>
       <c r="F139" s="26"/>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="115"/>
       <c r="B140" s="129">
         <v>47</v>
@@ -2912,7 +2921,7 @@
       <c r="E140" s="121"/>
       <c r="F140" s="26"/>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="116"/>
       <c r="B141" s="128"/>
       <c r="C141" s="118"/>
@@ -2920,7 +2929,7 @@
       <c r="E141" s="122"/>
       <c r="F141" s="26"/>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="116"/>
       <c r="B142" s="128"/>
       <c r="C142" s="118"/>
@@ -2928,7 +2937,7 @@
       <c r="E142" s="122"/>
       <c r="F142" s="26"/>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="115"/>
       <c r="B143" s="129">
         <v>48</v>
@@ -2938,7 +2947,7 @@
       <c r="E143" s="121"/>
       <c r="F143" s="26"/>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="116"/>
       <c r="B144" s="128"/>
       <c r="C144" s="118"/>
@@ -2946,7 +2955,7 @@
       <c r="E144" s="122"/>
       <c r="F144" s="26"/>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="116"/>
       <c r="B145" s="128"/>
       <c r="C145" s="118"/>
@@ -2954,7 +2963,7 @@
       <c r="E145" s="122"/>
       <c r="F145" s="26"/>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="115"/>
       <c r="B146" s="129">
         <v>49</v>
@@ -2964,7 +2973,7 @@
       <c r="E146" s="121"/>
       <c r="F146" s="26"/>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="116"/>
       <c r="B147" s="128"/>
       <c r="C147" s="118"/>
@@ -2972,7 +2981,7 @@
       <c r="E147" s="122"/>
       <c r="F147" s="26"/>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="116"/>
       <c r="B148" s="128"/>
       <c r="C148" s="118"/>
@@ -2980,7 +2989,7 @@
       <c r="E148" s="122"/>
       <c r="F148" s="26"/>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="115"/>
       <c r="B149" s="129">
         <v>50</v>
@@ -2990,7 +2999,7 @@
       <c r="E149" s="121"/>
       <c r="F149" s="26"/>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="116"/>
       <c r="B150" s="128"/>
       <c r="C150" s="118"/>
@@ -2998,7 +3007,7 @@
       <c r="E150" s="122"/>
       <c r="F150" s="26"/>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="116"/>
       <c r="B151" s="128"/>
       <c r="C151" s="118"/>
@@ -3006,7 +3015,7 @@
       <c r="E151" s="122"/>
       <c r="F151" s="26"/>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="115"/>
       <c r="B152" s="129">
         <v>51</v>
@@ -3016,7 +3025,7 @@
       <c r="E152" s="121"/>
       <c r="F152" s="26"/>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="116"/>
       <c r="B153" s="128"/>
       <c r="C153" s="118"/>
@@ -3024,7 +3033,7 @@
       <c r="E153" s="122"/>
       <c r="F153" s="26"/>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="116"/>
       <c r="B154" s="128"/>
       <c r="C154" s="118"/>
@@ -3032,7 +3041,7 @@
       <c r="E154" s="122"/>
       <c r="F154" s="26"/>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="115"/>
       <c r="B155" s="129">
         <v>52</v>
@@ -3042,7 +3051,7 @@
       <c r="E155" s="121"/>
       <c r="F155" s="26"/>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="116"/>
       <c r="B156" s="128"/>
       <c r="C156" s="118"/>
@@ -3050,7 +3059,7 @@
       <c r="E156" s="122"/>
       <c r="F156" s="26"/>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="116"/>
       <c r="B157" s="128"/>
       <c r="C157" s="118"/>
@@ -3058,7 +3067,7 @@
       <c r="E157" s="122"/>
       <c r="F157" s="26"/>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="115"/>
       <c r="B158" s="129">
         <v>53</v>
@@ -3068,7 +3077,7 @@
       <c r="E158" s="121"/>
       <c r="F158" s="26"/>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="116"/>
       <c r="B159" s="128"/>
       <c r="C159" s="118"/>
@@ -3076,7 +3085,7 @@
       <c r="E159" s="122"/>
       <c r="F159" s="26"/>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="116"/>
       <c r="B160" s="128"/>
       <c r="C160" s="118"/>
@@ -3084,7 +3093,7 @@
       <c r="E160" s="122"/>
       <c r="F160" s="26"/>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="115"/>
       <c r="B161" s="129">
         <v>54</v>
@@ -3094,7 +3103,7 @@
       <c r="E161" s="121"/>
       <c r="F161" s="26"/>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="116"/>
       <c r="B162" s="128"/>
       <c r="C162" s="118"/>
@@ -3102,7 +3111,7 @@
       <c r="E162" s="122"/>
       <c r="F162" s="26"/>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="116"/>
       <c r="B163" s="128"/>
       <c r="C163" s="118"/>
@@ -3110,7 +3119,7 @@
       <c r="E163" s="122"/>
       <c r="F163" s="26"/>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="115"/>
       <c r="B164" s="129">
         <v>55</v>
@@ -3120,7 +3129,7 @@
       <c r="E164" s="121"/>
       <c r="F164" s="26"/>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="116"/>
       <c r="B165" s="128"/>
       <c r="C165" s="118"/>
@@ -3128,7 +3137,7 @@
       <c r="E165" s="122"/>
       <c r="F165" s="26"/>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="116"/>
       <c r="B166" s="128"/>
       <c r="C166" s="118"/>
@@ -3136,7 +3145,7 @@
       <c r="E166" s="122"/>
       <c r="F166" s="26"/>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="115"/>
       <c r="B167" s="129">
         <v>56</v>
@@ -3146,7 +3155,7 @@
       <c r="E167" s="121"/>
       <c r="F167" s="26"/>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="116"/>
       <c r="B168" s="128"/>
       <c r="C168" s="118"/>
@@ -3154,7 +3163,7 @@
       <c r="E168" s="122"/>
       <c r="F168" s="26"/>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="116"/>
       <c r="B169" s="128"/>
       <c r="C169" s="118"/>
@@ -3162,7 +3171,7 @@
       <c r="E169" s="122"/>
       <c r="F169" s="26"/>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="115"/>
       <c r="B170" s="129">
         <v>57</v>
@@ -3172,7 +3181,7 @@
       <c r="E170" s="121"/>
       <c r="F170" s="26"/>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="116"/>
       <c r="B171" s="128"/>
       <c r="C171" s="118"/>
@@ -3180,7 +3189,7 @@
       <c r="E171" s="122"/>
       <c r="F171" s="26"/>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="116"/>
       <c r="B172" s="128"/>
       <c r="C172" s="118"/>
@@ -3188,7 +3197,7 @@
       <c r="E172" s="122"/>
       <c r="F172" s="26"/>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="115"/>
       <c r="B173" s="129">
         <v>58</v>
@@ -3198,7 +3207,7 @@
       <c r="E173" s="121"/>
       <c r="F173" s="26"/>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="116"/>
       <c r="B174" s="128"/>
       <c r="C174" s="118"/>
@@ -3206,7 +3215,7 @@
       <c r="E174" s="122"/>
       <c r="F174" s="26"/>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="116"/>
       <c r="B175" s="128"/>
       <c r="C175" s="118"/>
@@ -3214,7 +3223,7 @@
       <c r="E175" s="122"/>
       <c r="F175" s="26"/>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="115"/>
       <c r="B176" s="129">
         <v>59</v>
@@ -3224,7 +3233,7 @@
       <c r="E176" s="121"/>
       <c r="F176" s="26"/>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="116"/>
       <c r="B177" s="128"/>
       <c r="C177" s="118"/>
@@ -3232,7 +3241,7 @@
       <c r="E177" s="122"/>
       <c r="F177" s="26"/>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="116"/>
       <c r="B178" s="128"/>
       <c r="C178" s="118"/>
@@ -3240,7 +3249,7 @@
       <c r="E178" s="122"/>
       <c r="F178" s="26"/>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="115"/>
       <c r="B179" s="129">
         <v>60</v>
@@ -3250,7 +3259,7 @@
       <c r="E179" s="121"/>
       <c r="F179" s="26"/>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="116"/>
       <c r="B180" s="128"/>
       <c r="C180" s="118"/>
@@ -3258,7 +3267,7 @@
       <c r="E180" s="122"/>
       <c r="F180" s="26"/>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="116"/>
       <c r="B181" s="128"/>
       <c r="C181" s="118"/>
@@ -3266,7 +3275,7 @@
       <c r="E181" s="122"/>
       <c r="F181" s="26"/>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="115"/>
       <c r="B182" s="129">
         <v>61</v>
@@ -3276,7 +3285,7 @@
       <c r="E182" s="121"/>
       <c r="F182" s="26"/>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="116"/>
       <c r="B183" s="128"/>
       <c r="C183" s="118"/>
@@ -3284,7 +3293,7 @@
       <c r="E183" s="122"/>
       <c r="F183" s="26"/>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="116"/>
       <c r="B184" s="128"/>
       <c r="C184" s="118"/>
@@ -3292,7 +3301,7 @@
       <c r="E184" s="122"/>
       <c r="F184" s="26"/>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="115"/>
       <c r="B185" s="129">
         <v>62</v>
@@ -3302,7 +3311,7 @@
       <c r="E185" s="121"/>
       <c r="F185" s="26"/>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="116"/>
       <c r="B186" s="128"/>
       <c r="C186" s="118"/>
@@ -3310,7 +3319,7 @@
       <c r="E186" s="122"/>
       <c r="F186" s="26"/>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="116"/>
       <c r="B187" s="128"/>
       <c r="C187" s="118"/>
@@ -3318,7 +3327,7 @@
       <c r="E187" s="122"/>
       <c r="F187" s="26"/>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="115"/>
       <c r="B188" s="129">
         <v>63</v>
@@ -3328,7 +3337,7 @@
       <c r="E188" s="121"/>
       <c r="F188" s="26"/>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="116"/>
       <c r="B189" s="128"/>
       <c r="C189" s="118"/>
@@ -3336,7 +3345,7 @@
       <c r="E189" s="122"/>
       <c r="F189" s="26"/>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="116"/>
       <c r="B190" s="128"/>
       <c r="C190" s="118"/>
@@ -3344,7 +3353,7 @@
       <c r="E190" s="122"/>
       <c r="F190" s="26"/>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="115"/>
       <c r="B191" s="129">
         <v>64</v>
@@ -3354,7 +3363,7 @@
       <c r="E191" s="121"/>
       <c r="F191" s="26"/>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="116"/>
       <c r="B192" s="128"/>
       <c r="C192" s="118"/>
@@ -3362,7 +3371,7 @@
       <c r="E192" s="122"/>
       <c r="F192" s="26"/>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="116"/>
       <c r="B193" s="128"/>
       <c r="C193" s="118"/>
@@ -3370,7 +3379,7 @@
       <c r="E193" s="122"/>
       <c r="F193" s="26"/>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="115"/>
       <c r="B194" s="129">
         <v>65</v>
@@ -3380,7 +3389,7 @@
       <c r="E194" s="121"/>
       <c r="F194" s="26"/>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="116"/>
       <c r="B195" s="128"/>
       <c r="C195" s="118"/>
@@ -3388,7 +3397,7 @@
       <c r="E195" s="122"/>
       <c r="F195" s="26"/>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="116"/>
       <c r="B196" s="128"/>
       <c r="C196" s="118"/>
@@ -3396,7 +3405,7 @@
       <c r="E196" s="122"/>
       <c r="F196" s="26"/>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="115"/>
       <c r="B197" s="129">
         <v>66</v>
@@ -3406,7 +3415,7 @@
       <c r="E197" s="121"/>
       <c r="F197" s="26"/>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="116"/>
       <c r="B198" s="128"/>
       <c r="C198" s="118"/>
@@ -3414,7 +3423,7 @@
       <c r="E198" s="122"/>
       <c r="F198" s="26"/>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="116"/>
       <c r="B199" s="128"/>
       <c r="C199" s="118"/>
@@ -3422,7 +3431,7 @@
       <c r="E199" s="122"/>
       <c r="F199" s="26"/>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="115"/>
       <c r="B200" s="129">
         <v>67</v>
@@ -3432,7 +3441,7 @@
       <c r="E200" s="121"/>
       <c r="F200" s="26"/>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="116"/>
       <c r="B201" s="128"/>
       <c r="C201" s="118"/>
@@ -3440,7 +3449,7 @@
       <c r="E201" s="122"/>
       <c r="F201" s="26"/>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="116"/>
       <c r="B202" s="128"/>
       <c r="C202" s="118"/>
@@ -3448,7 +3457,7 @@
       <c r="E202" s="122"/>
       <c r="F202" s="26"/>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="115"/>
       <c r="B203" s="129">
         <v>68</v>
@@ -3458,7 +3467,7 @@
       <c r="E203" s="121"/>
       <c r="F203" s="26"/>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="116"/>
       <c r="B204" s="128"/>
       <c r="C204" s="118"/>
@@ -3466,7 +3475,7 @@
       <c r="E204" s="122"/>
       <c r="F204" s="26"/>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="116"/>
       <c r="B205" s="128"/>
       <c r="C205" s="118"/>
@@ -3474,7 +3483,7 @@
       <c r="E205" s="122"/>
       <c r="F205" s="26"/>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="115"/>
       <c r="B206" s="129">
         <v>69</v>
@@ -3484,7 +3493,7 @@
       <c r="E206" s="121"/>
       <c r="F206" s="26"/>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="116"/>
       <c r="B207" s="128"/>
       <c r="C207" s="118"/>
@@ -3492,7 +3501,7 @@
       <c r="E207" s="122"/>
       <c r="F207" s="26"/>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="116"/>
       <c r="B208" s="128"/>
       <c r="C208" s="118"/>
@@ -3500,7 +3509,7 @@
       <c r="E208" s="122"/>
       <c r="F208" s="26"/>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="115"/>
       <c r="B209" s="129">
         <v>70</v>
@@ -3510,7 +3519,7 @@
       <c r="E209" s="121"/>
       <c r="F209" s="26"/>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="116"/>
       <c r="B210" s="128"/>
       <c r="C210" s="118"/>
@@ -3518,7 +3527,7 @@
       <c r="E210" s="122"/>
       <c r="F210" s="26"/>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="116"/>
       <c r="B211" s="128"/>
       <c r="C211" s="118"/>
@@ -3526,7 +3535,7 @@
       <c r="E211" s="122"/>
       <c r="F211" s="26"/>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="115"/>
       <c r="B212" s="129">
         <v>71</v>
@@ -3536,7 +3545,7 @@
       <c r="E212" s="121"/>
       <c r="F212" s="26"/>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="116"/>
       <c r="B213" s="128"/>
       <c r="C213" s="118"/>
@@ -3544,7 +3553,7 @@
       <c r="E213" s="122"/>
       <c r="F213" s="26"/>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="116"/>
       <c r="B214" s="128"/>
       <c r="C214" s="118"/>
@@ -3552,7 +3561,7 @@
       <c r="E214" s="122"/>
       <c r="F214" s="26"/>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A215" s="115"/>
       <c r="B215" s="129">
         <v>72</v>
@@ -3562,7 +3571,7 @@
       <c r="E215" s="121"/>
       <c r="F215" s="26"/>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="116"/>
       <c r="B216" s="128"/>
       <c r="C216" s="118"/>
@@ -3570,7 +3579,7 @@
       <c r="E216" s="122"/>
       <c r="F216" s="26"/>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="116"/>
       <c r="B217" s="128"/>
       <c r="C217" s="118"/>
@@ -3578,7 +3587,7 @@
       <c r="E217" s="122"/>
       <c r="F217" s="26"/>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A218" s="115"/>
       <c r="B218" s="129">
         <v>73</v>
@@ -3588,7 +3597,7 @@
       <c r="E218" s="121"/>
       <c r="F218" s="26"/>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A219" s="116"/>
       <c r="B219" s="128"/>
       <c r="C219" s="118"/>
@@ -3596,7 +3605,7 @@
       <c r="E219" s="122"/>
       <c r="F219" s="26"/>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="116"/>
       <c r="B220" s="128"/>
       <c r="C220" s="118"/>
@@ -3604,7 +3613,7 @@
       <c r="E220" s="122"/>
       <c r="F220" s="26"/>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="115"/>
       <c r="B221" s="129">
         <v>74</v>
@@ -3614,7 +3623,7 @@
       <c r="E221" s="121"/>
       <c r="F221" s="26"/>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="116"/>
       <c r="B222" s="128"/>
       <c r="C222" s="118"/>
@@ -3622,7 +3631,7 @@
       <c r="E222" s="122"/>
       <c r="F222" s="26"/>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="116"/>
       <c r="B223" s="128"/>
       <c r="C223" s="118"/>
@@ -3630,7 +3639,7 @@
       <c r="E223" s="122"/>
       <c r="F223" s="26"/>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="115"/>
       <c r="B224" s="129">
         <v>75</v>
@@ -3640,7 +3649,7 @@
       <c r="E224" s="121"/>
       <c r="F224" s="26"/>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="116"/>
       <c r="B225" s="128"/>
       <c r="C225" s="118"/>
@@ -3648,7 +3657,7 @@
       <c r="E225" s="122"/>
       <c r="F225" s="26"/>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="116"/>
       <c r="B226" s="128"/>
       <c r="C226" s="118"/>
@@ -3656,7 +3665,7 @@
       <c r="E226" s="122"/>
       <c r="F226" s="26"/>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A227" s="115"/>
       <c r="B227" s="129">
         <v>76</v>
@@ -3666,7 +3675,7 @@
       <c r="E227" s="121"/>
       <c r="F227" s="26"/>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="116"/>
       <c r="B228" s="128"/>
       <c r="C228" s="118"/>
@@ -3674,7 +3683,7 @@
       <c r="E228" s="122"/>
       <c r="F228" s="26"/>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="116"/>
       <c r="B229" s="128"/>
       <c r="C229" s="118"/>
@@ -3682,7 +3691,7 @@
       <c r="E229" s="122"/>
       <c r="F229" s="26"/>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="115"/>
       <c r="B230" s="129">
         <v>77</v>
@@ -3692,7 +3701,7 @@
       <c r="E230" s="121"/>
       <c r="F230" s="26"/>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="116"/>
       <c r="B231" s="128"/>
       <c r="C231" s="118"/>
@@ -3700,7 +3709,7 @@
       <c r="E231" s="122"/>
       <c r="F231" s="26"/>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="116"/>
       <c r="B232" s="128"/>
       <c r="C232" s="118"/>
@@ -3708,7 +3717,7 @@
       <c r="E232" s="122"/>
       <c r="F232" s="26"/>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="115"/>
       <c r="B233" s="129">
         <v>78</v>
@@ -3718,7 +3727,7 @@
       <c r="E233" s="121"/>
       <c r="F233" s="26"/>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="116"/>
       <c r="B234" s="128"/>
       <c r="C234" s="118"/>
@@ -3726,7 +3735,7 @@
       <c r="E234" s="122"/>
       <c r="F234" s="26"/>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A235" s="116"/>
       <c r="B235" s="128"/>
       <c r="C235" s="118"/>
@@ -3734,7 +3743,7 @@
       <c r="E235" s="122"/>
       <c r="F235" s="26"/>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="115"/>
       <c r="B236" s="129">
         <v>79</v>
@@ -3744,7 +3753,7 @@
       <c r="E236" s="121"/>
       <c r="F236" s="26"/>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="116"/>
       <c r="B237" s="128"/>
       <c r="C237" s="118"/>
@@ -3752,7 +3761,7 @@
       <c r="E237" s="122"/>
       <c r="F237" s="26"/>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="116"/>
       <c r="B238" s="128"/>
       <c r="C238" s="118"/>
@@ -3760,7 +3769,7 @@
       <c r="E238" s="122"/>
       <c r="F238" s="26"/>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="115"/>
       <c r="B239" s="129">
         <v>80</v>
@@ -3770,7 +3779,7 @@
       <c r="E239" s="121"/>
       <c r="F239" s="26"/>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="116"/>
       <c r="B240" s="128"/>
       <c r="C240" s="118"/>
@@ -3778,7 +3787,7 @@
       <c r="E240" s="122"/>
       <c r="F240" s="26"/>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="116"/>
       <c r="B241" s="128"/>
       <c r="C241" s="118"/>
@@ -3786,7 +3795,7 @@
       <c r="E241" s="122"/>
       <c r="F241" s="26"/>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="115"/>
       <c r="B242" s="129">
         <v>81</v>
@@ -3796,7 +3805,7 @@
       <c r="E242" s="121"/>
       <c r="F242" s="26"/>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="116"/>
       <c r="B243" s="128"/>
       <c r="C243" s="118"/>
@@ -3804,7 +3813,7 @@
       <c r="E243" s="122"/>
       <c r="F243" s="26"/>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="116"/>
       <c r="B244" s="128"/>
       <c r="C244" s="118"/>
@@ -3812,7 +3821,7 @@
       <c r="E244" s="122"/>
       <c r="F244" s="26"/>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="115"/>
       <c r="B245" s="129">
         <v>82</v>
@@ -3822,7 +3831,7 @@
       <c r="E245" s="121"/>
       <c r="F245" s="26"/>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="116"/>
       <c r="B246" s="128"/>
       <c r="C246" s="118"/>
@@ -3830,7 +3839,7 @@
       <c r="E246" s="122"/>
       <c r="F246" s="26"/>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="116"/>
       <c r="B247" s="128"/>
       <c r="C247" s="118"/>
@@ -3838,7 +3847,7 @@
       <c r="E247" s="122"/>
       <c r="F247" s="26"/>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="115"/>
       <c r="B248" s="129">
         <v>83</v>
@@ -3848,7 +3857,7 @@
       <c r="E248" s="121"/>
       <c r="F248" s="26"/>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="116"/>
       <c r="B249" s="128"/>
       <c r="C249" s="118"/>
@@ -3856,7 +3865,7 @@
       <c r="E249" s="122"/>
       <c r="F249" s="26"/>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="116"/>
       <c r="B250" s="128"/>
       <c r="C250" s="118"/>
@@ -3864,7 +3873,7 @@
       <c r="E250" s="122"/>
       <c r="F250" s="26"/>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="115"/>
       <c r="B251" s="129">
         <v>84</v>
@@ -3874,7 +3883,7 @@
       <c r="E251" s="121"/>
       <c r="F251" s="26"/>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="116"/>
       <c r="B252" s="128"/>
       <c r="C252" s="118"/>
@@ -3882,7 +3891,7 @@
       <c r="E252" s="122"/>
       <c r="F252" s="26"/>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="116"/>
       <c r="B253" s="128"/>
       <c r="C253" s="118"/>
@@ -3890,7 +3899,7 @@
       <c r="E253" s="122"/>
       <c r="F253" s="26"/>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="115"/>
       <c r="B254" s="129">
         <v>85</v>
@@ -3900,7 +3909,7 @@
       <c r="E254" s="121"/>
       <c r="F254" s="26"/>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="116"/>
       <c r="B255" s="128"/>
       <c r="C255" s="118"/>
@@ -3908,7 +3917,7 @@
       <c r="E255" s="122"/>
       <c r="F255" s="26"/>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="116"/>
       <c r="B256" s="128"/>
       <c r="C256" s="118"/>
@@ -3916,7 +3925,7 @@
       <c r="E256" s="122"/>
       <c r="F256" s="26"/>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="115"/>
       <c r="B257" s="129">
         <v>86</v>
@@ -3926,7 +3935,7 @@
       <c r="E257" s="121"/>
       <c r="F257" s="26"/>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="116"/>
       <c r="B258" s="128"/>
       <c r="C258" s="118"/>
@@ -3934,7 +3943,7 @@
       <c r="E258" s="122"/>
       <c r="F258" s="26"/>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="116"/>
       <c r="B259" s="128"/>
       <c r="C259" s="118"/>
@@ -3942,7 +3951,7 @@
       <c r="E259" s="122"/>
       <c r="F259" s="26"/>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="115"/>
       <c r="B260" s="129">
         <v>87</v>
@@ -3952,7 +3961,7 @@
       <c r="E260" s="121"/>
       <c r="F260" s="26"/>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="116"/>
       <c r="B261" s="128"/>
       <c r="C261" s="118"/>
@@ -3960,7 +3969,7 @@
       <c r="E261" s="122"/>
       <c r="F261" s="26"/>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="116"/>
       <c r="B262" s="128"/>
       <c r="C262" s="118"/>
@@ -3968,7 +3977,7 @@
       <c r="E262" s="122"/>
       <c r="F262" s="26"/>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="115"/>
       <c r="B263" s="129">
         <v>88</v>
@@ -3978,7 +3987,7 @@
       <c r="E263" s="121"/>
       <c r="F263" s="26"/>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="116"/>
       <c r="B264" s="128"/>
       <c r="C264" s="118"/>
@@ -3986,7 +3995,7 @@
       <c r="E264" s="122"/>
       <c r="F264" s="26"/>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="116"/>
       <c r="B265" s="128"/>
       <c r="C265" s="118"/>
@@ -3994,7 +4003,7 @@
       <c r="E265" s="122"/>
       <c r="F265" s="26"/>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="115"/>
       <c r="B266" s="129">
         <v>89</v>
@@ -4004,7 +4013,7 @@
       <c r="E266" s="121"/>
       <c r="F266" s="26"/>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="116"/>
       <c r="B267" s="128"/>
       <c r="C267" s="118"/>
@@ -4012,7 +4021,7 @@
       <c r="E267" s="122"/>
       <c r="F267" s="26"/>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="116"/>
       <c r="B268" s="128"/>
       <c r="C268" s="118"/>
@@ -4020,7 +4029,7 @@
       <c r="E268" s="122"/>
       <c r="F268" s="26"/>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="115"/>
       <c r="B269" s="129">
         <v>90</v>
@@ -4030,7 +4039,7 @@
       <c r="E269" s="121"/>
       <c r="F269" s="26"/>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="116"/>
       <c r="B270" s="128"/>
       <c r="C270" s="118"/>
@@ -4038,7 +4047,7 @@
       <c r="E270" s="122"/>
       <c r="F270" s="26"/>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A271" s="116"/>
       <c r="B271" s="128"/>
       <c r="C271" s="118"/>
@@ -4046,7 +4055,7 @@
       <c r="E271" s="122"/>
       <c r="F271" s="26"/>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A272" s="115"/>
       <c r="B272" s="129">
         <v>91</v>
@@ -4056,7 +4065,7 @@
       <c r="E272" s="121"/>
       <c r="F272" s="26"/>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="116"/>
       <c r="B273" s="128"/>
       <c r="C273" s="118"/>
@@ -4064,7 +4073,7 @@
       <c r="E273" s="122"/>
       <c r="F273" s="26"/>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="116"/>
       <c r="B274" s="128"/>
       <c r="C274" s="118"/>
@@ -4072,7 +4081,7 @@
       <c r="E274" s="122"/>
       <c r="F274" s="26"/>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="115"/>
       <c r="B275" s="129">
         <v>92</v>
@@ -4082,7 +4091,7 @@
       <c r="E275" s="121"/>
       <c r="F275" s="26"/>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="116"/>
       <c r="B276" s="128"/>
       <c r="C276" s="118"/>
@@ -4090,7 +4099,7 @@
       <c r="E276" s="122"/>
       <c r="F276" s="26"/>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="116"/>
       <c r="B277" s="128"/>
       <c r="C277" s="118"/>
@@ -4098,7 +4107,7 @@
       <c r="E277" s="122"/>
       <c r="F277" s="26"/>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="115"/>
       <c r="B278" s="129">
         <v>93</v>
@@ -4108,7 +4117,7 @@
       <c r="E278" s="121"/>
       <c r="F278" s="26"/>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="116"/>
       <c r="B279" s="128"/>
       <c r="C279" s="118"/>
@@ -4116,7 +4125,7 @@
       <c r="E279" s="122"/>
       <c r="F279" s="26"/>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="116"/>
       <c r="B280" s="128"/>
       <c r="C280" s="118"/>
@@ -4124,7 +4133,7 @@
       <c r="E280" s="122"/>
       <c r="F280" s="26"/>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="115"/>
       <c r="B281" s="129">
         <v>94</v>
@@ -4134,7 +4143,7 @@
       <c r="E281" s="121"/>
       <c r="F281" s="26"/>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="116"/>
       <c r="B282" s="128"/>
       <c r="C282" s="118"/>
@@ -4142,7 +4151,7 @@
       <c r="E282" s="122"/>
       <c r="F282" s="26"/>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="116"/>
       <c r="B283" s="128"/>
       <c r="C283" s="118"/>
@@ -4150,7 +4159,7 @@
       <c r="E283" s="122"/>
       <c r="F283" s="26"/>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="115"/>
       <c r="B284" s="129">
         <v>95</v>
@@ -4160,7 +4169,7 @@
       <c r="E284" s="121"/>
       <c r="F284" s="26"/>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="116"/>
       <c r="B285" s="128"/>
       <c r="C285" s="118"/>
@@ -4168,7 +4177,7 @@
       <c r="E285" s="122"/>
       <c r="F285" s="26"/>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="116"/>
       <c r="B286" s="128"/>
       <c r="C286" s="118"/>
@@ -4176,7 +4185,7 @@
       <c r="E286" s="122"/>
       <c r="F286" s="26"/>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="115"/>
       <c r="B287" s="129">
         <v>96</v>
@@ -4186,7 +4195,7 @@
       <c r="E287" s="121"/>
       <c r="F287" s="26"/>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A288" s="116"/>
       <c r="B288" s="128"/>
       <c r="C288" s="118"/>
@@ -4194,7 +4203,7 @@
       <c r="E288" s="122"/>
       <c r="F288" s="26"/>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A289" s="116"/>
       <c r="B289" s="128"/>
       <c r="C289" s="118"/>
@@ -4202,7 +4211,7 @@
       <c r="E289" s="122"/>
       <c r="F289" s="26"/>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="115"/>
       <c r="B290" s="129">
         <v>97</v>
@@ -4212,7 +4221,7 @@
       <c r="E290" s="121"/>
       <c r="F290" s="26"/>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="116"/>
       <c r="B291" s="128"/>
       <c r="C291" s="118"/>
@@ -4220,7 +4229,7 @@
       <c r="E291" s="122"/>
       <c r="F291" s="26"/>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="116"/>
       <c r="B292" s="128"/>
       <c r="C292" s="118"/>
@@ -4228,7 +4237,7 @@
       <c r="E292" s="122"/>
       <c r="F292" s="26"/>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="115"/>
       <c r="B293" s="129">
         <v>98</v>
@@ -4238,7 +4247,7 @@
       <c r="E293" s="121"/>
       <c r="F293" s="26"/>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="116"/>
       <c r="B294" s="128"/>
       <c r="C294" s="118"/>
@@ -4246,7 +4255,7 @@
       <c r="E294" s="122"/>
       <c r="F294" s="26"/>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="116"/>
       <c r="B295" s="128"/>
       <c r="C295" s="118"/>
@@ -4254,7 +4263,7 @@
       <c r="E295" s="122"/>
       <c r="F295" s="26"/>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="115"/>
       <c r="B296" s="129">
         <v>99</v>
@@ -4264,7 +4273,7 @@
       <c r="E296" s="121"/>
       <c r="F296" s="26"/>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="116"/>
       <c r="B297" s="128"/>
       <c r="C297" s="118"/>
@@ -4272,7 +4281,7 @@
       <c r="E297" s="122"/>
       <c r="F297" s="26"/>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="116"/>
       <c r="B298" s="128"/>
       <c r="C298" s="118"/>
@@ -4280,7 +4289,7 @@
       <c r="E298" s="122"/>
       <c r="F298" s="26"/>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="115"/>
       <c r="B299" s="129">
         <v>100</v>
@@ -4290,7 +4299,7 @@
       <c r="E299" s="121"/>
       <c r="F299" s="26"/>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="116"/>
       <c r="B300" s="128"/>
       <c r="C300" s="118"/>
@@ -4298,7 +4307,7 @@
       <c r="E300" s="122"/>
       <c r="F300" s="26"/>
     </row>
-    <row r="301" spans="1:6" ht="15" thickBot="1">
+    <row r="301" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301" s="130"/>
       <c r="B301" s="131"/>
       <c r="C301" s="132"/>
@@ -4306,7 +4315,7 @@
       <c r="E301" s="134"/>
       <c r="F301" s="26"/>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="135"/>
       <c r="B302" s="136"/>
       <c r="C302" s="137"/>
@@ -4314,7 +4323,7 @@
       <c r="E302" s="135"/>
       <c r="F302" s="26"/>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="135"/>
       <c r="B303" s="136"/>
       <c r="C303" s="137"/>
@@ -4322,7 +4331,7 @@
       <c r="E303" s="135"/>
       <c r="F303" s="26"/>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="135"/>
       <c r="B304" s="136"/>
       <c r="C304" s="137"/>
@@ -4330,7 +4339,7 @@
       <c r="E304" s="135"/>
       <c r="F304" s="26"/>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="135"/>
       <c r="B305" s="136"/>
       <c r="C305" s="137"/>
@@ -4338,7 +4347,7 @@
       <c r="E305" s="135"/>
       <c r="F305" s="26"/>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="135"/>
       <c r="B306" s="136"/>
       <c r="C306" s="137"/>
@@ -4346,7 +4355,7 @@
       <c r="E306" s="135"/>
       <c r="F306" s="26"/>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="135"/>
       <c r="B307" s="136"/>
       <c r="C307" s="137"/>
@@ -4354,7 +4363,7 @@
       <c r="E307" s="135"/>
       <c r="F307" s="26"/>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="135"/>
       <c r="B308" s="136"/>
       <c r="C308" s="137"/>
@@ -4362,7 +4371,7 @@
       <c r="E308" s="135"/>
       <c r="F308" s="26"/>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="135"/>
       <c r="B309" s="136"/>
       <c r="C309" s="137"/>
@@ -4370,7 +4379,7 @@
       <c r="E309" s="135"/>
       <c r="F309" s="26"/>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="135"/>
       <c r="B310" s="136"/>
       <c r="C310" s="137"/>
@@ -4378,7 +4387,7 @@
       <c r="E310" s="135"/>
       <c r="F310" s="26"/>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="135"/>
       <c r="B311" s="136"/>
       <c r="C311" s="137"/>
@@ -4386,7 +4395,7 @@
       <c r="E311" s="135"/>
       <c r="F311" s="26"/>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="135"/>
       <c r="B312" s="136"/>
       <c r="C312" s="137"/>
@@ -4394,7 +4403,7 @@
       <c r="E312" s="135"/>
       <c r="F312" s="26"/>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="135"/>
       <c r="B313" s="136"/>
       <c r="C313" s="137"/>
@@ -4402,7 +4411,7 @@
       <c r="E313" s="135"/>
       <c r="F313" s="26"/>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="135"/>
       <c r="B314" s="136"/>
       <c r="C314" s="137"/>
@@ -4410,7 +4419,7 @@
       <c r="E314" s="135"/>
       <c r="F314" s="26"/>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="135"/>
       <c r="B315" s="136"/>
       <c r="C315" s="137"/>
@@ -4418,7 +4427,7 @@
       <c r="E315" s="135"/>
       <c r="F315" s="26"/>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="135"/>
       <c r="B316" s="136"/>
       <c r="C316" s="137"/>
@@ -4426,7 +4435,7 @@
       <c r="E316" s="135"/>
       <c r="F316" s="26"/>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="135"/>
       <c r="B317" s="136"/>
       <c r="C317" s="137"/>
@@ -4434,7 +4443,7 @@
       <c r="E317" s="135"/>
       <c r="F317" s="26"/>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="135"/>
       <c r="B318" s="136"/>
       <c r="C318" s="137"/>
@@ -4442,7 +4451,7 @@
       <c r="E318" s="135"/>
       <c r="F318" s="26"/>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="135"/>
       <c r="B319" s="136"/>
       <c r="C319" s="137"/>
@@ -4996,88 +5005,88 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.54296875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="15" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="43.5">
-      <c r="A2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="F2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="87">
+    </row>
+    <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="A3" s="22"/>
       <c r="B3" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="F3" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>58</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="29.1">
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="8"/>
       <c r="F4" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="43.5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="24"/>
       <c r="F5" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="29.1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="21"/>
     </row>
-    <row r="11" spans="1:10" ht="14.45" customHeight="1"/>
-    <row r="14" spans="1:10" ht="14.45" customHeight="1"/>
-    <row r="17" ht="14.45" customHeight="1"/>
-    <row r="20" ht="14.45" customHeight="1"/>
+    <row r="11" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Participants_log.xlsx
+++ b/Participants_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a66c9eafe7ca5b97/Documents/GitHub/affixproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="622" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E4D87E-1FFC-4B43-9A14-29329330E380}"/>
+  <xr:revisionPtr revIDLastSave="626" documentId="8_{EBECA470-4E83-428E-A086-FE03DFCA7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34EC1F5C-D90D-4A9E-B76E-163B9FE58DE2}"/>
   <bookViews>
-    <workbookView xWindow="3200" yWindow="0" windowWidth="16000" windowHeight="9000" xr2:uid="{A64A2D64-A729-45BB-94DF-402620060AB1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{A64A2D64-A729-45BB-94DF-402620060AB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Participants" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -243,7 +243,7 @@
     <t>Antonio Condensed Matter</t>
   </si>
   <si>
-    <t>Ran word_generation</t>
+    <t>Tried to look at characters, position of characters, shape of word</t>
   </si>
 </sst>
 </file>
@@ -872,35 +872,254 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -914,12 +1133,6 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -931,219 +1144,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1467,7 +1467,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1501,19 +1501,19 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="124">
         <v>1</v>
       </c>
-      <c r="C2" s="49">
+      <c r="C2" s="105">
         <v>45014</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="110" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="30"/>
@@ -1522,11 +1522,11 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="51"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="110"/>
       <c r="F3" s="31">
         <v>42.5</v>
       </c>
@@ -1535,3438 +1535,2938 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="51"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="110"/>
       <c r="F4" s="34"/>
       <c r="H4" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="123">
         <v>2</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="104">
         <v>45014</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="53"/>
+      <c r="E5" s="109"/>
       <c r="F5" s="35"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="51"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="110"/>
       <c r="F6" s="31">
         <v>57.5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
-      <c r="B7" s="50"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="48"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="110"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="56">
+      <c r="B8" s="123">
         <v>3</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="131">
         <v>45015</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="53"/>
+      <c r="E8" s="109"/>
       <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="31">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="55"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="130"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="110"/>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="70">
+      <c r="B11" s="114">
         <v>4</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="117">
         <v>45016</v>
       </c>
-      <c r="D11" s="63" t="s">
+      <c r="D11" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="136" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="36"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="68"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="66"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="118"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="137"/>
       <c r="F12" s="37">
         <v>42.5</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="69"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="66"/>
+      <c r="A13" s="113"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="137"/>
       <c r="F13" s="38"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="120" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="56">
+      <c r="B14" s="123">
         <v>5</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="104">
         <v>45017</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="53"/>
+      <c r="E14" s="109"/>
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="51"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="48"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="31">
         <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="55"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="48"/>
+      <c r="A16" s="129"/>
+      <c r="B16" s="130"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="110"/>
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="56">
+      <c r="B17" s="123">
         <v>6</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="104">
         <v>45017</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="53"/>
+      <c r="E17" s="109"/>
       <c r="F17" s="35"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="51"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="48"/>
+      <c r="A18" s="121"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="110"/>
       <c r="F18" s="31">
         <v>37.5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="55"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
+      <c r="A19" s="129"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="110"/>
       <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="56">
+      <c r="B20" s="123">
         <v>7</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="104">
         <v>45017</v>
       </c>
-      <c r="D20" s="52" t="s">
+      <c r="D20" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="109" t="s">
         <v>20</v>
       </c>
       <c r="F20" s="35"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="51"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="48"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="110"/>
       <c r="F21" s="31">
         <v>52.5</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="86"/>
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90"/>
+      <c r="A22" s="122"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="128"/>
       <c r="F22" s="32"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="77">
+      <c r="B23" s="97">
         <v>8</v>
       </c>
-      <c r="C23" s="96">
+      <c r="C23" s="102">
         <v>45036</v>
       </c>
-      <c r="D23" s="83" t="s">
+      <c r="D23" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="81" t="s">
         <v>22</v>
       </c>
       <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="92"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="85"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="81"/>
       <c r="F24" s="28">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="93"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="85"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="81"/>
       <c r="F25" s="39"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="76">
+      <c r="B26" s="96">
         <v>9</v>
       </c>
-      <c r="C26" s="79">
+      <c r="C26" s="85">
         <v>45042</v>
       </c>
-      <c r="D26" s="82" t="s">
+      <c r="D26" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="84" t="s">
+      <c r="E26" s="80" t="s">
         <v>24</v>
       </c>
       <c r="F26" s="40"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="92"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="85"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="81"/>
       <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:6" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="93"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="85"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="41">
         <v>52.5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="91" t="s">
+      <c r="A29" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="76">
+      <c r="B29" s="96">
         <v>10</v>
       </c>
-      <c r="C29" s="79">
+      <c r="C29" s="85">
         <v>45043</v>
       </c>
-      <c r="D29" s="82" t="s">
+      <c r="D29" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="84" t="s">
+      <c r="E29" s="80" t="s">
         <v>26</v>
       </c>
       <c r="F29" s="40"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="92"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="85"/>
+      <c r="A30" s="83"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="81"/>
       <c r="F30" s="28">
         <v>52.5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="93"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="85"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="39"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="76">
+      <c r="B32" s="96">
         <v>11</v>
       </c>
-      <c r="C32" s="79">
+      <c r="C32" s="85">
         <v>45049</v>
       </c>
-      <c r="D32" s="82" t="s">
+      <c r="D32" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="84" t="s">
+      <c r="E32" s="80" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="40"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="92"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="85"/>
+      <c r="A33" s="83"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="81"/>
       <c r="F33" s="28">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="93"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="95"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="101"/>
       <c r="F34" s="39"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="77">
+      <c r="B35" s="97">
         <v>12</v>
       </c>
-      <c r="C35" s="79">
+      <c r="C35" s="85">
         <v>45049</v>
       </c>
-      <c r="D35" s="83" t="s">
+      <c r="D35" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="85" t="s">
+      <c r="E35" s="81" t="s">
         <v>30</v>
       </c>
       <c r="F35" s="40"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="92"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="85"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="81"/>
       <c r="F36" s="28">
         <v>52.5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="93"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="85"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="98"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="39"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="91" t="s">
+      <c r="A38" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="76">
+      <c r="B38" s="96">
         <v>13</v>
       </c>
-      <c r="C38" s="79">
+      <c r="C38" s="85">
         <v>45050</v>
       </c>
-      <c r="D38" s="82" t="s">
+      <c r="D38" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="84" t="s">
+      <c r="E38" s="80" t="s">
         <v>32</v>
       </c>
       <c r="F38" s="40"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="92"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="83"/>
-      <c r="E39" s="85"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="28">
         <v>47.5</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="92"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="85"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="81"/>
       <c r="F40" s="39"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="91" t="s">
+      <c r="A41" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="76">
+      <c r="B41" s="96">
         <v>14</v>
       </c>
-      <c r="C41" s="79">
+      <c r="C41" s="85">
         <v>45050</v>
       </c>
-      <c r="D41" s="82" t="s">
+      <c r="D41" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="80" t="s">
         <v>34</v>
       </c>
       <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="92"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="85"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="81"/>
       <c r="F42" s="28">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="93"/>
-      <c r="B43" s="78"/>
-      <c r="C43" s="81"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="85"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="39"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="91" t="s">
+      <c r="A44" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B44" s="76">
+      <c r="B44" s="96">
         <v>15</v>
       </c>
-      <c r="C44" s="79">
+      <c r="C44" s="85">
         <v>45050</v>
       </c>
-      <c r="D44" s="82" t="s">
+      <c r="D44" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E44" s="84" t="s">
+      <c r="E44" s="80" t="s">
         <v>36</v>
       </c>
       <c r="F44" s="40"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="92"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="85"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="81"/>
       <c r="F45" s="28">
         <v>57.5</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="98"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="101"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="91"/>
       <c r="F46" s="29"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="102" t="s">
+      <c r="A47" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="109">
+      <c r="B47" s="78">
         <v>16</v>
       </c>
-      <c r="C47" s="103">
+      <c r="C47" s="92">
         <v>45061</v>
       </c>
-      <c r="D47" s="106" t="s">
+      <c r="D47" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="107" t="s">
+      <c r="E47" s="75" t="s">
         <v>38</v>
       </c>
       <c r="F47" s="42"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="102"/>
-      <c r="B48" s="109"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="106"/>
-      <c r="E48" s="107"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="69"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="75"/>
       <c r="F48" s="42">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="102"/>
-      <c r="B49" s="109"/>
-      <c r="C49" s="105"/>
-      <c r="D49" s="106"/>
-      <c r="E49" s="107"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="75"/>
       <c r="F49" s="43"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="114">
+      <c r="B50" s="77">
         <v>17</v>
       </c>
-      <c r="C50" s="104">
+      <c r="C50" s="69">
         <v>45061</v>
       </c>
-      <c r="D50" s="112" t="s">
+      <c r="D50" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="113" t="s">
+      <c r="E50" s="74" t="s">
         <v>40</v>
       </c>
       <c r="F50" s="44"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="102"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="104"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="107"/>
+      <c r="A51" s="66"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="75"/>
       <c r="F51" s="42">
         <v>57.5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="102"/>
-      <c r="B52" s="109"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="106"/>
-      <c r="E52" s="107"/>
+      <c r="A52" s="66"/>
+      <c r="B52" s="78"/>
+      <c r="C52" s="69"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="75"/>
       <c r="F52" s="43"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="110" t="s">
+      <c r="A53" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B53" s="114">
+      <c r="B53" s="77">
         <v>18</v>
       </c>
-      <c r="C53" s="111">
+      <c r="C53" s="68">
         <v>45068</v>
       </c>
-      <c r="D53" s="112" t="s">
+      <c r="D53" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E53" s="113" t="s">
+      <c r="E53" s="74" t="s">
         <v>34</v>
       </c>
       <c r="F53" s="44"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="102"/>
-      <c r="B54" s="109"/>
-      <c r="C54" s="104"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="107"/>
+      <c r="A54" s="66"/>
+      <c r="B54" s="78"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="75"/>
       <c r="F54" s="42">
         <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="102"/>
-      <c r="B55" s="109"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="106"/>
-      <c r="E55" s="107"/>
+      <c r="A55" s="66"/>
+      <c r="B55" s="78"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="75"/>
       <c r="F55" s="43"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="110" t="s">
+      <c r="A56" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="114">
+      <c r="B56" s="77">
         <v>19</v>
       </c>
-      <c r="C56" s="111">
+      <c r="C56" s="68">
         <v>45068</v>
       </c>
-      <c r="D56" s="112" t="s">
+      <c r="D56" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E56" s="113" t="s">
+      <c r="E56" s="74" t="s">
         <v>34</v>
       </c>
       <c r="F56" s="44"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="102"/>
-      <c r="B57" s="109"/>
-      <c r="C57" s="104"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="107"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="69"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="75"/>
       <c r="F57" s="42">
         <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="102"/>
-      <c r="B58" s="109"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="106"/>
-      <c r="E58" s="107"/>
+      <c r="A58" s="66"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="69"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="43"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="110" t="s">
+      <c r="A59" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B59" s="114">
+      <c r="B59" s="77">
         <v>20</v>
       </c>
-      <c r="C59" s="111">
+      <c r="C59" s="68">
         <v>45069</v>
       </c>
-      <c r="D59" s="112" t="s">
+      <c r="D59" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E59" s="113" t="s">
+      <c r="E59" s="74" t="s">
         <v>34</v>
       </c>
       <c r="F59" s="44"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="102"/>
-      <c r="B60" s="109"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="107"/>
+      <c r="A60" s="66"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="69"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="75"/>
       <c r="F60" s="42" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="102"/>
-      <c r="B61" s="109"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="107"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="78"/>
+      <c r="C61" s="69"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="75"/>
       <c r="F61" s="43"/>
     </row>
     <row r="62" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="110" t="s">
+      <c r="A62" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B62" s="114">
+      <c r="B62" s="77">
         <v>21</v>
       </c>
-      <c r="C62" s="111">
+      <c r="C62" s="68">
         <v>45069</v>
       </c>
-      <c r="D62" s="112" t="s">
+      <c r="D62" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="113" t="s">
+      <c r="E62" s="74" t="s">
         <v>46</v>
       </c>
       <c r="F62" s="44"/>
     </row>
     <row r="63" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="102"/>
-      <c r="B63" s="109"/>
-      <c r="C63" s="104"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="107"/>
+      <c r="A63" s="66"/>
+      <c r="B63" s="78"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="75"/>
       <c r="F63" s="42">
         <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="102"/>
-      <c r="B64" s="109"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="106"/>
-      <c r="E64" s="107"/>
+      <c r="A64" s="66"/>
+      <c r="B64" s="78"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="75"/>
       <c r="F64" s="43"/>
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="110" t="s">
+      <c r="A65" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="B65" s="114">
+      <c r="B65" s="77">
         <v>22</v>
       </c>
-      <c r="C65" s="111"/>
-      <c r="D65" s="112" t="s">
+      <c r="C65" s="68">
+        <v>45083</v>
+      </c>
+      <c r="D65" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="113"/>
       <c r="F65" s="44"/>
     </row>
     <row r="66" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="102"/>
-      <c r="B66" s="109"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="42"/>
+      <c r="A66" s="66"/>
+      <c r="B66" s="78"/>
+      <c r="C66" s="69"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="75"/>
+      <c r="F66" s="42">
+        <v>57.5</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="102"/>
-      <c r="B67" s="109"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="107"/>
+      <c r="A67" s="66"/>
+      <c r="B67" s="78"/>
+      <c r="C67" s="69"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="75"/>
       <c r="F67" s="43"/>
     </row>
     <row r="68" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="110"/>
-      <c r="B68" s="114">
+      <c r="A68" s="65"/>
+      <c r="B68" s="77">
         <v>23</v>
       </c>
-      <c r="C68" s="111"/>
-      <c r="D68" s="112"/>
-      <c r="E68" s="113"/>
+      <c r="C68" s="68"/>
+      <c r="D68" s="71"/>
+      <c r="E68" s="74"/>
       <c r="F68" s="44"/>
     </row>
     <row r="69" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="102"/>
-      <c r="B69" s="109"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="107"/>
+      <c r="A69" s="66"/>
+      <c r="B69" s="78"/>
+      <c r="C69" s="69"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="75"/>
       <c r="F69" s="42"/>
     </row>
     <row r="70" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="102"/>
-      <c r="B70" s="109"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="107"/>
+      <c r="A70" s="66"/>
+      <c r="B70" s="78"/>
+      <c r="C70" s="69"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="75"/>
       <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="110"/>
-      <c r="B71" s="114">
+      <c r="A71" s="65"/>
+      <c r="B71" s="77">
         <v>24</v>
       </c>
-      <c r="C71" s="111"/>
-      <c r="D71" s="112"/>
-      <c r="E71" s="113"/>
+      <c r="C71" s="68"/>
+      <c r="D71" s="71"/>
+      <c r="E71" s="74"/>
       <c r="F71" s="44"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="102"/>
-      <c r="B72" s="109"/>
-      <c r="C72" s="104"/>
-      <c r="D72" s="106"/>
-      <c r="E72" s="107"/>
+      <c r="A72" s="66"/>
+      <c r="B72" s="78"/>
+      <c r="C72" s="69"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="75"/>
       <c r="F72" s="42"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="102"/>
-      <c r="B73" s="109"/>
-      <c r="C73" s="104"/>
-      <c r="D73" s="106"/>
-      <c r="E73" s="107"/>
+      <c r="A73" s="66"/>
+      <c r="B73" s="78"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="75"/>
       <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="110"/>
-      <c r="B74" s="114">
+      <c r="A74" s="65"/>
+      <c r="B74" s="77">
         <v>25</v>
       </c>
-      <c r="C74" s="111"/>
-      <c r="D74" s="112"/>
-      <c r="E74" s="113"/>
+      <c r="C74" s="68"/>
+      <c r="D74" s="71"/>
+      <c r="E74" s="74"/>
       <c r="F74" s="44"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="102"/>
-      <c r="B75" s="109"/>
-      <c r="C75" s="104"/>
-      <c r="D75" s="106"/>
-      <c r="E75" s="107"/>
+      <c r="A75" s="66"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="69"/>
+      <c r="D75" s="72"/>
+      <c r="E75" s="75"/>
       <c r="F75" s="42"/>
     </row>
     <row r="76" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="123"/>
-      <c r="B76" s="127"/>
-      <c r="C76" s="124"/>
-      <c r="D76" s="125"/>
-      <c r="E76" s="126"/>
+      <c r="A76" s="67"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="73"/>
+      <c r="E76" s="76"/>
       <c r="F76" s="45"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="116"/>
-      <c r="B77" s="128">
+      <c r="A77" s="51"/>
+      <c r="B77" s="53">
         <v>26</v>
       </c>
-      <c r="C77" s="118"/>
-      <c r="D77" s="120"/>
-      <c r="E77" s="122"/>
+      <c r="C77" s="55"/>
+      <c r="D77" s="57"/>
+      <c r="E77" s="59"/>
       <c r="F77" s="26"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="116"/>
-      <c r="B78" s="128"/>
-      <c r="C78" s="118"/>
-      <c r="D78" s="120"/>
-      <c r="E78" s="122"/>
+      <c r="A78" s="51"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="55"/>
+      <c r="D78" s="57"/>
+      <c r="E78" s="59"/>
       <c r="F78" s="26"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="116"/>
-      <c r="B79" s="128"/>
-      <c r="C79" s="118"/>
-      <c r="D79" s="120"/>
-      <c r="E79" s="122"/>
+      <c r="A79" s="51"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="55"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="59"/>
       <c r="F79" s="26"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="115"/>
-      <c r="B80" s="129">
+      <c r="A80" s="50"/>
+      <c r="B80" s="52">
         <v>27</v>
       </c>
-      <c r="C80" s="117"/>
-      <c r="D80" s="119"/>
-      <c r="E80" s="121"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="56"/>
+      <c r="E80" s="58"/>
       <c r="F80" s="26"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="116"/>
-      <c r="B81" s="128"/>
-      <c r="C81" s="118"/>
-      <c r="D81" s="120"/>
-      <c r="E81" s="122"/>
+      <c r="A81" s="51"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="55"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="59"/>
       <c r="F81" s="26"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="116"/>
-      <c r="B82" s="128"/>
-      <c r="C82" s="118"/>
-      <c r="D82" s="120"/>
-      <c r="E82" s="122"/>
+      <c r="A82" s="51"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="55"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="59"/>
       <c r="F82" s="26"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="115"/>
-      <c r="B83" s="129">
+      <c r="A83" s="50"/>
+      <c r="B83" s="52">
         <v>28</v>
       </c>
-      <c r="C83" s="117"/>
-      <c r="D83" s="119"/>
-      <c r="E83" s="121"/>
+      <c r="C83" s="54"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="58"/>
       <c r="F83" s="26"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="116"/>
-      <c r="B84" s="128"/>
-      <c r="C84" s="118"/>
-      <c r="D84" s="120"/>
-      <c r="E84" s="122"/>
+      <c r="A84" s="51"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="55"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="59"/>
       <c r="F84" s="26"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="116"/>
-      <c r="B85" s="128"/>
-      <c r="C85" s="118"/>
-      <c r="D85" s="120"/>
-      <c r="E85" s="122"/>
+      <c r="A85" s="51"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="55"/>
+      <c r="D85" s="57"/>
+      <c r="E85" s="59"/>
       <c r="F85" s="26"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="115"/>
-      <c r="B86" s="129">
+      <c r="A86" s="50"/>
+      <c r="B86" s="52">
         <v>29</v>
       </c>
-      <c r="C86" s="117"/>
-      <c r="D86" s="119"/>
-      <c r="E86" s="121"/>
+      <c r="C86" s="54"/>
+      <c r="D86" s="56"/>
+      <c r="E86" s="58"/>
       <c r="F86" s="26"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="116"/>
-      <c r="B87" s="128"/>
-      <c r="C87" s="118"/>
-      <c r="D87" s="120"/>
-      <c r="E87" s="122"/>
+      <c r="A87" s="51"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="55"/>
+      <c r="D87" s="57"/>
+      <c r="E87" s="59"/>
       <c r="F87" s="26"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="116"/>
-      <c r="B88" s="128"/>
-      <c r="C88" s="118"/>
-      <c r="D88" s="120"/>
-      <c r="E88" s="122"/>
+      <c r="A88" s="51"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="55"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="59"/>
       <c r="F88" s="26"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="115"/>
-      <c r="B89" s="129">
+      <c r="A89" s="50"/>
+      <c r="B89" s="52">
         <v>30</v>
       </c>
-      <c r="C89" s="117"/>
-      <c r="D89" s="119"/>
-      <c r="E89" s="121"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="56"/>
+      <c r="E89" s="58"/>
       <c r="F89" s="26"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="116"/>
-      <c r="B90" s="128"/>
-      <c r="C90" s="118"/>
-      <c r="D90" s="120"/>
-      <c r="E90" s="122"/>
+      <c r="A90" s="51"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="57"/>
+      <c r="E90" s="59"/>
       <c r="F90" s="26"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="116"/>
-      <c r="B91" s="128"/>
-      <c r="C91" s="118"/>
-      <c r="D91" s="120"/>
-      <c r="E91" s="122"/>
+      <c r="A91" s="51"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="59"/>
       <c r="F91" s="26"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="115"/>
-      <c r="B92" s="129">
+      <c r="A92" s="50"/>
+      <c r="B92" s="52">
         <v>31</v>
       </c>
-      <c r="C92" s="117"/>
-      <c r="D92" s="119"/>
-      <c r="E92" s="121"/>
+      <c r="C92" s="54"/>
+      <c r="D92" s="56"/>
+      <c r="E92" s="58"/>
       <c r="F92" s="26"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="116"/>
-      <c r="B93" s="128"/>
-      <c r="C93" s="118"/>
-      <c r="D93" s="120"/>
-      <c r="E93" s="122"/>
+      <c r="A93" s="51"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="55"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="59"/>
       <c r="F93" s="26"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="116"/>
-      <c r="B94" s="128"/>
-      <c r="C94" s="118"/>
-      <c r="D94" s="120"/>
-      <c r="E94" s="122"/>
+      <c r="A94" s="51"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="55"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="59"/>
       <c r="F94" s="26"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="115"/>
-      <c r="B95" s="129">
+      <c r="A95" s="50"/>
+      <c r="B95" s="52">
         <v>32</v>
       </c>
-      <c r="C95" s="117"/>
-      <c r="D95" s="119"/>
-      <c r="E95" s="121"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="56"/>
+      <c r="E95" s="58"/>
       <c r="F95" s="26"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="116"/>
-      <c r="B96" s="128"/>
-      <c r="C96" s="118"/>
-      <c r="D96" s="120"/>
-      <c r="E96" s="122"/>
+      <c r="A96" s="51"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="59"/>
       <c r="F96" s="26"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="116"/>
-      <c r="B97" s="128"/>
-      <c r="C97" s="118"/>
-      <c r="D97" s="120"/>
-      <c r="E97" s="122"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="55"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="59"/>
       <c r="F97" s="26"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="115"/>
-      <c r="B98" s="129">
+      <c r="A98" s="50"/>
+      <c r="B98" s="52">
         <v>33</v>
       </c>
-      <c r="C98" s="117"/>
-      <c r="D98" s="119"/>
-      <c r="E98" s="121"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="56"/>
+      <c r="E98" s="58"/>
       <c r="F98" s="26"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="116"/>
-      <c r="B99" s="128"/>
-      <c r="C99" s="118"/>
-      <c r="D99" s="120"/>
-      <c r="E99" s="122"/>
+      <c r="A99" s="51"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="59"/>
       <c r="F99" s="26"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="116"/>
-      <c r="B100" s="128"/>
-      <c r="C100" s="118"/>
-      <c r="D100" s="120"/>
-      <c r="E100" s="122"/>
+      <c r="A100" s="51"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="59"/>
       <c r="F100" s="26"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="115"/>
-      <c r="B101" s="129">
+      <c r="A101" s="50"/>
+      <c r="B101" s="52">
         <v>34</v>
       </c>
-      <c r="C101" s="117"/>
-      <c r="D101" s="119"/>
-      <c r="E101" s="121"/>
+      <c r="C101" s="54"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="58"/>
       <c r="F101" s="26"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="116"/>
-      <c r="B102" s="128"/>
-      <c r="C102" s="118"/>
-      <c r="D102" s="120"/>
-      <c r="E102" s="122"/>
+      <c r="A102" s="51"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="55"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="59"/>
       <c r="F102" s="26"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="116"/>
-      <c r="B103" s="128"/>
-      <c r="C103" s="118"/>
-      <c r="D103" s="120"/>
-      <c r="E103" s="122"/>
+      <c r="A103" s="51"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="55"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="59"/>
       <c r="F103" s="26"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="115"/>
-      <c r="B104" s="129">
+      <c r="A104" s="50"/>
+      <c r="B104" s="52">
         <v>35</v>
       </c>
-      <c r="C104" s="117"/>
-      <c r="D104" s="119"/>
-      <c r="E104" s="121"/>
+      <c r="C104" s="54"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="58"/>
       <c r="F104" s="26"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="116"/>
-      <c r="B105" s="128"/>
-      <c r="C105" s="118"/>
-      <c r="D105" s="120"/>
-      <c r="E105" s="122"/>
+      <c r="A105" s="51"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="55"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="59"/>
       <c r="F105" s="26"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="116"/>
-      <c r="B106" s="128"/>
-      <c r="C106" s="118"/>
-      <c r="D106" s="120"/>
-      <c r="E106" s="122"/>
+      <c r="A106" s="51"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="55"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="59"/>
       <c r="F106" s="26"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="115"/>
-      <c r="B107" s="129">
+      <c r="A107" s="50"/>
+      <c r="B107" s="52">
         <v>36</v>
       </c>
-      <c r="C107" s="117"/>
-      <c r="D107" s="119"/>
-      <c r="E107" s="121"/>
+      <c r="C107" s="54"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="58"/>
       <c r="F107" s="26"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="116"/>
-      <c r="B108" s="128"/>
-      <c r="C108" s="118"/>
-      <c r="D108" s="120"/>
-      <c r="E108" s="122"/>
+      <c r="A108" s="51"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="59"/>
       <c r="F108" s="26"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="116"/>
-      <c r="B109" s="128"/>
-      <c r="C109" s="118"/>
-      <c r="D109" s="120"/>
-      <c r="E109" s="122"/>
+      <c r="A109" s="51"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="55"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="59"/>
       <c r="F109" s="26"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="115"/>
-      <c r="B110" s="129">
+      <c r="A110" s="50"/>
+      <c r="B110" s="52">
         <v>37</v>
       </c>
-      <c r="C110" s="117"/>
-      <c r="D110" s="119"/>
-      <c r="E110" s="121"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="58"/>
       <c r="F110" s="26"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="116"/>
-      <c r="B111" s="128"/>
-      <c r="C111" s="118"/>
-      <c r="D111" s="120"/>
-      <c r="E111" s="122"/>
+      <c r="A111" s="51"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="55"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="59"/>
       <c r="F111" s="26"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="116"/>
-      <c r="B112" s="128"/>
-      <c r="C112" s="118"/>
-      <c r="D112" s="120"/>
-      <c r="E112" s="122"/>
+      <c r="A112" s="51"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="55"/>
+      <c r="D112" s="57"/>
+      <c r="E112" s="59"/>
       <c r="F112" s="26"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="115"/>
-      <c r="B113" s="129">
+      <c r="A113" s="50"/>
+      <c r="B113" s="52">
         <v>38</v>
       </c>
-      <c r="C113" s="117"/>
-      <c r="D113" s="119"/>
-      <c r="E113" s="121"/>
+      <c r="C113" s="54"/>
+      <c r="D113" s="56"/>
+      <c r="E113" s="58"/>
       <c r="F113" s="26"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="116"/>
-      <c r="B114" s="128"/>
-      <c r="C114" s="118"/>
-      <c r="D114" s="120"/>
-      <c r="E114" s="122"/>
+      <c r="A114" s="51"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="55"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="59"/>
       <c r="F114" s="26"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="116"/>
-      <c r="B115" s="128"/>
-      <c r="C115" s="118"/>
-      <c r="D115" s="120"/>
-      <c r="E115" s="122"/>
+      <c r="A115" s="51"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="55"/>
+      <c r="D115" s="57"/>
+      <c r="E115" s="59"/>
       <c r="F115" s="26"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="115"/>
-      <c r="B116" s="129">
+      <c r="A116" s="50"/>
+      <c r="B116" s="52">
         <v>39</v>
       </c>
-      <c r="C116" s="117"/>
-      <c r="D116" s="119"/>
-      <c r="E116" s="121"/>
+      <c r="C116" s="54"/>
+      <c r="D116" s="56"/>
+      <c r="E116" s="58"/>
       <c r="F116" s="26"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="116"/>
-      <c r="B117" s="128"/>
-      <c r="C117" s="118"/>
-      <c r="D117" s="120"/>
-      <c r="E117" s="122"/>
+      <c r="A117" s="51"/>
+      <c r="B117" s="53"/>
+      <c r="C117" s="55"/>
+      <c r="D117" s="57"/>
+      <c r="E117" s="59"/>
       <c r="F117" s="26"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="116"/>
-      <c r="B118" s="128"/>
-      <c r="C118" s="118"/>
-      <c r="D118" s="120"/>
-      <c r="E118" s="122"/>
+      <c r="A118" s="51"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="55"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="59"/>
       <c r="F118" s="26"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="115"/>
-      <c r="B119" s="129">
+      <c r="A119" s="50"/>
+      <c r="B119" s="52">
         <v>40</v>
       </c>
-      <c r="C119" s="117"/>
-      <c r="D119" s="119"/>
-      <c r="E119" s="121"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="56"/>
+      <c r="E119" s="58"/>
       <c r="F119" s="26"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="116"/>
-      <c r="B120" s="128"/>
-      <c r="C120" s="118"/>
-      <c r="D120" s="120"/>
-      <c r="E120" s="122"/>
+      <c r="A120" s="51"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="57"/>
+      <c r="E120" s="59"/>
       <c r="F120" s="26"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="116"/>
-      <c r="B121" s="128"/>
-      <c r="C121" s="118"/>
-      <c r="D121" s="120"/>
-      <c r="E121" s="122"/>
+      <c r="A121" s="51"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="59"/>
       <c r="F121" s="26"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="115"/>
-      <c r="B122" s="129">
+      <c r="A122" s="50"/>
+      <c r="B122" s="52">
         <v>41</v>
       </c>
-      <c r="C122" s="117"/>
-      <c r="D122" s="119"/>
-      <c r="E122" s="121"/>
+      <c r="C122" s="54"/>
+      <c r="D122" s="56"/>
+      <c r="E122" s="58"/>
       <c r="F122" s="26"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="116"/>
-      <c r="B123" s="128"/>
-      <c r="C123" s="118"/>
-      <c r="D123" s="120"/>
-      <c r="E123" s="122"/>
+      <c r="A123" s="51"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="55"/>
+      <c r="D123" s="57"/>
+      <c r="E123" s="59"/>
       <c r="F123" s="26"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="116"/>
-      <c r="B124" s="128"/>
-      <c r="C124" s="118"/>
-      <c r="D124" s="120"/>
-      <c r="E124" s="122"/>
+      <c r="A124" s="51"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="55"/>
+      <c r="D124" s="57"/>
+      <c r="E124" s="59"/>
       <c r="F124" s="26"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="115"/>
-      <c r="B125" s="129">
+      <c r="A125" s="50"/>
+      <c r="B125" s="52">
         <v>42</v>
       </c>
-      <c r="C125" s="117"/>
-      <c r="D125" s="119"/>
-      <c r="E125" s="121"/>
+      <c r="C125" s="54"/>
+      <c r="D125" s="56"/>
+      <c r="E125" s="58"/>
       <c r="F125" s="26"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="116"/>
-      <c r="B126" s="128"/>
-      <c r="C126" s="118"/>
-      <c r="D126" s="120"/>
-      <c r="E126" s="122"/>
+      <c r="A126" s="51"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="55"/>
+      <c r="D126" s="57"/>
+      <c r="E126" s="59"/>
       <c r="F126" s="26"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="116"/>
-      <c r="B127" s="128"/>
-      <c r="C127" s="118"/>
-      <c r="D127" s="120"/>
-      <c r="E127" s="122"/>
+      <c r="A127" s="51"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="59"/>
       <c r="F127" s="26"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="115"/>
-      <c r="B128" s="129">
+      <c r="A128" s="50"/>
+      <c r="B128" s="52">
         <v>43</v>
       </c>
-      <c r="C128" s="117"/>
-      <c r="D128" s="119"/>
-      <c r="E128" s="121"/>
+      <c r="C128" s="54"/>
+      <c r="D128" s="56"/>
+      <c r="E128" s="58"/>
       <c r="F128" s="26"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="116"/>
-      <c r="B129" s="128"/>
-      <c r="C129" s="118"/>
-      <c r="D129" s="120"/>
-      <c r="E129" s="122"/>
+      <c r="A129" s="51"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="55"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="59"/>
       <c r="F129" s="26"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="116"/>
-      <c r="B130" s="128"/>
-      <c r="C130" s="118"/>
-      <c r="D130" s="120"/>
-      <c r="E130" s="122"/>
+      <c r="A130" s="51"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="55"/>
+      <c r="D130" s="57"/>
+      <c r="E130" s="59"/>
       <c r="F130" s="26"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="115"/>
-      <c r="B131" s="129">
+      <c r="A131" s="50"/>
+      <c r="B131" s="52">
         <v>44</v>
       </c>
-      <c r="C131" s="117"/>
-      <c r="D131" s="119"/>
-      <c r="E131" s="121"/>
+      <c r="C131" s="54"/>
+      <c r="D131" s="56"/>
+      <c r="E131" s="58"/>
       <c r="F131" s="26"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="116"/>
-      <c r="B132" s="128"/>
-      <c r="C132" s="118"/>
-      <c r="D132" s="120"/>
-      <c r="E132" s="122"/>
+      <c r="A132" s="51"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="55"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="59"/>
       <c r="F132" s="26"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="116"/>
-      <c r="B133" s="128"/>
-      <c r="C133" s="118"/>
-      <c r="D133" s="120"/>
-      <c r="E133" s="122"/>
+      <c r="A133" s="51"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="55"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="59"/>
       <c r="F133" s="26"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="115"/>
-      <c r="B134" s="129">
+      <c r="A134" s="50"/>
+      <c r="B134" s="52">
         <v>45</v>
       </c>
-      <c r="C134" s="117"/>
-      <c r="D134" s="119"/>
-      <c r="E134" s="121"/>
+      <c r="C134" s="54"/>
+      <c r="D134" s="56"/>
+      <c r="E134" s="58"/>
       <c r="F134" s="26"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="116"/>
-      <c r="B135" s="128"/>
-      <c r="C135" s="118"/>
-      <c r="D135" s="120"/>
-      <c r="E135" s="122"/>
+      <c r="A135" s="51"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="55"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="59"/>
       <c r="F135" s="26"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="116"/>
-      <c r="B136" s="128"/>
-      <c r="C136" s="118"/>
-      <c r="D136" s="120"/>
-      <c r="E136" s="122"/>
+      <c r="A136" s="51"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="55"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="59"/>
       <c r="F136" s="26"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="115"/>
-      <c r="B137" s="129">
+      <c r="A137" s="50"/>
+      <c r="B137" s="52">
         <v>46</v>
       </c>
-      <c r="C137" s="117"/>
-      <c r="D137" s="119"/>
-      <c r="E137" s="121"/>
+      <c r="C137" s="54"/>
+      <c r="D137" s="56"/>
+      <c r="E137" s="58"/>
       <c r="F137" s="26"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" s="116"/>
-      <c r="B138" s="128"/>
-      <c r="C138" s="118"/>
-      <c r="D138" s="120"/>
-      <c r="E138" s="122"/>
+      <c r="A138" s="51"/>
+      <c r="B138" s="53"/>
+      <c r="C138" s="55"/>
+      <c r="D138" s="57"/>
+      <c r="E138" s="59"/>
       <c r="F138" s="26"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="116"/>
-      <c r="B139" s="128"/>
-      <c r="C139" s="118"/>
-      <c r="D139" s="120"/>
-      <c r="E139" s="122"/>
+      <c r="A139" s="51"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="55"/>
+      <c r="D139" s="57"/>
+      <c r="E139" s="59"/>
       <c r="F139" s="26"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="115"/>
-      <c r="B140" s="129">
+      <c r="A140" s="50"/>
+      <c r="B140" s="52">
         <v>47</v>
       </c>
-      <c r="C140" s="117"/>
-      <c r="D140" s="119"/>
-      <c r="E140" s="121"/>
+      <c r="C140" s="54"/>
+      <c r="D140" s="56"/>
+      <c r="E140" s="58"/>
       <c r="F140" s="26"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="116"/>
-      <c r="B141" s="128"/>
-      <c r="C141" s="118"/>
-      <c r="D141" s="120"/>
-      <c r="E141" s="122"/>
+      <c r="A141" s="51"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="55"/>
+      <c r="D141" s="57"/>
+      <c r="E141" s="59"/>
       <c r="F141" s="26"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="116"/>
-      <c r="B142" s="128"/>
-      <c r="C142" s="118"/>
-      <c r="D142" s="120"/>
-      <c r="E142" s="122"/>
+      <c r="A142" s="51"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="55"/>
+      <c r="D142" s="57"/>
+      <c r="E142" s="59"/>
       <c r="F142" s="26"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" s="115"/>
-      <c r="B143" s="129">
+      <c r="A143" s="50"/>
+      <c r="B143" s="52">
         <v>48</v>
       </c>
-      <c r="C143" s="117"/>
-      <c r="D143" s="119"/>
-      <c r="E143" s="121"/>
+      <c r="C143" s="54"/>
+      <c r="D143" s="56"/>
+      <c r="E143" s="58"/>
       <c r="F143" s="26"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" s="116"/>
-      <c r="B144" s="128"/>
-      <c r="C144" s="118"/>
-      <c r="D144" s="120"/>
-      <c r="E144" s="122"/>
+      <c r="A144" s="51"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="55"/>
+      <c r="D144" s="57"/>
+      <c r="E144" s="59"/>
       <c r="F144" s="26"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" s="116"/>
-      <c r="B145" s="128"/>
-      <c r="C145" s="118"/>
-      <c r="D145" s="120"/>
-      <c r="E145" s="122"/>
+      <c r="A145" s="51"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="55"/>
+      <c r="D145" s="57"/>
+      <c r="E145" s="59"/>
       <c r="F145" s="26"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" s="115"/>
-      <c r="B146" s="129">
+      <c r="A146" s="50"/>
+      <c r="B146" s="52">
         <v>49</v>
       </c>
-      <c r="C146" s="117"/>
-      <c r="D146" s="119"/>
-      <c r="E146" s="121"/>
+      <c r="C146" s="54"/>
+      <c r="D146" s="56"/>
+      <c r="E146" s="58"/>
       <c r="F146" s="26"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" s="116"/>
-      <c r="B147" s="128"/>
-      <c r="C147" s="118"/>
-      <c r="D147" s="120"/>
-      <c r="E147" s="122"/>
+      <c r="A147" s="51"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="55"/>
+      <c r="D147" s="57"/>
+      <c r="E147" s="59"/>
       <c r="F147" s="26"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" s="116"/>
-      <c r="B148" s="128"/>
-      <c r="C148" s="118"/>
-      <c r="D148" s="120"/>
-      <c r="E148" s="122"/>
+      <c r="A148" s="51"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="55"/>
+      <c r="D148" s="57"/>
+      <c r="E148" s="59"/>
       <c r="F148" s="26"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" s="115"/>
-      <c r="B149" s="129">
+      <c r="A149" s="50"/>
+      <c r="B149" s="52">
         <v>50</v>
       </c>
-      <c r="C149" s="117"/>
-      <c r="D149" s="119"/>
-      <c r="E149" s="121"/>
+      <c r="C149" s="54"/>
+      <c r="D149" s="56"/>
+      <c r="E149" s="58"/>
       <c r="F149" s="26"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="116"/>
-      <c r="B150" s="128"/>
-      <c r="C150" s="118"/>
-      <c r="D150" s="120"/>
-      <c r="E150" s="122"/>
+      <c r="A150" s="51"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="55"/>
+      <c r="D150" s="57"/>
+      <c r="E150" s="59"/>
       <c r="F150" s="26"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="116"/>
-      <c r="B151" s="128"/>
-      <c r="C151" s="118"/>
-      <c r="D151" s="120"/>
-      <c r="E151" s="122"/>
+      <c r="A151" s="51"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="55"/>
+      <c r="D151" s="57"/>
+      <c r="E151" s="59"/>
       <c r="F151" s="26"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" s="115"/>
-      <c r="B152" s="129">
+      <c r="A152" s="50"/>
+      <c r="B152" s="52">
         <v>51</v>
       </c>
-      <c r="C152" s="117"/>
-      <c r="D152" s="119"/>
-      <c r="E152" s="121"/>
+      <c r="C152" s="54"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="58"/>
       <c r="F152" s="26"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" s="116"/>
-      <c r="B153" s="128"/>
-      <c r="C153" s="118"/>
-      <c r="D153" s="120"/>
-      <c r="E153" s="122"/>
+      <c r="A153" s="51"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="55"/>
+      <c r="D153" s="57"/>
+      <c r="E153" s="59"/>
       <c r="F153" s="26"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="116"/>
-      <c r="B154" s="128"/>
-      <c r="C154" s="118"/>
-      <c r="D154" s="120"/>
-      <c r="E154" s="122"/>
+      <c r="A154" s="51"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="55"/>
+      <c r="D154" s="57"/>
+      <c r="E154" s="59"/>
       <c r="F154" s="26"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="115"/>
-      <c r="B155" s="129">
+      <c r="A155" s="50"/>
+      <c r="B155" s="52">
         <v>52</v>
       </c>
-      <c r="C155" s="117"/>
-      <c r="D155" s="119"/>
-      <c r="E155" s="121"/>
+      <c r="C155" s="54"/>
+      <c r="D155" s="56"/>
+      <c r="E155" s="58"/>
       <c r="F155" s="26"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="116"/>
-      <c r="B156" s="128"/>
-      <c r="C156" s="118"/>
-      <c r="D156" s="120"/>
-      <c r="E156" s="122"/>
+      <c r="A156" s="51"/>
+      <c r="B156" s="53"/>
+      <c r="C156" s="55"/>
+      <c r="D156" s="57"/>
+      <c r="E156" s="59"/>
       <c r="F156" s="26"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="116"/>
-      <c r="B157" s="128"/>
-      <c r="C157" s="118"/>
-      <c r="D157" s="120"/>
-      <c r="E157" s="122"/>
+      <c r="A157" s="51"/>
+      <c r="B157" s="53"/>
+      <c r="C157" s="55"/>
+      <c r="D157" s="57"/>
+      <c r="E157" s="59"/>
       <c r="F157" s="26"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="115"/>
-      <c r="B158" s="129">
+      <c r="A158" s="50"/>
+      <c r="B158" s="52">
         <v>53</v>
       </c>
-      <c r="C158" s="117"/>
-      <c r="D158" s="119"/>
-      <c r="E158" s="121"/>
+      <c r="C158" s="54"/>
+      <c r="D158" s="56"/>
+      <c r="E158" s="58"/>
       <c r="F158" s="26"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="116"/>
-      <c r="B159" s="128"/>
-      <c r="C159" s="118"/>
-      <c r="D159" s="120"/>
-      <c r="E159" s="122"/>
+      <c r="A159" s="51"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="55"/>
+      <c r="D159" s="57"/>
+      <c r="E159" s="59"/>
       <c r="F159" s="26"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="116"/>
-      <c r="B160" s="128"/>
-      <c r="C160" s="118"/>
-      <c r="D160" s="120"/>
-      <c r="E160" s="122"/>
+      <c r="A160" s="51"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="55"/>
+      <c r="D160" s="57"/>
+      <c r="E160" s="59"/>
       <c r="F160" s="26"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" s="115"/>
-      <c r="B161" s="129">
+      <c r="A161" s="50"/>
+      <c r="B161" s="52">
         <v>54</v>
       </c>
-      <c r="C161" s="117"/>
-      <c r="D161" s="119"/>
-      <c r="E161" s="121"/>
+      <c r="C161" s="54"/>
+      <c r="D161" s="56"/>
+      <c r="E161" s="58"/>
       <c r="F161" s="26"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" s="116"/>
-      <c r="B162" s="128"/>
-      <c r="C162" s="118"/>
-      <c r="D162" s="120"/>
-      <c r="E162" s="122"/>
+      <c r="A162" s="51"/>
+      <c r="B162" s="53"/>
+      <c r="C162" s="55"/>
+      <c r="D162" s="57"/>
+      <c r="E162" s="59"/>
       <c r="F162" s="26"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A163" s="116"/>
-      <c r="B163" s="128"/>
-      <c r="C163" s="118"/>
-      <c r="D163" s="120"/>
-      <c r="E163" s="122"/>
+      <c r="A163" s="51"/>
+      <c r="B163" s="53"/>
+      <c r="C163" s="55"/>
+      <c r="D163" s="57"/>
+      <c r="E163" s="59"/>
       <c r="F163" s="26"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A164" s="115"/>
-      <c r="B164" s="129">
+      <c r="A164" s="50"/>
+      <c r="B164" s="52">
         <v>55</v>
       </c>
-      <c r="C164" s="117"/>
-      <c r="D164" s="119"/>
-      <c r="E164" s="121"/>
+      <c r="C164" s="54"/>
+      <c r="D164" s="56"/>
+      <c r="E164" s="58"/>
       <c r="F164" s="26"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A165" s="116"/>
-      <c r="B165" s="128"/>
-      <c r="C165" s="118"/>
-      <c r="D165" s="120"/>
-      <c r="E165" s="122"/>
+      <c r="A165" s="51"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="55"/>
+      <c r="D165" s="57"/>
+      <c r="E165" s="59"/>
       <c r="F165" s="26"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A166" s="116"/>
-      <c r="B166" s="128"/>
-      <c r="C166" s="118"/>
-      <c r="D166" s="120"/>
-      <c r="E166" s="122"/>
+      <c r="A166" s="51"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="55"/>
+      <c r="D166" s="57"/>
+      <c r="E166" s="59"/>
       <c r="F166" s="26"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A167" s="115"/>
-      <c r="B167" s="129">
+      <c r="A167" s="50"/>
+      <c r="B167" s="52">
         <v>56</v>
       </c>
-      <c r="C167" s="117"/>
-      <c r="D167" s="119"/>
-      <c r="E167" s="121"/>
+      <c r="C167" s="54"/>
+      <c r="D167" s="56"/>
+      <c r="E167" s="58"/>
       <c r="F167" s="26"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A168" s="116"/>
-      <c r="B168" s="128"/>
-      <c r="C168" s="118"/>
-      <c r="D168" s="120"/>
-      <c r="E168" s="122"/>
+      <c r="A168" s="51"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="55"/>
+      <c r="D168" s="57"/>
+      <c r="E168" s="59"/>
       <c r="F168" s="26"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A169" s="116"/>
-      <c r="B169" s="128"/>
-      <c r="C169" s="118"/>
-      <c r="D169" s="120"/>
-      <c r="E169" s="122"/>
+      <c r="A169" s="51"/>
+      <c r="B169" s="53"/>
+      <c r="C169" s="55"/>
+      <c r="D169" s="57"/>
+      <c r="E169" s="59"/>
       <c r="F169" s="26"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A170" s="115"/>
-      <c r="B170" s="129">
+      <c r="A170" s="50"/>
+      <c r="B170" s="52">
         <v>57</v>
       </c>
-      <c r="C170" s="117"/>
-      <c r="D170" s="119"/>
-      <c r="E170" s="121"/>
+      <c r="C170" s="54"/>
+      <c r="D170" s="56"/>
+      <c r="E170" s="58"/>
       <c r="F170" s="26"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A171" s="116"/>
-      <c r="B171" s="128"/>
-      <c r="C171" s="118"/>
-      <c r="D171" s="120"/>
-      <c r="E171" s="122"/>
+      <c r="A171" s="51"/>
+      <c r="B171" s="53"/>
+      <c r="C171" s="55"/>
+      <c r="D171" s="57"/>
+      <c r="E171" s="59"/>
       <c r="F171" s="26"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A172" s="116"/>
-      <c r="B172" s="128"/>
-      <c r="C172" s="118"/>
-      <c r="D172" s="120"/>
-      <c r="E172" s="122"/>
+      <c r="A172" s="51"/>
+      <c r="B172" s="53"/>
+      <c r="C172" s="55"/>
+      <c r="D172" s="57"/>
+      <c r="E172" s="59"/>
       <c r="F172" s="26"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A173" s="115"/>
-      <c r="B173" s="129">
+      <c r="A173" s="50"/>
+      <c r="B173" s="52">
         <v>58</v>
       </c>
-      <c r="C173" s="117"/>
-      <c r="D173" s="119"/>
-      <c r="E173" s="121"/>
+      <c r="C173" s="54"/>
+      <c r="D173" s="56"/>
+      <c r="E173" s="58"/>
       <c r="F173" s="26"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A174" s="116"/>
-      <c r="B174" s="128"/>
-      <c r="C174" s="118"/>
-      <c r="D174" s="120"/>
-      <c r="E174" s="122"/>
+      <c r="A174" s="51"/>
+      <c r="B174" s="53"/>
+      <c r="C174" s="55"/>
+      <c r="D174" s="57"/>
+      <c r="E174" s="59"/>
       <c r="F174" s="26"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A175" s="116"/>
-      <c r="B175" s="128"/>
-      <c r="C175" s="118"/>
-      <c r="D175" s="120"/>
-      <c r="E175" s="122"/>
+      <c r="A175" s="51"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="55"/>
+      <c r="D175" s="57"/>
+      <c r="E175" s="59"/>
       <c r="F175" s="26"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A176" s="115"/>
-      <c r="B176" s="129">
+      <c r="A176" s="50"/>
+      <c r="B176" s="52">
         <v>59</v>
       </c>
-      <c r="C176" s="117"/>
-      <c r="D176" s="119"/>
-      <c r="E176" s="121"/>
+      <c r="C176" s="54"/>
+      <c r="D176" s="56"/>
+      <c r="E176" s="58"/>
       <c r="F176" s="26"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A177" s="116"/>
-      <c r="B177" s="128"/>
-      <c r="C177" s="118"/>
-      <c r="D177" s="120"/>
-      <c r="E177" s="122"/>
+      <c r="A177" s="51"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="55"/>
+      <c r="D177" s="57"/>
+      <c r="E177" s="59"/>
       <c r="F177" s="26"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A178" s="116"/>
-      <c r="B178" s="128"/>
-      <c r="C178" s="118"/>
-      <c r="D178" s="120"/>
-      <c r="E178" s="122"/>
+      <c r="A178" s="51"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="55"/>
+      <c r="D178" s="57"/>
+      <c r="E178" s="59"/>
       <c r="F178" s="26"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A179" s="115"/>
-      <c r="B179" s="129">
+      <c r="A179" s="50"/>
+      <c r="B179" s="52">
         <v>60</v>
       </c>
-      <c r="C179" s="117"/>
-      <c r="D179" s="119"/>
-      <c r="E179" s="121"/>
+      <c r="C179" s="54"/>
+      <c r="D179" s="56"/>
+      <c r="E179" s="58"/>
       <c r="F179" s="26"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A180" s="116"/>
-      <c r="B180" s="128"/>
-      <c r="C180" s="118"/>
-      <c r="D180" s="120"/>
-      <c r="E180" s="122"/>
+      <c r="A180" s="51"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="55"/>
+      <c r="D180" s="57"/>
+      <c r="E180" s="59"/>
       <c r="F180" s="26"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A181" s="116"/>
-      <c r="B181" s="128"/>
-      <c r="C181" s="118"/>
-      <c r="D181" s="120"/>
-      <c r="E181" s="122"/>
+      <c r="A181" s="51"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="55"/>
+      <c r="D181" s="57"/>
+      <c r="E181" s="59"/>
       <c r="F181" s="26"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A182" s="115"/>
-      <c r="B182" s="129">
+      <c r="A182" s="50"/>
+      <c r="B182" s="52">
         <v>61</v>
       </c>
-      <c r="C182" s="117"/>
-      <c r="D182" s="119"/>
-      <c r="E182" s="121"/>
+      <c r="C182" s="54"/>
+      <c r="D182" s="56"/>
+      <c r="E182" s="58"/>
       <c r="F182" s="26"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A183" s="116"/>
-      <c r="B183" s="128"/>
-      <c r="C183" s="118"/>
-      <c r="D183" s="120"/>
-      <c r="E183" s="122"/>
+      <c r="A183" s="51"/>
+      <c r="B183" s="53"/>
+      <c r="C183" s="55"/>
+      <c r="D183" s="57"/>
+      <c r="E183" s="59"/>
       <c r="F183" s="26"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A184" s="116"/>
-      <c r="B184" s="128"/>
-      <c r="C184" s="118"/>
-      <c r="D184" s="120"/>
-      <c r="E184" s="122"/>
+      <c r="A184" s="51"/>
+      <c r="B184" s="53"/>
+      <c r="C184" s="55"/>
+      <c r="D184" s="57"/>
+      <c r="E184" s="59"/>
       <c r="F184" s="26"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A185" s="115"/>
-      <c r="B185" s="129">
+      <c r="A185" s="50"/>
+      <c r="B185" s="52">
         <v>62</v>
       </c>
-      <c r="C185" s="117"/>
-      <c r="D185" s="119"/>
-      <c r="E185" s="121"/>
+      <c r="C185" s="54"/>
+      <c r="D185" s="56"/>
+      <c r="E185" s="58"/>
       <c r="F185" s="26"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A186" s="116"/>
-      <c r="B186" s="128"/>
-      <c r="C186" s="118"/>
-      <c r="D186" s="120"/>
-      <c r="E186" s="122"/>
+      <c r="A186" s="51"/>
+      <c r="B186" s="53"/>
+      <c r="C186" s="55"/>
+      <c r="D186" s="57"/>
+      <c r="E186" s="59"/>
       <c r="F186" s="26"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A187" s="116"/>
-      <c r="B187" s="128"/>
-      <c r="C187" s="118"/>
-      <c r="D187" s="120"/>
-      <c r="E187" s="122"/>
+      <c r="A187" s="51"/>
+      <c r="B187" s="53"/>
+      <c r="C187" s="55"/>
+      <c r="D187" s="57"/>
+      <c r="E187" s="59"/>
       <c r="F187" s="26"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A188" s="115"/>
-      <c r="B188" s="129">
+      <c r="A188" s="50"/>
+      <c r="B188" s="52">
         <v>63</v>
       </c>
-      <c r="C188" s="117"/>
-      <c r="D188" s="119"/>
-      <c r="E188" s="121"/>
+      <c r="C188" s="54"/>
+      <c r="D188" s="56"/>
+      <c r="E188" s="58"/>
       <c r="F188" s="26"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A189" s="116"/>
-      <c r="B189" s="128"/>
-      <c r="C189" s="118"/>
-      <c r="D189" s="120"/>
-      <c r="E189" s="122"/>
+      <c r="A189" s="51"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="55"/>
+      <c r="D189" s="57"/>
+      <c r="E189" s="59"/>
       <c r="F189" s="26"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A190" s="116"/>
-      <c r="B190" s="128"/>
-      <c r="C190" s="118"/>
-      <c r="D190" s="120"/>
-      <c r="E190" s="122"/>
+      <c r="A190" s="51"/>
+      <c r="B190" s="53"/>
+      <c r="C190" s="55"/>
+      <c r="D190" s="57"/>
+      <c r="E190" s="59"/>
       <c r="F190" s="26"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A191" s="115"/>
-      <c r="B191" s="129">
+      <c r="A191" s="50"/>
+      <c r="B191" s="52">
         <v>64</v>
       </c>
-      <c r="C191" s="117"/>
-      <c r="D191" s="119"/>
-      <c r="E191" s="121"/>
+      <c r="C191" s="54"/>
+      <c r="D191" s="56"/>
+      <c r="E191" s="58"/>
       <c r="F191" s="26"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A192" s="116"/>
-      <c r="B192" s="128"/>
-      <c r="C192" s="118"/>
-      <c r="D192" s="120"/>
-      <c r="E192" s="122"/>
+      <c r="A192" s="51"/>
+      <c r="B192" s="53"/>
+      <c r="C192" s="55"/>
+      <c r="D192" s="57"/>
+      <c r="E192" s="59"/>
       <c r="F192" s="26"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A193" s="116"/>
-      <c r="B193" s="128"/>
-      <c r="C193" s="118"/>
-      <c r="D193" s="120"/>
-      <c r="E193" s="122"/>
+      <c r="A193" s="51"/>
+      <c r="B193" s="53"/>
+      <c r="C193" s="55"/>
+      <c r="D193" s="57"/>
+      <c r="E193" s="59"/>
       <c r="F193" s="26"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A194" s="115"/>
-      <c r="B194" s="129">
+      <c r="A194" s="50"/>
+      <c r="B194" s="52">
         <v>65</v>
       </c>
-      <c r="C194" s="117"/>
-      <c r="D194" s="119"/>
-      <c r="E194" s="121"/>
+      <c r="C194" s="54"/>
+      <c r="D194" s="56"/>
+      <c r="E194" s="58"/>
       <c r="F194" s="26"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A195" s="116"/>
-      <c r="B195" s="128"/>
-      <c r="C195" s="118"/>
-      <c r="D195" s="120"/>
-      <c r="E195" s="122"/>
+      <c r="A195" s="51"/>
+      <c r="B195" s="53"/>
+      <c r="C195" s="55"/>
+      <c r="D195" s="57"/>
+      <c r="E195" s="59"/>
       <c r="F195" s="26"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" s="116"/>
-      <c r="B196" s="128"/>
-      <c r="C196" s="118"/>
-      <c r="D196" s="120"/>
-      <c r="E196" s="122"/>
+      <c r="A196" s="51"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="55"/>
+      <c r="D196" s="57"/>
+      <c r="E196" s="59"/>
       <c r="F196" s="26"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A197" s="115"/>
-      <c r="B197" s="129">
+      <c r="A197" s="50"/>
+      <c r="B197" s="52">
         <v>66</v>
       </c>
-      <c r="C197" s="117"/>
-      <c r="D197" s="119"/>
-      <c r="E197" s="121"/>
+      <c r="C197" s="54"/>
+      <c r="D197" s="56"/>
+      <c r="E197" s="58"/>
       <c r="F197" s="26"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" s="116"/>
-      <c r="B198" s="128"/>
-      <c r="C198" s="118"/>
-      <c r="D198" s="120"/>
-      <c r="E198" s="122"/>
+      <c r="A198" s="51"/>
+      <c r="B198" s="53"/>
+      <c r="C198" s="55"/>
+      <c r="D198" s="57"/>
+      <c r="E198" s="59"/>
       <c r="F198" s="26"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A199" s="116"/>
-      <c r="B199" s="128"/>
-      <c r="C199" s="118"/>
-      <c r="D199" s="120"/>
-      <c r="E199" s="122"/>
+      <c r="A199" s="51"/>
+      <c r="B199" s="53"/>
+      <c r="C199" s="55"/>
+      <c r="D199" s="57"/>
+      <c r="E199" s="59"/>
       <c r="F199" s="26"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A200" s="115"/>
-      <c r="B200" s="129">
+      <c r="A200" s="50"/>
+      <c r="B200" s="52">
         <v>67</v>
       </c>
-      <c r="C200" s="117"/>
-      <c r="D200" s="119"/>
-      <c r="E200" s="121"/>
+      <c r="C200" s="54"/>
+      <c r="D200" s="56"/>
+      <c r="E200" s="58"/>
       <c r="F200" s="26"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A201" s="116"/>
-      <c r="B201" s="128"/>
-      <c r="C201" s="118"/>
-      <c r="D201" s="120"/>
-      <c r="E201" s="122"/>
+      <c r="A201" s="51"/>
+      <c r="B201" s="53"/>
+      <c r="C201" s="55"/>
+      <c r="D201" s="57"/>
+      <c r="E201" s="59"/>
       <c r="F201" s="26"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A202" s="116"/>
-      <c r="B202" s="128"/>
-      <c r="C202" s="118"/>
-      <c r="D202" s="120"/>
-      <c r="E202" s="122"/>
+      <c r="A202" s="51"/>
+      <c r="B202" s="53"/>
+      <c r="C202" s="55"/>
+      <c r="D202" s="57"/>
+      <c r="E202" s="59"/>
       <c r="F202" s="26"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A203" s="115"/>
-      <c r="B203" s="129">
+      <c r="A203" s="50"/>
+      <c r="B203" s="52">
         <v>68</v>
       </c>
-      <c r="C203" s="117"/>
-      <c r="D203" s="119"/>
-      <c r="E203" s="121"/>
+      <c r="C203" s="54"/>
+      <c r="D203" s="56"/>
+      <c r="E203" s="58"/>
       <c r="F203" s="26"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A204" s="116"/>
-      <c r="B204" s="128"/>
-      <c r="C204" s="118"/>
-      <c r="D204" s="120"/>
-      <c r="E204" s="122"/>
+      <c r="A204" s="51"/>
+      <c r="B204" s="53"/>
+      <c r="C204" s="55"/>
+      <c r="D204" s="57"/>
+      <c r="E204" s="59"/>
       <c r="F204" s="26"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A205" s="116"/>
-      <c r="B205" s="128"/>
-      <c r="C205" s="118"/>
-      <c r="D205" s="120"/>
-      <c r="E205" s="122"/>
+      <c r="A205" s="51"/>
+      <c r="B205" s="53"/>
+      <c r="C205" s="55"/>
+      <c r="D205" s="57"/>
+      <c r="E205" s="59"/>
       <c r="F205" s="26"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A206" s="115"/>
-      <c r="B206" s="129">
+      <c r="A206" s="50"/>
+      <c r="B206" s="52">
         <v>69</v>
       </c>
-      <c r="C206" s="117"/>
-      <c r="D206" s="119"/>
-      <c r="E206" s="121"/>
+      <c r="C206" s="54"/>
+      <c r="D206" s="56"/>
+      <c r="E206" s="58"/>
       <c r="F206" s="26"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A207" s="116"/>
-      <c r="B207" s="128"/>
-      <c r="C207" s="118"/>
-      <c r="D207" s="120"/>
-      <c r="E207" s="122"/>
+      <c r="A207" s="51"/>
+      <c r="B207" s="53"/>
+      <c r="C207" s="55"/>
+      <c r="D207" s="57"/>
+      <c r="E207" s="59"/>
       <c r="F207" s="26"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A208" s="116"/>
-      <c r="B208" s="128"/>
-      <c r="C208" s="118"/>
-      <c r="D208" s="120"/>
-      <c r="E208" s="122"/>
+      <c r="A208" s="51"/>
+      <c r="B208" s="53"/>
+      <c r="C208" s="55"/>
+      <c r="D208" s="57"/>
+      <c r="E208" s="59"/>
       <c r="F208" s="26"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A209" s="115"/>
-      <c r="B209" s="129">
+      <c r="A209" s="50"/>
+      <c r="B209" s="52">
         <v>70</v>
       </c>
-      <c r="C209" s="117"/>
-      <c r="D209" s="119"/>
-      <c r="E209" s="121"/>
+      <c r="C209" s="54"/>
+      <c r="D209" s="56"/>
+      <c r="E209" s="58"/>
       <c r="F209" s="26"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A210" s="116"/>
-      <c r="B210" s="128"/>
-      <c r="C210" s="118"/>
-      <c r="D210" s="120"/>
-      <c r="E210" s="122"/>
+      <c r="A210" s="51"/>
+      <c r="B210" s="53"/>
+      <c r="C210" s="55"/>
+      <c r="D210" s="57"/>
+      <c r="E210" s="59"/>
       <c r="F210" s="26"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A211" s="116"/>
-      <c r="B211" s="128"/>
-      <c r="C211" s="118"/>
-      <c r="D211" s="120"/>
-      <c r="E211" s="122"/>
+      <c r="A211" s="51"/>
+      <c r="B211" s="53"/>
+      <c r="C211" s="55"/>
+      <c r="D211" s="57"/>
+      <c r="E211" s="59"/>
       <c r="F211" s="26"/>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A212" s="115"/>
-      <c r="B212" s="129">
+      <c r="A212" s="50"/>
+      <c r="B212" s="52">
         <v>71</v>
       </c>
-      <c r="C212" s="117"/>
-      <c r="D212" s="119"/>
-      <c r="E212" s="121"/>
+      <c r="C212" s="54"/>
+      <c r="D212" s="56"/>
+      <c r="E212" s="58"/>
       <c r="F212" s="26"/>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A213" s="116"/>
-      <c r="B213" s="128"/>
-      <c r="C213" s="118"/>
-      <c r="D213" s="120"/>
-      <c r="E213" s="122"/>
+      <c r="A213" s="51"/>
+      <c r="B213" s="53"/>
+      <c r="C213" s="55"/>
+      <c r="D213" s="57"/>
+      <c r="E213" s="59"/>
       <c r="F213" s="26"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A214" s="116"/>
-      <c r="B214" s="128"/>
-      <c r="C214" s="118"/>
-      <c r="D214" s="120"/>
-      <c r="E214" s="122"/>
+      <c r="A214" s="51"/>
+      <c r="B214" s="53"/>
+      <c r="C214" s="55"/>
+      <c r="D214" s="57"/>
+      <c r="E214" s="59"/>
       <c r="F214" s="26"/>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A215" s="115"/>
-      <c r="B215" s="129">
+      <c r="A215" s="50"/>
+      <c r="B215" s="52">
         <v>72</v>
       </c>
-      <c r="C215" s="117"/>
-      <c r="D215" s="119"/>
-      <c r="E215" s="121"/>
+      <c r="C215" s="54"/>
+      <c r="D215" s="56"/>
+      <c r="E215" s="58"/>
       <c r="F215" s="26"/>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A216" s="116"/>
-      <c r="B216" s="128"/>
-      <c r="C216" s="118"/>
-      <c r="D216" s="120"/>
-      <c r="E216" s="122"/>
+      <c r="A216" s="51"/>
+      <c r="B216" s="53"/>
+      <c r="C216" s="55"/>
+      <c r="D216" s="57"/>
+      <c r="E216" s="59"/>
       <c r="F216" s="26"/>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A217" s="116"/>
-      <c r="B217" s="128"/>
-      <c r="C217" s="118"/>
-      <c r="D217" s="120"/>
-      <c r="E217" s="122"/>
+      <c r="A217" s="51"/>
+      <c r="B217" s="53"/>
+      <c r="C217" s="55"/>
+      <c r="D217" s="57"/>
+      <c r="E217" s="59"/>
       <c r="F217" s="26"/>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A218" s="115"/>
-      <c r="B218" s="129">
+      <c r="A218" s="50"/>
+      <c r="B218" s="52">
         <v>73</v>
       </c>
-      <c r="C218" s="117"/>
-      <c r="D218" s="119"/>
-      <c r="E218" s="121"/>
+      <c r="C218" s="54"/>
+      <c r="D218" s="56"/>
+      <c r="E218" s="58"/>
       <c r="F218" s="26"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A219" s="116"/>
-      <c r="B219" s="128"/>
-      <c r="C219" s="118"/>
-      <c r="D219" s="120"/>
-      <c r="E219" s="122"/>
+      <c r="A219" s="51"/>
+      <c r="B219" s="53"/>
+      <c r="C219" s="55"/>
+      <c r="D219" s="57"/>
+      <c r="E219" s="59"/>
       <c r="F219" s="26"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A220" s="116"/>
-      <c r="B220" s="128"/>
-      <c r="C220" s="118"/>
-      <c r="D220" s="120"/>
-      <c r="E220" s="122"/>
+      <c r="A220" s="51"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="55"/>
+      <c r="D220" s="57"/>
+      <c r="E220" s="59"/>
       <c r="F220" s="26"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A221" s="115"/>
-      <c r="B221" s="129">
+      <c r="A221" s="50"/>
+      <c r="B221" s="52">
         <v>74</v>
       </c>
-      <c r="C221" s="117"/>
-      <c r="D221" s="119"/>
-      <c r="E221" s="121"/>
+      <c r="C221" s="54"/>
+      <c r="D221" s="56"/>
+      <c r="E221" s="58"/>
       <c r="F221" s="26"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A222" s="116"/>
-      <c r="B222" s="128"/>
-      <c r="C222" s="118"/>
-      <c r="D222" s="120"/>
-      <c r="E222" s="122"/>
+      <c r="A222" s="51"/>
+      <c r="B222" s="53"/>
+      <c r="C222" s="55"/>
+      <c r="D222" s="57"/>
+      <c r="E222" s="59"/>
       <c r="F222" s="26"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A223" s="116"/>
-      <c r="B223" s="128"/>
-      <c r="C223" s="118"/>
-      <c r="D223" s="120"/>
-      <c r="E223" s="122"/>
+      <c r="A223" s="51"/>
+      <c r="B223" s="53"/>
+      <c r="C223" s="55"/>
+      <c r="D223" s="57"/>
+      <c r="E223" s="59"/>
       <c r="F223" s="26"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A224" s="115"/>
-      <c r="B224" s="129">
+      <c r="A224" s="50"/>
+      <c r="B224" s="52">
         <v>75</v>
       </c>
-      <c r="C224" s="117"/>
-      <c r="D224" s="119"/>
-      <c r="E224" s="121"/>
+      <c r="C224" s="54"/>
+      <c r="D224" s="56"/>
+      <c r="E224" s="58"/>
       <c r="F224" s="26"/>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A225" s="116"/>
-      <c r="B225" s="128"/>
-      <c r="C225" s="118"/>
-      <c r="D225" s="120"/>
-      <c r="E225" s="122"/>
+      <c r="A225" s="51"/>
+      <c r="B225" s="53"/>
+      <c r="C225" s="55"/>
+      <c r="D225" s="57"/>
+      <c r="E225" s="59"/>
       <c r="F225" s="26"/>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A226" s="116"/>
-      <c r="B226" s="128"/>
-      <c r="C226" s="118"/>
-      <c r="D226" s="120"/>
-      <c r="E226" s="122"/>
+      <c r="A226" s="51"/>
+      <c r="B226" s="53"/>
+      <c r="C226" s="55"/>
+      <c r="D226" s="57"/>
+      <c r="E226" s="59"/>
       <c r="F226" s="26"/>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A227" s="115"/>
-      <c r="B227" s="129">
+      <c r="A227" s="50"/>
+      <c r="B227" s="52">
         <v>76</v>
       </c>
-      <c r="C227" s="117"/>
-      <c r="D227" s="119"/>
-      <c r="E227" s="121"/>
+      <c r="C227" s="54"/>
+      <c r="D227" s="56"/>
+      <c r="E227" s="58"/>
       <c r="F227" s="26"/>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A228" s="116"/>
-      <c r="B228" s="128"/>
-      <c r="C228" s="118"/>
-      <c r="D228" s="120"/>
-      <c r="E228" s="122"/>
+      <c r="A228" s="51"/>
+      <c r="B228" s="53"/>
+      <c r="C228" s="55"/>
+      <c r="D228" s="57"/>
+      <c r="E228" s="59"/>
       <c r="F228" s="26"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A229" s="116"/>
-      <c r="B229" s="128"/>
-      <c r="C229" s="118"/>
-      <c r="D229" s="120"/>
-      <c r="E229" s="122"/>
+      <c r="A229" s="51"/>
+      <c r="B229" s="53"/>
+      <c r="C229" s="55"/>
+      <c r="D229" s="57"/>
+      <c r="E229" s="59"/>
       <c r="F229" s="26"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A230" s="115"/>
-      <c r="B230" s="129">
+      <c r="A230" s="50"/>
+      <c r="B230" s="52">
         <v>77</v>
       </c>
-      <c r="C230" s="117"/>
-      <c r="D230" s="119"/>
-      <c r="E230" s="121"/>
+      <c r="C230" s="54"/>
+      <c r="D230" s="56"/>
+      <c r="E230" s="58"/>
       <c r="F230" s="26"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A231" s="116"/>
-      <c r="B231" s="128"/>
-      <c r="C231" s="118"/>
-      <c r="D231" s="120"/>
-      <c r="E231" s="122"/>
+      <c r="A231" s="51"/>
+      <c r="B231" s="53"/>
+      <c r="C231" s="55"/>
+      <c r="D231" s="57"/>
+      <c r="E231" s="59"/>
       <c r="F231" s="26"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A232" s="116"/>
-      <c r="B232" s="128"/>
-      <c r="C232" s="118"/>
-      <c r="D232" s="120"/>
-      <c r="E232" s="122"/>
+      <c r="A232" s="51"/>
+      <c r="B232" s="53"/>
+      <c r="C232" s="55"/>
+      <c r="D232" s="57"/>
+      <c r="E232" s="59"/>
       <c r="F232" s="26"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A233" s="115"/>
-      <c r="B233" s="129">
+      <c r="A233" s="50"/>
+      <c r="B233" s="52">
         <v>78</v>
       </c>
-      <c r="C233" s="117"/>
-      <c r="D233" s="119"/>
-      <c r="E233" s="121"/>
+      <c r="C233" s="54"/>
+      <c r="D233" s="56"/>
+      <c r="E233" s="58"/>
       <c r="F233" s="26"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A234" s="116"/>
-      <c r="B234" s="128"/>
-      <c r="C234" s="118"/>
-      <c r="D234" s="120"/>
-      <c r="E234" s="122"/>
+      <c r="A234" s="51"/>
+      <c r="B234" s="53"/>
+      <c r="C234" s="55"/>
+      <c r="D234" s="57"/>
+      <c r="E234" s="59"/>
       <c r="F234" s="26"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A235" s="116"/>
-      <c r="B235" s="128"/>
-      <c r="C235" s="118"/>
-      <c r="D235" s="120"/>
-      <c r="E235" s="122"/>
+      <c r="A235" s="51"/>
+      <c r="B235" s="53"/>
+      <c r="C235" s="55"/>
+      <c r="D235" s="57"/>
+      <c r="E235" s="59"/>
       <c r="F235" s="26"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A236" s="115"/>
-      <c r="B236" s="129">
+      <c r="A236" s="50"/>
+      <c r="B236" s="52">
         <v>79</v>
       </c>
-      <c r="C236" s="117"/>
-      <c r="D236" s="119"/>
-      <c r="E236" s="121"/>
+      <c r="C236" s="54"/>
+      <c r="D236" s="56"/>
+      <c r="E236" s="58"/>
       <c r="F236" s="26"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A237" s="116"/>
-      <c r="B237" s="128"/>
-      <c r="C237" s="118"/>
-      <c r="D237" s="120"/>
-      <c r="E237" s="122"/>
+      <c r="A237" s="51"/>
+      <c r="B237" s="53"/>
+      <c r="C237" s="55"/>
+      <c r="D237" s="57"/>
+      <c r="E237" s="59"/>
       <c r="F237" s="26"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A238" s="116"/>
-      <c r="B238" s="128"/>
-      <c r="C238" s="118"/>
-      <c r="D238" s="120"/>
-      <c r="E238" s="122"/>
+      <c r="A238" s="51"/>
+      <c r="B238" s="53"/>
+      <c r="C238" s="55"/>
+      <c r="D238" s="57"/>
+      <c r="E238" s="59"/>
       <c r="F238" s="26"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A239" s="115"/>
-      <c r="B239" s="129">
+      <c r="A239" s="50"/>
+      <c r="B239" s="52">
         <v>80</v>
       </c>
-      <c r="C239" s="117"/>
-      <c r="D239" s="119"/>
-      <c r="E239" s="121"/>
+      <c r="C239" s="54"/>
+      <c r="D239" s="56"/>
+      <c r="E239" s="58"/>
       <c r="F239" s="26"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A240" s="116"/>
-      <c r="B240" s="128"/>
-      <c r="C240" s="118"/>
-      <c r="D240" s="120"/>
-      <c r="E240" s="122"/>
+      <c r="A240" s="51"/>
+      <c r="B240" s="53"/>
+      <c r="C240" s="55"/>
+      <c r="D240" s="57"/>
+      <c r="E240" s="59"/>
       <c r="F240" s="26"/>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A241" s="116"/>
-      <c r="B241" s="128"/>
-      <c r="C241" s="118"/>
-      <c r="D241" s="120"/>
-      <c r="E241" s="122"/>
+      <c r="A241" s="51"/>
+      <c r="B241" s="53"/>
+      <c r="C241" s="55"/>
+      <c r="D241" s="57"/>
+      <c r="E241" s="59"/>
       <c r="F241" s="26"/>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A242" s="115"/>
-      <c r="B242" s="129">
+      <c r="A242" s="50"/>
+      <c r="B242" s="52">
         <v>81</v>
       </c>
-      <c r="C242" s="117"/>
-      <c r="D242" s="119"/>
-      <c r="E242" s="121"/>
+      <c r="C242" s="54"/>
+      <c r="D242" s="56"/>
+      <c r="E242" s="58"/>
       <c r="F242" s="26"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A243" s="116"/>
-      <c r="B243" s="128"/>
-      <c r="C243" s="118"/>
-      <c r="D243" s="120"/>
-      <c r="E243" s="122"/>
+      <c r="A243" s="51"/>
+      <c r="B243" s="53"/>
+      <c r="C243" s="55"/>
+      <c r="D243" s="57"/>
+      <c r="E243" s="59"/>
       <c r="F243" s="26"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A244" s="116"/>
-      <c r="B244" s="128"/>
-      <c r="C244" s="118"/>
-      <c r="D244" s="120"/>
-      <c r="E244" s="122"/>
+      <c r="A244" s="51"/>
+      <c r="B244" s="53"/>
+      <c r="C244" s="55"/>
+      <c r="D244" s="57"/>
+      <c r="E244" s="59"/>
       <c r="F244" s="26"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A245" s="115"/>
-      <c r="B245" s="129">
+      <c r="A245" s="50"/>
+      <c r="B245" s="52">
         <v>82</v>
       </c>
-      <c r="C245" s="117"/>
-      <c r="D245" s="119"/>
-      <c r="E245" s="121"/>
+      <c r="C245" s="54"/>
+      <c r="D245" s="56"/>
+      <c r="E245" s="58"/>
       <c r="F245" s="26"/>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A246" s="116"/>
-      <c r="B246" s="128"/>
-      <c r="C246" s="118"/>
-      <c r="D246" s="120"/>
-      <c r="E246" s="122"/>
+      <c r="A246" s="51"/>
+      <c r="B246" s="53"/>
+      <c r="C246" s="55"/>
+      <c r="D246" s="57"/>
+      <c r="E246" s="59"/>
       <c r="F246" s="26"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A247" s="116"/>
-      <c r="B247" s="128"/>
-      <c r="C247" s="118"/>
-      <c r="D247" s="120"/>
-      <c r="E247" s="122"/>
+      <c r="A247" s="51"/>
+      <c r="B247" s="53"/>
+      <c r="C247" s="55"/>
+      <c r="D247" s="57"/>
+      <c r="E247" s="59"/>
       <c r="F247" s="26"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A248" s="115"/>
-      <c r="B248" s="129">
+      <c r="A248" s="50"/>
+      <c r="B248" s="52">
         <v>83</v>
       </c>
-      <c r="C248" s="117"/>
-      <c r="D248" s="119"/>
-      <c r="E248" s="121"/>
+      <c r="C248" s="54"/>
+      <c r="D248" s="56"/>
+      <c r="E248" s="58"/>
       <c r="F248" s="26"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A249" s="116"/>
-      <c r="B249" s="128"/>
-      <c r="C249" s="118"/>
-      <c r="D249" s="120"/>
-      <c r="E249" s="122"/>
+      <c r="A249" s="51"/>
+      <c r="B249" s="53"/>
+      <c r="C249" s="55"/>
+      <c r="D249" s="57"/>
+      <c r="E249" s="59"/>
       <c r="F249" s="26"/>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A250" s="116"/>
-      <c r="B250" s="128"/>
-      <c r="C250" s="118"/>
-      <c r="D250" s="120"/>
-      <c r="E250" s="122"/>
+      <c r="A250" s="51"/>
+      <c r="B250" s="53"/>
+      <c r="C250" s="55"/>
+      <c r="D250" s="57"/>
+      <c r="E250" s="59"/>
       <c r="F250" s="26"/>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A251" s="115"/>
-      <c r="B251" s="129">
+      <c r="A251" s="50"/>
+      <c r="B251" s="52">
         <v>84</v>
       </c>
-      <c r="C251" s="117"/>
-      <c r="D251" s="119"/>
-      <c r="E251" s="121"/>
+      <c r="C251" s="54"/>
+      <c r="D251" s="56"/>
+      <c r="E251" s="58"/>
       <c r="F251" s="26"/>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A252" s="116"/>
-      <c r="B252" s="128"/>
-      <c r="C252" s="118"/>
-      <c r="D252" s="120"/>
-      <c r="E252" s="122"/>
+      <c r="A252" s="51"/>
+      <c r="B252" s="53"/>
+      <c r="C252" s="55"/>
+      <c r="D252" s="57"/>
+      <c r="E252" s="59"/>
       <c r="F252" s="26"/>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A253" s="116"/>
-      <c r="B253" s="128"/>
-      <c r="C253" s="118"/>
-      <c r="D253" s="120"/>
-      <c r="E253" s="122"/>
+      <c r="A253" s="51"/>
+      <c r="B253" s="53"/>
+      <c r="C253" s="55"/>
+      <c r="D253" s="57"/>
+      <c r="E253" s="59"/>
       <c r="F253" s="26"/>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A254" s="115"/>
-      <c r="B254" s="129">
+      <c r="A254" s="50"/>
+      <c r="B254" s="52">
         <v>85</v>
       </c>
-      <c r="C254" s="117"/>
-      <c r="D254" s="119"/>
-      <c r="E254" s="121"/>
+      <c r="C254" s="54"/>
+      <c r="D254" s="56"/>
+      <c r="E254" s="58"/>
       <c r="F254" s="26"/>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A255" s="116"/>
-      <c r="B255" s="128"/>
-      <c r="C255" s="118"/>
-      <c r="D255" s="120"/>
-      <c r="E255" s="122"/>
+      <c r="A255" s="51"/>
+      <c r="B255" s="53"/>
+      <c r="C255" s="55"/>
+      <c r="D255" s="57"/>
+      <c r="E255" s="59"/>
       <c r="F255" s="26"/>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A256" s="116"/>
-      <c r="B256" s="128"/>
-      <c r="C256" s="118"/>
-      <c r="D256" s="120"/>
-      <c r="E256" s="122"/>
+      <c r="A256" s="51"/>
+      <c r="B256" s="53"/>
+      <c r="C256" s="55"/>
+      <c r="D256" s="57"/>
+      <c r="E256" s="59"/>
       <c r="F256" s="26"/>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A257" s="115"/>
-      <c r="B257" s="129">
+      <c r="A257" s="50"/>
+      <c r="B257" s="52">
         <v>86</v>
       </c>
-      <c r="C257" s="117"/>
-      <c r="D257" s="119"/>
-      <c r="E257" s="121"/>
+      <c r="C257" s="54"/>
+      <c r="D257" s="56"/>
+      <c r="E257" s="58"/>
       <c r="F257" s="26"/>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A258" s="116"/>
-      <c r="B258" s="128"/>
-      <c r="C258" s="118"/>
-      <c r="D258" s="120"/>
-      <c r="E258" s="122"/>
+      <c r="A258" s="51"/>
+      <c r="B258" s="53"/>
+      <c r="C258" s="55"/>
+      <c r="D258" s="57"/>
+      <c r="E258" s="59"/>
       <c r="F258" s="26"/>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A259" s="116"/>
-      <c r="B259" s="128"/>
-      <c r="C259" s="118"/>
-      <c r="D259" s="120"/>
-      <c r="E259" s="122"/>
+      <c r="A259" s="51"/>
+      <c r="B259" s="53"/>
+      <c r="C259" s="55"/>
+      <c r="D259" s="57"/>
+      <c r="E259" s="59"/>
       <c r="F259" s="26"/>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A260" s="115"/>
-      <c r="B260" s="129">
+      <c r="A260" s="50"/>
+      <c r="B260" s="52">
         <v>87</v>
       </c>
-      <c r="C260" s="117"/>
-      <c r="D260" s="119"/>
-      <c r="E260" s="121"/>
+      <c r="C260" s="54"/>
+      <c r="D260" s="56"/>
+      <c r="E260" s="58"/>
       <c r="F260" s="26"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A261" s="116"/>
-      <c r="B261" s="128"/>
-      <c r="C261" s="118"/>
-      <c r="D261" s="120"/>
-      <c r="E261" s="122"/>
+      <c r="A261" s="51"/>
+      <c r="B261" s="53"/>
+      <c r="C261" s="55"/>
+      <c r="D261" s="57"/>
+      <c r="E261" s="59"/>
       <c r="F261" s="26"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A262" s="116"/>
-      <c r="B262" s="128"/>
-      <c r="C262" s="118"/>
-      <c r="D262" s="120"/>
-      <c r="E262" s="122"/>
+      <c r="A262" s="51"/>
+      <c r="B262" s="53"/>
+      <c r="C262" s="55"/>
+      <c r="D262" s="57"/>
+      <c r="E262" s="59"/>
       <c r="F262" s="26"/>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A263" s="115"/>
-      <c r="B263" s="129">
+      <c r="A263" s="50"/>
+      <c r="B263" s="52">
         <v>88</v>
       </c>
-      <c r="C263" s="117"/>
-      <c r="D263" s="119"/>
-      <c r="E263" s="121"/>
+      <c r="C263" s="54"/>
+      <c r="D263" s="56"/>
+      <c r="E263" s="58"/>
       <c r="F263" s="26"/>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A264" s="116"/>
-      <c r="B264" s="128"/>
-      <c r="C264" s="118"/>
-      <c r="D264" s="120"/>
-      <c r="E264" s="122"/>
+      <c r="A264" s="51"/>
+      <c r="B264" s="53"/>
+      <c r="C264" s="55"/>
+      <c r="D264" s="57"/>
+      <c r="E264" s="59"/>
       <c r="F264" s="26"/>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A265" s="116"/>
-      <c r="B265" s="128"/>
-      <c r="C265" s="118"/>
-      <c r="D265" s="120"/>
-      <c r="E265" s="122"/>
+      <c r="A265" s="51"/>
+      <c r="B265" s="53"/>
+      <c r="C265" s="55"/>
+      <c r="D265" s="57"/>
+      <c r="E265" s="59"/>
       <c r="F265" s="26"/>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A266" s="115"/>
-      <c r="B266" s="129">
+      <c r="A266" s="50"/>
+      <c r="B266" s="52">
         <v>89</v>
       </c>
-      <c r="C266" s="117"/>
-      <c r="D266" s="119"/>
-      <c r="E266" s="121"/>
+      <c r="C266" s="54"/>
+      <c r="D266" s="56"/>
+      <c r="E266" s="58"/>
       <c r="F266" s="26"/>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A267" s="116"/>
-      <c r="B267" s="128"/>
-      <c r="C267" s="118"/>
-      <c r="D267" s="120"/>
-      <c r="E267" s="122"/>
+      <c r="A267" s="51"/>
+      <c r="B267" s="53"/>
+      <c r="C267" s="55"/>
+      <c r="D267" s="57"/>
+      <c r="E267" s="59"/>
       <c r="F267" s="26"/>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A268" s="116"/>
-      <c r="B268" s="128"/>
-      <c r="C268" s="118"/>
-      <c r="D268" s="120"/>
-      <c r="E268" s="122"/>
+      <c r="A268" s="51"/>
+      <c r="B268" s="53"/>
+      <c r="C268" s="55"/>
+      <c r="D268" s="57"/>
+      <c r="E268" s="59"/>
       <c r="F268" s="26"/>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A269" s="115"/>
-      <c r="B269" s="129">
+      <c r="A269" s="50"/>
+      <c r="B269" s="52">
         <v>90</v>
       </c>
-      <c r="C269" s="117"/>
-      <c r="D269" s="119"/>
-      <c r="E269" s="121"/>
+      <c r="C269" s="54"/>
+      <c r="D269" s="56"/>
+      <c r="E269" s="58"/>
       <c r="F269" s="26"/>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A270" s="116"/>
-      <c r="B270" s="128"/>
-      <c r="C270" s="118"/>
-      <c r="D270" s="120"/>
-      <c r="E270" s="122"/>
+      <c r="A270" s="51"/>
+      <c r="B270" s="53"/>
+      <c r="C270" s="55"/>
+      <c r="D270" s="57"/>
+      <c r="E270" s="59"/>
       <c r="F270" s="26"/>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A271" s="116"/>
-      <c r="B271" s="128"/>
-      <c r="C271" s="118"/>
-      <c r="D271" s="120"/>
-      <c r="E271" s="122"/>
+      <c r="A271" s="51"/>
+      <c r="B271" s="53"/>
+      <c r="C271" s="55"/>
+      <c r="D271" s="57"/>
+      <c r="E271" s="59"/>
       <c r="F271" s="26"/>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A272" s="115"/>
-      <c r="B272" s="129">
+      <c r="A272" s="50"/>
+      <c r="B272" s="52">
         <v>91</v>
       </c>
-      <c r="C272" s="117"/>
-      <c r="D272" s="119"/>
-      <c r="E272" s="121"/>
+      <c r="C272" s="54"/>
+      <c r="D272" s="56"/>
+      <c r="E272" s="58"/>
       <c r="F272" s="26"/>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A273" s="116"/>
-      <c r="B273" s="128"/>
-      <c r="C273" s="118"/>
-      <c r="D273" s="120"/>
-      <c r="E273" s="122"/>
+      <c r="A273" s="51"/>
+      <c r="B273" s="53"/>
+      <c r="C273" s="55"/>
+      <c r="D273" s="57"/>
+      <c r="E273" s="59"/>
       <c r="F273" s="26"/>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A274" s="116"/>
-      <c r="B274" s="128"/>
-      <c r="C274" s="118"/>
-      <c r="D274" s="120"/>
-      <c r="E274" s="122"/>
+      <c r="A274" s="51"/>
+      <c r="B274" s="53"/>
+      <c r="C274" s="55"/>
+      <c r="D274" s="57"/>
+      <c r="E274" s="59"/>
       <c r="F274" s="26"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A275" s="115"/>
-      <c r="B275" s="129">
+      <c r="A275" s="50"/>
+      <c r="B275" s="52">
         <v>92</v>
       </c>
-      <c r="C275" s="117"/>
-      <c r="D275" s="119"/>
-      <c r="E275" s="121"/>
+      <c r="C275" s="54"/>
+      <c r="D275" s="56"/>
+      <c r="E275" s="58"/>
       <c r="F275" s="26"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A276" s="116"/>
-      <c r="B276" s="128"/>
-      <c r="C276" s="118"/>
-      <c r="D276" s="120"/>
-      <c r="E276" s="122"/>
+      <c r="A276" s="51"/>
+      <c r="B276" s="53"/>
+      <c r="C276" s="55"/>
+      <c r="D276" s="57"/>
+      <c r="E276" s="59"/>
       <c r="F276" s="26"/>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A277" s="116"/>
-      <c r="B277" s="128"/>
-      <c r="C277" s="118"/>
-      <c r="D277" s="120"/>
-      <c r="E277" s="122"/>
+      <c r="A277" s="51"/>
+      <c r="B277" s="53"/>
+      <c r="C277" s="55"/>
+      <c r="D277" s="57"/>
+      <c r="E277" s="59"/>
       <c r="F277" s="26"/>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A278" s="115"/>
-      <c r="B278" s="129">
+      <c r="A278" s="50"/>
+      <c r="B278" s="52">
         <v>93</v>
       </c>
-      <c r="C278" s="117"/>
-      <c r="D278" s="119"/>
-      <c r="E278" s="121"/>
+      <c r="C278" s="54"/>
+      <c r="D278" s="56"/>
+      <c r="E278" s="58"/>
       <c r="F278" s="26"/>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A279" s="116"/>
-      <c r="B279" s="128"/>
-      <c r="C279" s="118"/>
-      <c r="D279" s="120"/>
-      <c r="E279" s="122"/>
+      <c r="A279" s="51"/>
+      <c r="B279" s="53"/>
+      <c r="C279" s="55"/>
+      <c r="D279" s="57"/>
+      <c r="E279" s="59"/>
       <c r="F279" s="26"/>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A280" s="116"/>
-      <c r="B280" s="128"/>
-      <c r="C280" s="118"/>
-      <c r="D280" s="120"/>
-      <c r="E280" s="122"/>
+      <c r="A280" s="51"/>
+      <c r="B280" s="53"/>
+      <c r="C280" s="55"/>
+      <c r="D280" s="57"/>
+      <c r="E280" s="59"/>
       <c r="F280" s="26"/>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A281" s="115"/>
-      <c r="B281" s="129">
+      <c r="A281" s="50"/>
+      <c r="B281" s="52">
         <v>94</v>
       </c>
-      <c r="C281" s="117"/>
-      <c r="D281" s="119"/>
-      <c r="E281" s="121"/>
+      <c r="C281" s="54"/>
+      <c r="D281" s="56"/>
+      <c r="E281" s="58"/>
       <c r="F281" s="26"/>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A282" s="116"/>
-      <c r="B282" s="128"/>
-      <c r="C282" s="118"/>
-      <c r="D282" s="120"/>
-      <c r="E282" s="122"/>
+      <c r="A282" s="51"/>
+      <c r="B282" s="53"/>
+      <c r="C282" s="55"/>
+      <c r="D282" s="57"/>
+      <c r="E282" s="59"/>
       <c r="F282" s="26"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A283" s="116"/>
-      <c r="B283" s="128"/>
-      <c r="C283" s="118"/>
-      <c r="D283" s="120"/>
-      <c r="E283" s="122"/>
+      <c r="A283" s="51"/>
+      <c r="B283" s="53"/>
+      <c r="C283" s="55"/>
+      <c r="D283" s="57"/>
+      <c r="E283" s="59"/>
       <c r="F283" s="26"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A284" s="115"/>
-      <c r="B284" s="129">
+      <c r="A284" s="50"/>
+      <c r="B284" s="52">
         <v>95</v>
       </c>
-      <c r="C284" s="117"/>
-      <c r="D284" s="119"/>
-      <c r="E284" s="121"/>
+      <c r="C284" s="54"/>
+      <c r="D284" s="56"/>
+      <c r="E284" s="58"/>
       <c r="F284" s="26"/>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A285" s="116"/>
-      <c r="B285" s="128"/>
-      <c r="C285" s="118"/>
-      <c r="D285" s="120"/>
-      <c r="E285" s="122"/>
+      <c r="A285" s="51"/>
+      <c r="B285" s="53"/>
+      <c r="C285" s="55"/>
+      <c r="D285" s="57"/>
+      <c r="E285" s="59"/>
       <c r="F285" s="26"/>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A286" s="116"/>
-      <c r="B286" s="128"/>
-      <c r="C286" s="118"/>
-      <c r="D286" s="120"/>
-      <c r="E286" s="122"/>
+      <c r="A286" s="51"/>
+      <c r="B286" s="53"/>
+      <c r="C286" s="55"/>
+      <c r="D286" s="57"/>
+      <c r="E286" s="59"/>
       <c r="F286" s="26"/>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A287" s="115"/>
-      <c r="B287" s="129">
+      <c r="A287" s="50"/>
+      <c r="B287" s="52">
         <v>96</v>
       </c>
-      <c r="C287" s="117"/>
-      <c r="D287" s="119"/>
-      <c r="E287" s="121"/>
+      <c r="C287" s="54"/>
+      <c r="D287" s="56"/>
+      <c r="E287" s="58"/>
       <c r="F287" s="26"/>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A288" s="116"/>
-      <c r="B288" s="128"/>
-      <c r="C288" s="118"/>
-      <c r="D288" s="120"/>
-      <c r="E288" s="122"/>
+      <c r="A288" s="51"/>
+      <c r="B288" s="53"/>
+      <c r="C288" s="55"/>
+      <c r="D288" s="57"/>
+      <c r="E288" s="59"/>
       <c r="F288" s="26"/>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A289" s="116"/>
-      <c r="B289" s="128"/>
-      <c r="C289" s="118"/>
-      <c r="D289" s="120"/>
-      <c r="E289" s="122"/>
+      <c r="A289" s="51"/>
+      <c r="B289" s="53"/>
+      <c r="C289" s="55"/>
+      <c r="D289" s="57"/>
+      <c r="E289" s="59"/>
       <c r="F289" s="26"/>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A290" s="115"/>
-      <c r="B290" s="129">
+      <c r="A290" s="50"/>
+      <c r="B290" s="52">
         <v>97</v>
       </c>
-      <c r="C290" s="117"/>
-      <c r="D290" s="119"/>
-      <c r="E290" s="121"/>
+      <c r="C290" s="54"/>
+      <c r="D290" s="56"/>
+      <c r="E290" s="58"/>
       <c r="F290" s="26"/>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A291" s="116"/>
-      <c r="B291" s="128"/>
-      <c r="C291" s="118"/>
-      <c r="D291" s="120"/>
-      <c r="E291" s="122"/>
+      <c r="A291" s="51"/>
+      <c r="B291" s="53"/>
+      <c r="C291" s="55"/>
+      <c r="D291" s="57"/>
+      <c r="E291" s="59"/>
       <c r="F291" s="26"/>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A292" s="116"/>
-      <c r="B292" s="128"/>
-      <c r="C292" s="118"/>
-      <c r="D292" s="120"/>
-      <c r="E292" s="122"/>
+      <c r="A292" s="51"/>
+      <c r="B292" s="53"/>
+      <c r="C292" s="55"/>
+      <c r="D292" s="57"/>
+      <c r="E292" s="59"/>
       <c r="F292" s="26"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A293" s="115"/>
-      <c r="B293" s="129">
+      <c r="A293" s="50"/>
+      <c r="B293" s="52">
         <v>98</v>
       </c>
-      <c r="C293" s="117"/>
-      <c r="D293" s="119"/>
-      <c r="E293" s="121"/>
+      <c r="C293" s="54"/>
+      <c r="D293" s="56"/>
+      <c r="E293" s="58"/>
       <c r="F293" s="26"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A294" s="116"/>
-      <c r="B294" s="128"/>
-      <c r="C294" s="118"/>
-      <c r="D294" s="120"/>
-      <c r="E294" s="122"/>
+      <c r="A294" s="51"/>
+      <c r="B294" s="53"/>
+      <c r="C294" s="55"/>
+      <c r="D294" s="57"/>
+      <c r="E294" s="59"/>
       <c r="F294" s="26"/>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A295" s="116"/>
-      <c r="B295" s="128"/>
-      <c r="C295" s="118"/>
-      <c r="D295" s="120"/>
-      <c r="E295" s="122"/>
+      <c r="A295" s="51"/>
+      <c r="B295" s="53"/>
+      <c r="C295" s="55"/>
+      <c r="D295" s="57"/>
+      <c r="E295" s="59"/>
       <c r="F295" s="26"/>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A296" s="115"/>
-      <c r="B296" s="129">
+      <c r="A296" s="50"/>
+      <c r="B296" s="52">
         <v>99</v>
       </c>
-      <c r="C296" s="117"/>
-      <c r="D296" s="119"/>
-      <c r="E296" s="121"/>
+      <c r="C296" s="54"/>
+      <c r="D296" s="56"/>
+      <c r="E296" s="58"/>
       <c r="F296" s="26"/>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A297" s="116"/>
-      <c r="B297" s="128"/>
-      <c r="C297" s="118"/>
-      <c r="D297" s="120"/>
-      <c r="E297" s="122"/>
+      <c r="A297" s="51"/>
+      <c r="B297" s="53"/>
+      <c r="C297" s="55"/>
+      <c r="D297" s="57"/>
+      <c r="E297" s="59"/>
       <c r="F297" s="26"/>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A298" s="116"/>
-      <c r="B298" s="128"/>
-      <c r="C298" s="118"/>
-      <c r="D298" s="120"/>
-      <c r="E298" s="122"/>
+      <c r="A298" s="51"/>
+      <c r="B298" s="53"/>
+      <c r="C298" s="55"/>
+      <c r="D298" s="57"/>
+      <c r="E298" s="59"/>
       <c r="F298" s="26"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A299" s="115"/>
-      <c r="B299" s="129">
+      <c r="A299" s="50"/>
+      <c r="B299" s="52">
         <v>100</v>
       </c>
-      <c r="C299" s="117"/>
-      <c r="D299" s="119"/>
-      <c r="E299" s="121"/>
+      <c r="C299" s="54"/>
+      <c r="D299" s="56"/>
+      <c r="E299" s="58"/>
       <c r="F299" s="26"/>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A300" s="116"/>
-      <c r="B300" s="128"/>
-      <c r="C300" s="118"/>
-      <c r="D300" s="120"/>
-      <c r="E300" s="122"/>
+      <c r="A300" s="51"/>
+      <c r="B300" s="53"/>
+      <c r="C300" s="55"/>
+      <c r="D300" s="57"/>
+      <c r="E300" s="59"/>
       <c r="F300" s="26"/>
     </row>
     <row r="301" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A301" s="130"/>
-      <c r="B301" s="131"/>
-      <c r="C301" s="132"/>
-      <c r="D301" s="133"/>
-      <c r="E301" s="134"/>
+      <c r="A301" s="60"/>
+      <c r="B301" s="61"/>
+      <c r="C301" s="62"/>
+      <c r="D301" s="63"/>
+      <c r="E301" s="64"/>
       <c r="F301" s="26"/>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A302" s="135"/>
-      <c r="B302" s="136"/>
-      <c r="C302" s="137"/>
-      <c r="D302" s="135"/>
-      <c r="E302" s="135"/>
+      <c r="A302" s="47"/>
+      <c r="B302" s="48"/>
+      <c r="C302" s="49"/>
+      <c r="D302" s="47"/>
+      <c r="E302" s="47"/>
       <c r="F302" s="26"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A303" s="135"/>
-      <c r="B303" s="136"/>
-      <c r="C303" s="137"/>
-      <c r="D303" s="135"/>
-      <c r="E303" s="135"/>
+      <c r="A303" s="47"/>
+      <c r="B303" s="48"/>
+      <c r="C303" s="49"/>
+      <c r="D303" s="47"/>
+      <c r="E303" s="47"/>
       <c r="F303" s="26"/>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A304" s="135"/>
-      <c r="B304" s="136"/>
-      <c r="C304" s="137"/>
-      <c r="D304" s="135"/>
-      <c r="E304" s="135"/>
+      <c r="A304" s="47"/>
+      <c r="B304" s="48"/>
+      <c r="C304" s="49"/>
+      <c r="D304" s="47"/>
+      <c r="E304" s="47"/>
       <c r="F304" s="26"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A305" s="135"/>
-      <c r="B305" s="136"/>
-      <c r="C305" s="137"/>
-      <c r="D305" s="135"/>
-      <c r="E305" s="135"/>
+      <c r="A305" s="47"/>
+      <c r="B305" s="48"/>
+      <c r="C305" s="49"/>
+      <c r="D305" s="47"/>
+      <c r="E305" s="47"/>
       <c r="F305" s="26"/>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A306" s="135"/>
-      <c r="B306" s="136"/>
-      <c r="C306" s="137"/>
-      <c r="D306" s="135"/>
-      <c r="E306" s="135"/>
+      <c r="A306" s="47"/>
+      <c r="B306" s="48"/>
+      <c r="C306" s="49"/>
+      <c r="D306" s="47"/>
+      <c r="E306" s="47"/>
       <c r="F306" s="26"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A307" s="135"/>
-      <c r="B307" s="136"/>
-      <c r="C307" s="137"/>
-      <c r="D307" s="135"/>
-      <c r="E307" s="135"/>
+      <c r="A307" s="47"/>
+      <c r="B307" s="48"/>
+      <c r="C307" s="49"/>
+      <c r="D307" s="47"/>
+      <c r="E307" s="47"/>
       <c r="F307" s="26"/>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A308" s="135"/>
-      <c r="B308" s="136"/>
-      <c r="C308" s="137"/>
-      <c r="D308" s="135"/>
-      <c r="E308" s="135"/>
+      <c r="A308" s="47"/>
+      <c r="B308" s="48"/>
+      <c r="C308" s="49"/>
+      <c r="D308" s="47"/>
+      <c r="E308" s="47"/>
       <c r="F308" s="26"/>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A309" s="135"/>
-      <c r="B309" s="136"/>
-      <c r="C309" s="137"/>
-      <c r="D309" s="135"/>
-      <c r="E309" s="135"/>
+      <c r="A309" s="47"/>
+      <c r="B309" s="48"/>
+      <c r="C309" s="49"/>
+      <c r="D309" s="47"/>
+      <c r="E309" s="47"/>
       <c r="F309" s="26"/>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A310" s="135"/>
-      <c r="B310" s="136"/>
-      <c r="C310" s="137"/>
-      <c r="D310" s="135"/>
-      <c r="E310" s="135"/>
+      <c r="A310" s="47"/>
+      <c r="B310" s="48"/>
+      <c r="C310" s="49"/>
+      <c r="D310" s="47"/>
+      <c r="E310" s="47"/>
       <c r="F310" s="26"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A311" s="135"/>
-      <c r="B311" s="136"/>
-      <c r="C311" s="137"/>
-      <c r="D311" s="135"/>
-      <c r="E311" s="135"/>
+      <c r="A311" s="47"/>
+      <c r="B311" s="48"/>
+      <c r="C311" s="49"/>
+      <c r="D311" s="47"/>
+      <c r="E311" s="47"/>
       <c r="F311" s="26"/>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A312" s="135"/>
-      <c r="B312" s="136"/>
-      <c r="C312" s="137"/>
-      <c r="D312" s="135"/>
-      <c r="E312" s="135"/>
+      <c r="A312" s="47"/>
+      <c r="B312" s="48"/>
+      <c r="C312" s="49"/>
+      <c r="D312" s="47"/>
+      <c r="E312" s="47"/>
       <c r="F312" s="26"/>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A313" s="135"/>
-      <c r="B313" s="136"/>
-      <c r="C313" s="137"/>
-      <c r="D313" s="135"/>
-      <c r="E313" s="135"/>
+      <c r="A313" s="47"/>
+      <c r="B313" s="48"/>
+      <c r="C313" s="49"/>
+      <c r="D313" s="47"/>
+      <c r="E313" s="47"/>
       <c r="F313" s="26"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A314" s="135"/>
-      <c r="B314" s="136"/>
-      <c r="C314" s="137"/>
-      <c r="D314" s="135"/>
-      <c r="E314" s="135"/>
+      <c r="A314" s="47"/>
+      <c r="B314" s="48"/>
+      <c r="C314" s="49"/>
+      <c r="D314" s="47"/>
+      <c r="E314" s="47"/>
       <c r="F314" s="26"/>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A315" s="135"/>
-      <c r="B315" s="136"/>
-      <c r="C315" s="137"/>
-      <c r="D315" s="135"/>
-      <c r="E315" s="135"/>
+      <c r="A315" s="47"/>
+      <c r="B315" s="48"/>
+      <c r="C315" s="49"/>
+      <c r="D315" s="47"/>
+      <c r="E315" s="47"/>
       <c r="F315" s="26"/>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A316" s="135"/>
-      <c r="B316" s="136"/>
-      <c r="C316" s="137"/>
-      <c r="D316" s="135"/>
-      <c r="E316" s="135"/>
+      <c r="A316" s="47"/>
+      <c r="B316" s="48"/>
+      <c r="C316" s="49"/>
+      <c r="D316" s="47"/>
+      <c r="E316" s="47"/>
       <c r="F316" s="26"/>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A317" s="135"/>
-      <c r="B317" s="136"/>
-      <c r="C317" s="137"/>
-      <c r="D317" s="135"/>
-      <c r="E317" s="135"/>
+      <c r="A317" s="47"/>
+      <c r="B317" s="48"/>
+      <c r="C317" s="49"/>
+      <c r="D317" s="47"/>
+      <c r="E317" s="47"/>
       <c r="F317" s="26"/>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A318" s="135"/>
-      <c r="B318" s="136"/>
-      <c r="C318" s="137"/>
-      <c r="D318" s="135"/>
-      <c r="E318" s="135"/>
+      <c r="A318" s="47"/>
+      <c r="B318" s="48"/>
+      <c r="C318" s="49"/>
+      <c r="D318" s="47"/>
+      <c r="E318" s="47"/>
       <c r="F318" s="26"/>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A319" s="135"/>
-      <c r="B319" s="136"/>
-      <c r="C319" s="137"/>
-      <c r="D319" s="135"/>
-      <c r="E319" s="135"/>
+      <c r="A319" s="47"/>
+      <c r="B319" s="48"/>
+      <c r="C319" s="49"/>
+      <c r="D319" s="47"/>
+      <c r="E319" s="47"/>
       <c r="F319" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="530">
-    <mergeCell ref="A314:A316"/>
-    <mergeCell ref="B314:B316"/>
-    <mergeCell ref="C314:C316"/>
-    <mergeCell ref="D314:D316"/>
-    <mergeCell ref="E314:E316"/>
-    <mergeCell ref="A317:A319"/>
-    <mergeCell ref="B317:B319"/>
-    <mergeCell ref="C317:C319"/>
-    <mergeCell ref="D317:D319"/>
-    <mergeCell ref="E317:E319"/>
-    <mergeCell ref="A308:A310"/>
-    <mergeCell ref="B308:B310"/>
-    <mergeCell ref="C308:C310"/>
-    <mergeCell ref="D308:D310"/>
-    <mergeCell ref="E308:E310"/>
-    <mergeCell ref="A311:A313"/>
-    <mergeCell ref="B311:B313"/>
-    <mergeCell ref="C311:C313"/>
-    <mergeCell ref="D311:D313"/>
-    <mergeCell ref="E311:E313"/>
-    <mergeCell ref="A302:A304"/>
-    <mergeCell ref="B302:B304"/>
-    <mergeCell ref="C302:C304"/>
-    <mergeCell ref="D302:D304"/>
-    <mergeCell ref="E302:E304"/>
-    <mergeCell ref="A305:A307"/>
-    <mergeCell ref="B305:B307"/>
-    <mergeCell ref="C305:C307"/>
-    <mergeCell ref="D305:D307"/>
-    <mergeCell ref="E305:E307"/>
-    <mergeCell ref="A296:A298"/>
-    <mergeCell ref="B296:B298"/>
-    <mergeCell ref="C296:C298"/>
-    <mergeCell ref="D296:D298"/>
-    <mergeCell ref="E296:E298"/>
-    <mergeCell ref="A299:A301"/>
-    <mergeCell ref="B299:B301"/>
-    <mergeCell ref="C299:C301"/>
-    <mergeCell ref="D299:D301"/>
-    <mergeCell ref="E299:E301"/>
-    <mergeCell ref="A290:A292"/>
-    <mergeCell ref="B290:B292"/>
-    <mergeCell ref="C290:C292"/>
-    <mergeCell ref="D290:D292"/>
-    <mergeCell ref="E290:E292"/>
-    <mergeCell ref="A293:A295"/>
-    <mergeCell ref="B293:B295"/>
-    <mergeCell ref="C293:C295"/>
-    <mergeCell ref="D293:D295"/>
-    <mergeCell ref="E293:E295"/>
-    <mergeCell ref="A284:A286"/>
-    <mergeCell ref="B284:B286"/>
-    <mergeCell ref="C284:C286"/>
-    <mergeCell ref="D284:D286"/>
-    <mergeCell ref="E284:E286"/>
-    <mergeCell ref="A287:A289"/>
-    <mergeCell ref="B287:B289"/>
-    <mergeCell ref="C287:C289"/>
-    <mergeCell ref="D287:D289"/>
-    <mergeCell ref="E287:E289"/>
-    <mergeCell ref="A278:A280"/>
-    <mergeCell ref="B278:B280"/>
-    <mergeCell ref="C278:C280"/>
-    <mergeCell ref="D278:D280"/>
-    <mergeCell ref="E278:E280"/>
-    <mergeCell ref="A281:A283"/>
-    <mergeCell ref="B281:B283"/>
-    <mergeCell ref="C281:C283"/>
-    <mergeCell ref="D281:D283"/>
-    <mergeCell ref="E281:E283"/>
-    <mergeCell ref="A272:A274"/>
-    <mergeCell ref="B272:B274"/>
-    <mergeCell ref="C272:C274"/>
-    <mergeCell ref="D272:D274"/>
-    <mergeCell ref="E272:E274"/>
-    <mergeCell ref="A275:A277"/>
-    <mergeCell ref="B275:B277"/>
-    <mergeCell ref="C275:C277"/>
-    <mergeCell ref="D275:D277"/>
-    <mergeCell ref="E275:E277"/>
-    <mergeCell ref="A266:A268"/>
-    <mergeCell ref="B266:B268"/>
-    <mergeCell ref="C266:C268"/>
-    <mergeCell ref="D266:D268"/>
-    <mergeCell ref="E266:E268"/>
-    <mergeCell ref="A269:A271"/>
-    <mergeCell ref="B269:B271"/>
-    <mergeCell ref="C269:C271"/>
-    <mergeCell ref="D269:D271"/>
-    <mergeCell ref="E269:E271"/>
-    <mergeCell ref="A260:A262"/>
-    <mergeCell ref="B260:B262"/>
-    <mergeCell ref="C260:C262"/>
-    <mergeCell ref="D260:D262"/>
-    <mergeCell ref="E260:E262"/>
-    <mergeCell ref="A263:A265"/>
-    <mergeCell ref="B263:B265"/>
-    <mergeCell ref="C263:C265"/>
-    <mergeCell ref="D263:D265"/>
-    <mergeCell ref="E263:E265"/>
-    <mergeCell ref="A254:A256"/>
-    <mergeCell ref="B254:B256"/>
-    <mergeCell ref="C254:C256"/>
-    <mergeCell ref="D254:D256"/>
-    <mergeCell ref="E254:E256"/>
-    <mergeCell ref="A257:A259"/>
-    <mergeCell ref="B257:B259"/>
-    <mergeCell ref="C257:C259"/>
-    <mergeCell ref="D257:D259"/>
-    <mergeCell ref="E257:E259"/>
-    <mergeCell ref="A248:A250"/>
-    <mergeCell ref="B248:B250"/>
-    <mergeCell ref="C248:C250"/>
-    <mergeCell ref="D248:D250"/>
-    <mergeCell ref="E248:E250"/>
-    <mergeCell ref="A251:A253"/>
-    <mergeCell ref="B251:B253"/>
-    <mergeCell ref="C251:C253"/>
-    <mergeCell ref="D251:D253"/>
-    <mergeCell ref="E251:E253"/>
-    <mergeCell ref="A242:A244"/>
-    <mergeCell ref="B242:B244"/>
-    <mergeCell ref="C242:C244"/>
-    <mergeCell ref="D242:D244"/>
-    <mergeCell ref="E242:E244"/>
-    <mergeCell ref="A245:A247"/>
-    <mergeCell ref="B245:B247"/>
-    <mergeCell ref="C245:C247"/>
-    <mergeCell ref="D245:D247"/>
-    <mergeCell ref="E245:E247"/>
-    <mergeCell ref="A236:A238"/>
-    <mergeCell ref="B236:B238"/>
-    <mergeCell ref="C236:C238"/>
-    <mergeCell ref="D236:D238"/>
-    <mergeCell ref="E236:E238"/>
-    <mergeCell ref="A239:A241"/>
-    <mergeCell ref="B239:B241"/>
-    <mergeCell ref="C239:C241"/>
-    <mergeCell ref="D239:D241"/>
-    <mergeCell ref="E239:E241"/>
-    <mergeCell ref="A230:A232"/>
-    <mergeCell ref="B230:B232"/>
-    <mergeCell ref="C230:C232"/>
-    <mergeCell ref="D230:D232"/>
-    <mergeCell ref="E230:E232"/>
-    <mergeCell ref="A233:A235"/>
-    <mergeCell ref="B233:B235"/>
-    <mergeCell ref="C233:C235"/>
-    <mergeCell ref="D233:D235"/>
-    <mergeCell ref="E233:E235"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="B224:B226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="D224:D226"/>
-    <mergeCell ref="E224:E226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="B227:B229"/>
-    <mergeCell ref="C227:C229"/>
-    <mergeCell ref="D227:D229"/>
-    <mergeCell ref="E227:E229"/>
-    <mergeCell ref="A218:A220"/>
-    <mergeCell ref="C218:C220"/>
-    <mergeCell ref="D218:D220"/>
-    <mergeCell ref="E218:E220"/>
-    <mergeCell ref="A221:A223"/>
-    <mergeCell ref="B221:B223"/>
-    <mergeCell ref="C221:C223"/>
-    <mergeCell ref="D221:D223"/>
-    <mergeCell ref="E221:E223"/>
-    <mergeCell ref="B218:B220"/>
-    <mergeCell ref="A212:A214"/>
-    <mergeCell ref="C212:C214"/>
-    <mergeCell ref="D212:D214"/>
-    <mergeCell ref="E212:E214"/>
-    <mergeCell ref="A215:A217"/>
-    <mergeCell ref="C215:C217"/>
-    <mergeCell ref="D215:D217"/>
-    <mergeCell ref="E215:E217"/>
-    <mergeCell ref="A206:A208"/>
-    <mergeCell ref="C206:C208"/>
-    <mergeCell ref="D206:D208"/>
-    <mergeCell ref="E206:E208"/>
-    <mergeCell ref="A209:A211"/>
-    <mergeCell ref="C209:C211"/>
-    <mergeCell ref="D209:D211"/>
-    <mergeCell ref="E209:E211"/>
-    <mergeCell ref="B212:B214"/>
-    <mergeCell ref="B215:B217"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="B209:B211"/>
-    <mergeCell ref="A200:A202"/>
-    <mergeCell ref="C200:C202"/>
-    <mergeCell ref="D200:D202"/>
-    <mergeCell ref="E200:E202"/>
-    <mergeCell ref="A203:A205"/>
-    <mergeCell ref="C203:C205"/>
-    <mergeCell ref="D203:D205"/>
-    <mergeCell ref="E203:E205"/>
-    <mergeCell ref="A194:A196"/>
-    <mergeCell ref="C194:C196"/>
-    <mergeCell ref="D194:D196"/>
-    <mergeCell ref="E194:E196"/>
-    <mergeCell ref="A197:A199"/>
-    <mergeCell ref="C197:C199"/>
-    <mergeCell ref="D197:D199"/>
-    <mergeCell ref="E197:E199"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="B203:B205"/>
-    <mergeCell ref="A188:A190"/>
-    <mergeCell ref="C188:C190"/>
-    <mergeCell ref="D188:D190"/>
-    <mergeCell ref="E188:E190"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="C191:C193"/>
-    <mergeCell ref="D191:D193"/>
-    <mergeCell ref="E191:E193"/>
-    <mergeCell ref="A182:A184"/>
-    <mergeCell ref="C182:C184"/>
-    <mergeCell ref="D182:D184"/>
-    <mergeCell ref="E182:E184"/>
-    <mergeCell ref="A185:A187"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="D185:D187"/>
-    <mergeCell ref="E185:E187"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="A176:A178"/>
-    <mergeCell ref="C176:C178"/>
-    <mergeCell ref="D176:D178"/>
-    <mergeCell ref="E176:E178"/>
-    <mergeCell ref="A179:A181"/>
-    <mergeCell ref="C179:C181"/>
-    <mergeCell ref="D179:D181"/>
-    <mergeCell ref="E179:E181"/>
-    <mergeCell ref="A170:A172"/>
-    <mergeCell ref="C170:C172"/>
-    <mergeCell ref="D170:D172"/>
-    <mergeCell ref="E170:E172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="C173:C175"/>
-    <mergeCell ref="D173:D175"/>
-    <mergeCell ref="E173:E175"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="A164:A166"/>
-    <mergeCell ref="C164:C166"/>
-    <mergeCell ref="D164:D166"/>
-    <mergeCell ref="E164:E166"/>
-    <mergeCell ref="A167:A169"/>
-    <mergeCell ref="C167:C169"/>
-    <mergeCell ref="D167:D169"/>
-    <mergeCell ref="E167:E169"/>
-    <mergeCell ref="A158:A160"/>
-    <mergeCell ref="C158:C160"/>
-    <mergeCell ref="D158:D160"/>
-    <mergeCell ref="E158:E160"/>
-    <mergeCell ref="A161:A163"/>
-    <mergeCell ref="C161:C163"/>
-    <mergeCell ref="D161:D163"/>
-    <mergeCell ref="E161:E163"/>
-    <mergeCell ref="B158:B160"/>
-    <mergeCell ref="B161:B163"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="A152:A154"/>
-    <mergeCell ref="C152:C154"/>
-    <mergeCell ref="D152:D154"/>
-    <mergeCell ref="E152:E154"/>
-    <mergeCell ref="A155:A157"/>
-    <mergeCell ref="C155:C157"/>
-    <mergeCell ref="D155:D157"/>
-    <mergeCell ref="E155:E157"/>
-    <mergeCell ref="A146:A148"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="D146:D148"/>
-    <mergeCell ref="E146:E148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="D149:D151"/>
-    <mergeCell ref="E149:E151"/>
-    <mergeCell ref="B146:B148"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="A140:A142"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="D140:D142"/>
-    <mergeCell ref="E140:E142"/>
-    <mergeCell ref="A143:A145"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="D143:D145"/>
-    <mergeCell ref="E143:E145"/>
-    <mergeCell ref="A134:A136"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="D134:D136"/>
-    <mergeCell ref="E134:E136"/>
-    <mergeCell ref="A137:A139"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="D137:D139"/>
-    <mergeCell ref="E137:E139"/>
-    <mergeCell ref="B140:B142"/>
-    <mergeCell ref="B143:B145"/>
-    <mergeCell ref="B134:B136"/>
-    <mergeCell ref="B137:B139"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="D128:D130"/>
-    <mergeCell ref="E128:E130"/>
-    <mergeCell ref="A131:A133"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="E131:E133"/>
-    <mergeCell ref="A122:A124"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="D122:D124"/>
-    <mergeCell ref="E122:E124"/>
-    <mergeCell ref="A125:A127"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="E125:E127"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B125:B127"/>
-    <mergeCell ref="B128:B130"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="A116:A118"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="D116:D118"/>
-    <mergeCell ref="E116:E118"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="E119:E121"/>
-    <mergeCell ref="A110:A112"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E110:E112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="C113:C115"/>
-    <mergeCell ref="D113:D115"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="B113:B115"/>
-    <mergeCell ref="B116:B118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="C104:C106"/>
-    <mergeCell ref="D104:D106"/>
-    <mergeCell ref="E104:E106"/>
-    <mergeCell ref="A107:A109"/>
-    <mergeCell ref="C107:C109"/>
-    <mergeCell ref="D107:D109"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="C101:C103"/>
-    <mergeCell ref="D101:D103"/>
-    <mergeCell ref="E101:E103"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="A92:A94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="D92:D94"/>
-    <mergeCell ref="E92:E94"/>
-    <mergeCell ref="A95:A97"/>
-    <mergeCell ref="C95:C97"/>
-    <mergeCell ref="D95:D97"/>
-    <mergeCell ref="E95:E97"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="B95:B97"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="A74:A76"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="E74:E76"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="D68:D70"/>
-    <mergeCell ref="E68:E70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="A62:A64"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="D62:D64"/>
-    <mergeCell ref="E62:E64"/>
-    <mergeCell ref="A65:A67"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="D65:D67"/>
-    <mergeCell ref="E65:E67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="D59:D61"/>
-    <mergeCell ref="E59:E61"/>
-    <mergeCell ref="C50:C52"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="D53:D55"/>
-    <mergeCell ref="E53:E55"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:B52"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:D46"/>
-    <mergeCell ref="E44:E46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="D41:D43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="E38:E40"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="B38:B40"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="D20:D22"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="A29:A31"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="C2:C4"/>
@@ -4991,6 +4491,512 @@
     <mergeCell ref="E11:E13"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="C35:C37"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:D46"/>
+    <mergeCell ref="E44:E46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="D41:D43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B47:B49"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="D59:D61"/>
+    <mergeCell ref="E59:E61"/>
+    <mergeCell ref="C50:C52"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="E53:E55"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:B52"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="A68:A70"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="D68:D70"/>
+    <mergeCell ref="E68:E70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="C62:C64"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="E62:E64"/>
+    <mergeCell ref="A65:A67"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="E65:E67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="D74:D76"/>
+    <mergeCell ref="E74:E76"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="A92:A94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="D92:D94"/>
+    <mergeCell ref="E92:E94"/>
+    <mergeCell ref="A95:A97"/>
+    <mergeCell ref="C95:C97"/>
+    <mergeCell ref="D95:D97"/>
+    <mergeCell ref="E95:E97"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="B95:B97"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="C104:C106"/>
+    <mergeCell ref="D104:D106"/>
+    <mergeCell ref="E104:E106"/>
+    <mergeCell ref="A107:A109"/>
+    <mergeCell ref="C107:C109"/>
+    <mergeCell ref="D107:D109"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="C101:C103"/>
+    <mergeCell ref="D101:D103"/>
+    <mergeCell ref="E101:E103"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="A116:A118"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="D116:D118"/>
+    <mergeCell ref="E116:E118"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="E119:E121"/>
+    <mergeCell ref="A110:A112"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="E110:E112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="C113:C115"/>
+    <mergeCell ref="D113:D115"/>
+    <mergeCell ref="E113:E115"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="B113:B115"/>
+    <mergeCell ref="B116:B118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="D128:D130"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="A131:A133"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="E131:E133"/>
+    <mergeCell ref="A122:A124"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="D122:D124"/>
+    <mergeCell ref="E122:E124"/>
+    <mergeCell ref="A125:A127"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="E125:E127"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B125:B127"/>
+    <mergeCell ref="B128:B130"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="A140:A142"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="D140:D142"/>
+    <mergeCell ref="E140:E142"/>
+    <mergeCell ref="A143:A145"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="D143:D145"/>
+    <mergeCell ref="E143:E145"/>
+    <mergeCell ref="A134:A136"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="D134:D136"/>
+    <mergeCell ref="E134:E136"/>
+    <mergeCell ref="A137:A139"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="D137:D139"/>
+    <mergeCell ref="E137:E139"/>
+    <mergeCell ref="B140:B142"/>
+    <mergeCell ref="B143:B145"/>
+    <mergeCell ref="B134:B136"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="A152:A154"/>
+    <mergeCell ref="C152:C154"/>
+    <mergeCell ref="D152:D154"/>
+    <mergeCell ref="E152:E154"/>
+    <mergeCell ref="A155:A157"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="D155:D157"/>
+    <mergeCell ref="E155:E157"/>
+    <mergeCell ref="A146:A148"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="D146:D148"/>
+    <mergeCell ref="E146:E148"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="D149:D151"/>
+    <mergeCell ref="E149:E151"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="A164:A166"/>
+    <mergeCell ref="C164:C166"/>
+    <mergeCell ref="D164:D166"/>
+    <mergeCell ref="E164:E166"/>
+    <mergeCell ref="A167:A169"/>
+    <mergeCell ref="C167:C169"/>
+    <mergeCell ref="D167:D169"/>
+    <mergeCell ref="E167:E169"/>
+    <mergeCell ref="A158:A160"/>
+    <mergeCell ref="C158:C160"/>
+    <mergeCell ref="D158:D160"/>
+    <mergeCell ref="E158:E160"/>
+    <mergeCell ref="A161:A163"/>
+    <mergeCell ref="C161:C163"/>
+    <mergeCell ref="D161:D163"/>
+    <mergeCell ref="E161:E163"/>
+    <mergeCell ref="B158:B160"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="B167:B169"/>
+    <mergeCell ref="A176:A178"/>
+    <mergeCell ref="C176:C178"/>
+    <mergeCell ref="D176:D178"/>
+    <mergeCell ref="E176:E178"/>
+    <mergeCell ref="A179:A181"/>
+    <mergeCell ref="C179:C181"/>
+    <mergeCell ref="D179:D181"/>
+    <mergeCell ref="E179:E181"/>
+    <mergeCell ref="A170:A172"/>
+    <mergeCell ref="C170:C172"/>
+    <mergeCell ref="D170:D172"/>
+    <mergeCell ref="E170:E172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="C173:C175"/>
+    <mergeCell ref="D173:D175"/>
+    <mergeCell ref="E173:E175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="B170:B172"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="A188:A190"/>
+    <mergeCell ref="C188:C190"/>
+    <mergeCell ref="D188:D190"/>
+    <mergeCell ref="E188:E190"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="C191:C193"/>
+    <mergeCell ref="D191:D193"/>
+    <mergeCell ref="E191:E193"/>
+    <mergeCell ref="A182:A184"/>
+    <mergeCell ref="C182:C184"/>
+    <mergeCell ref="D182:D184"/>
+    <mergeCell ref="E182:E184"/>
+    <mergeCell ref="A185:A187"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="D185:D187"/>
+    <mergeCell ref="E185:E187"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="A200:A202"/>
+    <mergeCell ref="C200:C202"/>
+    <mergeCell ref="D200:D202"/>
+    <mergeCell ref="E200:E202"/>
+    <mergeCell ref="A203:A205"/>
+    <mergeCell ref="C203:C205"/>
+    <mergeCell ref="D203:D205"/>
+    <mergeCell ref="E203:E205"/>
+    <mergeCell ref="A194:A196"/>
+    <mergeCell ref="C194:C196"/>
+    <mergeCell ref="D194:D196"/>
+    <mergeCell ref="E194:E196"/>
+    <mergeCell ref="A197:A199"/>
+    <mergeCell ref="C197:C199"/>
+    <mergeCell ref="D197:D199"/>
+    <mergeCell ref="E197:E199"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="B203:B205"/>
+    <mergeCell ref="A212:A214"/>
+    <mergeCell ref="C212:C214"/>
+    <mergeCell ref="D212:D214"/>
+    <mergeCell ref="E212:E214"/>
+    <mergeCell ref="A215:A217"/>
+    <mergeCell ref="C215:C217"/>
+    <mergeCell ref="D215:D217"/>
+    <mergeCell ref="E215:E217"/>
+    <mergeCell ref="A206:A208"/>
+    <mergeCell ref="C206:C208"/>
+    <mergeCell ref="D206:D208"/>
+    <mergeCell ref="E206:E208"/>
+    <mergeCell ref="A209:A211"/>
+    <mergeCell ref="C209:C211"/>
+    <mergeCell ref="D209:D211"/>
+    <mergeCell ref="E209:E211"/>
+    <mergeCell ref="B212:B214"/>
+    <mergeCell ref="B215:B217"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="B209:B211"/>
+    <mergeCell ref="A218:A220"/>
+    <mergeCell ref="C218:C220"/>
+    <mergeCell ref="D218:D220"/>
+    <mergeCell ref="E218:E220"/>
+    <mergeCell ref="A221:A223"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="C221:C223"/>
+    <mergeCell ref="D221:D223"/>
+    <mergeCell ref="E221:E223"/>
+    <mergeCell ref="B218:B220"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="B224:B226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="D224:D226"/>
+    <mergeCell ref="E224:E226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="B227:B229"/>
+    <mergeCell ref="C227:C229"/>
+    <mergeCell ref="D227:D229"/>
+    <mergeCell ref="E227:E229"/>
+    <mergeCell ref="A230:A232"/>
+    <mergeCell ref="B230:B232"/>
+    <mergeCell ref="C230:C232"/>
+    <mergeCell ref="D230:D232"/>
+    <mergeCell ref="E230:E232"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="B233:B235"/>
+    <mergeCell ref="C233:C235"/>
+    <mergeCell ref="D233:D235"/>
+    <mergeCell ref="E233:E235"/>
+    <mergeCell ref="A236:A238"/>
+    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="C236:C238"/>
+    <mergeCell ref="D236:D238"/>
+    <mergeCell ref="E236:E238"/>
+    <mergeCell ref="A239:A241"/>
+    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="C239:C241"/>
+    <mergeCell ref="D239:D241"/>
+    <mergeCell ref="E239:E241"/>
+    <mergeCell ref="A242:A244"/>
+    <mergeCell ref="B242:B244"/>
+    <mergeCell ref="C242:C244"/>
+    <mergeCell ref="D242:D244"/>
+    <mergeCell ref="E242:E244"/>
+    <mergeCell ref="A245:A247"/>
+    <mergeCell ref="B245:B247"/>
+    <mergeCell ref="C245:C247"/>
+    <mergeCell ref="D245:D247"/>
+    <mergeCell ref="E245:E247"/>
+    <mergeCell ref="A248:A250"/>
+    <mergeCell ref="B248:B250"/>
+    <mergeCell ref="C248:C250"/>
+    <mergeCell ref="D248:D250"/>
+    <mergeCell ref="E248:E250"/>
+    <mergeCell ref="A251:A253"/>
+    <mergeCell ref="B251:B253"/>
+    <mergeCell ref="C251:C253"/>
+    <mergeCell ref="D251:D253"/>
+    <mergeCell ref="E251:E253"/>
+    <mergeCell ref="A254:A256"/>
+    <mergeCell ref="B254:B256"/>
+    <mergeCell ref="C254:C256"/>
+    <mergeCell ref="D254:D256"/>
+    <mergeCell ref="E254:E256"/>
+    <mergeCell ref="A257:A259"/>
+    <mergeCell ref="B257:B259"/>
+    <mergeCell ref="C257:C259"/>
+    <mergeCell ref="D257:D259"/>
+    <mergeCell ref="E257:E259"/>
+    <mergeCell ref="A260:A262"/>
+    <mergeCell ref="B260:B262"/>
+    <mergeCell ref="C260:C262"/>
+    <mergeCell ref="D260:D262"/>
+    <mergeCell ref="E260:E262"/>
+    <mergeCell ref="A263:A265"/>
+    <mergeCell ref="B263:B265"/>
+    <mergeCell ref="C263:C265"/>
+    <mergeCell ref="D263:D265"/>
+    <mergeCell ref="E263:E265"/>
+    <mergeCell ref="A266:A268"/>
+    <mergeCell ref="B266:B268"/>
+    <mergeCell ref="C266:C268"/>
+    <mergeCell ref="D266:D268"/>
+    <mergeCell ref="E266:E268"/>
+    <mergeCell ref="A269:A271"/>
+    <mergeCell ref="B269:B271"/>
+    <mergeCell ref="C269:C271"/>
+    <mergeCell ref="D269:D271"/>
+    <mergeCell ref="E269:E271"/>
+    <mergeCell ref="A272:A274"/>
+    <mergeCell ref="B272:B274"/>
+    <mergeCell ref="C272:C274"/>
+    <mergeCell ref="D272:D274"/>
+    <mergeCell ref="E272:E274"/>
+    <mergeCell ref="A275:A277"/>
+    <mergeCell ref="B275:B277"/>
+    <mergeCell ref="C275:C277"/>
+    <mergeCell ref="D275:D277"/>
+    <mergeCell ref="E275:E277"/>
+    <mergeCell ref="A278:A280"/>
+    <mergeCell ref="B278:B280"/>
+    <mergeCell ref="C278:C280"/>
+    <mergeCell ref="D278:D280"/>
+    <mergeCell ref="E278:E280"/>
+    <mergeCell ref="A281:A283"/>
+    <mergeCell ref="B281:B283"/>
+    <mergeCell ref="C281:C283"/>
+    <mergeCell ref="D281:D283"/>
+    <mergeCell ref="E281:E283"/>
+    <mergeCell ref="A284:A286"/>
+    <mergeCell ref="B284:B286"/>
+    <mergeCell ref="C284:C286"/>
+    <mergeCell ref="D284:D286"/>
+    <mergeCell ref="E284:E286"/>
+    <mergeCell ref="A287:A289"/>
+    <mergeCell ref="B287:B289"/>
+    <mergeCell ref="C287:C289"/>
+    <mergeCell ref="D287:D289"/>
+    <mergeCell ref="E287:E289"/>
+    <mergeCell ref="A290:A292"/>
+    <mergeCell ref="B290:B292"/>
+    <mergeCell ref="C290:C292"/>
+    <mergeCell ref="D290:D292"/>
+    <mergeCell ref="E290:E292"/>
+    <mergeCell ref="A293:A295"/>
+    <mergeCell ref="B293:B295"/>
+    <mergeCell ref="C293:C295"/>
+    <mergeCell ref="D293:D295"/>
+    <mergeCell ref="E293:E295"/>
+    <mergeCell ref="A296:A298"/>
+    <mergeCell ref="B296:B298"/>
+    <mergeCell ref="C296:C298"/>
+    <mergeCell ref="D296:D298"/>
+    <mergeCell ref="E296:E298"/>
+    <mergeCell ref="A299:A301"/>
+    <mergeCell ref="B299:B301"/>
+    <mergeCell ref="C299:C301"/>
+    <mergeCell ref="D299:D301"/>
+    <mergeCell ref="E299:E301"/>
+    <mergeCell ref="A302:A304"/>
+    <mergeCell ref="B302:B304"/>
+    <mergeCell ref="C302:C304"/>
+    <mergeCell ref="D302:D304"/>
+    <mergeCell ref="E302:E304"/>
+    <mergeCell ref="A305:A307"/>
+    <mergeCell ref="B305:B307"/>
+    <mergeCell ref="C305:C307"/>
+    <mergeCell ref="D305:D307"/>
+    <mergeCell ref="E305:E307"/>
+    <mergeCell ref="A308:A310"/>
+    <mergeCell ref="B308:B310"/>
+    <mergeCell ref="C308:C310"/>
+    <mergeCell ref="D308:D310"/>
+    <mergeCell ref="E308:E310"/>
+    <mergeCell ref="A311:A313"/>
+    <mergeCell ref="B311:B313"/>
+    <mergeCell ref="C311:C313"/>
+    <mergeCell ref="D311:D313"/>
+    <mergeCell ref="E311:E313"/>
+    <mergeCell ref="A314:A316"/>
+    <mergeCell ref="B314:B316"/>
+    <mergeCell ref="C314:C316"/>
+    <mergeCell ref="D314:D316"/>
+    <mergeCell ref="E314:E316"/>
+    <mergeCell ref="A317:A319"/>
+    <mergeCell ref="B317:B319"/>
+    <mergeCell ref="C317:C319"/>
+    <mergeCell ref="D317:D319"/>
+    <mergeCell ref="E317:E319"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
